--- a/test/inputs/test_data_company.xlsx
+++ b/test/inputs/test_data_company.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1865" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="113">
   <si>
     <t>company_name</t>
   </si>
@@ -2122,10 +2122,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P151"/>
+  <dimension ref="A1:P145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2133,6 +2133,8 @@
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -2593,96 +2595,96 @@
         <v>112</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s">
         <v>109</v>
       </c>
-      <c r="E10">
-        <v>0.232248059565103</v>
-      </c>
-      <c r="F10">
-        <v>0.230937548999887</v>
-      </c>
-      <c r="G10">
-        <v>0.21040158732074499</v>
+      <c r="E10" s="4">
+        <v>2.5057186553478599E-9</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2.5397615768446099E-9</v>
+      </c>
+      <c r="G10" s="4">
+        <v>2.5747422593009901E-9</v>
       </c>
       <c r="H10">
-        <v>0.20174380761451599</v>
+        <v>4.5344621617928902E-3</v>
       </c>
       <c r="I10">
-        <v>0.217732563961342</v>
+        <v>9.1973681633831308E-3</v>
       </c>
       <c r="J10">
-        <v>0.19566431791549799</v>
+        <v>1.48410193569695E-2</v>
       </c>
       <c r="K10">
-        <v>0.201489754369235</v>
+        <v>2.2458704327746E-2</v>
       </c>
       <c r="L10">
-        <v>0.11395526614816</v>
+        <v>1.8747832053296099E-2</v>
       </c>
       <c r="M10">
-        <v>0.11039236169124</v>
+        <v>2.30557786549704E-2</v>
       </c>
       <c r="N10">
-        <v>0.10815212499382899</v>
+        <v>2.4233133779026399E-2</v>
       </c>
       <c r="O10">
-        <v>0.10815212499382899</v>
+        <v>2.4233133779026399E-2</v>
       </c>
       <c r="P10">
-        <v>0.10815212499382899</v>
+        <v>2.4233133779026399E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="5" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D11" t="s">
         <v>109</v>
       </c>
-      <c r="E11" s="4">
-        <v>2.5057186553478599E-9</v>
-      </c>
-      <c r="F11" s="4">
-        <v>2.5397615768446099E-9</v>
-      </c>
-      <c r="G11" s="4">
-        <v>2.5747422593009901E-9</v>
+      <c r="E11">
+        <v>165226001.396088</v>
+      </c>
+      <c r="F11">
+        <v>162028001.396088</v>
+      </c>
+      <c r="G11">
+        <v>158192001.396088</v>
       </c>
       <c r="H11">
-        <v>4.5344621617928902E-3</v>
+        <v>169000001.396088</v>
       </c>
       <c r="I11">
-        <v>9.1973681633831308E-3</v>
+        <v>174000001.396088</v>
       </c>
       <c r="J11">
-        <v>1.48410193569695E-2</v>
+        <v>176000001.396088</v>
       </c>
       <c r="K11">
-        <v>2.2458704327746E-2</v>
+        <v>176000001.396088</v>
       </c>
       <c r="L11">
-        <v>1.8747832053296099E-2</v>
+        <v>179700001.396088</v>
       </c>
       <c r="M11">
-        <v>2.30557786549704E-2</v>
+        <v>174900001.396088</v>
       </c>
       <c r="N11">
-        <v>2.4233133779026399E-2</v>
+        <v>169800001.396088</v>
       </c>
       <c r="O11">
-        <v>2.4233133779026399E-2</v>
+        <v>141300001.396088</v>
       </c>
       <c r="P11">
-        <v>2.4233133779026399E-2</v>
+        <v>141300001.396088</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2693,46 +2695,46 @@
         <v>106</v>
       </c>
       <c r="C12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
       </c>
       <c r="E12">
-        <v>165226001.396088</v>
+        <v>19599001.396088399</v>
       </c>
       <c r="F12">
-        <v>162028001.396088</v>
+        <v>17902001.396088399</v>
       </c>
       <c r="G12">
-        <v>158192001.396088</v>
+        <v>17256001.396088399</v>
       </c>
       <c r="H12">
-        <v>169000001.396088</v>
+        <v>21000001.396088399</v>
       </c>
       <c r="I12">
-        <v>174000001.396088</v>
+        <v>17000001.396088399</v>
       </c>
       <c r="J12">
-        <v>176000001.396088</v>
+        <v>16000001.396088401</v>
       </c>
       <c r="K12">
-        <v>176000001.396088</v>
+        <v>14000001.396088401</v>
       </c>
       <c r="L12">
-        <v>179700001.396088</v>
+        <v>15100001.396088401</v>
       </c>
       <c r="M12">
-        <v>174900001.396088</v>
+        <v>13900001.396088401</v>
       </c>
       <c r="N12">
-        <v>169800001.396088</v>
+        <v>12100001.396088401</v>
       </c>
       <c r="O12">
-        <v>141300001.396088</v>
+        <v>9500001.3960884009</v>
       </c>
       <c r="P12">
-        <v>141300001.396088</v>
+        <v>9500001.3960884009</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2740,60 +2742,60 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C13" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D13" t="s">
         <v>109</v>
       </c>
-      <c r="E13">
-        <v>19599001.396088399</v>
-      </c>
-      <c r="F13">
-        <v>17902001.396088399</v>
-      </c>
-      <c r="G13">
-        <v>17256001.396088399</v>
-      </c>
-      <c r="H13">
-        <v>21000001.396088399</v>
+      <c r="E13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" t="s">
+        <v>109</v>
+      </c>
+      <c r="H13" t="s">
+        <v>109</v>
       </c>
       <c r="I13">
-        <v>17000001.396088399</v>
+        <v>91200001.396088406</v>
       </c>
       <c r="J13">
-        <v>16000001.396088401</v>
+        <v>92479001.396088406</v>
       </c>
       <c r="K13">
-        <v>14000001.396088401</v>
+        <v>90800001.396088406</v>
       </c>
       <c r="L13">
-        <v>15100001.396088401</v>
+        <v>93100001.396088406</v>
       </c>
       <c r="M13">
-        <v>13900001.396088401</v>
+        <v>92500001.396088406</v>
       </c>
       <c r="N13">
-        <v>12100001.396088401</v>
+        <v>89800001.396088406</v>
       </c>
       <c r="O13">
-        <v>9500001.3960884009</v>
+        <v>71500001.396088406</v>
       </c>
       <c r="P13">
-        <v>9500001.3960884009</v>
+        <v>71500001.396088406</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D14" t="s">
         <v>109</v>
@@ -2801,49 +2803,49 @@
       <c r="E14" t="s">
         <v>109</v>
       </c>
-      <c r="F14" t="s">
-        <v>109</v>
-      </c>
-      <c r="G14" t="s">
-        <v>109</v>
-      </c>
-      <c r="H14" t="s">
-        <v>109</v>
+      <c r="F14">
+        <v>13390004.4552317</v>
+      </c>
+      <c r="G14">
+        <v>9480004.4552317206</v>
+      </c>
+      <c r="H14">
+        <v>8095004.4552317197</v>
       </c>
       <c r="I14">
-        <v>91200001.396088406</v>
+        <v>7840004.4552317197</v>
       </c>
       <c r="J14">
-        <v>92479001.396088406</v>
+        <v>7810004.4552317197</v>
       </c>
       <c r="K14">
-        <v>90800001.396088406</v>
+        <v>8270004.4552317197</v>
       </c>
       <c r="L14">
-        <v>93100001.396088406</v>
+        <v>8670004.4552317206</v>
       </c>
       <c r="M14">
-        <v>92500001.396088406</v>
+        <v>8780004.4552317206</v>
       </c>
       <c r="N14">
-        <v>89800001.396088406</v>
+        <v>8590004.4552317206</v>
       </c>
       <c r="O14">
-        <v>71500001.396088406</v>
+        <v>8530004.4552317206</v>
       </c>
       <c r="P14">
-        <v>71500001.396088406</v>
+        <v>8530004.4552317206</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D15" t="s">
         <v>109</v>
@@ -2851,49 +2853,49 @@
       <c r="E15" t="s">
         <v>109</v>
       </c>
-      <c r="F15" t="s">
-        <v>109</v>
-      </c>
-      <c r="G15" t="s">
-        <v>109</v>
-      </c>
-      <c r="H15" t="s">
-        <v>109</v>
+      <c r="F15">
+        <v>2530004.4552317201</v>
+      </c>
+      <c r="G15">
+        <v>1970004.4552317201</v>
+      </c>
+      <c r="H15">
+        <v>1781004.4552317201</v>
       </c>
       <c r="I15">
-        <v>1.9078947229440599</v>
+        <v>1541004.4552317201</v>
       </c>
       <c r="J15">
-        <v>1.90313475209663</v>
+        <v>1570004.4552317201</v>
       </c>
       <c r="K15">
-        <v>1.93832597676227</v>
+        <v>1830004.4552317201</v>
       </c>
       <c r="L15">
-        <v>1.9301825854069099</v>
+        <v>2000004.4552317201</v>
       </c>
       <c r="M15">
-        <v>1.89081079736594</v>
+        <v>1970004.4552317201</v>
       </c>
       <c r="N15">
-        <v>1.89086858303195</v>
+        <v>1810004.4552317201</v>
       </c>
       <c r="O15">
-        <v>1.97622375716231</v>
+        <v>1750004.4552317201</v>
       </c>
       <c r="P15">
-        <v>1.97622375716231</v>
+        <v>1750004.4552317201</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D16" t="s">
         <v>109</v>
@@ -2910,29 +2912,29 @@
       <c r="H16" t="s">
         <v>109</v>
       </c>
-      <c r="I16">
-        <v>0.18640352122645401</v>
-      </c>
-      <c r="J16">
-        <v>0.17301226391448901</v>
-      </c>
-      <c r="K16">
-        <v>0.15418503503119499</v>
-      </c>
-      <c r="L16">
-        <v>0.16219120482980801</v>
-      </c>
-      <c r="M16">
-        <v>0.15027028309511101</v>
-      </c>
-      <c r="N16">
-        <v>0.134743888730223</v>
-      </c>
-      <c r="O16">
-        <v>0.13286714979851899</v>
-      </c>
-      <c r="P16">
-        <v>0.13286714979851899</v>
+      <c r="I16" t="s">
+        <v>109</v>
+      </c>
+      <c r="J16" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" t="s">
+        <v>109</v>
+      </c>
+      <c r="M16" t="s">
+        <v>109</v>
+      </c>
+      <c r="N16" t="s">
+        <v>109</v>
+      </c>
+      <c r="O16" t="s">
+        <v>109</v>
+      </c>
+      <c r="P16" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2940,7 +2942,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C17" t="s">
         <v>107</v>
@@ -2951,38 +2953,38 @@
       <c r="E17" t="s">
         <v>109</v>
       </c>
-      <c r="F17">
-        <v>13390004.4552317</v>
-      </c>
-      <c r="G17">
-        <v>9480004.4552317206</v>
-      </c>
-      <c r="H17">
-        <v>8095004.4552317197</v>
-      </c>
-      <c r="I17">
-        <v>7840004.4552317197</v>
-      </c>
-      <c r="J17">
-        <v>7810004.4552317197</v>
-      </c>
-      <c r="K17">
-        <v>8270004.4552317197</v>
-      </c>
-      <c r="L17">
-        <v>8670004.4552317206</v>
-      </c>
-      <c r="M17">
-        <v>8780004.4552317206</v>
-      </c>
-      <c r="N17">
-        <v>8590004.4552317206</v>
-      </c>
-      <c r="O17">
-        <v>8530004.4552317206</v>
-      </c>
-      <c r="P17">
-        <v>8530004.4552317206</v>
+      <c r="F17" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" t="s">
+        <v>109</v>
+      </c>
+      <c r="I17" t="s">
+        <v>109</v>
+      </c>
+      <c r="J17" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" t="s">
+        <v>109</v>
+      </c>
+      <c r="L17" t="s">
+        <v>109</v>
+      </c>
+      <c r="M17" t="s">
+        <v>109</v>
+      </c>
+      <c r="N17" t="s">
+        <v>109</v>
+      </c>
+      <c r="O17" t="s">
+        <v>109</v>
+      </c>
+      <c r="P17" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2990,7 +2992,7 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C18" t="s">
         <v>108</v>
@@ -3001,149 +3003,149 @@
       <c r="E18" t="s">
         <v>109</v>
       </c>
-      <c r="F18">
-        <v>2530004.4552317201</v>
-      </c>
-      <c r="G18">
-        <v>1970004.4552317201</v>
-      </c>
-      <c r="H18">
-        <v>1781004.4552317201</v>
-      </c>
-      <c r="I18">
-        <v>1541004.4552317201</v>
-      </c>
-      <c r="J18">
-        <v>1570004.4552317201</v>
-      </c>
-      <c r="K18">
-        <v>1830004.4552317201</v>
-      </c>
-      <c r="L18">
-        <v>2000004.4552317201</v>
-      </c>
-      <c r="M18">
-        <v>1970004.4552317201</v>
-      </c>
-      <c r="N18">
-        <v>1810004.4552317201</v>
-      </c>
-      <c r="O18">
-        <v>1750004.4552317201</v>
-      </c>
-      <c r="P18">
-        <v>1750004.4552317201</v>
+      <c r="F18" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" t="s">
+        <v>109</v>
+      </c>
+      <c r="H18" t="s">
+        <v>109</v>
+      </c>
+      <c r="I18" t="s">
+        <v>109</v>
+      </c>
+      <c r="J18" t="s">
+        <v>109</v>
+      </c>
+      <c r="K18" t="s">
+        <v>109</v>
+      </c>
+      <c r="L18" t="s">
+        <v>109</v>
+      </c>
+      <c r="M18" t="s">
+        <v>109</v>
+      </c>
+      <c r="N18" t="s">
+        <v>109</v>
+      </c>
+      <c r="O18" t="s">
+        <v>109</v>
+      </c>
+      <c r="P18" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s">
-        <v>111</v>
-      </c>
-      <c r="D19" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" t="s">
-        <v>109</v>
-      </c>
-      <c r="F19" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" t="s">
-        <v>109</v>
-      </c>
-      <c r="I19" t="s">
-        <v>109</v>
-      </c>
-      <c r="J19" t="s">
-        <v>109</v>
-      </c>
-      <c r="K19" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" t="s">
-        <v>109</v>
-      </c>
-      <c r="M19" t="s">
-        <v>109</v>
-      </c>
-      <c r="N19" t="s">
-        <v>109</v>
-      </c>
-      <c r="O19" t="s">
-        <v>109</v>
-      </c>
-      <c r="P19" t="s">
-        <v>109</v>
+        <v>107</v>
+      </c>
+      <c r="D19">
+        <v>21759305.8145184</v>
+      </c>
+      <c r="E19">
+        <v>20966413.8145184</v>
+      </c>
+      <c r="F19">
+        <v>21128989.8145184</v>
+      </c>
+      <c r="G19">
+        <v>20070402.8145184</v>
+      </c>
+      <c r="H19">
+        <v>19691129.8145184</v>
+      </c>
+      <c r="I19">
+        <v>19443564.8145184</v>
+      </c>
+      <c r="J19">
+        <v>20018158.8145184</v>
+      </c>
+      <c r="K19">
+        <v>21042990.8145184</v>
+      </c>
+      <c r="L19">
+        <v>20006804.8145184</v>
+      </c>
+      <c r="M19">
+        <v>20805771.8145184</v>
+      </c>
+      <c r="N19">
+        <v>20351815.8145184</v>
+      </c>
+      <c r="O19">
+        <v>20351815.8145184</v>
+      </c>
+      <c r="P19">
+        <v>20351815.8145184</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D20" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" t="s">
-        <v>109</v>
-      </c>
-      <c r="F20" t="s">
-        <v>109</v>
-      </c>
-      <c r="G20" t="s">
-        <v>109</v>
-      </c>
-      <c r="H20" t="s">
-        <v>109</v>
-      </c>
-      <c r="I20" t="s">
-        <v>109</v>
-      </c>
-      <c r="J20" t="s">
-        <v>109</v>
-      </c>
-      <c r="K20" t="s">
-        <v>109</v>
-      </c>
-      <c r="L20" t="s">
-        <v>109</v>
-      </c>
-      <c r="M20" t="s">
-        <v>109</v>
-      </c>
-      <c r="N20" t="s">
-        <v>109</v>
-      </c>
-      <c r="O20" t="s">
-        <v>109</v>
-      </c>
-      <c r="P20" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="D20">
+        <v>1337565.8145184</v>
+      </c>
+      <c r="E20">
+        <v>1349200.8145184</v>
+      </c>
+      <c r="F20">
+        <v>1371359.8145184</v>
+      </c>
+      <c r="G20">
+        <v>1243282.8145184</v>
+      </c>
+      <c r="H20">
+        <v>1257964.8145184</v>
+      </c>
+      <c r="I20">
+        <v>1185845.8145184</v>
+      </c>
+      <c r="J20">
+        <v>1109279.8145184</v>
+      </c>
+      <c r="K20">
+        <v>1275990.8145184</v>
+      </c>
+      <c r="L20">
+        <v>1298687.8145184</v>
+      </c>
+      <c r="M20">
+        <v>1294689.8145184</v>
+      </c>
+      <c r="N20">
+        <v>1181783.8145184</v>
+      </c>
+      <c r="O20">
+        <v>1181783.8145184</v>
+      </c>
+      <c r="P20">
+        <v>1181783.8145184</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D21" t="s">
         <v>109</v>
@@ -3190,49 +3192,49 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C22" t="s">
         <v>107</v>
       </c>
-      <c r="D22">
-        <v>21759305.8145184</v>
-      </c>
-      <c r="E22">
-        <v>20966413.8145184</v>
-      </c>
-      <c r="F22">
-        <v>21128989.8145184</v>
-      </c>
-      <c r="G22">
-        <v>20070402.8145184</v>
-      </c>
-      <c r="H22">
-        <v>19691129.8145184</v>
-      </c>
-      <c r="I22">
-        <v>19443564.8145184</v>
-      </c>
-      <c r="J22">
-        <v>20018158.8145184</v>
-      </c>
-      <c r="K22">
-        <v>21042990.8145184</v>
-      </c>
-      <c r="L22">
-        <v>20006804.8145184</v>
-      </c>
-      <c r="M22">
-        <v>20805771.8145184</v>
-      </c>
-      <c r="N22">
-        <v>20351815.8145184</v>
-      </c>
-      <c r="O22">
-        <v>20351815.8145184</v>
-      </c>
-      <c r="P22">
-        <v>20351815.8145184</v>
+      <c r="D22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" t="s">
+        <v>109</v>
+      </c>
+      <c r="H22" t="s">
+        <v>109</v>
+      </c>
+      <c r="I22" t="s">
+        <v>109</v>
+      </c>
+      <c r="J22" t="s">
+        <v>109</v>
+      </c>
+      <c r="K22" t="s">
+        <v>109</v>
+      </c>
+      <c r="L22" t="s">
+        <v>109</v>
+      </c>
+      <c r="M22" t="s">
+        <v>109</v>
+      </c>
+      <c r="N22" t="s">
+        <v>109</v>
+      </c>
+      <c r="O22" t="s">
+        <v>109</v>
+      </c>
+      <c r="P22" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -3240,1260 +3242,1260 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C23" t="s">
         <v>108</v>
       </c>
-      <c r="D23">
-        <v>1337565.8145184</v>
-      </c>
-      <c r="E23">
-        <v>1349200.8145184</v>
-      </c>
-      <c r="F23">
-        <v>1371359.8145184</v>
-      </c>
-      <c r="G23">
-        <v>1243282.8145184</v>
-      </c>
-      <c r="H23">
-        <v>1257964.8145184</v>
-      </c>
-      <c r="I23">
-        <v>1185845.8145184</v>
-      </c>
-      <c r="J23">
-        <v>1109279.8145184</v>
-      </c>
-      <c r="K23">
-        <v>1275990.8145184</v>
-      </c>
-      <c r="L23">
-        <v>1298687.8145184</v>
-      </c>
-      <c r="M23">
-        <v>1294689.8145184</v>
-      </c>
-      <c r="N23">
-        <v>1181783.8145184</v>
-      </c>
-      <c r="O23">
-        <v>1181783.8145184</v>
-      </c>
-      <c r="P23">
-        <v>1181783.8145184</v>
+      <c r="D23" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23" t="s">
+        <v>109</v>
+      </c>
+      <c r="I23" t="s">
+        <v>109</v>
+      </c>
+      <c r="J23" t="s">
+        <v>109</v>
+      </c>
+      <c r="K23" t="s">
+        <v>109</v>
+      </c>
+      <c r="L23" t="s">
+        <v>109</v>
+      </c>
+      <c r="M23" t="s">
+        <v>109</v>
+      </c>
+      <c r="N23" t="s">
+        <v>109</v>
+      </c>
+      <c r="O23" t="s">
+        <v>109</v>
+      </c>
+      <c r="P23" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="5" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D24" t="s">
         <v>109</v>
       </c>
-      <c r="E24" t="s">
-        <v>109</v>
-      </c>
-      <c r="F24" t="s">
-        <v>109</v>
-      </c>
-      <c r="G24" t="s">
-        <v>109</v>
-      </c>
-      <c r="H24" t="s">
-        <v>109</v>
-      </c>
-      <c r="I24" t="s">
-        <v>109</v>
-      </c>
-      <c r="J24" t="s">
-        <v>109</v>
-      </c>
-      <c r="K24" t="s">
-        <v>109</v>
-      </c>
-      <c r="L24" t="s">
-        <v>109</v>
-      </c>
-      <c r="M24" t="s">
-        <v>109</v>
-      </c>
-      <c r="N24" t="s">
-        <v>109</v>
-      </c>
-      <c r="O24" t="s">
-        <v>109</v>
-      </c>
-      <c r="P24" t="s">
-        <v>109</v>
+      <c r="E24">
+        <v>0.12793367848422299</v>
+      </c>
+      <c r="F24">
+        <v>0.132436088893673</v>
+      </c>
+      <c r="G24">
+        <v>0.137094733933082</v>
+      </c>
+      <c r="H24">
+        <v>0.11864269754755399</v>
+      </c>
+      <c r="I24">
+        <v>0.112513219282039</v>
+      </c>
+      <c r="J24">
+        <v>0.490556790260468</v>
+      </c>
+      <c r="K24">
+        <v>3.5114580506202399E-2</v>
+      </c>
+      <c r="L24">
+        <v>3.1728039563122798E-2</v>
+      </c>
+      <c r="M24">
+        <v>3.4533738759185299E-2</v>
+      </c>
+      <c r="N24">
+        <v>4.0090817120731898E-2</v>
+      </c>
+      <c r="O24">
+        <v>3.1695179636323602E-2</v>
+      </c>
+      <c r="P24">
+        <v>3.1695179636323602E-2</v>
       </c>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="5" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
         <v>112</v>
       </c>
       <c r="C25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D25" t="s">
         <v>109</v>
       </c>
-      <c r="E25" t="s">
-        <v>109</v>
-      </c>
-      <c r="F25" t="s">
-        <v>109</v>
-      </c>
-      <c r="G25" t="s">
-        <v>109</v>
-      </c>
-      <c r="H25" t="s">
-        <v>109</v>
-      </c>
-      <c r="I25" t="s">
-        <v>109</v>
-      </c>
-      <c r="J25" t="s">
-        <v>109</v>
-      </c>
-      <c r="K25" t="s">
-        <v>109</v>
-      </c>
-      <c r="L25" t="s">
-        <v>109</v>
-      </c>
-      <c r="M25" t="s">
-        <v>109</v>
-      </c>
-      <c r="N25" t="s">
-        <v>109</v>
-      </c>
-      <c r="O25" t="s">
-        <v>109</v>
-      </c>
-      <c r="P25" t="s">
-        <v>109</v>
+      <c r="E25">
+        <v>5.4863850035248903E-3</v>
+      </c>
+      <c r="F25">
+        <v>5.4285507278862303E-3</v>
+      </c>
+      <c r="G25">
+        <v>4.6437042476553904E-3</v>
+      </c>
+      <c r="H25">
+        <v>3.5430865845352301E-3</v>
+      </c>
+      <c r="I25">
+        <v>4.4821434390295203E-3</v>
+      </c>
+      <c r="J25">
+        <v>2.26882671125835E-2</v>
+      </c>
+      <c r="K25">
+        <v>2.19711406846913E-2</v>
+      </c>
+      <c r="L25">
+        <v>2.36034249333558E-2</v>
+      </c>
+      <c r="M25">
+        <v>2.1790947363282499E-2</v>
+      </c>
+      <c r="N25">
+        <v>2.2290830571704098E-2</v>
+      </c>
+      <c r="O25">
+        <v>3.9975093970069597E-2</v>
+      </c>
+      <c r="P25">
+        <v>3.9975093970069597E-2</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="5" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C26" t="s">
-        <v>108</v>
-      </c>
-      <c r="D26" t="s">
-        <v>109</v>
-      </c>
-      <c r="E26" t="s">
-        <v>109</v>
-      </c>
-      <c r="F26" t="s">
-        <v>109</v>
-      </c>
-      <c r="G26" t="s">
-        <v>109</v>
-      </c>
-      <c r="H26" t="s">
-        <v>109</v>
-      </c>
-      <c r="I26" t="s">
-        <v>109</v>
-      </c>
-      <c r="J26" t="s">
-        <v>109</v>
-      </c>
-      <c r="K26" t="s">
-        <v>109</v>
-      </c>
-      <c r="L26" t="s">
-        <v>109</v>
-      </c>
-      <c r="M26" t="s">
-        <v>109</v>
-      </c>
-      <c r="N26" t="s">
-        <v>109</v>
-      </c>
-      <c r="O26" t="s">
-        <v>109</v>
-      </c>
-      <c r="P26" t="s">
-        <v>109</v>
+        <v>107</v>
+      </c>
+      <c r="D26">
+        <v>78192009.401725203</v>
+      </c>
+      <c r="E26">
+        <v>80575879.401725203</v>
+      </c>
+      <c r="F26">
+        <v>70935799.401725203</v>
+      </c>
+      <c r="G26">
+        <v>80283565.401725203</v>
+      </c>
+      <c r="H26">
+        <v>73222380.0683918</v>
+      </c>
+      <c r="I26">
+        <v>66161194.735058501</v>
+      </c>
+      <c r="J26">
+        <v>59100009.401725203</v>
+      </c>
+      <c r="K26">
+        <v>47700009.401725203</v>
+      </c>
+      <c r="L26">
+        <v>51300009.401725203</v>
+      </c>
+      <c r="M26">
+        <v>35700009.401725203</v>
+      </c>
+      <c r="N26">
+        <v>33100009.401725199</v>
+      </c>
+      <c r="O26">
+        <v>33100009.401725199</v>
+      </c>
+      <c r="P26">
+        <v>33100009.401725199</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
         <v>106</v>
       </c>
       <c r="C27" t="s">
-        <v>107</v>
-      </c>
-      <c r="D27" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="D27">
+        <v>480089.40172515198</v>
       </c>
       <c r="E27">
-        <v>126884622.66109601</v>
+        <v>670709.40172515204</v>
       </c>
       <c r="F27">
-        <v>129300002.66109601</v>
+        <v>81181.401725151605</v>
       </c>
       <c r="G27">
-        <v>129900002.66109601</v>
+        <v>74013.401725151605</v>
       </c>
       <c r="H27">
-        <v>117200002.66109601</v>
+        <v>159212.601725152</v>
       </c>
       <c r="I27">
-        <v>97900002.661095798</v>
+        <v>244411.80172515201</v>
       </c>
       <c r="J27">
-        <v>80000002.661095798</v>
+        <v>329611.00172515202</v>
       </c>
       <c r="K27">
-        <v>5370002.6610957803</v>
+        <v>414810.20172515197</v>
       </c>
       <c r="L27">
-        <v>4530002.6610957803</v>
+        <v>500009.40172515198</v>
       </c>
       <c r="M27">
-        <v>4580002.6610957803</v>
+        <v>470009.40172515198</v>
       </c>
       <c r="N27">
-        <v>4910002.6610957803</v>
+        <v>290009.40172515198</v>
       </c>
       <c r="O27">
-        <v>3560002.6610957799</v>
+        <v>290009.40172515198</v>
       </c>
       <c r="P27">
-        <v>3560002.6610957799</v>
+        <v>290009.40172515198</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C28" t="s">
-        <v>108</v>
-      </c>
-      <c r="D28" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="D28">
+        <v>2226600009.40172</v>
       </c>
       <c r="E28">
-        <v>5441396.6610957803</v>
+        <v>2269440009.40172</v>
       </c>
       <c r="F28">
-        <v>5300002.6610957803</v>
+        <v>2261520009.40172</v>
       </c>
       <c r="G28">
-        <v>4400002.6610957803</v>
+        <v>2313360009.40172</v>
       </c>
       <c r="H28">
-        <v>3500002.6610957799</v>
+        <v>2354040009.40172</v>
       </c>
       <c r="I28">
-        <v>3900002.6610957799</v>
+        <v>2244600009.40172</v>
       </c>
       <c r="J28">
-        <v>3700002.6610957799</v>
+        <v>2229480009.40172</v>
       </c>
       <c r="K28">
-        <v>3360002.6610957799</v>
+        <v>101160009.40172499</v>
       </c>
       <c r="L28">
-        <v>3370002.6610957799</v>
+        <v>105840009.40172499</v>
       </c>
       <c r="M28">
-        <v>2890002.6610957799</v>
+        <v>106560009.40172499</v>
       </c>
       <c r="N28">
-        <v>2730002.6610957799</v>
+        <v>100080009.40172499</v>
       </c>
       <c r="O28">
-        <v>4490002.6610957803</v>
+        <v>100080009.40172499</v>
       </c>
       <c r="P28">
-        <v>4490002.6610957803</v>
+        <v>100080009.40172499</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C29" t="s">
-        <v>111</v>
-      </c>
-      <c r="D29" t="s">
-        <v>109</v>
+        <v>107</v>
+      </c>
+      <c r="D29">
+        <v>3.5117223152592601E-2</v>
       </c>
       <c r="E29">
-        <v>991800002.66109598</v>
+        <v>3.5504740847045697E-2</v>
       </c>
       <c r="F29">
-        <v>976320002.66109598</v>
+        <v>3.1366425725541498E-2</v>
       </c>
       <c r="G29">
-        <v>947520002.66109598</v>
+        <v>3.4704311078018503E-2</v>
       </c>
       <c r="H29">
-        <v>987840002.66109598</v>
+        <v>3.1104985376608399E-2</v>
       </c>
       <c r="I29">
-        <v>870120002.66109598</v>
+        <v>2.9475717035523399E-2</v>
       </c>
       <c r="J29">
-        <v>163080002.66109601</v>
+        <v>2.6508427594102799E-2</v>
       </c>
       <c r="K29">
-        <v>152928002.66109601</v>
+        <v>0.47153029822584902</v>
       </c>
       <c r="L29">
-        <v>142776002.66109601</v>
+        <v>0.48469392332545402</v>
       </c>
       <c r="M29">
-        <v>132624002.66109601</v>
+        <v>0.33502258119308298</v>
       </c>
       <c r="N29">
-        <v>122472002.66109601</v>
+        <v>0.33073547454277702</v>
       </c>
       <c r="O29">
-        <v>112320002.66109601</v>
+        <v>0.33073547454277702</v>
       </c>
       <c r="P29">
-        <v>112320002.66109601</v>
+        <v>0.33073547454277702</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
         <v>112</v>
       </c>
       <c r="C30" t="s">
-        <v>107</v>
-      </c>
-      <c r="D30" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="D30">
+        <v>2.15615467393333E-4</v>
       </c>
       <c r="E30">
-        <v>0.12793367848422299</v>
-      </c>
-      <c r="F30">
-        <v>0.132436088893673</v>
-      </c>
-      <c r="G30">
-        <v>0.137094733933082</v>
-      </c>
-      <c r="H30">
-        <v>0.11864269754755399</v>
+        <v>2.9553960401974502E-4</v>
+      </c>
+      <c r="F30" s="4">
+        <v>3.5896831063912501E-5</v>
+      </c>
+      <c r="G30" s="4">
+        <v>3.19938969396695E-5</v>
+      </c>
+      <c r="H30" s="4">
+        <v>6.7633770492123101E-5</v>
       </c>
       <c r="I30">
-        <v>0.112513219282039</v>
+        <v>1.0888880009864101E-4</v>
       </c>
       <c r="J30">
-        <v>0.490556790260468</v>
+        <v>1.47842097859223E-4</v>
       </c>
       <c r="K30">
-        <v>3.5114580506202399E-2</v>
+        <v>4.1005354208485997E-3</v>
       </c>
       <c r="L30">
-        <v>3.1728039563122798E-2</v>
+        <v>4.7242002769228896E-3</v>
       </c>
       <c r="M30">
-        <v>3.4533738759185299E-2</v>
+        <v>4.4107485009056502E-3</v>
       </c>
       <c r="N30">
-        <v>4.0090817120731898E-2</v>
+        <v>2.89777552439111E-3</v>
       </c>
       <c r="O30">
-        <v>3.1695179636323602E-2</v>
+        <v>2.89777552439111E-3</v>
       </c>
       <c r="P30">
-        <v>3.1695179636323602E-2</v>
+        <v>2.89777552439111E-3</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D31" t="s">
         <v>109</v>
       </c>
       <c r="E31">
-        <v>5.4863850035248903E-3</v>
+        <v>116400006.472471</v>
       </c>
       <c r="F31">
-        <v>5.4285507278862303E-3</v>
+        <v>123540195.472471</v>
       </c>
       <c r="G31">
-        <v>4.6437042476553904E-3</v>
+        <v>127800006.472471</v>
       </c>
       <c r="H31">
-        <v>3.5430865845352301E-3</v>
+        <v>115550006.472471</v>
       </c>
       <c r="I31">
-        <v>4.4821434390295203E-3</v>
+        <v>115480006.472471</v>
       </c>
       <c r="J31">
-        <v>2.26882671125835E-2</v>
+        <v>119510006.472471</v>
       </c>
       <c r="K31">
-        <v>2.19711406846913E-2</v>
+        <v>106730006.472471</v>
       </c>
       <c r="L31">
-        <v>2.36034249333558E-2</v>
+        <v>105960006.472471</v>
       </c>
       <c r="M31">
-        <v>2.1790947363282499E-2</v>
+        <v>95230006.472471297</v>
       </c>
       <c r="N31">
-        <v>2.2290830571704098E-2</v>
+        <v>69980006.472471297</v>
       </c>
       <c r="O31">
-        <v>3.9975093970069597E-2</v>
+        <v>45260006.4724712</v>
       </c>
       <c r="P31">
-        <v>3.9975093970069597E-2</v>
+        <v>45260006.4724712</v>
       </c>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B32" t="s">
         <v>106</v>
       </c>
       <c r="C32" t="s">
-        <v>107</v>
-      </c>
-      <c r="D32">
-        <v>78192009.401725203</v>
+        <v>108</v>
+      </c>
+      <c r="D32" t="s">
+        <v>109</v>
       </c>
       <c r="E32">
-        <v>80575879.401725203</v>
+        <v>245006.472471246</v>
       </c>
       <c r="F32">
-        <v>70935799.401725203</v>
+        <v>331647.47247124597</v>
       </c>
       <c r="G32">
-        <v>80283565.401725203</v>
+        <v>370006.47247124597</v>
       </c>
       <c r="H32">
-        <v>73222380.0683918</v>
+        <v>786006.47247124603</v>
       </c>
       <c r="I32">
-        <v>66161194.735058501</v>
+        <v>636006.47247124603</v>
       </c>
       <c r="J32">
-        <v>59100009.401725203</v>
+        <v>654006.47247124603</v>
       </c>
       <c r="K32">
-        <v>47700009.401725203</v>
+        <v>1400006.47247125</v>
       </c>
       <c r="L32">
-        <v>51300009.401725203</v>
+        <v>5000006.4724712502</v>
       </c>
       <c r="M32">
-        <v>35700009.401725203</v>
+        <v>5080006.4724712502</v>
       </c>
       <c r="N32">
-        <v>33100009.401725199</v>
+        <v>5370006.4724712502</v>
       </c>
       <c r="O32">
-        <v>33100009.401725199</v>
+        <v>5000006.4724712502</v>
       </c>
       <c r="P32">
-        <v>33100009.401725199</v>
+        <v>5000006.4724712502</v>
       </c>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
-      </c>
-      <c r="D33">
-        <v>480089.40172515198</v>
+        <v>111</v>
+      </c>
+      <c r="D33" t="s">
+        <v>109</v>
       </c>
       <c r="E33">
-        <v>670709.40172515204</v>
+        <v>1044720006.47247</v>
       </c>
       <c r="F33">
-        <v>81181.401725151605</v>
+        <v>1058040006.47247</v>
       </c>
       <c r="G33">
-        <v>74013.401725151605</v>
+        <v>1064880006.47247</v>
       </c>
       <c r="H33">
-        <v>159212.601725152</v>
+        <v>1030125606.47247</v>
       </c>
       <c r="I33">
-        <v>244411.80172515201</v>
+        <v>1019163606.47247</v>
       </c>
       <c r="J33">
-        <v>329611.00172515202</v>
+        <v>1022443206.47247</v>
       </c>
       <c r="K33">
-        <v>414810.20172515197</v>
+        <v>942523206.472471</v>
       </c>
       <c r="L33">
-        <v>500009.40172515198</v>
+        <v>899553606.472471</v>
       </c>
       <c r="M33">
-        <v>470009.40172515198</v>
+        <v>901220406.472471</v>
       </c>
       <c r="N33">
-        <v>290009.40172515198</v>
+        <v>824864406.472471</v>
       </c>
       <c r="O33">
-        <v>290009.40172515198</v>
+        <v>745588806.472471</v>
       </c>
       <c r="P33">
-        <v>290009.40172515198</v>
+        <v>745588806.472471</v>
       </c>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C34" t="s">
-        <v>111</v>
-      </c>
-      <c r="D34">
-        <v>2226600009.40172</v>
+        <v>107</v>
+      </c>
+      <c r="D34" t="s">
+        <v>109</v>
       </c>
       <c r="E34">
-        <v>2269440009.40172</v>
+        <v>0.111417418783335</v>
       </c>
       <c r="F34">
-        <v>2261520009.40172</v>
+        <v>0.116763255374773</v>
       </c>
       <c r="G34">
-        <v>2313360009.40172</v>
+        <v>0.120013527999105</v>
       </c>
       <c r="H34">
-        <v>2354040009.40172</v>
+        <v>0.11217079329593301</v>
       </c>
       <c r="I34">
-        <v>2244600009.40172</v>
+        <v>0.113308604957128</v>
       </c>
       <c r="J34">
-        <v>2229480009.40172</v>
+        <v>0.11688669425932501</v>
       </c>
       <c r="K34">
-        <v>101160009.40172499</v>
+        <v>0.113238597988397</v>
       </c>
       <c r="L34">
-        <v>105840009.40172499</v>
+        <v>0.11779176439299199</v>
       </c>
       <c r="M34">
-        <v>106560009.40172499</v>
+        <v>0.10566783196268</v>
       </c>
       <c r="N34">
-        <v>100080009.40172499</v>
+        <v>8.4838193918125804E-2</v>
       </c>
       <c r="O34">
-        <v>100080009.40172499</v>
+        <v>6.0703709711798497E-2</v>
       </c>
       <c r="P34">
-        <v>100080009.40172499</v>
+        <v>6.0703709711798497E-2</v>
       </c>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B35" t="s">
         <v>112</v>
       </c>
       <c r="C35" t="s">
-        <v>107</v>
-      </c>
-      <c r="D35">
-        <v>3.5117223152592601E-2</v>
+        <v>108</v>
+      </c>
+      <c r="D35" t="s">
+        <v>109</v>
       </c>
       <c r="E35">
-        <v>3.5504740847045697E-2</v>
+        <v>2.3451879063608399E-4</v>
       </c>
       <c r="F35">
-        <v>3.1366425725541498E-2</v>
+        <v>3.1345456735323802E-4</v>
       </c>
       <c r="G35">
-        <v>3.4704311078018503E-2</v>
+        <v>3.4746306646974399E-4</v>
       </c>
       <c r="H35">
-        <v>3.1104985376608399E-2</v>
+        <v>7.63020031278342E-4</v>
       </c>
       <c r="I35">
-        <v>2.9475717035523399E-2</v>
+        <v>6.2404747229210004E-4</v>
       </c>
       <c r="J35">
-        <v>2.6508427594102799E-2</v>
+        <v>6.3965066062459601E-4</v>
       </c>
       <c r="K35">
-        <v>0.47153029822584902</v>
+        <v>1.48538143449112E-3</v>
       </c>
       <c r="L35">
-        <v>0.48469392332545402</v>
+        <v>5.5583196337552097E-3</v>
       </c>
       <c r="M35">
-        <v>0.33502258119308298</v>
+        <v>5.6368080837796899E-3</v>
       </c>
       <c r="N35">
-        <v>0.33073547454277702</v>
+        <v>6.5101687384427898E-3</v>
       </c>
       <c r="O35">
-        <v>0.33073547454277702</v>
+        <v>6.7061179420427096E-3</v>
       </c>
       <c r="P35">
-        <v>0.33073547454277702</v>
+        <v>6.7061179420427096E-3</v>
       </c>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C36" t="s">
-        <v>108</v>
-      </c>
-      <c r="D36">
-        <v>2.15615467393333E-4</v>
+        <v>107</v>
+      </c>
+      <c r="D36" t="s">
+        <v>109</v>
       </c>
       <c r="E36">
-        <v>2.9553960401974502E-4</v>
-      </c>
-      <c r="F36" s="4">
-        <v>3.5896831063912501E-5</v>
-      </c>
-      <c r="G36" s="4">
-        <v>3.19938969396695E-5</v>
-      </c>
-      <c r="H36" s="4">
-        <v>6.7633770492123101E-5</v>
+        <v>109324454.376334</v>
+      </c>
+      <c r="F36">
+        <v>156899254.37633401</v>
+      </c>
+      <c r="G36">
+        <v>154230874.37633401</v>
+      </c>
+      <c r="H36">
+        <v>141984778.37633401</v>
       </c>
       <c r="I36">
-        <v>1.0888880009864101E-4</v>
+        <v>131154736.376334</v>
       </c>
       <c r="J36">
-        <v>1.47842097859223E-4</v>
+        <v>133757296.376334</v>
       </c>
       <c r="K36">
-        <v>4.1005354208485997E-3</v>
+        <v>120150105.376334</v>
       </c>
       <c r="L36">
-        <v>4.7242002769228896E-3</v>
+        <v>89756230.376334101</v>
       </c>
       <c r="M36">
-        <v>4.4107485009056502E-3</v>
+        <v>57205670.376334101</v>
       </c>
       <c r="N36">
-        <v>2.89777552439111E-3</v>
+        <v>46188978.376334101</v>
       </c>
       <c r="O36">
-        <v>2.89777552439111E-3</v>
+        <v>38589016.376334101</v>
       </c>
       <c r="P36">
-        <v>2.89777552439111E-3</v>
+        <v>38589016.376334101</v>
       </c>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s">
         <v>106</v>
       </c>
       <c r="C37" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D37" t="s">
         <v>109</v>
       </c>
       <c r="E37">
-        <v>116400006.472471</v>
+        <v>3250751.3763341298</v>
       </c>
       <c r="F37">
-        <v>123540195.472471</v>
+        <v>3357343.3763341298</v>
       </c>
       <c r="G37">
-        <v>127800006.472471</v>
+        <v>3712790.3763341298</v>
       </c>
       <c r="H37">
-        <v>115550006.472471</v>
+        <v>3748376.1263341298</v>
       </c>
       <c r="I37">
-        <v>115480006.472471</v>
+        <v>3783961.8763341298</v>
       </c>
       <c r="J37">
-        <v>119510006.472471</v>
+        <v>3819547.6263341298</v>
       </c>
       <c r="K37">
-        <v>106730006.472471</v>
+        <v>3855133.3763341298</v>
       </c>
       <c r="L37">
-        <v>105960006.472471</v>
+        <v>3576861.3763341298</v>
       </c>
       <c r="M37">
-        <v>95230006.472471297</v>
+        <v>2912586.3763341298</v>
       </c>
       <c r="N37">
-        <v>69980006.472471297</v>
+        <v>2534464.3763341298</v>
       </c>
       <c r="O37">
-        <v>45260006.4724712</v>
+        <v>2330625.3763341298</v>
       </c>
       <c r="P37">
-        <v>45260006.4724712</v>
+        <v>2330625.3763341298</v>
       </c>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C38" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D38" t="s">
         <v>109</v>
       </c>
       <c r="E38">
-        <v>245006.472471246</v>
+        <v>1206000000.3763299</v>
       </c>
       <c r="F38">
-        <v>331647.47247124597</v>
+        <v>1674000000.3763299</v>
       </c>
       <c r="G38">
-        <v>370006.47247124597</v>
+        <v>1677600000.3763299</v>
       </c>
       <c r="H38">
-        <v>786006.47247124603</v>
+        <v>1724400000.3763299</v>
       </c>
       <c r="I38">
-        <v>636006.47247124603</v>
+        <v>1692000000.3763299</v>
       </c>
       <c r="J38">
-        <v>654006.47247124603</v>
+        <v>1767600000.3763299</v>
       </c>
       <c r="K38">
-        <v>1400006.47247125</v>
+        <v>989973000.37633395</v>
       </c>
       <c r="L38">
-        <v>5000006.4724712502</v>
+        <v>212346000.37633401</v>
       </c>
       <c r="M38">
-        <v>5080006.4724712502</v>
+        <v>205448400.37633401</v>
       </c>
       <c r="N38">
-        <v>5370006.4724712502</v>
+        <v>221601600.37633401</v>
       </c>
       <c r="O38">
-        <v>5000006.4724712502</v>
+        <v>199591200.37633401</v>
       </c>
       <c r="P38">
-        <v>5000006.4724712502</v>
+        <v>199591200.37633401</v>
       </c>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C39" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D39" t="s">
         <v>109</v>
       </c>
       <c r="E39">
-        <v>1044720006.47247</v>
+        <v>9.0650459653581497E-2</v>
       </c>
       <c r="F39">
-        <v>1058040006.47247</v>
+        <v>9.3727153130861093E-2</v>
       </c>
       <c r="G39">
-        <v>1064880006.47247</v>
+        <v>9.1935428196075197E-2</v>
       </c>
       <c r="H39">
-        <v>1030125606.47247</v>
+        <v>8.2338655964594804E-2</v>
       </c>
       <c r="I39">
-        <v>1019163606.47247</v>
+        <v>7.7514619590521694E-2</v>
       </c>
       <c r="J39">
-        <v>1022443206.47247</v>
+        <v>7.5671699676316095E-2</v>
       </c>
       <c r="K39">
-        <v>942523206.472471</v>
+        <v>0.12136705276877199</v>
       </c>
       <c r="L39">
-        <v>899553606.472471</v>
+        <v>0.42268858474970999</v>
       </c>
       <c r="M39">
-        <v>901220406.472471</v>
+        <v>0.27844300696207203</v>
       </c>
       <c r="N39">
-        <v>824864406.472471</v>
+        <v>0.20843251266188501</v>
       </c>
       <c r="O39">
-        <v>745588806.472471</v>
+        <v>0.193340269027761</v>
       </c>
       <c r="P39">
-        <v>745588806.472471</v>
+        <v>0.193340269027761</v>
       </c>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
         <v>112</v>
       </c>
       <c r="C40" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D40" t="s">
         <v>109</v>
       </c>
       <c r="E40">
-        <v>0.111417418783335</v>
+        <v>2.69548206908767E-3</v>
       </c>
       <c r="F40">
-        <v>0.116763255374773</v>
+        <v>2.0055814668932899E-3</v>
       </c>
       <c r="G40">
-        <v>0.120013527999105</v>
+        <v>2.2131559224494802E-3</v>
       </c>
       <c r="H40">
-        <v>0.11217079329593301</v>
+        <v>2.17372774618191E-3</v>
       </c>
       <c r="I40">
-        <v>0.113308604957128</v>
+        <v>2.2363840871705101E-3</v>
       </c>
       <c r="J40">
-        <v>0.11688669425932501</v>
+        <v>2.1608665000684099E-3</v>
       </c>
       <c r="K40">
-        <v>0.113238597988397</v>
+        <v>3.8941803209467502E-3</v>
       </c>
       <c r="L40">
-        <v>0.11779176439299199</v>
+        <v>1.6844496105389201E-2</v>
       </c>
       <c r="M40">
-        <v>0.10566783196268</v>
+        <v>1.41767293928741E-2</v>
       </c>
       <c r="N40">
-        <v>8.4838193918125804E-2</v>
+        <v>1.14370310143518E-2</v>
       </c>
       <c r="O40">
-        <v>6.0703709711798497E-2</v>
+        <v>1.16769946367359E-2</v>
       </c>
       <c r="P40">
-        <v>6.0703709711798497E-2</v>
+        <v>1.16769946367359E-2</v>
       </c>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="5" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D41" t="s">
         <v>109</v>
       </c>
-      <c r="E41">
-        <v>2.3451879063608399E-4</v>
-      </c>
-      <c r="F41">
-        <v>3.1345456735323802E-4</v>
-      </c>
-      <c r="G41">
-        <v>3.4746306646974399E-4</v>
-      </c>
-      <c r="H41">
-        <v>7.63020031278342E-4</v>
-      </c>
-      <c r="I41">
-        <v>6.2404747229210004E-4</v>
-      </c>
-      <c r="J41">
-        <v>6.3965066062459601E-4</v>
-      </c>
-      <c r="K41">
-        <v>1.48538143449112E-3</v>
-      </c>
-      <c r="L41">
-        <v>5.5583196337552097E-3</v>
-      </c>
-      <c r="M41">
-        <v>5.6368080837796899E-3</v>
+      <c r="E41" t="s">
+        <v>109</v>
+      </c>
+      <c r="F41" t="s">
+        <v>109</v>
+      </c>
+      <c r="G41" t="s">
+        <v>109</v>
+      </c>
+      <c r="H41" t="s">
+        <v>109</v>
+      </c>
+      <c r="I41" t="s">
+        <v>109</v>
+      </c>
+      <c r="J41" t="s">
+        <v>109</v>
+      </c>
+      <c r="K41" t="s">
+        <v>109</v>
+      </c>
+      <c r="L41" t="s">
+        <v>109</v>
+      </c>
+      <c r="M41" t="s">
+        <v>109</v>
       </c>
       <c r="N41">
-        <v>6.5101687384427898E-3</v>
+        <v>9056.9950820715403</v>
       </c>
       <c r="O41">
-        <v>6.7061179420427096E-3</v>
+        <v>9056.9950820715403</v>
       </c>
       <c r="P41">
-        <v>6.7061179420427096E-3</v>
+        <v>9056.9950820715403</v>
       </c>
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="5" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B42" t="s">
         <v>106</v>
       </c>
       <c r="C42" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D42" t="s">
         <v>109</v>
       </c>
-      <c r="E42">
-        <v>109324454.376334</v>
-      </c>
-      <c r="F42">
-        <v>156899254.37633401</v>
-      </c>
-      <c r="G42">
-        <v>154230874.37633401</v>
-      </c>
-      <c r="H42">
-        <v>141984778.37633401</v>
-      </c>
-      <c r="I42">
-        <v>131154736.376334</v>
-      </c>
-      <c r="J42">
-        <v>133757296.376334</v>
-      </c>
-      <c r="K42">
-        <v>120150105.376334</v>
-      </c>
-      <c r="L42">
-        <v>89756230.376334101</v>
-      </c>
-      <c r="M42">
-        <v>57205670.376334101</v>
+      <c r="E42" t="s">
+        <v>109</v>
+      </c>
+      <c r="F42" t="s">
+        <v>109</v>
+      </c>
+      <c r="G42" t="s">
+        <v>109</v>
+      </c>
+      <c r="H42" t="s">
+        <v>109</v>
+      </c>
+      <c r="I42" t="s">
+        <v>109</v>
+      </c>
+      <c r="J42" t="s">
+        <v>109</v>
+      </c>
+      <c r="K42" t="s">
+        <v>109</v>
+      </c>
+      <c r="L42" t="s">
+        <v>109</v>
+      </c>
+      <c r="M42" t="s">
+        <v>109</v>
       </c>
       <c r="N42">
-        <v>46188978.376334101</v>
+        <v>2890986.4760820698</v>
       </c>
       <c r="O42">
-        <v>38589016.376334101</v>
+        <v>2890986.4760820698</v>
       </c>
       <c r="P42">
-        <v>38589016.376334101</v>
+        <v>2890986.4760820698</v>
       </c>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="5" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C43" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D43" t="s">
         <v>109</v>
       </c>
-      <c r="E43">
-        <v>3250751.3763341298</v>
-      </c>
-      <c r="F43">
-        <v>3357343.3763341298</v>
-      </c>
-      <c r="G43">
-        <v>3712790.3763341298</v>
-      </c>
-      <c r="H43">
-        <v>3748376.1263341298</v>
-      </c>
-      <c r="I43">
-        <v>3783961.8763341298</v>
-      </c>
-      <c r="J43">
-        <v>3819547.6263341298</v>
-      </c>
-      <c r="K43">
-        <v>3855133.3763341298</v>
+      <c r="E43" t="s">
+        <v>109</v>
+      </c>
+      <c r="F43" t="s">
+        <v>109</v>
+      </c>
+      <c r="G43" t="s">
+        <v>109</v>
+      </c>
+      <c r="H43" t="s">
+        <v>109</v>
+      </c>
+      <c r="I43" t="s">
+        <v>109</v>
+      </c>
+      <c r="J43" t="s">
+        <v>109</v>
+      </c>
+      <c r="K43" t="s">
+        <v>109</v>
       </c>
       <c r="L43">
-        <v>3576861.3763341298</v>
+        <v>16120000.4760821</v>
       </c>
       <c r="M43">
-        <v>2912586.3763341298</v>
+        <v>15342000.4760821</v>
       </c>
       <c r="N43">
-        <v>2534464.3763341298</v>
+        <v>12453000.4760821</v>
       </c>
       <c r="O43">
-        <v>2330625.3763341298</v>
+        <v>12194000.4760821</v>
       </c>
       <c r="P43">
-        <v>2330625.3763341298</v>
+        <v>12194000.4760821</v>
       </c>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="5" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B44" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C44" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D44" t="s">
         <v>109</v>
       </c>
-      <c r="E44">
-        <v>1206000000.3763299</v>
-      </c>
-      <c r="F44">
-        <v>1674000000.3763299</v>
-      </c>
-      <c r="G44">
-        <v>1677600000.3763299</v>
-      </c>
-      <c r="H44">
-        <v>1724400000.3763299</v>
-      </c>
-      <c r="I44">
-        <v>1692000000.3763299</v>
-      </c>
-      <c r="J44">
-        <v>1767600000.3763299</v>
-      </c>
-      <c r="K44">
-        <v>989973000.37633395</v>
-      </c>
-      <c r="L44">
-        <v>212346000.37633401</v>
-      </c>
-      <c r="M44">
-        <v>205448400.37633401</v>
+      <c r="E44" t="s">
+        <v>109</v>
+      </c>
+      <c r="F44" t="s">
+        <v>109</v>
+      </c>
+      <c r="G44" t="s">
+        <v>109</v>
+      </c>
+      <c r="H44" t="s">
+        <v>109</v>
+      </c>
+      <c r="I44" t="s">
+        <v>109</v>
+      </c>
+      <c r="J44" t="s">
+        <v>109</v>
+      </c>
+      <c r="K44" t="s">
+        <v>109</v>
+      </c>
+      <c r="L44" t="s">
+        <v>109</v>
+      </c>
+      <c r="M44" t="s">
+        <v>109</v>
       </c>
       <c r="N44">
-        <v>221601600.37633401</v>
+        <v>7.2729420507667295E-4</v>
       </c>
       <c r="O44">
-        <v>199591200.37633401</v>
+        <v>7.4274189998896497E-4</v>
       </c>
       <c r="P44">
-        <v>199591200.37633401</v>
+        <v>7.4274189998896497E-4</v>
       </c>
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="5" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B45" t="s">
         <v>112</v>
       </c>
       <c r="C45" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D45" t="s">
         <v>109</v>
       </c>
-      <c r="E45">
-        <v>9.0650459653581497E-2</v>
-      </c>
-      <c r="F45">
-        <v>9.3727153130861093E-2</v>
-      </c>
-      <c r="G45">
-        <v>9.1935428196075197E-2</v>
-      </c>
-      <c r="H45">
-        <v>8.2338655964594804E-2</v>
-      </c>
-      <c r="I45">
-        <v>7.7514619590521694E-2</v>
-      </c>
-      <c r="J45">
-        <v>7.5671699676316095E-2</v>
-      </c>
-      <c r="K45">
-        <v>0.12136705276877199</v>
-      </c>
-      <c r="L45">
-        <v>0.42268858474970999</v>
-      </c>
-      <c r="M45">
-        <v>0.27844300696207203</v>
+      <c r="E45" t="s">
+        <v>109</v>
+      </c>
+      <c r="F45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G45" t="s">
+        <v>109</v>
+      </c>
+      <c r="H45" t="s">
+        <v>109</v>
+      </c>
+      <c r="I45" t="s">
+        <v>109</v>
+      </c>
+      <c r="J45" t="s">
+        <v>109</v>
+      </c>
+      <c r="K45" t="s">
+        <v>109</v>
+      </c>
+      <c r="L45" t="s">
+        <v>109</v>
+      </c>
+      <c r="M45" t="s">
+        <v>109</v>
       </c>
       <c r="N45">
-        <v>0.20843251266188501</v>
+        <v>0.23215180001274899</v>
       </c>
       <c r="O45">
-        <v>0.193340269027761</v>
+        <v>0.23708269339111501</v>
       </c>
       <c r="P45">
-        <v>0.193340269027761</v>
+        <v>0.23708269339111501</v>
       </c>
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="5" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D46" t="s">
         <v>109</v>
       </c>
       <c r="E46">
-        <v>2.69548206908767E-3</v>
+        <v>766009.67702601303</v>
       </c>
       <c r="F46">
-        <v>2.0055814668932899E-3</v>
+        <v>10247400.677026</v>
       </c>
       <c r="G46">
-        <v>2.2131559224494802E-3</v>
+        <v>10197994.677026</v>
       </c>
       <c r="H46">
-        <v>2.17372774618191E-3</v>
+        <v>11080009.677026</v>
       </c>
       <c r="I46">
-        <v>2.2363840871705101E-3</v>
+        <v>13317009.677026</v>
       </c>
       <c r="J46">
-        <v>2.1608665000684099E-3</v>
+        <v>14157009.677026</v>
       </c>
       <c r="K46">
-        <v>3.8941803209467502E-3</v>
+        <v>15622009.677026</v>
       </c>
       <c r="L46">
-        <v>1.6844496105389201E-2</v>
+        <v>15710009.677026</v>
       </c>
       <c r="M46">
-        <v>1.41767293928741E-2</v>
+        <v>16492009.677026</v>
       </c>
       <c r="N46">
-        <v>1.14370310143518E-2</v>
+        <v>16442009.677026</v>
       </c>
       <c r="O46">
-        <v>1.16769946367359E-2</v>
+        <v>16442009.677026</v>
       </c>
       <c r="P46">
-        <v>1.16769946367359E-2</v>
+        <v>16442009.677026</v>
       </c>
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B47" t="s">
         <v>106</v>
       </c>
       <c r="C47" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D47" t="s">
         <v>109</v>
       </c>
-      <c r="E47" t="s">
-        <v>109</v>
-      </c>
-      <c r="F47" t="s">
-        <v>109</v>
-      </c>
-      <c r="G47" t="s">
-        <v>109</v>
-      </c>
-      <c r="H47" t="s">
-        <v>109</v>
-      </c>
-      <c r="I47" t="s">
-        <v>109</v>
-      </c>
-      <c r="J47" t="s">
-        <v>109</v>
-      </c>
-      <c r="K47" t="s">
-        <v>109</v>
-      </c>
-      <c r="L47" t="s">
-        <v>109</v>
-      </c>
-      <c r="M47" t="s">
-        <v>109</v>
+      <c r="E47">
+        <v>3518009.6770260101</v>
+      </c>
+      <c r="F47">
+        <v>4342232.6770260101</v>
+      </c>
+      <c r="G47">
+        <v>4164848.6770260101</v>
+      </c>
+      <c r="H47">
+        <v>4818009.6770260101</v>
+      </c>
+      <c r="I47">
+        <v>5480009.6770260101</v>
+      </c>
+      <c r="J47">
+        <v>5416009.6770260101</v>
+      </c>
+      <c r="K47">
+        <v>5653009.6770260101</v>
+      </c>
+      <c r="L47">
+        <v>5769009.6770260101</v>
+      </c>
+      <c r="M47">
+        <v>5806009.6770260101</v>
       </c>
       <c r="N47">
-        <v>9056.9950820715403</v>
+        <v>5803009.6770260101</v>
       </c>
       <c r="O47">
-        <v>9056.9950820715403</v>
+        <v>5803009.6770260101</v>
       </c>
       <c r="P47">
-        <v>9056.9950820715403</v>
+        <v>5803009.6770260101</v>
       </c>
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B48" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C48" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D48" t="s">
         <v>109</v>
@@ -4510,40 +4512,40 @@
       <c r="H48" t="s">
         <v>109</v>
       </c>
-      <c r="I48" t="s">
-        <v>109</v>
-      </c>
-      <c r="J48" t="s">
-        <v>109</v>
-      </c>
-      <c r="K48" t="s">
-        <v>109</v>
-      </c>
-      <c r="L48" t="s">
-        <v>109</v>
-      </c>
-      <c r="M48" t="s">
-        <v>109</v>
+      <c r="I48">
+        <v>19374009.677026</v>
+      </c>
+      <c r="J48">
+        <v>21182009.677026</v>
+      </c>
+      <c r="K48">
+        <v>22380009.677026</v>
+      </c>
+      <c r="L48">
+        <v>23290009.677026</v>
+      </c>
+      <c r="M48">
+        <v>23763009.677026</v>
       </c>
       <c r="N48">
-        <v>2890986.4760820698</v>
+        <v>23303009.677026</v>
       </c>
       <c r="O48">
-        <v>2890986.4760820698</v>
+        <v>23303009.677026</v>
       </c>
       <c r="P48">
-        <v>2890986.4760820698</v>
+        <v>23303009.677026</v>
       </c>
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B49" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C49" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D49" t="s">
         <v>109</v>
@@ -4560,40 +4562,40 @@
       <c r="H49" t="s">
         <v>109</v>
       </c>
-      <c r="I49" t="s">
-        <v>109</v>
-      </c>
-      <c r="J49" t="s">
-        <v>109</v>
-      </c>
-      <c r="K49" t="s">
-        <v>109</v>
+      <c r="I49">
+        <v>0.68736466529267404</v>
+      </c>
+      <c r="J49">
+        <v>0.66835063777639003</v>
+      </c>
+      <c r="K49">
+        <v>0.69803408946076695</v>
       </c>
       <c r="L49">
-        <v>16120000.4760821</v>
+        <v>0.67453856373974996</v>
       </c>
       <c r="M49">
-        <v>15342000.4760821</v>
+        <v>0.69402023990969597</v>
       </c>
       <c r="N49">
-        <v>12453000.4760821</v>
+        <v>0.70557451182951103</v>
       </c>
       <c r="O49">
-        <v>12194000.4760821</v>
+        <v>0.70557451182951103</v>
       </c>
       <c r="P49">
-        <v>12194000.4760821</v>
+        <v>0.70557451182951103</v>
       </c>
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B50" t="s">
         <v>112</v>
       </c>
       <c r="C50" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D50" t="s">
         <v>109</v>
@@ -4610,290 +4612,290 @@
       <c r="H50" t="s">
         <v>109</v>
       </c>
-      <c r="I50" t="s">
-        <v>109</v>
-      </c>
-      <c r="J50" t="s">
-        <v>109</v>
-      </c>
-      <c r="K50" t="s">
-        <v>109</v>
-      </c>
-      <c r="L50" t="s">
-        <v>109</v>
-      </c>
-      <c r="M50" t="s">
-        <v>109</v>
+      <c r="I50">
+        <v>0.28285366676183099</v>
+      </c>
+      <c r="J50">
+        <v>0.25568913241033098</v>
+      </c>
+      <c r="K50">
+        <v>0.25259192281891901</v>
+      </c>
+      <c r="L50">
+        <v>0.24770318935147301</v>
+      </c>
+      <c r="M50">
+        <v>0.24432972741829301</v>
       </c>
       <c r="N50">
-        <v>7.2729420507667295E-4</v>
+        <v>0.249024042707543</v>
       </c>
       <c r="O50">
-        <v>7.4274189998896497E-4</v>
+        <v>0.249024042707543</v>
       </c>
       <c r="P50">
-        <v>7.4274189998896497E-4</v>
+        <v>0.249024042707543</v>
       </c>
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="5" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D51" t="s">
         <v>109</v>
       </c>
-      <c r="E51" t="s">
-        <v>109</v>
-      </c>
-      <c r="F51" t="s">
-        <v>109</v>
-      </c>
-      <c r="G51" t="s">
-        <v>109</v>
-      </c>
-      <c r="H51" t="s">
-        <v>109</v>
-      </c>
-      <c r="I51" t="s">
-        <v>109</v>
-      </c>
-      <c r="J51" t="s">
-        <v>109</v>
-      </c>
-      <c r="K51" t="s">
-        <v>109</v>
-      </c>
-      <c r="L51" t="s">
-        <v>109</v>
-      </c>
-      <c r="M51" t="s">
-        <v>109</v>
+      <c r="E51">
+        <v>39499002.585938297</v>
+      </c>
+      <c r="F51">
+        <v>36193002.585938297</v>
+      </c>
+      <c r="G51">
+        <v>35461094.585938297</v>
+      </c>
+      <c r="H51">
+        <v>31838172.585938301</v>
+      </c>
+      <c r="I51">
+        <v>30202558.585938301</v>
+      </c>
+      <c r="J51">
+        <v>31817606.585938301</v>
+      </c>
+      <c r="K51">
+        <v>26625135.585938301</v>
+      </c>
+      <c r="L51">
+        <v>15129771.585938299</v>
+      </c>
+      <c r="M51">
+        <v>13457443.585938299</v>
       </c>
       <c r="N51">
-        <v>0.23215180001274899</v>
+        <v>12966980.585938299</v>
       </c>
       <c r="O51">
-        <v>0.23708269339111501</v>
+        <v>13136322.585938299</v>
       </c>
       <c r="P51">
-        <v>0.23708269339111501</v>
+        <v>13136322.585938299</v>
       </c>
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="5" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B52" t="s">
         <v>106</v>
       </c>
       <c r="C52" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D52" t="s">
         <v>109</v>
       </c>
       <c r="E52">
-        <v>766009.67702601303</v>
+        <v>6236002.5859382898</v>
       </c>
       <c r="F52">
-        <v>10247400.677026</v>
+        <v>5189002.5859382898</v>
       </c>
       <c r="G52">
-        <v>10197994.677026</v>
+        <v>7189303.5859382898</v>
       </c>
       <c r="H52">
-        <v>11080009.677026</v>
+        <v>4181124.5859382902</v>
       </c>
       <c r="I52">
-        <v>13317009.677026</v>
+        <v>1547095.58593829</v>
       </c>
       <c r="J52">
-        <v>14157009.677026</v>
+        <v>970947.58593829197</v>
       </c>
       <c r="K52">
-        <v>15622009.677026</v>
+        <v>4503672.5859382898</v>
       </c>
       <c r="L52">
-        <v>15710009.677026</v>
+        <v>5010565.5859382898</v>
       </c>
       <c r="M52">
-        <v>16492009.677026</v>
+        <v>2543866.5859382902</v>
       </c>
       <c r="N52">
-        <v>16442009.677026</v>
+        <v>2081746.58593829</v>
       </c>
       <c r="O52">
-        <v>16442009.677026</v>
+        <v>2001731.58593829</v>
       </c>
       <c r="P52">
-        <v>16442009.677026</v>
+        <v>2001731.58593829</v>
       </c>
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="5" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C53" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D53" t="s">
         <v>109</v>
       </c>
       <c r="E53">
-        <v>3518009.6770260101</v>
+        <v>552913202.58593798</v>
       </c>
       <c r="F53">
-        <v>4342232.6770260101</v>
+        <v>522525602.58593798</v>
       </c>
       <c r="G53">
-        <v>4164848.6770260101</v>
+        <v>485128802.58593798</v>
       </c>
       <c r="H53">
-        <v>4818009.6770260101</v>
+        <v>491166002.58593798</v>
       </c>
       <c r="I53">
-        <v>5480009.6770260101</v>
+        <v>500011202.58593798</v>
       </c>
       <c r="J53">
-        <v>5416009.6770260101</v>
+        <v>483746402.58593798</v>
       </c>
       <c r="K53">
-        <v>5653009.6770260101</v>
+        <v>512877602.58593798</v>
       </c>
       <c r="L53">
-        <v>5769009.6770260101</v>
+        <v>495176402.58593798</v>
       </c>
       <c r="M53">
-        <v>5806009.6770260101</v>
+        <v>414482402.58593798</v>
       </c>
       <c r="N53">
-        <v>5803009.6770260101</v>
+        <v>411300002.58593798</v>
       </c>
       <c r="O53">
-        <v>5803009.6770260101</v>
+        <v>444466802.58593798</v>
       </c>
       <c r="P53">
-        <v>5803009.6770260101</v>
+        <v>444466802.58593798</v>
       </c>
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="5" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C54" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D54" t="s">
         <v>109</v>
       </c>
-      <c r="E54" t="s">
-        <v>109</v>
-      </c>
-      <c r="F54" t="s">
-        <v>109</v>
-      </c>
-      <c r="G54" t="s">
-        <v>109</v>
-      </c>
-      <c r="H54" t="s">
-        <v>109</v>
+      <c r="E54">
+        <v>7.1437980502552803E-2</v>
+      </c>
+      <c r="F54">
+        <v>6.9265510449290801E-2</v>
+      </c>
+      <c r="G54">
+        <v>7.3096246598667994E-2</v>
+      </c>
+      <c r="H54">
+        <v>6.4821613096821801E-2</v>
       </c>
       <c r="I54">
-        <v>19374009.677026</v>
+        <v>6.0403763815166302E-2</v>
       </c>
       <c r="J54">
-        <v>21182009.677026</v>
+        <v>6.5773319276076395E-2</v>
       </c>
       <c r="K54">
-        <v>22380009.677026</v>
+        <v>5.1913235149466198E-2</v>
       </c>
       <c r="L54">
-        <v>23290009.677026</v>
+        <v>3.05543065197104E-2</v>
       </c>
       <c r="M54">
-        <v>23763009.677026</v>
+        <v>3.2468069819075199E-2</v>
       </c>
       <c r="N54">
-        <v>23303009.677026</v>
+        <v>3.1526818634602202E-2</v>
       </c>
       <c r="O54">
-        <v>23303009.677026</v>
+        <v>2.95552390178755E-2</v>
       </c>
       <c r="P54">
-        <v>23303009.677026</v>
+        <v>2.95552390178755E-2</v>
       </c>
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="5" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B55" t="s">
         <v>112</v>
       </c>
       <c r="C55" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D55" t="s">
         <v>109</v>
       </c>
-      <c r="E55" t="s">
-        <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>109</v>
-      </c>
-      <c r="G55" t="s">
-        <v>109</v>
-      </c>
-      <c r="H55" t="s">
-        <v>109</v>
+      <c r="E55">
+        <v>1.1278447605832E-2</v>
+      </c>
+      <c r="F55">
+        <v>9.9306188256772995E-3</v>
+      </c>
+      <c r="G55">
+        <v>1.48193707477608E-2</v>
+      </c>
+      <c r="H55">
+        <v>8.5126506393461698E-3</v>
       </c>
       <c r="I55">
-        <v>0.68736466529267404</v>
+        <v>3.09412184754478E-3</v>
       </c>
       <c r="J55">
-        <v>0.66835063777639003</v>
+        <v>2.0071417187765101E-3</v>
       </c>
       <c r="K55">
-        <v>0.69803408946076695</v>
+        <v>8.7811839768995401E-3</v>
       </c>
       <c r="L55">
-        <v>0.67453856373974996</v>
+        <v>1.0118748712119201E-2</v>
       </c>
       <c r="M55">
-        <v>0.69402023990969597</v>
+        <v>6.13745377383265E-3</v>
       </c>
       <c r="N55">
-        <v>0.70557451182951103</v>
+        <v>5.0613823798927003E-3</v>
       </c>
       <c r="O55">
-        <v>0.70557451182951103</v>
+        <v>4.5036695075809496E-3</v>
       </c>
       <c r="P55">
-        <v>0.70557451182951103</v>
+        <v>4.5036695075809496E-3</v>
       </c>
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B56" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D56" t="s">
         <v>109</v>
@@ -4910,340 +4912,340 @@
       <c r="H56" t="s">
         <v>109</v>
       </c>
-      <c r="I56">
-        <v>0.28285366676183099</v>
-      </c>
-      <c r="J56">
-        <v>0.25568913241033098</v>
+      <c r="I56" t="s">
+        <v>109</v>
+      </c>
+      <c r="J56" t="s">
+        <v>109</v>
       </c>
       <c r="K56">
-        <v>0.25259192281891901</v>
+        <v>54700000.2335485</v>
       </c>
       <c r="L56">
-        <v>0.24770318935147301</v>
+        <v>55000000.2335485</v>
       </c>
       <c r="M56">
-        <v>0.24432972741829301</v>
+        <v>54900000.2335485</v>
       </c>
       <c r="N56">
-        <v>0.249024042707543</v>
+        <v>52300000.2335485</v>
       </c>
       <c r="O56">
-        <v>0.249024042707543</v>
+        <v>52900000.2335485</v>
       </c>
       <c r="P56">
-        <v>0.249024042707543</v>
+        <v>52900000.2335485</v>
       </c>
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="5" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B57" t="s">
         <v>106</v>
       </c>
       <c r="C57" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D57" t="s">
         <v>109</v>
       </c>
-      <c r="E57">
-        <v>39499002.585938297</v>
-      </c>
-      <c r="F57">
-        <v>36193002.585938297</v>
-      </c>
-      <c r="G57">
-        <v>35461094.585938297</v>
-      </c>
-      <c r="H57">
-        <v>31838172.585938301</v>
-      </c>
-      <c r="I57">
-        <v>30202558.585938301</v>
-      </c>
-      <c r="J57">
-        <v>31817606.585938301</v>
+      <c r="E57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G57" t="s">
+        <v>109</v>
+      </c>
+      <c r="H57" t="s">
+        <v>109</v>
+      </c>
+      <c r="I57" t="s">
+        <v>109</v>
+      </c>
+      <c r="J57" t="s">
+        <v>109</v>
       </c>
       <c r="K57">
-        <v>26625135.585938301</v>
+        <v>6600000.2335484596</v>
       </c>
       <c r="L57">
-        <v>15129771.585938299</v>
+        <v>6400000.2335484596</v>
       </c>
       <c r="M57">
-        <v>13457443.585938299</v>
+        <v>7400000.2335484596</v>
       </c>
       <c r="N57">
-        <v>12966980.585938299</v>
+        <v>7500000.2335484596</v>
       </c>
       <c r="O57">
-        <v>13136322.585938299</v>
+        <v>7600000.2335484596</v>
       </c>
       <c r="P57">
-        <v>13136322.585938299</v>
+        <v>7600000.2335484596</v>
       </c>
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="5" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B58" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C58" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D58" t="s">
         <v>109</v>
       </c>
-      <c r="E58">
-        <v>6236002.5859382898</v>
-      </c>
-      <c r="F58">
-        <v>5189002.5859382898</v>
-      </c>
-      <c r="G58">
-        <v>7189303.5859382898</v>
-      </c>
-      <c r="H58">
-        <v>4181124.5859382902</v>
+      <c r="E58" t="s">
+        <v>109</v>
+      </c>
+      <c r="F58" t="s">
+        <v>109</v>
+      </c>
+      <c r="G58" t="s">
+        <v>109</v>
+      </c>
+      <c r="H58" t="s">
+        <v>109</v>
       </c>
       <c r="I58">
-        <v>1547095.58593829</v>
+        <v>31580000.2335485</v>
       </c>
       <c r="J58">
-        <v>970947.58593829197</v>
+        <v>31040000.2335485</v>
       </c>
       <c r="K58">
-        <v>4503672.5859382898</v>
+        <v>29751000.2335485</v>
       </c>
       <c r="L58">
-        <v>5010565.5859382898</v>
+        <v>30410000.2335485</v>
       </c>
       <c r="M58">
-        <v>2543866.5859382902</v>
+        <v>29145000.2335485</v>
       </c>
       <c r="N58">
-        <v>2081746.58593829</v>
+        <v>27880000.2335485</v>
       </c>
       <c r="O58">
-        <v>2001731.58593829</v>
+        <v>28090000.2335485</v>
       </c>
       <c r="P58">
-        <v>2001731.58593829</v>
+        <v>28090000.2335485</v>
       </c>
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="5" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B59" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C59" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D59" t="s">
         <v>109</v>
       </c>
-      <c r="E59">
-        <v>552913202.58593798</v>
-      </c>
-      <c r="F59">
-        <v>522525602.58593798</v>
-      </c>
-      <c r="G59">
-        <v>485128802.58593798</v>
-      </c>
-      <c r="H59">
-        <v>491166002.58593798</v>
-      </c>
-      <c r="I59">
-        <v>500011202.58593798</v>
-      </c>
-      <c r="J59">
-        <v>483746402.58593798</v>
+      <c r="E59" t="s">
+        <v>109</v>
+      </c>
+      <c r="F59" t="s">
+        <v>109</v>
+      </c>
+      <c r="G59" t="s">
+        <v>109</v>
+      </c>
+      <c r="H59" t="s">
+        <v>109</v>
+      </c>
+      <c r="I59" t="s">
+        <v>109</v>
+      </c>
+      <c r="J59" t="s">
+        <v>109</v>
       </c>
       <c r="K59">
-        <v>512877602.58593798</v>
+        <v>1.83859365413424</v>
       </c>
       <c r="L59">
-        <v>495176402.58593798</v>
+        <v>1.8086155807678099</v>
       </c>
       <c r="M59">
-        <v>414482402.58593798</v>
+        <v>1.8836850160787999</v>
       </c>
       <c r="N59">
-        <v>411300002.58593798</v>
+        <v>1.87589669280616</v>
       </c>
       <c r="O59">
-        <v>444466802.58593798</v>
+        <v>1.8832324597266801</v>
       </c>
       <c r="P59">
-        <v>444466802.58593798</v>
+        <v>1.8832324597266801</v>
       </c>
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="5" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B60" t="s">
         <v>112</v>
       </c>
       <c r="C60" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D60" t="s">
         <v>109</v>
       </c>
-      <c r="E60">
-        <v>7.1437980502552803E-2</v>
-      </c>
-      <c r="F60">
-        <v>6.9265510449290801E-2</v>
-      </c>
-      <c r="G60">
-        <v>7.3096246598667994E-2</v>
-      </c>
-      <c r="H60">
-        <v>6.4821613096821801E-2</v>
-      </c>
-      <c r="I60">
-        <v>6.0403763815166302E-2</v>
-      </c>
-      <c r="J60">
-        <v>6.5773319276076395E-2</v>
+      <c r="E60" t="s">
+        <v>109</v>
+      </c>
+      <c r="F60" t="s">
+        <v>109</v>
+      </c>
+      <c r="G60" t="s">
+        <v>109</v>
+      </c>
+      <c r="H60" t="s">
+        <v>109</v>
+      </c>
+      <c r="I60" t="s">
+        <v>109</v>
+      </c>
+      <c r="J60" t="s">
+        <v>109</v>
       </c>
       <c r="K60">
-        <v>5.1913235149466198E-2</v>
+        <v>0.221841288754589</v>
       </c>
       <c r="L60">
-        <v>3.05543065197104E-2</v>
+        <v>0.21045709254839001</v>
       </c>
       <c r="M60">
-        <v>3.2468069819075199E-2</v>
+        <v>0.25390290527534198</v>
       </c>
       <c r="N60">
-        <v>3.1526818634602202E-2</v>
+        <v>0.26901004916505</v>
       </c>
       <c r="O60">
-        <v>2.95552390178755E-2</v>
+        <v>0.27055892382911501</v>
       </c>
       <c r="P60">
-        <v>2.95552390178755E-2</v>
+        <v>0.27055892382911501</v>
       </c>
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="5" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B61" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C61" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D61" t="s">
         <v>109</v>
       </c>
       <c r="E61">
-        <v>1.1278447605832E-2</v>
+        <v>14667421.0468216</v>
       </c>
       <c r="F61">
-        <v>9.9306188256772995E-3</v>
+        <v>15541981.0468216</v>
       </c>
       <c r="G61">
-        <v>1.48193707477608E-2</v>
+        <v>21355001.046821602</v>
       </c>
       <c r="H61">
-        <v>8.5126506393461698E-3</v>
+        <v>28086001.046821602</v>
       </c>
       <c r="I61">
-        <v>3.09412184754478E-3</v>
+        <v>26077001.046821602</v>
       </c>
       <c r="J61">
-        <v>2.0071417187765101E-3</v>
+        <v>26816001.046821602</v>
       </c>
       <c r="K61">
-        <v>8.7811839768995401E-3</v>
+        <v>31440001.046821602</v>
       </c>
       <c r="L61">
-        <v>1.0118748712119201E-2</v>
+        <v>36610961.046821602</v>
       </c>
       <c r="M61">
-        <v>6.13745377383265E-3</v>
+        <v>41528001.046821602</v>
       </c>
       <c r="N61">
-        <v>5.0613823798927003E-3</v>
+        <v>41938351.046821602</v>
       </c>
       <c r="O61">
-        <v>4.5036695075809496E-3</v>
+        <v>40045311.046821602</v>
       </c>
       <c r="P61">
-        <v>4.5036695075809496E-3</v>
+        <v>40045311.046821602</v>
       </c>
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B62" t="s">
         <v>106</v>
       </c>
       <c r="C62" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D62" t="s">
         <v>109</v>
       </c>
-      <c r="E62" t="s">
-        <v>109</v>
-      </c>
-      <c r="F62" t="s">
-        <v>109</v>
-      </c>
-      <c r="G62" t="s">
-        <v>109</v>
-      </c>
-      <c r="H62" t="s">
-        <v>109</v>
-      </c>
-      <c r="I62" t="s">
-        <v>109</v>
-      </c>
-      <c r="J62" t="s">
-        <v>109</v>
+      <c r="E62">
+        <v>976021.04682159098</v>
+      </c>
+      <c r="F62">
+        <v>1550771.04682159</v>
+      </c>
+      <c r="G62">
+        <v>16541.046821591099</v>
+      </c>
+      <c r="H62">
+        <v>33601.046821591102</v>
+      </c>
+      <c r="I62">
+        <v>3742001.04682159</v>
+      </c>
+      <c r="J62">
+        <v>4157001.04682159</v>
       </c>
       <c r="K62">
-        <v>54700000.2335485</v>
+        <v>661001.04682159098</v>
       </c>
       <c r="L62">
-        <v>55000000.2335485</v>
+        <v>1885181.04682159</v>
       </c>
       <c r="M62">
-        <v>54900000.2335485</v>
+        <v>626001.04682159098</v>
       </c>
       <c r="N62">
-        <v>52300000.2335485</v>
+        <v>3909961.04682159</v>
       </c>
       <c r="O62">
-        <v>52900000.2335485</v>
+        <v>476901.04682159098</v>
       </c>
       <c r="P62">
-        <v>52900000.2335485</v>
+        <v>476901.04682159098</v>
       </c>
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B63" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C63" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D63" t="s">
         <v>109</v>
@@ -5260,40 +5262,40 @@
       <c r="H63" t="s">
         <v>109</v>
       </c>
-      <c r="I63" t="s">
-        <v>109</v>
-      </c>
-      <c r="J63" t="s">
-        <v>109</v>
+      <c r="I63">
+        <v>12170001.0468216</v>
+      </c>
+      <c r="J63">
+        <v>12630001.0468216</v>
       </c>
       <c r="K63">
-        <v>6600000.2335484596</v>
+        <v>12630001.0468216</v>
       </c>
       <c r="L63">
-        <v>6400000.2335484596</v>
+        <v>12630001.0468216</v>
       </c>
       <c r="M63">
-        <v>7400000.2335484596</v>
+        <v>12630001.0468216</v>
       </c>
       <c r="N63">
-        <v>7500000.2335484596</v>
+        <v>12630001.0468216</v>
       </c>
       <c r="O63">
-        <v>7600000.2335484596</v>
+        <v>12630001.0468216</v>
       </c>
       <c r="P63">
-        <v>7600000.2335484596</v>
+        <v>12630001.0468216</v>
       </c>
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B64" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C64" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D64" t="s">
         <v>109</v>
@@ -5311,39 +5313,39 @@
         <v>109</v>
       </c>
       <c r="I64">
-        <v>31580000.2335485</v>
+        <v>2.14272792142709</v>
       </c>
       <c r="J64">
-        <v>31040000.2335485</v>
+        <v>2.12319864008008</v>
       </c>
       <c r="K64">
-        <v>29751000.2335485</v>
+        <v>2.4893110404558199</v>
       </c>
       <c r="L64">
-        <v>30410000.2335485</v>
+        <v>2.8987298505438299</v>
       </c>
       <c r="M64">
-        <v>29145000.2335485</v>
+        <v>3.28804414923404</v>
       </c>
       <c r="N64">
-        <v>27880000.2335485</v>
+        <v>3.32053424947068</v>
       </c>
       <c r="O64">
-        <v>28090000.2335485</v>
+        <v>3.1706498596767099</v>
       </c>
       <c r="P64">
-        <v>28090000.2335485</v>
+        <v>3.1706498596767099</v>
       </c>
     </row>
     <row r="65" spans="1:16">
       <c r="A65" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B65" t="s">
         <v>112</v>
       </c>
       <c r="C65" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D65" t="s">
         <v>109</v>
@@ -5360,40 +5362,40 @@
       <c r="H65" t="s">
         <v>109</v>
       </c>
-      <c r="I65" t="s">
-        <v>109</v>
-      </c>
-      <c r="J65" t="s">
-        <v>109</v>
+      <c r="I65">
+        <v>0.307477463019519</v>
+      </c>
+      <c r="J65">
+        <v>0.32913703105889502</v>
       </c>
       <c r="K65">
-        <v>1.83859365413424</v>
+        <v>5.2335787176196302E-2</v>
       </c>
       <c r="L65">
-        <v>1.8086155807678099</v>
+        <v>0.149262144938302</v>
       </c>
       <c r="M65">
-        <v>1.8836850160787999</v>
+        <v>4.9564607675082299E-2</v>
       </c>
       <c r="N65">
-        <v>1.87589669280616</v>
+        <v>0.30957725437446099</v>
       </c>
       <c r="O65">
-        <v>1.8832324597266801</v>
+        <v>3.7759383000336801E-2</v>
       </c>
       <c r="P65">
-        <v>1.8832324597266801</v>
+        <v>3.7759383000336801E-2</v>
       </c>
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="5" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C66" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D66" t="s">
         <v>109</v>
@@ -5404,146 +5406,146 @@
       <c r="F66" t="s">
         <v>109</v>
       </c>
-      <c r="G66" t="s">
-        <v>109</v>
-      </c>
-      <c r="H66" t="s">
-        <v>109</v>
-      </c>
-      <c r="I66" t="s">
-        <v>109</v>
-      </c>
-      <c r="J66" t="s">
-        <v>109</v>
+      <c r="G66">
+        <v>1174220.8595406101</v>
+      </c>
+      <c r="H66">
+        <v>1310000.8595406101</v>
+      </c>
+      <c r="I66">
+        <v>1280000.8595406101</v>
+      </c>
+      <c r="J66">
+        <v>1150000.8595406101</v>
       </c>
       <c r="K66">
-        <v>0.221841288754589</v>
+        <v>1230000.8595406101</v>
       </c>
       <c r="L66">
-        <v>0.21045709254839001</v>
+        <v>1290000.8595406101</v>
       </c>
       <c r="M66">
-        <v>0.25390290527534198</v>
+        <v>1170000.8595406101</v>
       </c>
       <c r="N66">
-        <v>0.26901004916505</v>
+        <v>910000.85954060894</v>
       </c>
       <c r="O66">
-        <v>0.27055892382911501</v>
+        <v>910000.85954060894</v>
       </c>
       <c r="P66">
-        <v>0.27055892382911501</v>
+        <v>910000.85954060894</v>
       </c>
     </row>
     <row r="67" spans="1:16">
       <c r="A67" s="5" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B67" t="s">
         <v>106</v>
       </c>
       <c r="C67" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D67" t="s">
         <v>109</v>
       </c>
-      <c r="E67">
-        <v>14667421.0468216</v>
-      </c>
-      <c r="F67">
-        <v>15541981.0468216</v>
+      <c r="E67" t="s">
+        <v>109</v>
+      </c>
+      <c r="F67" t="s">
+        <v>109</v>
       </c>
       <c r="G67">
-        <v>21355001.046821602</v>
+        <v>132861.859540609</v>
       </c>
       <c r="H67">
-        <v>28086001.046821602</v>
+        <v>120000.859540609</v>
       </c>
       <c r="I67">
-        <v>26077001.046821602</v>
+        <v>140000.859540609</v>
       </c>
       <c r="J67">
-        <v>26816001.046821602</v>
+        <v>160000.859540609</v>
       </c>
       <c r="K67">
-        <v>31440001.046821602</v>
+        <v>170000.859540609</v>
       </c>
       <c r="L67">
-        <v>36610961.046821602</v>
+        <v>180000.859540609</v>
       </c>
       <c r="M67">
-        <v>41528001.046821602</v>
+        <v>190000.859540609</v>
       </c>
       <c r="N67">
-        <v>41938351.046821602</v>
+        <v>190000.859540609</v>
       </c>
       <c r="O67">
-        <v>40045311.046821602</v>
+        <v>190000.859540609</v>
       </c>
       <c r="P67">
-        <v>40045311.046821602</v>
+        <v>190000.859540609</v>
       </c>
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="5" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B68" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C68" t="s">
-        <v>108</v>
-      </c>
-      <c r="D68" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="D68">
+        <v>1464408000.85954</v>
       </c>
       <c r="E68">
-        <v>976021.04682159098</v>
+        <v>1567382400.85954</v>
       </c>
       <c r="F68">
-        <v>1550771.04682159</v>
+        <v>1596272400.85954</v>
       </c>
       <c r="G68">
-        <v>16541.046821591099</v>
+        <v>1613368800.85954</v>
       </c>
       <c r="H68">
-        <v>33601.046821591102</v>
+        <v>1617562800.85954</v>
       </c>
       <c r="I68">
-        <v>3742001.04682159</v>
+        <v>1594490400.85954</v>
       </c>
       <c r="J68">
-        <v>4157001.04682159</v>
+        <v>1558512000.85954</v>
       </c>
       <c r="K68">
-        <v>661001.04682159098</v>
+        <v>1570716000.85954</v>
       </c>
       <c r="L68">
-        <v>1885181.04682159</v>
+        <v>1535342400.85954</v>
       </c>
       <c r="M68">
-        <v>626001.04682159098</v>
+        <v>1505977200.85954</v>
       </c>
       <c r="N68">
-        <v>3909961.04682159</v>
+        <v>1472652000.85954</v>
       </c>
       <c r="O68">
-        <v>476901.04682159098</v>
+        <v>1472652000.85954</v>
       </c>
       <c r="P68">
-        <v>476901.04682159098</v>
+        <v>1472652000.85954</v>
       </c>
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="5" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C69" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D69" t="s">
         <v>109</v>
@@ -5554,46 +5556,46 @@
       <c r="F69" t="s">
         <v>109</v>
       </c>
-      <c r="G69" t="s">
-        <v>109</v>
-      </c>
-      <c r="H69" t="s">
-        <v>109</v>
+      <c r="G69">
+        <v>7.2780684671417295E-4</v>
+      </c>
+      <c r="H69">
+        <v>8.0986089618560698E-4</v>
       </c>
       <c r="I69">
-        <v>12170001.0468216</v>
+        <v>8.0276485756866297E-4</v>
       </c>
       <c r="J69">
-        <v>12630001.0468216</v>
+        <v>7.37883865447534E-4</v>
       </c>
       <c r="K69">
-        <v>12630001.0468216</v>
+        <v>7.8308291178514602E-4</v>
       </c>
       <c r="L69">
-        <v>12630001.0468216</v>
+        <v>8.4020402147326804E-4</v>
       </c>
       <c r="M69">
-        <v>12630001.0468216</v>
+        <v>7.7690476248433698E-4</v>
       </c>
       <c r="N69">
-        <v>12630001.0468216</v>
+        <v>6.1793340110866005E-4</v>
       </c>
       <c r="O69">
-        <v>12630001.0468216</v>
+        <v>6.1793340110866005E-4</v>
       </c>
       <c r="P69">
-        <v>12630001.0468216</v>
+        <v>6.1793340110866005E-4</v>
       </c>
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="5" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B70" t="s">
         <v>112</v>
       </c>
       <c r="C70" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D70" t="s">
         <v>109</v>
@@ -5604,46 +5606,46 @@
       <c r="F70" t="s">
         <v>109</v>
       </c>
-      <c r="G70" t="s">
-        <v>109</v>
-      </c>
-      <c r="H70" t="s">
-        <v>109</v>
-      </c>
-      <c r="I70">
-        <v>2.14272792142709</v>
+      <c r="G70" s="4">
+        <v>8.2350581881727896E-5</v>
+      </c>
+      <c r="H70" s="4">
+        <v>7.4186213652318599E-5</v>
+      </c>
+      <c r="I70" s="4">
+        <v>8.7802886405047395E-5</v>
       </c>
       <c r="J70">
-        <v>2.12319864008008</v>
+        <v>1.02662577800085E-4</v>
       </c>
       <c r="K70">
-        <v>2.4893110404558199</v>
+        <v>1.08231443142859E-4</v>
       </c>
       <c r="L70">
-        <v>2.8987298505438299</v>
+        <v>1.1723825215784899E-4</v>
       </c>
       <c r="M70">
-        <v>3.28804414923404</v>
+        <v>1.2616449932453499E-4</v>
       </c>
       <c r="N70">
-        <v>3.32053424947068</v>
+        <v>1.29019523573601E-4</v>
       </c>
       <c r="O70">
-        <v>3.1706498596767099</v>
+        <v>1.29019523573601E-4</v>
       </c>
       <c r="P70">
-        <v>3.1706498596767099</v>
+        <v>1.29019523573601E-4</v>
       </c>
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B71" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C71" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D71" t="s">
         <v>109</v>
@@ -5660,40 +5662,40 @@
       <c r="H71" t="s">
         <v>109</v>
       </c>
-      <c r="I71">
-        <v>0.307477463019519</v>
-      </c>
-      <c r="J71">
-        <v>0.32913703105889502</v>
+      <c r="I71" t="s">
+        <v>109</v>
+      </c>
+      <c r="J71" t="s">
+        <v>109</v>
       </c>
       <c r="K71">
-        <v>5.2335787176196302E-2</v>
+        <v>31300000.829291299</v>
       </c>
       <c r="L71">
-        <v>0.149262144938302</v>
+        <v>31072000.829291299</v>
       </c>
       <c r="M71">
-        <v>4.9564607675082299E-2</v>
+        <v>29491000.829291299</v>
       </c>
       <c r="N71">
-        <v>0.30957725437446099</v>
+        <v>27206000.829291299</v>
       </c>
       <c r="O71">
-        <v>3.7759383000336801E-2</v>
+        <v>27206000.829291299</v>
       </c>
       <c r="P71">
-        <v>3.7759383000336801E-2</v>
+        <v>27206000.829291299</v>
       </c>
     </row>
     <row r="72" spans="1:16">
       <c r="A72" s="5" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B72" t="s">
         <v>106</v>
       </c>
       <c r="C72" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D72" t="s">
         <v>109</v>
@@ -5704,46 +5706,46 @@
       <c r="F72" t="s">
         <v>109</v>
       </c>
-      <c r="G72">
-        <v>1174220.8595406101</v>
-      </c>
-      <c r="H72">
-        <v>1310000.8595406101</v>
-      </c>
-      <c r="I72">
-        <v>1280000.8595406101</v>
-      </c>
-      <c r="J72">
-        <v>1150000.8595406101</v>
-      </c>
-      <c r="K72">
-        <v>1230000.8595406101</v>
-      </c>
-      <c r="L72">
-        <v>1290000.8595406101</v>
-      </c>
-      <c r="M72">
-        <v>1170000.8595406101</v>
-      </c>
-      <c r="N72">
-        <v>910000.85954060894</v>
-      </c>
-      <c r="O72">
-        <v>910000.85954060894</v>
-      </c>
-      <c r="P72">
-        <v>910000.85954060894</v>
+      <c r="G72" t="s">
+        <v>109</v>
+      </c>
+      <c r="H72" t="s">
+        <v>109</v>
+      </c>
+      <c r="I72" t="s">
+        <v>109</v>
+      </c>
+      <c r="J72" t="s">
+        <v>109</v>
+      </c>
+      <c r="K72" t="s">
+        <v>109</v>
+      </c>
+      <c r="L72" t="s">
+        <v>109</v>
+      </c>
+      <c r="M72" t="s">
+        <v>109</v>
+      </c>
+      <c r="N72" t="s">
+        <v>109</v>
+      </c>
+      <c r="O72" t="s">
+        <v>109</v>
+      </c>
+      <c r="P72" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="73" spans="1:16">
       <c r="A73" s="5" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B73" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C73" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D73" t="s">
         <v>109</v>
@@ -5754,96 +5756,96 @@
       <c r="F73" t="s">
         <v>109</v>
       </c>
-      <c r="G73">
-        <v>132861.859540609</v>
+      <c r="G73" t="s">
+        <v>109</v>
       </c>
       <c r="H73">
-        <v>120000.859540609</v>
+        <v>23001000.829291299</v>
       </c>
       <c r="I73">
-        <v>140000.859540609</v>
+        <v>25222000.829291299</v>
       </c>
       <c r="J73">
-        <v>160000.859540609</v>
+        <v>23424000.829291299</v>
       </c>
       <c r="K73">
-        <v>170000.859540609</v>
+        <v>24100000.829291299</v>
       </c>
       <c r="L73">
-        <v>180000.859540609</v>
+        <v>24193000.829291299</v>
       </c>
       <c r="M73">
-        <v>190000.859540609</v>
+        <v>24328000.829291299</v>
       </c>
       <c r="N73">
-        <v>190000.859540609</v>
+        <v>23779000.829291299</v>
       </c>
       <c r="O73">
-        <v>190000.859540609</v>
+        <v>22329000.829291299</v>
       </c>
       <c r="P73">
-        <v>190000.859540609</v>
+        <v>22329000.829291299</v>
       </c>
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="5" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B74" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C74" t="s">
-        <v>111</v>
-      </c>
-      <c r="D74">
-        <v>1464408000.85954</v>
-      </c>
-      <c r="E74">
-        <v>1567382400.85954</v>
-      </c>
-      <c r="F74">
-        <v>1596272400.85954</v>
-      </c>
-      <c r="G74">
-        <v>1613368800.85954</v>
-      </c>
-      <c r="H74">
-        <v>1617562800.85954</v>
-      </c>
-      <c r="I74">
-        <v>1594490400.85954</v>
-      </c>
-      <c r="J74">
-        <v>1558512000.85954</v>
+        <v>107</v>
+      </c>
+      <c r="D74" t="s">
+        <v>109</v>
+      </c>
+      <c r="E74" t="s">
+        <v>109</v>
+      </c>
+      <c r="F74" t="s">
+        <v>109</v>
+      </c>
+      <c r="G74" t="s">
+        <v>109</v>
+      </c>
+      <c r="H74" t="s">
+        <v>109</v>
+      </c>
+      <c r="I74" t="s">
+        <v>109</v>
+      </c>
+      <c r="J74" t="s">
+        <v>109</v>
       </c>
       <c r="K74">
-        <v>1570716000.85954</v>
+        <v>1.2987551764417</v>
       </c>
       <c r="L74">
-        <v>1535342400.85954</v>
+        <v>1.2843384352581599</v>
       </c>
       <c r="M74">
-        <v>1505977200.85954</v>
+        <v>1.21222458993769</v>
       </c>
       <c r="N74">
-        <v>1472652000.85954</v>
+        <v>1.14411875522451</v>
       </c>
       <c r="O74">
-        <v>1472652000.85954</v>
+        <v>1.21841550534596</v>
       </c>
       <c r="P74">
-        <v>1472652000.85954</v>
+        <v>1.21841550534596</v>
       </c>
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="5" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B75" t="s">
         <v>112</v>
       </c>
       <c r="C75" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D75" t="s">
         <v>109</v>
@@ -5854,146 +5856,146 @@
       <c r="F75" t="s">
         <v>109</v>
       </c>
-      <c r="G75">
-        <v>7.2780684671417295E-4</v>
-      </c>
-      <c r="H75">
-        <v>8.0986089618560698E-4</v>
-      </c>
-      <c r="I75">
-        <v>8.0276485756866297E-4</v>
-      </c>
-      <c r="J75">
-        <v>7.37883865447534E-4</v>
-      </c>
-      <c r="K75">
-        <v>7.8308291178514602E-4</v>
-      </c>
-      <c r="L75">
-        <v>8.4020402147326804E-4</v>
-      </c>
-      <c r="M75">
-        <v>7.7690476248433698E-4</v>
-      </c>
-      <c r="N75">
-        <v>6.1793340110866005E-4</v>
-      </c>
-      <c r="O75">
-        <v>6.1793340110866005E-4</v>
-      </c>
-      <c r="P75">
-        <v>6.1793340110866005E-4</v>
+      <c r="G75" t="s">
+        <v>109</v>
+      </c>
+      <c r="H75" t="s">
+        <v>109</v>
+      </c>
+      <c r="I75" t="s">
+        <v>109</v>
+      </c>
+      <c r="J75" t="s">
+        <v>109</v>
+      </c>
+      <c r="K75" t="s">
+        <v>109</v>
+      </c>
+      <c r="L75" t="s">
+        <v>109</v>
+      </c>
+      <c r="M75" t="s">
+        <v>109</v>
+      </c>
+      <c r="N75" t="s">
+        <v>109</v>
+      </c>
+      <c r="O75" t="s">
+        <v>109</v>
+      </c>
+      <c r="P75" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C76" t="s">
-        <v>108</v>
-      </c>
-      <c r="D76" t="s">
-        <v>109</v>
-      </c>
-      <c r="E76" t="s">
-        <v>109</v>
-      </c>
-      <c r="F76" t="s">
-        <v>109</v>
-      </c>
-      <c r="G76" s="4">
-        <v>8.2350581881727896E-5</v>
-      </c>
-      <c r="H76" s="4">
-        <v>7.4186213652318599E-5</v>
-      </c>
-      <c r="I76" s="4">
-        <v>8.7802886405047395E-5</v>
+        <v>107</v>
+      </c>
+      <c r="D76">
+        <v>11074001.5077199</v>
+      </c>
+      <c r="E76">
+        <v>8500001.5077198893</v>
+      </c>
+      <c r="F76">
+        <v>9328837.5077198893</v>
+      </c>
+      <c r="G76">
+        <v>8328346.5077198902</v>
+      </c>
+      <c r="H76">
+        <v>7914001.5077198902</v>
+      </c>
+      <c r="I76">
+        <v>7250001.5077198902</v>
       </c>
       <c r="J76">
-        <v>1.02662577800085E-4</v>
+        <v>7020001.5077198902</v>
       </c>
       <c r="K76">
-        <v>1.08231443142859E-4</v>
+        <v>7038001.5077198902</v>
       </c>
       <c r="L76">
-        <v>1.1723825215784899E-4</v>
+        <v>5800001.5077198902</v>
       </c>
       <c r="M76">
-        <v>1.2616449932453499E-4</v>
+        <v>4000001.5077198902</v>
       </c>
       <c r="N76">
-        <v>1.29019523573601E-4</v>
+        <v>4500001.5077198902</v>
       </c>
       <c r="O76">
-        <v>1.29019523573601E-4</v>
+        <v>4500001.5077198902</v>
       </c>
       <c r="P76">
-        <v>1.29019523573601E-4</v>
+        <v>4500001.5077198902</v>
       </c>
     </row>
     <row r="77" spans="1:16">
       <c r="A77" s="5" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B77" t="s">
         <v>106</v>
       </c>
       <c r="C77" t="s">
-        <v>107</v>
-      </c>
-      <c r="D77" t="s">
-        <v>109</v>
-      </c>
-      <c r="E77" t="s">
-        <v>109</v>
-      </c>
-      <c r="F77" t="s">
-        <v>109</v>
-      </c>
-      <c r="G77" t="s">
-        <v>109</v>
-      </c>
-      <c r="H77" t="s">
-        <v>109</v>
-      </c>
-      <c r="I77" t="s">
-        <v>109</v>
-      </c>
-      <c r="J77" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="D77">
+        <v>266001.507719888</v>
+      </c>
+      <c r="E77">
+        <v>350001.507719888</v>
+      </c>
+      <c r="F77">
+        <v>329353.507719888</v>
+      </c>
+      <c r="G77">
+        <v>319181.507719888</v>
+      </c>
+      <c r="H77">
+        <v>250001.507719888</v>
+      </c>
+      <c r="I77">
+        <v>220001.507719888</v>
+      </c>
+      <c r="J77">
+        <v>230001.507719888</v>
       </c>
       <c r="K77">
-        <v>31300000.829291299</v>
+        <v>247001.507719888</v>
       </c>
       <c r="L77">
-        <v>31072000.829291299</v>
+        <v>3400001.5077198902</v>
       </c>
       <c r="M77">
-        <v>29491000.829291299</v>
+        <v>2900001.5077198902</v>
       </c>
       <c r="N77">
-        <v>27206000.829291299</v>
+        <v>2500001.5077198902</v>
       </c>
       <c r="O77">
-        <v>27206000.829291299</v>
+        <v>2500001.5077198902</v>
       </c>
       <c r="P77">
-        <v>27206000.829291299</v>
+        <v>2500001.5077198902</v>
       </c>
     </row>
     <row r="78" spans="1:16">
       <c r="A78" s="5" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B78" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C78" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D78" t="s">
         <v>109</v>
@@ -6004,46 +6006,46 @@
       <c r="F78" t="s">
         <v>109</v>
       </c>
-      <c r="G78" t="s">
-        <v>109</v>
-      </c>
-      <c r="H78" t="s">
-        <v>109</v>
-      </c>
-      <c r="I78" t="s">
-        <v>109</v>
-      </c>
-      <c r="J78" t="s">
-        <v>109</v>
-      </c>
-      <c r="K78" t="s">
-        <v>109</v>
-      </c>
-      <c r="L78" t="s">
-        <v>109</v>
-      </c>
-      <c r="M78" t="s">
-        <v>109</v>
-      </c>
-      <c r="N78" t="s">
-        <v>109</v>
-      </c>
-      <c r="O78" t="s">
-        <v>109</v>
-      </c>
-      <c r="P78" t="s">
-        <v>109</v>
+      <c r="G78">
+        <v>21142801.5077199</v>
+      </c>
+      <c r="H78">
+        <v>21142801.5077199</v>
+      </c>
+      <c r="I78">
+        <v>21142801.5077199</v>
+      </c>
+      <c r="J78">
+        <v>21142801.5077199</v>
+      </c>
+      <c r="K78">
+        <v>21142801.5077199</v>
+      </c>
+      <c r="L78">
+        <v>21142801.5077199</v>
+      </c>
+      <c r="M78">
+        <v>21142801.5077199</v>
+      </c>
+      <c r="N78">
+        <v>21142801.5077199</v>
+      </c>
+      <c r="O78">
+        <v>21142801.5077199</v>
+      </c>
+      <c r="P78">
+        <v>21142801.5077199</v>
       </c>
     </row>
     <row r="79" spans="1:16">
       <c r="A79" s="5" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C79" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D79" t="s">
         <v>109</v>
@@ -6054,46 +6056,46 @@
       <c r="F79" t="s">
         <v>109</v>
       </c>
-      <c r="G79" t="s">
-        <v>109</v>
+      <c r="G79">
+        <v>0.393909317300215</v>
       </c>
       <c r="H79">
-        <v>23001000.829291299</v>
+        <v>0.37431186708299902</v>
       </c>
       <c r="I79">
-        <v>25222000.829291299</v>
+        <v>0.34290637903745602</v>
       </c>
       <c r="J79">
-        <v>23424000.829291299</v>
+        <v>0.33202797203372802</v>
       </c>
       <c r="K79">
-        <v>24100000.829291299</v>
+        <v>0.33287932562532402</v>
       </c>
       <c r="L79">
-        <v>24193000.829291299</v>
+        <v>0.274325117492217</v>
       </c>
       <c r="M79">
-        <v>24328000.829291299</v>
+        <v>0.18918975833261101</v>
       </c>
       <c r="N79">
-        <v>23779000.829291299</v>
+        <v>0.21283846921027899</v>
       </c>
       <c r="O79">
-        <v>22329000.829291299</v>
+        <v>0.21283846921027899</v>
       </c>
       <c r="P79">
-        <v>22329000.829291299</v>
+        <v>0.21283846921027899</v>
       </c>
     </row>
     <row r="80" spans="1:16">
       <c r="A80" s="5" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B80" t="s">
         <v>112</v>
       </c>
       <c r="C80" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D80" t="s">
         <v>109</v>
@@ -6104,46 +6106,46 @@
       <c r="F80" t="s">
         <v>109</v>
       </c>
-      <c r="G80" t="s">
-        <v>109</v>
-      </c>
-      <c r="H80" t="s">
-        <v>109</v>
-      </c>
-      <c r="I80" t="s">
-        <v>109</v>
-      </c>
-      <c r="J80" t="s">
-        <v>109</v>
+      <c r="G80">
+        <v>1.5096462387131899E-2</v>
+      </c>
+      <c r="H80">
+        <v>1.18244267500977E-2</v>
+      </c>
+      <c r="I80">
+        <v>1.0405504097437601E-2</v>
+      </c>
+      <c r="J80">
+        <v>1.08784783149909E-2</v>
       </c>
       <c r="K80">
-        <v>1.2987551764417</v>
+        <v>1.16825344848317E-2</v>
       </c>
       <c r="L80">
-        <v>1.2843384352581599</v>
+        <v>0.16081130527940901</v>
       </c>
       <c r="M80">
-        <v>1.21222458993769</v>
+        <v>0.13716259440174</v>
       </c>
       <c r="N80">
-        <v>1.14411875522451</v>
+        <v>0.118243625699606</v>
       </c>
       <c r="O80">
-        <v>1.21841550534596</v>
+        <v>0.118243625699606</v>
       </c>
       <c r="P80">
-        <v>1.21841550534596</v>
+        <v>0.118243625699606</v>
       </c>
     </row>
     <row r="81" spans="1:16">
       <c r="A81" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B81" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C81" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D81" t="s">
         <v>109</v>
@@ -6166,134 +6168,134 @@
       <c r="J81" t="s">
         <v>109</v>
       </c>
-      <c r="K81" t="s">
-        <v>109</v>
-      </c>
-      <c r="L81" t="s">
-        <v>109</v>
-      </c>
-      <c r="M81" t="s">
-        <v>109</v>
-      </c>
-      <c r="N81" t="s">
-        <v>109</v>
-      </c>
-      <c r="O81" t="s">
-        <v>109</v>
-      </c>
-      <c r="P81" t="s">
-        <v>109</v>
+      <c r="K81">
+        <v>89000001.367614105</v>
+      </c>
+      <c r="L81">
+        <v>89000001.367614105</v>
+      </c>
+      <c r="M81">
+        <v>86000001.367614105</v>
+      </c>
+      <c r="N81">
+        <v>87000001.367614105</v>
+      </c>
+      <c r="O81">
+        <v>84000001.367614105</v>
+      </c>
+      <c r="P81">
+        <v>84000001.367614105</v>
       </c>
     </row>
     <row r="82" spans="1:16">
       <c r="A82" s="5" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B82" t="s">
         <v>106</v>
       </c>
       <c r="C82" t="s">
-        <v>107</v>
-      </c>
-      <c r="D82">
-        <v>11074001.5077199</v>
-      </c>
-      <c r="E82">
-        <v>8500001.5077198893</v>
-      </c>
-      <c r="F82">
-        <v>9328837.5077198893</v>
-      </c>
-      <c r="G82">
-        <v>8328346.5077198902</v>
-      </c>
-      <c r="H82">
-        <v>7914001.5077198902</v>
-      </c>
-      <c r="I82">
-        <v>7250001.5077198902</v>
-      </c>
-      <c r="J82">
-        <v>7020001.5077198902</v>
+        <v>108</v>
+      </c>
+      <c r="D82" t="s">
+        <v>109</v>
+      </c>
+      <c r="E82" t="s">
+        <v>109</v>
+      </c>
+      <c r="F82" t="s">
+        <v>109</v>
+      </c>
+      <c r="G82" t="s">
+        <v>109</v>
+      </c>
+      <c r="H82" t="s">
+        <v>109</v>
+      </c>
+      <c r="I82" t="s">
+        <v>109</v>
+      </c>
+      <c r="J82" t="s">
+        <v>109</v>
       </c>
       <c r="K82">
-        <v>7038001.5077198902</v>
+        <v>11000001.3676141</v>
       </c>
       <c r="L82">
-        <v>5800001.5077198902</v>
+        <v>10000001.3676141</v>
       </c>
       <c r="M82">
-        <v>4000001.5077198902</v>
+        <v>10000001.3676141</v>
       </c>
       <c r="N82">
-        <v>4500001.5077198902</v>
+        <v>10000001.3676141</v>
       </c>
       <c r="O82">
-        <v>4500001.5077198902</v>
+        <v>9000001.3676141202</v>
       </c>
       <c r="P82">
-        <v>4500001.5077198902</v>
+        <v>9000001.3676141202</v>
       </c>
     </row>
     <row r="83" spans="1:16">
       <c r="A83" s="5" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B83" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C83" t="s">
-        <v>108</v>
-      </c>
-      <c r="D83">
-        <v>266001.507719888</v>
-      </c>
-      <c r="E83">
-        <v>350001.507719888</v>
-      </c>
-      <c r="F83">
-        <v>329353.507719888</v>
-      </c>
-      <c r="G83">
-        <v>319181.507719888</v>
+        <v>111</v>
+      </c>
+      <c r="D83" t="s">
+        <v>109</v>
+      </c>
+      <c r="E83" t="s">
+        <v>109</v>
+      </c>
+      <c r="F83" t="s">
+        <v>109</v>
+      </c>
+      <c r="G83" t="s">
+        <v>109</v>
       </c>
       <c r="H83">
-        <v>250001.507719888</v>
+        <v>46030001.367614098</v>
       </c>
       <c r="I83">
-        <v>220001.507719888</v>
+        <v>48160001.367614098</v>
       </c>
       <c r="J83">
-        <v>230001.507719888</v>
+        <v>47320001.367614098</v>
       </c>
       <c r="K83">
-        <v>247001.507719888</v>
+        <v>44530001.367614098</v>
       </c>
       <c r="L83">
-        <v>3400001.5077198902</v>
+        <v>45170001.367614098</v>
       </c>
       <c r="M83">
-        <v>2900001.5077198902</v>
+        <v>46505001.367614098</v>
       </c>
       <c r="N83">
-        <v>2500001.5077198902</v>
+        <v>47840001.367614098</v>
       </c>
       <c r="O83">
-        <v>2500001.5077198902</v>
+        <v>47050001.367614098</v>
       </c>
       <c r="P83">
-        <v>2500001.5077198902</v>
+        <v>47050001.367614098</v>
       </c>
     </row>
     <row r="84" spans="1:16">
       <c r="A84" s="5" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B84" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C84" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D84" t="s">
         <v>109</v>
@@ -6304,46 +6306,46 @@
       <c r="F84" t="s">
         <v>109</v>
       </c>
-      <c r="G84">
-        <v>21142801.5077199</v>
-      </c>
-      <c r="H84">
-        <v>21142801.5077199</v>
-      </c>
-      <c r="I84">
-        <v>21142801.5077199</v>
-      </c>
-      <c r="J84">
-        <v>21142801.5077199</v>
+      <c r="G84" t="s">
+        <v>109</v>
+      </c>
+      <c r="H84" t="s">
+        <v>109</v>
+      </c>
+      <c r="I84" t="s">
+        <v>109</v>
+      </c>
+      <c r="J84" t="s">
+        <v>109</v>
       </c>
       <c r="K84">
-        <v>21142801.5077199</v>
+        <v>1.9986525630862</v>
       </c>
       <c r="L84">
-        <v>21142801.5077199</v>
+        <v>1.9703342632932701</v>
       </c>
       <c r="M84">
-        <v>21142801.5077199</v>
+        <v>1.8492634950765601</v>
       </c>
       <c r="N84">
-        <v>21142801.5077199</v>
+        <v>1.8185618495092699</v>
       </c>
       <c r="O84">
-        <v>21142801.5077199</v>
+        <v>1.7853347274381499</v>
       </c>
       <c r="P84">
-        <v>21142801.5077199</v>
+        <v>1.7853347274381499</v>
       </c>
     </row>
     <row r="85" spans="1:16">
       <c r="A85" s="5" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B85" t="s">
         <v>112</v>
       </c>
       <c r="C85" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D85" t="s">
         <v>109</v>
@@ -6354,46 +6356,46 @@
       <c r="F85" t="s">
         <v>109</v>
       </c>
-      <c r="G85">
-        <v>0.393909317300215</v>
-      </c>
-      <c r="H85">
-        <v>0.37431186708299902</v>
-      </c>
-      <c r="I85">
-        <v>0.34290637903745602</v>
-      </c>
-      <c r="J85">
-        <v>0.33202797203372802</v>
+      <c r="G85" t="s">
+        <v>109</v>
+      </c>
+      <c r="H85" t="s">
+        <v>109</v>
+      </c>
+      <c r="I85" t="s">
+        <v>109</v>
+      </c>
+      <c r="J85" t="s">
+        <v>109</v>
       </c>
       <c r="K85">
-        <v>0.33287932562532402</v>
+        <v>0.24702450100561199</v>
       </c>
       <c r="L85">
-        <v>0.274325117492217</v>
+        <v>0.22138589915527199</v>
       </c>
       <c r="M85">
-        <v>0.18918975833261101</v>
+        <v>0.21503066495076101</v>
       </c>
       <c r="N85">
-        <v>0.21283846921027899</v>
+        <v>0.20903012294610299</v>
       </c>
       <c r="O85">
-        <v>0.21283846921027899</v>
+        <v>0.191285889606989</v>
       </c>
       <c r="P85">
-        <v>0.21283846921027899</v>
+        <v>0.191285889606989</v>
       </c>
     </row>
     <row r="86" spans="1:16">
       <c r="A86" s="5" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B86" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C86" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D86" t="s">
         <v>109</v>
@@ -6404,46 +6406,46 @@
       <c r="F86" t="s">
         <v>109</v>
       </c>
-      <c r="G86">
-        <v>1.5096462387131899E-2</v>
-      </c>
-      <c r="H86">
-        <v>1.18244267500977E-2</v>
-      </c>
-      <c r="I86">
-        <v>1.0405504097437601E-2</v>
+      <c r="G86" t="s">
+        <v>109</v>
+      </c>
+      <c r="H86" t="s">
+        <v>109</v>
+      </c>
+      <c r="I86" t="s">
+        <v>109</v>
       </c>
       <c r="J86">
-        <v>1.08784783149909E-2</v>
+        <v>29200004.631029598</v>
       </c>
       <c r="K86">
-        <v>1.16825344848317E-2</v>
+        <v>29200004.631029598</v>
       </c>
       <c r="L86">
-        <v>0.16081130527940901</v>
+        <v>29600004.631029598</v>
       </c>
       <c r="M86">
-        <v>0.13716259440174</v>
+        <v>30200004.631029598</v>
       </c>
       <c r="N86">
-        <v>0.118243625699606</v>
+        <v>28400004.631029598</v>
       </c>
       <c r="O86">
-        <v>0.118243625699606</v>
+        <v>28400004.631029598</v>
       </c>
       <c r="P86">
-        <v>0.118243625699606</v>
+        <v>28400004.631029598</v>
       </c>
     </row>
     <row r="87" spans="1:16">
       <c r="A87" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B87" t="s">
         <v>106</v>
       </c>
       <c r="C87" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D87" t="s">
         <v>109</v>
@@ -6463,37 +6465,37 @@
       <c r="I87" t="s">
         <v>109</v>
       </c>
-      <c r="J87" t="s">
-        <v>109</v>
+      <c r="J87">
+        <v>3600004.6310295798</v>
       </c>
       <c r="K87">
-        <v>89000001.367614105</v>
+        <v>3800004.6310295798</v>
       </c>
       <c r="L87">
-        <v>89000001.367614105</v>
+        <v>4000004.6310295798</v>
       </c>
       <c r="M87">
-        <v>86000001.367614105</v>
+        <v>4000004.6310295798</v>
       </c>
       <c r="N87">
-        <v>87000001.367614105</v>
+        <v>3600004.6310295798</v>
       </c>
       <c r="O87">
-        <v>84000001.367614105</v>
+        <v>3600004.6310295798</v>
       </c>
       <c r="P87">
-        <v>84000001.367614105</v>
+        <v>3600004.6310295798</v>
       </c>
     </row>
     <row r="88" spans="1:16">
       <c r="A88" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B88" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C88" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D88" t="s">
         <v>109</v>
@@ -6510,40 +6512,40 @@
       <c r="H88" t="s">
         <v>109</v>
       </c>
-      <c r="I88" t="s">
-        <v>109</v>
-      </c>
-      <c r="J88" t="s">
-        <v>109</v>
+      <c r="I88">
+        <v>15921004.6310296</v>
+      </c>
+      <c r="J88">
+        <v>15855004.6310296</v>
       </c>
       <c r="K88">
-        <v>11000001.3676141</v>
+        <v>16419004.6310296</v>
       </c>
       <c r="L88">
-        <v>10000001.3676141</v>
+        <v>16850004.631029598</v>
       </c>
       <c r="M88">
-        <v>10000001.3676141</v>
+        <v>17286004.631029598</v>
       </c>
       <c r="N88">
-        <v>10000001.3676141</v>
+        <v>15520004.6310296</v>
       </c>
       <c r="O88">
-        <v>9000001.3676141202</v>
+        <v>15520004.6310296</v>
       </c>
       <c r="P88">
-        <v>9000001.3676141202</v>
+        <v>15520004.6310296</v>
       </c>
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B89" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C89" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D89" t="s">
         <v>109</v>
@@ -6557,43 +6559,43 @@
       <c r="G89" t="s">
         <v>109</v>
       </c>
-      <c r="H89">
-        <v>46030001.367614098</v>
-      </c>
-      <c r="I89">
-        <v>48160001.367614098</v>
+      <c r="H89" t="s">
+        <v>109</v>
+      </c>
+      <c r="I89" t="s">
+        <v>109</v>
       </c>
       <c r="J89">
-        <v>47320001.367614098</v>
+        <v>1.8416900726653</v>
       </c>
       <c r="K89">
-        <v>44530001.367614098</v>
+        <v>1.7784272120762901</v>
       </c>
       <c r="L89">
-        <v>45170001.367614098</v>
+        <v>1.75667634989967</v>
       </c>
       <c r="M89">
-        <v>46505001.367614098</v>
+        <v>1.7470783605378899</v>
       </c>
       <c r="N89">
-        <v>47840001.367614098</v>
+        <v>1.82989665958273</v>
       </c>
       <c r="O89">
-        <v>47050001.367614098</v>
+        <v>1.82989665958273</v>
       </c>
       <c r="P89">
-        <v>47050001.367614098</v>
+        <v>1.82989665958273</v>
       </c>
     </row>
     <row r="90" spans="1:16">
       <c r="A90" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B90" t="s">
         <v>112</v>
       </c>
       <c r="C90" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D90" t="s">
         <v>109</v>
@@ -6613,87 +6615,87 @@
       <c r="I90" t="s">
         <v>109</v>
       </c>
-      <c r="J90" t="s">
-        <v>109</v>
+      <c r="J90">
+        <v>0.22705793626727</v>
       </c>
       <c r="K90">
-        <v>1.9986525630862</v>
+        <v>0.231439403083431</v>
       </c>
       <c r="L90">
-        <v>1.9703342632932701</v>
+        <v>0.23738893363052799</v>
       </c>
       <c r="M90">
-        <v>1.8492634950765601</v>
+        <v>0.23140133977803601</v>
       </c>
       <c r="N90">
-        <v>1.8185618495092699</v>
+        <v>0.23195899206318399</v>
       </c>
       <c r="O90">
-        <v>1.7853347274381499</v>
+        <v>0.23195899206318399</v>
       </c>
       <c r="P90">
-        <v>1.7853347274381499</v>
+        <v>0.23195899206318399</v>
       </c>
     </row>
     <row r="91" spans="1:16">
       <c r="A91" s="5" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B91" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C91" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D91" t="s">
         <v>109</v>
       </c>
-      <c r="E91" t="s">
-        <v>109</v>
-      </c>
-      <c r="F91" t="s">
-        <v>109</v>
-      </c>
-      <c r="G91" t="s">
-        <v>109</v>
-      </c>
-      <c r="H91" t="s">
-        <v>109</v>
-      </c>
-      <c r="I91" t="s">
-        <v>109</v>
-      </c>
-      <c r="J91" t="s">
-        <v>109</v>
+      <c r="E91">
+        <v>185584163.90193</v>
+      </c>
+      <c r="F91">
+        <v>188513981.90193</v>
+      </c>
+      <c r="G91">
+        <v>189986958.90193</v>
+      </c>
+      <c r="H91">
+        <v>200994691.90193</v>
+      </c>
+      <c r="I91">
+        <v>201036494.90193</v>
+      </c>
+      <c r="J91">
+        <v>213050961.90193</v>
       </c>
       <c r="K91">
-        <v>0.24702450100561199</v>
+        <v>231671486.10192901</v>
       </c>
       <c r="L91">
-        <v>0.22138589915527199</v>
+        <v>221222495.90193</v>
       </c>
       <c r="M91">
-        <v>0.21503066495076101</v>
+        <v>231986764.90193</v>
       </c>
       <c r="N91">
-        <v>0.20903012294610299</v>
+        <v>240369173.90193</v>
       </c>
       <c r="O91">
-        <v>0.191285889606989</v>
+        <v>226132940.90193</v>
       </c>
       <c r="P91">
-        <v>0.191285889606989</v>
+        <v>226132940.90193</v>
       </c>
     </row>
     <row r="92" spans="1:16">
       <c r="A92" s="5" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="B92" t="s">
         <v>106</v>
       </c>
       <c r="C92" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D92" t="s">
         <v>109</v>
@@ -6704,146 +6706,146 @@
       <c r="F92" t="s">
         <v>109</v>
       </c>
-      <c r="G92" t="s">
-        <v>109</v>
-      </c>
-      <c r="H92" t="s">
-        <v>109</v>
-      </c>
-      <c r="I92" t="s">
-        <v>109</v>
+      <c r="G92">
+        <v>0.90192956297796201</v>
+      </c>
+      <c r="H92">
+        <v>0.90192956297796201</v>
+      </c>
+      <c r="I92">
+        <v>0.90192956297796201</v>
       </c>
       <c r="J92">
-        <v>29200004.631029598</v>
+        <v>6235.0544295629797</v>
       </c>
       <c r="K92">
-        <v>29200004.631029598</v>
+        <v>12469.206929563001</v>
       </c>
       <c r="L92">
-        <v>29600004.631029598</v>
+        <v>18703.359429562999</v>
       </c>
       <c r="M92">
-        <v>30200004.631029598</v>
+        <v>24937.511929562999</v>
       </c>
       <c r="N92">
-        <v>28400004.631029598</v>
+        <v>23268.401929562999</v>
       </c>
       <c r="O92">
-        <v>28400004.631029598</v>
+        <v>15845.901929563001</v>
       </c>
       <c r="P92">
-        <v>28400004.631029598</v>
+        <v>15845.901929563001</v>
       </c>
     </row>
     <row r="93" spans="1:16">
       <c r="A93" s="5" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="B93" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C93" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D93" t="s">
         <v>109</v>
       </c>
-      <c r="E93" t="s">
-        <v>109</v>
-      </c>
-      <c r="F93" t="s">
-        <v>109</v>
-      </c>
-      <c r="G93" t="s">
-        <v>109</v>
-      </c>
-      <c r="H93" t="s">
-        <v>109</v>
-      </c>
-      <c r="I93" t="s">
-        <v>109</v>
+      <c r="E93">
+        <v>787824000.90192997</v>
+      </c>
+      <c r="F93">
+        <v>793944000.90192997</v>
+      </c>
+      <c r="G93">
+        <v>799452000.90192997</v>
+      </c>
+      <c r="H93">
+        <v>835300800.90192997</v>
+      </c>
+      <c r="I93">
+        <v>839822400.90192997</v>
       </c>
       <c r="J93">
-        <v>3600004.6310295798</v>
+        <v>868536000.90192997</v>
       </c>
       <c r="K93">
-        <v>3800004.6310295798</v>
+        <v>871128000.90192997</v>
       </c>
       <c r="L93">
-        <v>4000004.6310295798</v>
+        <v>901116000.90192997</v>
       </c>
       <c r="M93">
-        <v>4000004.6310295798</v>
+        <v>956880000.90192997</v>
       </c>
       <c r="N93">
-        <v>3600004.6310295798</v>
+        <v>988020000.90192997</v>
       </c>
       <c r="O93">
-        <v>3600004.6310295798</v>
+        <v>934632000.90192997</v>
       </c>
       <c r="P93">
-        <v>3600004.6310295798</v>
+        <v>934632000.90192997</v>
       </c>
     </row>
     <row r="94" spans="1:16">
       <c r="A94" s="5" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="B94" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C94" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D94" t="s">
         <v>109</v>
       </c>
-      <c r="E94" t="s">
-        <v>109</v>
-      </c>
-      <c r="F94" t="s">
-        <v>109</v>
-      </c>
-      <c r="G94" t="s">
-        <v>109</v>
-      </c>
-      <c r="H94" t="s">
-        <v>109</v>
+      <c r="E94">
+        <v>0.235565511699905</v>
+      </c>
+      <c r="F94">
+        <v>0.237439897131001</v>
+      </c>
+      <c r="G94">
+        <v>0.23764648620253501</v>
+      </c>
+      <c r="H94">
+        <v>0.24062552278760199</v>
       </c>
       <c r="I94">
-        <v>15921004.6310296</v>
+        <v>0.239379772063743</v>
       </c>
       <c r="J94">
-        <v>15855004.6310296</v>
+        <v>0.24529894176025799</v>
       </c>
       <c r="K94">
-        <v>16419004.6310296</v>
+        <v>0.265944253728575</v>
       </c>
       <c r="L94">
-        <v>16850004.631029598</v>
+        <v>0.24549835501811901</v>
       </c>
       <c r="M94">
-        <v>17286004.631029598</v>
+        <v>0.242440812519088</v>
       </c>
       <c r="N94">
-        <v>15520004.6310296</v>
+        <v>0.243283712558961</v>
       </c>
       <c r="O94">
-        <v>15520004.6310296</v>
+        <v>0.241948639340092</v>
       </c>
       <c r="P94">
-        <v>15520004.6310296</v>
+        <v>0.241948639340092</v>
       </c>
     </row>
     <row r="95" spans="1:16">
       <c r="A95" s="5" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="B95" t="s">
         <v>112</v>
       </c>
       <c r="C95" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D95" t="s">
         <v>109</v>
@@ -6854,296 +6856,296 @@
       <c r="F95" t="s">
         <v>109</v>
       </c>
-      <c r="G95" t="s">
-        <v>109</v>
-      </c>
-      <c r="H95" t="s">
-        <v>109</v>
-      </c>
-      <c r="I95" t="s">
-        <v>109</v>
-      </c>
-      <c r="J95">
-        <v>1.8416900726653</v>
-      </c>
-      <c r="K95">
-        <v>1.7784272120762901</v>
-      </c>
-      <c r="L95">
-        <v>1.75667634989967</v>
-      </c>
-      <c r="M95">
-        <v>1.7470783605378899</v>
-      </c>
-      <c r="N95">
-        <v>1.82989665958273</v>
-      </c>
-      <c r="O95">
-        <v>1.82989665958273</v>
-      </c>
-      <c r="P95">
-        <v>1.82989665958273</v>
+      <c r="G95" s="4">
+        <v>1.1281847590104501E-9</v>
+      </c>
+      <c r="H95" s="4">
+        <v>1.07976618962186E-9</v>
+      </c>
+      <c r="I95" s="4">
+        <v>1.07395273335092E-9</v>
+      </c>
+      <c r="J95" s="4">
+        <v>7.1788094253873198E-6</v>
+      </c>
+      <c r="K95" s="4">
+        <v>1.43138630794245E-5</v>
+      </c>
+      <c r="L95" s="4">
+        <v>2.07557732976029E-5</v>
+      </c>
+      <c r="M95" s="4">
+        <v>2.6061274042782299E-5</v>
+      </c>
+      <c r="N95" s="4">
+        <v>2.3550537345723801E-5</v>
+      </c>
+      <c r="O95" s="4">
+        <v>1.6954161546225199E-5</v>
+      </c>
+      <c r="P95" s="4">
+        <v>1.6954161546225199E-5</v>
       </c>
     </row>
     <row r="96" spans="1:16">
       <c r="A96" s="5" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="B96" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C96" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D96" t="s">
         <v>109</v>
       </c>
-      <c r="E96" t="s">
-        <v>109</v>
-      </c>
-      <c r="F96" t="s">
-        <v>109</v>
-      </c>
-      <c r="G96" t="s">
-        <v>109</v>
-      </c>
-      <c r="H96" t="s">
-        <v>109</v>
-      </c>
-      <c r="I96" t="s">
-        <v>109</v>
+      <c r="E96">
+        <v>1968704.15493443</v>
+      </c>
+      <c r="F96">
+        <v>2832949.15493443</v>
+      </c>
+      <c r="G96">
+        <v>12866001.154934401</v>
+      </c>
+      <c r="H96">
+        <v>13663001.154934401</v>
+      </c>
+      <c r="I96">
+        <v>14934001.154934401</v>
       </c>
       <c r="J96">
-        <v>0.22705793626727</v>
+        <v>16918001.154934399</v>
       </c>
       <c r="K96">
-        <v>0.231439403083431</v>
+        <v>16977001.154934399</v>
       </c>
       <c r="L96">
-        <v>0.23738893363052799</v>
+        <v>17293001.154934399</v>
       </c>
       <c r="M96">
-        <v>0.23140133977803601</v>
+        <v>18162001.154934399</v>
       </c>
       <c r="N96">
-        <v>0.23195899206318399</v>
+        <v>17976001.154934399</v>
       </c>
       <c r="O96">
-        <v>0.23195899206318399</v>
+        <v>16065001.154934401</v>
       </c>
       <c r="P96">
-        <v>0.23195899206318399</v>
+        <v>16065001.154934401</v>
       </c>
     </row>
     <row r="97" spans="1:16">
       <c r="A97" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B97" t="s">
         <v>106</v>
       </c>
       <c r="C97" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D97" t="s">
         <v>109</v>
       </c>
       <c r="E97">
-        <v>185584163.90193</v>
+        <v>52966.154934429302</v>
       </c>
       <c r="F97">
-        <v>188513981.90193</v>
+        <v>58302.154934429302</v>
       </c>
       <c r="G97">
-        <v>189986958.90193</v>
+        <v>61001.154934429302</v>
       </c>
       <c r="H97">
-        <v>200994691.90193</v>
+        <v>202001.15493442901</v>
       </c>
       <c r="I97">
-        <v>201036494.90193</v>
+        <v>130001.154934429</v>
       </c>
       <c r="J97">
-        <v>213050961.90193</v>
+        <v>409001.15493442898</v>
       </c>
       <c r="K97">
-        <v>231671486.10192901</v>
+        <v>1265001.15493443</v>
       </c>
       <c r="L97">
-        <v>221222495.90193</v>
+        <v>1818001.15493443</v>
       </c>
       <c r="M97">
-        <v>231986764.90193</v>
+        <v>2090001.15493443</v>
       </c>
       <c r="N97">
-        <v>240369173.90193</v>
+        <v>2289001.15493443</v>
       </c>
       <c r="O97">
-        <v>226132940.90193</v>
+        <v>2403001.15493443</v>
       </c>
       <c r="P97">
-        <v>226132940.90193</v>
+        <v>2403001.15493443</v>
       </c>
     </row>
     <row r="98" spans="1:16">
       <c r="A98" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B98" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C98" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D98" t="s">
         <v>109</v>
       </c>
-      <c r="E98" t="s">
-        <v>109</v>
-      </c>
-      <c r="F98" t="s">
-        <v>109</v>
+      <c r="E98">
+        <v>34887601.154934399</v>
+      </c>
+      <c r="F98">
+        <v>35434801.154934399</v>
       </c>
       <c r="G98">
-        <v>0.90192956297796201</v>
+        <v>38350801.154934399</v>
       </c>
       <c r="H98">
-        <v>0.90192956297796201</v>
+        <v>56516401.154934399</v>
       </c>
       <c r="I98">
-        <v>0.90192956297796201</v>
+        <v>61902001.154934399</v>
       </c>
       <c r="J98">
-        <v>6235.0544295629797</v>
+        <v>71791201.154934406</v>
       </c>
       <c r="K98">
-        <v>12469.206929563001</v>
+        <v>72248401.154934406</v>
       </c>
       <c r="L98">
-        <v>18703.359429562999</v>
+        <v>73062001.154934406</v>
       </c>
       <c r="M98">
-        <v>24937.511929562999</v>
+        <v>77691601.154934406</v>
       </c>
       <c r="N98">
-        <v>23268.401929562999</v>
+        <v>73011601.154934406</v>
       </c>
       <c r="O98">
-        <v>15845.901929563001</v>
+        <v>65804401.154934399</v>
       </c>
       <c r="P98">
-        <v>15845.901929563001</v>
+        <v>65804401.154934399</v>
       </c>
     </row>
     <row r="99" spans="1:16">
       <c r="A99" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B99" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C99" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D99" t="s">
         <v>109</v>
       </c>
       <c r="E99">
-        <v>787824000.90192997</v>
+        <v>5.6429908900629003E-2</v>
       </c>
       <c r="F99">
-        <v>793944000.90192997</v>
+        <v>7.99482165159527E-2</v>
       </c>
       <c r="G99">
-        <v>799452000.90192997</v>
+        <v>0.33548193955471001</v>
       </c>
       <c r="H99">
-        <v>835300800.90192997</v>
+        <v>0.24175285183992101</v>
       </c>
       <c r="I99">
-        <v>839822400.90192997</v>
+        <v>0.241252316182091</v>
       </c>
       <c r="J99">
-        <v>868536000.90192997</v>
+        <v>0.23565563582678101</v>
       </c>
       <c r="K99">
-        <v>871128000.90192997</v>
+        <v>0.2349809945071</v>
       </c>
       <c r="L99">
-        <v>901116000.90192997</v>
+        <v>0.236689399161995</v>
       </c>
       <c r="M99">
-        <v>956880000.90192997</v>
+        <v>0.23377045761633</v>
       </c>
       <c r="N99">
-        <v>988020000.90192997</v>
+        <v>0.24620746389040901</v>
       </c>
       <c r="O99">
-        <v>934632000.90192997</v>
+        <v>0.244132624459417</v>
       </c>
       <c r="P99">
-        <v>934632000.90192997</v>
+        <v>0.244132624459417</v>
       </c>
     </row>
     <row r="100" spans="1:16">
       <c r="A100" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B100" t="s">
         <v>112</v>
       </c>
       <c r="C100" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D100" t="s">
         <v>109</v>
       </c>
       <c r="E100">
-        <v>0.235565511699905</v>
+        <v>1.51819423465685E-3</v>
       </c>
       <c r="F100">
-        <v>0.237439897131001</v>
+        <v>1.64533602656637E-3</v>
       </c>
       <c r="G100">
-        <v>0.23764648620253501</v>
+        <v>1.5906096638760999E-3</v>
       </c>
       <c r="H100">
-        <v>0.24062552278760199</v>
+        <v>3.57420413908986E-3</v>
       </c>
       <c r="I100">
-        <v>0.239379772063743</v>
+        <v>2.1001123147707198E-3</v>
       </c>
       <c r="J100">
-        <v>0.24529894176025799</v>
+        <v>5.6970930748428796E-3</v>
       </c>
       <c r="K100">
-        <v>0.265944253728575</v>
+        <v>1.7509053968151798E-2</v>
       </c>
       <c r="L100">
-        <v>0.24549835501811901</v>
+        <v>2.4882991516742E-2</v>
       </c>
       <c r="M100">
-        <v>0.242440812519088</v>
+        <v>2.69012496056877E-2</v>
       </c>
       <c r="N100">
-        <v>0.243283712558961</v>
+        <v>3.1351197874390502E-2</v>
       </c>
       <c r="O100">
-        <v>0.241948639340092</v>
+        <v>3.65173318616887E-2</v>
       </c>
       <c r="P100">
-        <v>0.241948639340092</v>
+        <v>3.65173318616887E-2</v>
       </c>
     </row>
     <row r="101" spans="1:16">
       <c r="A101" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B101" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C101" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D101" t="s">
         <v>109</v>
@@ -7154,346 +7156,346 @@
       <c r="F101" t="s">
         <v>109</v>
       </c>
-      <c r="G101" s="4">
-        <v>1.1281847590104501E-9</v>
-      </c>
-      <c r="H101" s="4">
-        <v>1.07976618962186E-9</v>
-      </c>
-      <c r="I101" s="4">
-        <v>1.07395273335092E-9</v>
-      </c>
-      <c r="J101" s="4">
-        <v>7.1788094253873198E-6</v>
-      </c>
-      <c r="K101" s="4">
-        <v>1.43138630794245E-5</v>
-      </c>
-      <c r="L101" s="4">
-        <v>2.07557732976029E-5</v>
-      </c>
-      <c r="M101" s="4">
-        <v>2.6061274042782299E-5</v>
-      </c>
-      <c r="N101" s="4">
-        <v>2.3550537345723801E-5</v>
-      </c>
-      <c r="O101" s="4">
-        <v>1.6954161546225199E-5</v>
-      </c>
-      <c r="P101" s="4">
-        <v>1.6954161546225199E-5</v>
+      <c r="G101" t="s">
+        <v>109</v>
+      </c>
+      <c r="H101" t="s">
+        <v>109</v>
+      </c>
+      <c r="I101" t="s">
+        <v>109</v>
+      </c>
+      <c r="J101" t="s">
+        <v>109</v>
+      </c>
+      <c r="K101" t="s">
+        <v>109</v>
+      </c>
+      <c r="L101" t="s">
+        <v>109</v>
+      </c>
+      <c r="M101" t="s">
+        <v>109</v>
+      </c>
+      <c r="N101" t="s">
+        <v>109</v>
+      </c>
+      <c r="O101" t="s">
+        <v>109</v>
+      </c>
+      <c r="P101" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="102" spans="1:16">
       <c r="A102" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B102" t="s">
         <v>106</v>
       </c>
       <c r="C102" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D102" t="s">
         <v>109</v>
       </c>
-      <c r="E102">
-        <v>1968704.15493443</v>
-      </c>
-      <c r="F102">
-        <v>2832949.15493443</v>
-      </c>
-      <c r="G102">
-        <v>12866001.154934401</v>
-      </c>
-      <c r="H102">
-        <v>13663001.154934401</v>
-      </c>
-      <c r="I102">
-        <v>14934001.154934401</v>
-      </c>
-      <c r="J102">
-        <v>16918001.154934399</v>
-      </c>
-      <c r="K102">
-        <v>16977001.154934399</v>
-      </c>
-      <c r="L102">
-        <v>17293001.154934399</v>
-      </c>
-      <c r="M102">
-        <v>18162001.154934399</v>
-      </c>
-      <c r="N102">
-        <v>17976001.154934399</v>
-      </c>
-      <c r="O102">
-        <v>16065001.154934401</v>
-      </c>
-      <c r="P102">
-        <v>16065001.154934401</v>
+      <c r="E102" t="s">
+        <v>109</v>
+      </c>
+      <c r="F102" t="s">
+        <v>109</v>
+      </c>
+      <c r="G102" t="s">
+        <v>109</v>
+      </c>
+      <c r="H102" t="s">
+        <v>109</v>
+      </c>
+      <c r="I102" t="s">
+        <v>109</v>
+      </c>
+      <c r="J102" t="s">
+        <v>109</v>
+      </c>
+      <c r="K102" t="s">
+        <v>109</v>
+      </c>
+      <c r="L102" t="s">
+        <v>109</v>
+      </c>
+      <c r="M102" t="s">
+        <v>109</v>
+      </c>
+      <c r="N102" t="s">
+        <v>109</v>
+      </c>
+      <c r="O102" t="s">
+        <v>109</v>
+      </c>
+      <c r="P102" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="103" spans="1:16">
       <c r="A103" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B103" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C103" t="s">
-        <v>108</v>
-      </c>
-      <c r="D103" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="D103">
+        <v>193680004.28137201</v>
       </c>
       <c r="E103">
-        <v>52966.154934429302</v>
+        <v>189828004.28137201</v>
       </c>
       <c r="F103">
-        <v>58302.154934429302</v>
+        <v>203472004.28137201</v>
       </c>
       <c r="G103">
-        <v>61001.154934429302</v>
+        <v>205380004.28137201</v>
       </c>
       <c r="H103">
-        <v>202001.15493442901</v>
+        <v>205344004.28137201</v>
       </c>
       <c r="I103">
-        <v>130001.154934429</v>
+        <v>197424004.28137201</v>
       </c>
       <c r="J103">
-        <v>409001.15493442898</v>
+        <v>200088004.28137201</v>
       </c>
       <c r="K103">
-        <v>1265001.15493443</v>
+        <v>193212004.28137201</v>
       </c>
       <c r="L103">
-        <v>1818001.15493443</v>
+        <v>233684004.28137201</v>
       </c>
       <c r="M103">
-        <v>2090001.15493443</v>
+        <v>288420004.28137201</v>
       </c>
       <c r="N103">
-        <v>2289001.15493443</v>
+        <v>288420004.28137201</v>
       </c>
       <c r="O103">
-        <v>2403001.15493443</v>
+        <v>288420004.28137201</v>
       </c>
       <c r="P103">
-        <v>2403001.15493443</v>
+        <v>288420004.28137201</v>
       </c>
     </row>
     <row r="104" spans="1:16">
       <c r="A104" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B104" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C104" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D104" t="s">
         <v>109</v>
       </c>
-      <c r="E104">
-        <v>34887601.154934399</v>
-      </c>
-      <c r="F104">
-        <v>35434801.154934399</v>
-      </c>
-      <c r="G104">
-        <v>38350801.154934399</v>
-      </c>
-      <c r="H104">
-        <v>56516401.154934399</v>
-      </c>
-      <c r="I104">
-        <v>61902001.154934399</v>
-      </c>
-      <c r="J104">
-        <v>71791201.154934406</v>
-      </c>
-      <c r="K104">
-        <v>72248401.154934406</v>
-      </c>
-      <c r="L104">
-        <v>73062001.154934406</v>
-      </c>
-      <c r="M104">
-        <v>77691601.154934406</v>
-      </c>
-      <c r="N104">
-        <v>73011601.154934406</v>
-      </c>
-      <c r="O104">
-        <v>65804401.154934399</v>
-      </c>
-      <c r="P104">
-        <v>65804401.154934399</v>
+      <c r="E104" t="s">
+        <v>109</v>
+      </c>
+      <c r="F104" t="s">
+        <v>109</v>
+      </c>
+      <c r="G104" t="s">
+        <v>109</v>
+      </c>
+      <c r="H104" t="s">
+        <v>109</v>
+      </c>
+      <c r="I104" t="s">
+        <v>109</v>
+      </c>
+      <c r="J104" t="s">
+        <v>109</v>
+      </c>
+      <c r="K104" t="s">
+        <v>109</v>
+      </c>
+      <c r="L104" t="s">
+        <v>109</v>
+      </c>
+      <c r="M104" t="s">
+        <v>109</v>
+      </c>
+      <c r="N104" t="s">
+        <v>109</v>
+      </c>
+      <c r="O104" t="s">
+        <v>109</v>
+      </c>
+      <c r="P104" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="105" spans="1:16">
       <c r="A105" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B105" t="s">
         <v>112</v>
       </c>
       <c r="C105" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D105" t="s">
         <v>109</v>
       </c>
-      <c r="E105">
-        <v>5.6429908900629003E-2</v>
-      </c>
-      <c r="F105">
-        <v>7.99482165159527E-2</v>
-      </c>
-      <c r="G105">
-        <v>0.33548193955471001</v>
-      </c>
-      <c r="H105">
-        <v>0.24175285183992101</v>
-      </c>
-      <c r="I105">
-        <v>0.241252316182091</v>
-      </c>
-      <c r="J105">
-        <v>0.23565563582678101</v>
-      </c>
-      <c r="K105">
-        <v>0.2349809945071</v>
-      </c>
-      <c r="L105">
-        <v>0.236689399161995</v>
-      </c>
-      <c r="M105">
-        <v>0.23377045761633</v>
-      </c>
-      <c r="N105">
-        <v>0.24620746389040901</v>
-      </c>
-      <c r="O105">
-        <v>0.244132624459417</v>
-      </c>
-      <c r="P105">
-        <v>0.244132624459417</v>
+      <c r="E105" t="s">
+        <v>109</v>
+      </c>
+      <c r="F105" t="s">
+        <v>109</v>
+      </c>
+      <c r="G105" t="s">
+        <v>109</v>
+      </c>
+      <c r="H105" t="s">
+        <v>109</v>
+      </c>
+      <c r="I105" t="s">
+        <v>109</v>
+      </c>
+      <c r="J105" t="s">
+        <v>109</v>
+      </c>
+      <c r="K105" t="s">
+        <v>109</v>
+      </c>
+      <c r="L105" t="s">
+        <v>109</v>
+      </c>
+      <c r="M105" t="s">
+        <v>109</v>
+      </c>
+      <c r="N105" t="s">
+        <v>109</v>
+      </c>
+      <c r="O105" t="s">
+        <v>109</v>
+      </c>
+      <c r="P105" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="106" spans="1:16">
       <c r="A106" s="5" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="B106" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C106" t="s">
-        <v>108</v>
-      </c>
-      <c r="D106" t="s">
-        <v>109</v>
+        <v>107</v>
+      </c>
+      <c r="D106">
+        <v>60457000.425667897</v>
       </c>
       <c r="E106">
-        <v>1.51819423465685E-3</v>
+        <v>68748000.425667897</v>
       </c>
       <c r="F106">
-        <v>1.64533602656637E-3</v>
+        <v>74602000.425667897</v>
       </c>
       <c r="G106">
-        <v>1.5906096638760999E-3</v>
+        <v>85678000.425667897</v>
       </c>
       <c r="H106">
-        <v>3.57420413908986E-3</v>
+        <v>79928000.425667897</v>
       </c>
       <c r="I106">
-        <v>2.1001123147707198E-3</v>
+        <v>84451000.425667897</v>
       </c>
       <c r="J106">
-        <v>5.6970930748428796E-3</v>
+        <v>82741000.425667897</v>
       </c>
       <c r="K106">
-        <v>1.7509053968151798E-2</v>
+        <v>81346000.425667897</v>
       </c>
       <c r="L106">
-        <v>2.4882991516742E-2</v>
+        <v>67743000.425667897</v>
       </c>
       <c r="M106">
-        <v>2.69012496056877E-2</v>
+        <v>69687000.425667897</v>
       </c>
       <c r="N106">
-        <v>3.1351197874390502E-2</v>
+        <v>79447000.425667897</v>
       </c>
       <c r="O106">
-        <v>3.65173318616887E-2</v>
+        <v>79447000.425667897</v>
       </c>
       <c r="P106">
-        <v>3.65173318616887E-2</v>
+        <v>79447000.425667897</v>
       </c>
     </row>
     <row r="107" spans="1:16">
       <c r="A107" s="5" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B107" t="s">
         <v>106</v>
       </c>
       <c r="C107" t="s">
-        <v>107</v>
-      </c>
-      <c r="D107" t="s">
-        <v>109</v>
-      </c>
-      <c r="E107" t="s">
-        <v>109</v>
-      </c>
-      <c r="F107" t="s">
-        <v>109</v>
-      </c>
-      <c r="G107" t="s">
-        <v>109</v>
-      </c>
-      <c r="H107" t="s">
-        <v>109</v>
-      </c>
-      <c r="I107" t="s">
-        <v>109</v>
-      </c>
-      <c r="J107" t="s">
-        <v>109</v>
-      </c>
-      <c r="K107" t="s">
-        <v>109</v>
-      </c>
-      <c r="L107" t="s">
-        <v>109</v>
-      </c>
-      <c r="M107" t="s">
-        <v>109</v>
-      </c>
-      <c r="N107" t="s">
-        <v>109</v>
-      </c>
-      <c r="O107" t="s">
-        <v>109</v>
-      </c>
-      <c r="P107" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="D107">
+        <v>2698000.4256679299</v>
+      </c>
+      <c r="E107">
+        <v>3033000.4256679299</v>
+      </c>
+      <c r="F107">
+        <v>3625000.4256679299</v>
+      </c>
+      <c r="G107">
+        <v>3682000.4256679299</v>
+      </c>
+      <c r="H107">
+        <v>4539000.4256679304</v>
+      </c>
+      <c r="I107">
+        <v>5032000.4256679304</v>
+      </c>
+      <c r="J107">
+        <v>4431000.4256679304</v>
+      </c>
+      <c r="K107">
+        <v>3719000.4256679299</v>
+      </c>
+      <c r="L107">
+        <v>2956000.4256679299</v>
+      </c>
+      <c r="M107">
+        <v>2802000.4256679299</v>
+      </c>
+      <c r="N107">
+        <v>795000.42566793202</v>
+      </c>
+      <c r="O107">
+        <v>795000.42566793202</v>
+      </c>
+      <c r="P107">
+        <v>795000.42566793202</v>
       </c>
     </row>
     <row r="108" spans="1:16">
       <c r="A108" s="5" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B108" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C108" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D108" t="s">
         <v>109</v>
@@ -7537,63 +7539,63 @@
     </row>
     <row r="109" spans="1:16">
       <c r="A109" s="5" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B109" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C109" t="s">
-        <v>111</v>
-      </c>
-      <c r="D109">
-        <v>193680004.28137201</v>
-      </c>
-      <c r="E109">
-        <v>189828004.28137201</v>
-      </c>
-      <c r="F109">
-        <v>203472004.28137201</v>
-      </c>
-      <c r="G109">
-        <v>205380004.28137201</v>
-      </c>
-      <c r="H109">
-        <v>205344004.28137201</v>
-      </c>
-      <c r="I109">
-        <v>197424004.28137201</v>
-      </c>
-      <c r="J109">
-        <v>200088004.28137201</v>
-      </c>
-      <c r="K109">
-        <v>193212004.28137201</v>
-      </c>
-      <c r="L109">
-        <v>233684004.28137201</v>
-      </c>
-      <c r="M109">
-        <v>288420004.28137201</v>
-      </c>
-      <c r="N109">
-        <v>288420004.28137201</v>
-      </c>
-      <c r="O109">
-        <v>288420004.28137201</v>
-      </c>
-      <c r="P109">
-        <v>288420004.28137201</v>
+        <v>107</v>
+      </c>
+      <c r="D109" t="s">
+        <v>109</v>
+      </c>
+      <c r="E109" t="s">
+        <v>109</v>
+      </c>
+      <c r="F109" t="s">
+        <v>109</v>
+      </c>
+      <c r="G109" t="s">
+        <v>109</v>
+      </c>
+      <c r="H109" t="s">
+        <v>109</v>
+      </c>
+      <c r="I109" t="s">
+        <v>109</v>
+      </c>
+      <c r="J109" t="s">
+        <v>109</v>
+      </c>
+      <c r="K109" t="s">
+        <v>109</v>
+      </c>
+      <c r="L109" t="s">
+        <v>109</v>
+      </c>
+      <c r="M109" t="s">
+        <v>109</v>
+      </c>
+      <c r="N109" t="s">
+        <v>109</v>
+      </c>
+      <c r="O109" t="s">
+        <v>109</v>
+      </c>
+      <c r="P109" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="110" spans="1:16">
       <c r="A110" s="5" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B110" t="s">
         <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D110" t="s">
         <v>109</v>
@@ -7637,863 +7639,863 @@
     </row>
     <row r="111" spans="1:16">
       <c r="A111" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B111" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C111" t="s">
-        <v>108</v>
-      </c>
-      <c r="D111" t="s">
-        <v>109</v>
-      </c>
-      <c r="E111" t="s">
-        <v>109</v>
-      </c>
-      <c r="F111" t="s">
-        <v>109</v>
-      </c>
-      <c r="G111" t="s">
-        <v>109</v>
-      </c>
-      <c r="H111" t="s">
-        <v>109</v>
-      </c>
-      <c r="I111" t="s">
-        <v>109</v>
-      </c>
-      <c r="J111" t="s">
-        <v>109</v>
-      </c>
-      <c r="K111" t="s">
-        <v>109</v>
-      </c>
-      <c r="L111" t="s">
-        <v>109</v>
-      </c>
-      <c r="M111" t="s">
-        <v>109</v>
-      </c>
-      <c r="N111" t="s">
-        <v>109</v>
-      </c>
-      <c r="O111" t="s">
-        <v>109</v>
-      </c>
-      <c r="P111" t="s">
-        <v>109</v>
+        <v>107</v>
+      </c>
+      <c r="D111">
+        <v>9150002.1404963192</v>
+      </c>
+      <c r="E111">
+        <v>8650002.1404963192</v>
+      </c>
+      <c r="F111">
+        <v>8631002.1404963192</v>
+      </c>
+      <c r="G111">
+        <v>8960002.1404963192</v>
+      </c>
+      <c r="H111">
+        <v>9296403.9404963199</v>
+      </c>
+      <c r="I111">
+        <v>9632805.7404963206</v>
+      </c>
+      <c r="J111">
+        <v>9969207.5404963195</v>
+      </c>
+      <c r="K111">
+        <v>10305609.3404963</v>
+      </c>
+      <c r="L111">
+        <v>10642011.140496301</v>
+      </c>
+      <c r="M111">
+        <v>11403118.140496301</v>
+      </c>
+      <c r="N111">
+        <v>9681777.1404963192</v>
+      </c>
+      <c r="O111">
+        <v>9681777.1404963192</v>
+      </c>
+      <c r="P111">
+        <v>9681777.1404963192</v>
       </c>
     </row>
     <row r="112" spans="1:16">
       <c r="A112" s="5" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="B112" t="s">
         <v>106</v>
       </c>
       <c r="C112" t="s">
-        <v>107</v>
-      </c>
-      <c r="D112">
-        <v>60457000.425667897</v>
+        <v>108</v>
+      </c>
+      <c r="D112" t="s">
+        <v>109</v>
       </c>
       <c r="E112">
-        <v>68748000.425667897</v>
+        <v>2.1404963152268799</v>
       </c>
       <c r="F112">
-        <v>74602000.425667897</v>
+        <v>2.1404963152268799</v>
       </c>
       <c r="G112">
-        <v>85678000.425667897</v>
+        <v>2.1404963152268799</v>
       </c>
       <c r="H112">
-        <v>79928000.425667897</v>
+        <v>310616.54049631499</v>
       </c>
       <c r="I112">
-        <v>84451000.425667897</v>
+        <v>621230.94049631502</v>
       </c>
       <c r="J112">
-        <v>82741000.425667897</v>
+        <v>931845.34049631504</v>
       </c>
       <c r="K112">
-        <v>81346000.425667897</v>
+        <v>1242459.74049632</v>
       </c>
       <c r="L112">
-        <v>67743000.425667897</v>
+        <v>1553074.1404963101</v>
       </c>
       <c r="M112">
-        <v>69687000.425667897</v>
+        <v>1239860.1404963101</v>
       </c>
       <c r="N112">
-        <v>79447000.425667897</v>
+        <v>1203273.1404963101</v>
       </c>
       <c r="O112">
-        <v>79447000.425667897</v>
+        <v>1203273.1404963101</v>
       </c>
       <c r="P112">
-        <v>79447000.425667897</v>
+        <v>1203273.1404963101</v>
       </c>
     </row>
     <row r="113" spans="1:16">
       <c r="A113" s="5" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="B113" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C113" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D113">
-        <v>2698000.4256679299</v>
+        <v>44323202.140496299</v>
       </c>
       <c r="E113">
-        <v>3033000.4256679299</v>
+        <v>40827602.140496299</v>
       </c>
       <c r="F113">
-        <v>3625000.4256679299</v>
+        <v>40676402.140496299</v>
       </c>
       <c r="G113">
-        <v>3682000.4256679299</v>
+        <v>39729602.140496299</v>
       </c>
       <c r="H113">
-        <v>4539000.4256679304</v>
+        <v>38782802.140496299</v>
       </c>
       <c r="I113">
-        <v>5032000.4256679304</v>
+        <v>52791723.222496301</v>
       </c>
       <c r="J113">
-        <v>4431000.4256679304</v>
+        <v>59593083.650496297</v>
       </c>
       <c r="K113">
-        <v>3719000.4256679299</v>
+        <v>64762513.956496298</v>
       </c>
       <c r="L113">
-        <v>2956000.4256679299</v>
+        <v>60584801.540496297</v>
       </c>
       <c r="M113">
-        <v>2802000.4256679299</v>
+        <v>46522116.892496303</v>
       </c>
       <c r="N113">
-        <v>795000.42566793202</v>
+        <v>47691749.886496298</v>
       </c>
       <c r="O113">
-        <v>795000.42566793202</v>
+        <v>47691749.886496298</v>
       </c>
       <c r="P113">
-        <v>795000.42566793202</v>
+        <v>47691749.886496298</v>
       </c>
     </row>
     <row r="114" spans="1:16">
       <c r="A114" s="5" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="B114" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C114" t="s">
-        <v>111</v>
-      </c>
-      <c r="D114" t="s">
-        <v>109</v>
-      </c>
-      <c r="E114" t="s">
-        <v>109</v>
-      </c>
-      <c r="F114" t="s">
-        <v>109</v>
-      </c>
-      <c r="G114" t="s">
-        <v>109</v>
-      </c>
-      <c r="H114" t="s">
-        <v>109</v>
-      </c>
-      <c r="I114" t="s">
-        <v>109</v>
-      </c>
-      <c r="J114" t="s">
-        <v>109</v>
-      </c>
-      <c r="K114" t="s">
-        <v>109</v>
-      </c>
-      <c r="L114" t="s">
-        <v>109</v>
-      </c>
-      <c r="M114" t="s">
-        <v>109</v>
-      </c>
-      <c r="N114" t="s">
-        <v>109</v>
-      </c>
-      <c r="O114" t="s">
-        <v>109</v>
-      </c>
-      <c r="P114" t="s">
-        <v>109</v>
+        <v>107</v>
+      </c>
+      <c r="D114">
+        <v>0.20643820163291701</v>
+      </c>
+      <c r="E114">
+        <v>0.211866523797549</v>
+      </c>
+      <c r="F114">
+        <v>0.212186960653128</v>
+      </c>
+      <c r="G114">
+        <v>0.22552458765660299</v>
+      </c>
+      <c r="H114">
+        <v>0.239704287143016</v>
+      </c>
+      <c r="I114">
+        <v>0.18246810584109599</v>
+      </c>
+      <c r="J114">
+        <v>0.16728799601920399</v>
+      </c>
+      <c r="K114">
+        <v>0.159129235585558</v>
+      </c>
+      <c r="L114">
+        <v>0.17565479905687201</v>
+      </c>
+      <c r="M114">
+        <v>0.24511176408517099</v>
+      </c>
+      <c r="N114">
+        <v>0.20300737891854301</v>
+      </c>
+      <c r="O114">
+        <v>0.20300737891854301</v>
+      </c>
+      <c r="P114">
+        <v>0.20300737891854301</v>
       </c>
     </row>
     <row r="115" spans="1:16">
       <c r="A115" s="5" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="B115" t="s">
         <v>112</v>
       </c>
       <c r="C115" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D115" t="s">
         <v>109</v>
       </c>
-      <c r="E115" t="s">
-        <v>109</v>
-      </c>
-      <c r="F115" t="s">
-        <v>109</v>
-      </c>
-      <c r="G115" t="s">
-        <v>109</v>
-      </c>
-      <c r="H115" t="s">
-        <v>109</v>
-      </c>
-      <c r="I115" t="s">
-        <v>109</v>
-      </c>
-      <c r="J115" t="s">
-        <v>109</v>
-      </c>
-      <c r="K115" t="s">
-        <v>109</v>
-      </c>
-      <c r="L115" t="s">
-        <v>109</v>
-      </c>
-      <c r="M115" t="s">
-        <v>109</v>
-      </c>
-      <c r="N115" t="s">
-        <v>109</v>
-      </c>
-      <c r="O115" t="s">
-        <v>109</v>
-      </c>
-      <c r="P115" t="s">
-        <v>109</v>
+      <c r="E115" s="4">
+        <v>5.2427676449402701E-8</v>
+      </c>
+      <c r="F115" s="4">
+        <v>5.2622557615435301E-8</v>
+      </c>
+      <c r="G115" s="4">
+        <v>5.3876610887202302E-8</v>
+      </c>
+      <c r="H115">
+        <v>8.0091309382716008E-3</v>
+      </c>
+      <c r="I115">
+        <v>1.17675821620384E-2</v>
+      </c>
+      <c r="J115">
+        <v>1.5636803525077399E-2</v>
+      </c>
+      <c r="K115">
+        <v>1.9184859644746501E-2</v>
+      </c>
+      <c r="L115">
+        <v>2.5634715324737101E-2</v>
+      </c>
+      <c r="M115">
+        <v>2.6650982872542001E-2</v>
+      </c>
+      <c r="N115">
+        <v>2.52302157786208E-2</v>
+      </c>
+      <c r="O115">
+        <v>2.52302157786208E-2</v>
+      </c>
+      <c r="P115">
+        <v>2.52302157786208E-2</v>
       </c>
     </row>
     <row r="116" spans="1:16">
       <c r="A116" s="5" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="B116" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C116" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D116" t="s">
         <v>109</v>
       </c>
-      <c r="E116" t="s">
-        <v>109</v>
-      </c>
-      <c r="F116" t="s">
-        <v>109</v>
-      </c>
-      <c r="G116" t="s">
-        <v>109</v>
-      </c>
-      <c r="H116" t="s">
-        <v>109</v>
-      </c>
-      <c r="I116" t="s">
-        <v>109</v>
-      </c>
-      <c r="J116" t="s">
-        <v>109</v>
-      </c>
-      <c r="K116" t="s">
-        <v>109</v>
-      </c>
-      <c r="L116" t="s">
-        <v>109</v>
-      </c>
-      <c r="M116" t="s">
-        <v>109</v>
-      </c>
-      <c r="N116" t="s">
-        <v>109</v>
-      </c>
-      <c r="O116" t="s">
-        <v>109</v>
-      </c>
-      <c r="P116" t="s">
-        <v>109</v>
+      <c r="E116">
+        <v>167100001.12938699</v>
+      </c>
+      <c r="F116">
+        <v>163800001.12938699</v>
+      </c>
+      <c r="G116">
+        <v>181700001.12938699</v>
+      </c>
+      <c r="H116">
+        <v>165800001.12938699</v>
+      </c>
+      <c r="I116">
+        <v>156600001.12938699</v>
+      </c>
+      <c r="J116">
+        <v>152300001.12938699</v>
+      </c>
+      <c r="K116">
+        <v>154000001.12938699</v>
+      </c>
+      <c r="L116">
+        <v>135600001.12938699</v>
+      </c>
+      <c r="M116">
+        <v>120400001.12938701</v>
+      </c>
+      <c r="N116">
+        <v>91700001.129387006</v>
+      </c>
+      <c r="O116">
+        <v>70400001.129387006</v>
+      </c>
+      <c r="P116">
+        <v>70400001.129387006</v>
       </c>
     </row>
     <row r="117" spans="1:16">
       <c r="A117" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B117" t="s">
         <v>106</v>
       </c>
       <c r="C117" t="s">
-        <v>107</v>
-      </c>
-      <c r="D117">
-        <v>9150002.1404963192</v>
+        <v>108</v>
+      </c>
+      <c r="D117" t="s">
+        <v>109</v>
       </c>
       <c r="E117">
-        <v>8650002.1404963192</v>
+        <v>3100001.1293870099</v>
       </c>
       <c r="F117">
-        <v>8631002.1404963192</v>
+        <v>2400001.1293870099</v>
       </c>
       <c r="G117">
-        <v>8960002.1404963192</v>
+        <v>1900001.1293870099</v>
       </c>
       <c r="H117">
-        <v>9296403.9404963199</v>
+        <v>1500001.1293870099</v>
       </c>
       <c r="I117">
-        <v>9632805.7404963206</v>
+        <v>1400001.1293870099</v>
       </c>
       <c r="J117">
-        <v>9969207.5404963195</v>
+        <v>1300001.1293870099</v>
       </c>
       <c r="K117">
-        <v>10305609.3404963</v>
+        <v>1300001.1293870099</v>
       </c>
       <c r="L117">
-        <v>10642011.140496301</v>
+        <v>1000001.12938701</v>
       </c>
       <c r="M117">
-        <v>11403118.140496301</v>
+        <v>5000001.1293870099</v>
       </c>
       <c r="N117">
-        <v>9681777.1404963192</v>
+        <v>4700001.1293870099</v>
       </c>
       <c r="O117">
-        <v>9681777.1404963192</v>
+        <v>2600001.1293870099</v>
       </c>
       <c r="P117">
-        <v>9681777.1404963192</v>
+        <v>2600001.1293870099</v>
       </c>
     </row>
     <row r="118" spans="1:16">
       <c r="A118" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B118" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C118" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D118" t="s">
         <v>109</v>
       </c>
       <c r="E118">
-        <v>2.1404963152268799</v>
+        <v>811080001.12938702</v>
       </c>
       <c r="F118">
-        <v>2.1404963152268799</v>
+        <v>740520001.12938702</v>
       </c>
       <c r="G118">
-        <v>2.1404963152268799</v>
+        <v>817560001.12938702</v>
       </c>
       <c r="H118">
-        <v>310616.54049631499</v>
+        <v>780120001.12938702</v>
       </c>
       <c r="I118">
-        <v>621230.94049631502</v>
+        <v>749880001.12938702</v>
       </c>
       <c r="J118">
-        <v>931845.34049631504</v>
+        <v>766800001.12938702</v>
       </c>
       <c r="K118">
-        <v>1242459.74049632</v>
+        <v>777960001.12938702</v>
       </c>
       <c r="L118">
-        <v>1553074.1404963101</v>
+        <v>720720001.12938702</v>
       </c>
       <c r="M118">
-        <v>1239860.1404963101</v>
+        <v>633600001.12938702</v>
       </c>
       <c r="N118">
-        <v>1203273.1404963101</v>
+        <v>551394001.12938702</v>
       </c>
       <c r="O118">
-        <v>1203273.1404963101</v>
+        <v>528390001.12938702</v>
       </c>
       <c r="P118">
-        <v>1203273.1404963101</v>
+        <v>528390001.12938702</v>
       </c>
     </row>
     <row r="119" spans="1:16">
       <c r="A119" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B119" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C119" t="s">
-        <v>111</v>
-      </c>
-      <c r="D119">
-        <v>44323202.140496299</v>
+        <v>107</v>
+      </c>
+      <c r="D119" t="s">
+        <v>109</v>
       </c>
       <c r="E119">
-        <v>40827602.140496299</v>
+        <v>0.20602160193409899</v>
       </c>
       <c r="F119">
-        <v>40676402.140496299</v>
+        <v>0.22119591757085699</v>
       </c>
       <c r="G119">
-        <v>39729602.140496299</v>
+        <v>0.22224668633297201</v>
       </c>
       <c r="H119">
-        <v>38782802.140496299</v>
+        <v>0.21253140656483199</v>
       </c>
       <c r="I119">
-        <v>52791723.222496301</v>
+        <v>0.20883341453770399</v>
       </c>
       <c r="J119">
-        <v>59593083.650496297</v>
+        <v>0.19861763289654499</v>
       </c>
       <c r="K119">
-        <v>64762513.956496298</v>
+        <v>0.19795362345855899</v>
       </c>
       <c r="L119">
-        <v>60584801.540496297</v>
+        <v>0.18814518941738601</v>
       </c>
       <c r="M119">
-        <v>46522116.892496303</v>
+        <v>0.190025253969026</v>
       </c>
       <c r="N119">
-        <v>47691749.886496298</v>
+        <v>0.166305764918667</v>
       </c>
       <c r="O119">
-        <v>47691749.886496298</v>
+        <v>0.13323492302828099</v>
       </c>
       <c r="P119">
-        <v>47691749.886496298</v>
+        <v>0.13323492302828099</v>
       </c>
     </row>
     <row r="120" spans="1:16">
       <c r="A120" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B120" t="s">
         <v>112</v>
       </c>
       <c r="C120" t="s">
-        <v>107</v>
-      </c>
-      <c r="D120">
-        <v>0.20643820163291701</v>
+        <v>108</v>
+      </c>
+      <c r="D120" t="s">
+        <v>109</v>
       </c>
       <c r="E120">
-        <v>0.211866523797549</v>
+        <v>3.8220657950762201E-3</v>
       </c>
       <c r="F120">
-        <v>0.212186960653128</v>
+        <v>3.2409673279947902E-3</v>
       </c>
       <c r="G120">
-        <v>0.22552458765660299</v>
+        <v>2.3239898316482301E-3</v>
       </c>
       <c r="H120">
-        <v>0.239704287143016</v>
+        <v>1.9227825555240799E-3</v>
       </c>
       <c r="I120">
-        <v>0.18246810584109599</v>
+        <v>1.8669668844061499E-3</v>
       </c>
       <c r="J120">
-        <v>0.16728799601920399</v>
+        <v>1.6953587995204699E-3</v>
       </c>
       <c r="K120">
-        <v>0.159129235585558</v>
+        <v>1.6710385206177201E-3</v>
       </c>
       <c r="L120">
-        <v>0.17565479905687201</v>
+        <v>1.3875029523531799E-3</v>
       </c>
       <c r="M120">
-        <v>0.24511176408517099</v>
+        <v>7.8914159098398794E-3</v>
       </c>
       <c r="N120">
-        <v>0.20300737891854301</v>
+        <v>8.5238524897990903E-3</v>
       </c>
       <c r="O120">
-        <v>0.20300737891854301</v>
+        <v>4.9206100112222702E-3</v>
       </c>
       <c r="P120">
-        <v>0.20300737891854301</v>
+        <v>4.9206100112222702E-3</v>
       </c>
     </row>
     <row r="121" spans="1:16">
       <c r="A121" s="5" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="B121" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C121" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D121" t="s">
         <v>109</v>
       </c>
-      <c r="E121" s="4">
-        <v>5.2427676449402701E-8</v>
-      </c>
-      <c r="F121" s="4">
-        <v>5.2622557615435301E-8</v>
-      </c>
-      <c r="G121" s="4">
-        <v>5.3876610887202302E-8</v>
-      </c>
-      <c r="H121">
-        <v>8.0091309382716008E-3</v>
-      </c>
-      <c r="I121">
-        <v>1.17675821620384E-2</v>
-      </c>
-      <c r="J121">
-        <v>1.5636803525077399E-2</v>
+      <c r="E121" t="s">
+        <v>109</v>
+      </c>
+      <c r="F121" t="s">
+        <v>109</v>
+      </c>
+      <c r="G121" t="s">
+        <v>109</v>
+      </c>
+      <c r="H121" t="s">
+        <v>109</v>
+      </c>
+      <c r="I121" t="s">
+        <v>109</v>
+      </c>
+      <c r="J121" t="s">
+        <v>109</v>
       </c>
       <c r="K121">
-        <v>1.9184859644746501E-2</v>
+        <v>23200001.922484901</v>
       </c>
       <c r="L121">
-        <v>2.5634715324737101E-2</v>
+        <v>22200001.922484901</v>
       </c>
       <c r="M121">
-        <v>2.6650982872542001E-2</v>
+        <v>22100001.922484901</v>
       </c>
       <c r="N121">
-        <v>2.52302157786208E-2</v>
+        <v>23400001.922484901</v>
       </c>
       <c r="O121">
-        <v>2.52302157786208E-2</v>
+        <v>23400001.922484901</v>
       </c>
       <c r="P121">
-        <v>2.52302157786208E-2</v>
+        <v>23400001.922484901</v>
       </c>
     </row>
     <row r="122" spans="1:16">
       <c r="A122" s="5" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B122" t="s">
         <v>106</v>
       </c>
       <c r="C122" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D122" t="s">
         <v>109</v>
       </c>
-      <c r="E122">
-        <v>167100001.12938699</v>
-      </c>
-      <c r="F122">
-        <v>163800001.12938699</v>
-      </c>
-      <c r="G122">
-        <v>181700001.12938699</v>
-      </c>
-      <c r="H122">
-        <v>165800001.12938699</v>
-      </c>
-      <c r="I122">
-        <v>156600001.12938699</v>
-      </c>
-      <c r="J122">
-        <v>152300001.12938699</v>
-      </c>
-      <c r="K122">
-        <v>154000001.12938699</v>
-      </c>
-      <c r="L122">
-        <v>135600001.12938699</v>
-      </c>
-      <c r="M122">
-        <v>120400001.12938701</v>
-      </c>
-      <c r="N122">
-        <v>91700001.129387006</v>
-      </c>
-      <c r="O122">
-        <v>70400001.129387006</v>
-      </c>
-      <c r="P122">
-        <v>70400001.129387006</v>
+      <c r="E122" t="s">
+        <v>109</v>
+      </c>
+      <c r="F122" t="s">
+        <v>109</v>
+      </c>
+      <c r="G122" t="s">
+        <v>109</v>
+      </c>
+      <c r="H122" t="s">
+        <v>109</v>
+      </c>
+      <c r="I122" t="s">
+        <v>109</v>
+      </c>
+      <c r="J122" t="s">
+        <v>109</v>
+      </c>
+      <c r="K122" t="s">
+        <v>109</v>
+      </c>
+      <c r="L122" t="s">
+        <v>109</v>
+      </c>
+      <c r="M122" t="s">
+        <v>109</v>
+      </c>
+      <c r="N122" t="s">
+        <v>109</v>
+      </c>
+      <c r="O122" t="s">
+        <v>109</v>
+      </c>
+      <c r="P122" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="123" spans="1:16">
       <c r="A123" s="5" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B123" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C123" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D123" t="s">
         <v>109</v>
       </c>
-      <c r="E123">
-        <v>3100001.1293870099</v>
-      </c>
-      <c r="F123">
-        <v>2400001.1293870099</v>
-      </c>
-      <c r="G123">
-        <v>1900001.1293870099</v>
+      <c r="E123" t="s">
+        <v>109</v>
+      </c>
+      <c r="F123" t="s">
+        <v>109</v>
+      </c>
+      <c r="G123" t="s">
+        <v>109</v>
       </c>
       <c r="H123">
-        <v>1500001.1293870099</v>
+        <v>15691492.922484901</v>
       </c>
       <c r="I123">
-        <v>1400001.1293870099</v>
+        <v>11301980.922484901</v>
       </c>
       <c r="J123">
-        <v>1300001.1293870099</v>
+        <v>11500001.922484901</v>
       </c>
       <c r="K123">
-        <v>1300001.1293870099</v>
+        <v>11600001.922484901</v>
       </c>
       <c r="L123">
-        <v>1000001.12938701</v>
+        <v>3012108.9224849502</v>
       </c>
       <c r="M123">
-        <v>5000001.1293870099</v>
+        <v>12039001.922484901</v>
       </c>
       <c r="N123">
-        <v>4700001.1293870099</v>
+        <v>11847001.922484901</v>
       </c>
       <c r="O123">
-        <v>2600001.1293870099</v>
+        <v>11314001.922484901</v>
       </c>
       <c r="P123">
-        <v>2600001.1293870099</v>
+        <v>11314001.922484901</v>
       </c>
     </row>
     <row r="124" spans="1:16">
       <c r="A124" s="5" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B124" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C124" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D124" t="s">
         <v>109</v>
       </c>
-      <c r="E124">
-        <v>811080001.12938702</v>
-      </c>
-      <c r="F124">
-        <v>740520001.12938702</v>
-      </c>
-      <c r="G124">
-        <v>817560001.12938702</v>
-      </c>
-      <c r="H124">
-        <v>780120001.12938702</v>
-      </c>
-      <c r="I124">
-        <v>749880001.12938702</v>
-      </c>
-      <c r="J124">
-        <v>766800001.12938702</v>
+      <c r="E124" t="s">
+        <v>109</v>
+      </c>
+      <c r="F124" t="s">
+        <v>109</v>
+      </c>
+      <c r="G124" t="s">
+        <v>109</v>
+      </c>
+      <c r="H124" t="s">
+        <v>109</v>
+      </c>
+      <c r="I124" t="s">
+        <v>109</v>
+      </c>
+      <c r="J124" t="s">
+        <v>109</v>
       </c>
       <c r="K124">
-        <v>777960001.12938702</v>
+        <v>1.9999998342685701</v>
       </c>
       <c r="L124">
-        <v>720720001.12938702</v>
+        <v>7.37025203729028</v>
       </c>
       <c r="M124">
-        <v>633600001.12938702</v>
+        <v>1.8357005061365901</v>
       </c>
       <c r="N124">
-        <v>551394001.12938702</v>
+        <v>1.97518343253351</v>
       </c>
       <c r="O124">
-        <v>528390001.12938702</v>
+        <v>2.0682338647990499</v>
       </c>
       <c r="P124">
-        <v>528390001.12938702</v>
+        <v>2.0682338647990499</v>
       </c>
     </row>
     <row r="125" spans="1:16">
       <c r="A125" s="5" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B125" t="s">
         <v>112</v>
       </c>
       <c r="C125" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D125" t="s">
         <v>109</v>
       </c>
-      <c r="E125">
-        <v>0.20602160193409899</v>
-      </c>
-      <c r="F125">
-        <v>0.22119591757085699</v>
-      </c>
-      <c r="G125">
-        <v>0.22224668633297201</v>
-      </c>
-      <c r="H125">
-        <v>0.21253140656483199</v>
-      </c>
-      <c r="I125">
-        <v>0.20883341453770399</v>
-      </c>
-      <c r="J125">
-        <v>0.19861763289654499</v>
-      </c>
-      <c r="K125">
-        <v>0.19795362345855899</v>
-      </c>
-      <c r="L125">
-        <v>0.18814518941738601</v>
-      </c>
-      <c r="M125">
-        <v>0.190025253969026</v>
-      </c>
-      <c r="N125">
-        <v>0.166305764918667</v>
-      </c>
-      <c r="O125">
-        <v>0.13323492302828099</v>
-      </c>
-      <c r="P125">
-        <v>0.13323492302828099</v>
+      <c r="E125" t="s">
+        <v>109</v>
+      </c>
+      <c r="F125" t="s">
+        <v>109</v>
+      </c>
+      <c r="G125" t="s">
+        <v>109</v>
+      </c>
+      <c r="H125" t="s">
+        <v>109</v>
+      </c>
+      <c r="I125" t="s">
+        <v>109</v>
+      </c>
+      <c r="J125" t="s">
+        <v>109</v>
+      </c>
+      <c r="K125" t="s">
+        <v>109</v>
+      </c>
+      <c r="L125" t="s">
+        <v>109</v>
+      </c>
+      <c r="M125" t="s">
+        <v>109</v>
+      </c>
+      <c r="N125" t="s">
+        <v>109</v>
+      </c>
+      <c r="O125" t="s">
+        <v>109</v>
+      </c>
+      <c r="P125" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="126" spans="1:16">
       <c r="A126" s="5" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B126" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C126" t="s">
-        <v>108</v>
-      </c>
-      <c r="D126" t="s">
-        <v>109</v>
+        <v>107</v>
+      </c>
+      <c r="D126">
+        <v>4000000.0778485602</v>
       </c>
       <c r="E126">
-        <v>3.8220657950762201E-3</v>
+        <v>6481635.0778485602</v>
       </c>
       <c r="F126">
-        <v>3.2409673279947902E-3</v>
+        <v>10525000.0778486</v>
       </c>
       <c r="G126">
-        <v>2.3239898316482301E-3</v>
+        <v>9308000.0778485592</v>
       </c>
       <c r="H126">
-        <v>1.9227825555240799E-3</v>
+        <v>9311000.0778485592</v>
       </c>
       <c r="I126">
-        <v>1.8669668844061499E-3</v>
+        <v>9578000.0778485592</v>
       </c>
       <c r="J126">
-        <v>1.6953587995204699E-3</v>
+        <v>9448000.0778485592</v>
       </c>
       <c r="K126">
-        <v>1.6710385206177201E-3</v>
+        <v>9989000.0778485592</v>
       </c>
       <c r="L126">
-        <v>1.3875029523531799E-3</v>
+        <v>9867000.0778485592</v>
       </c>
       <c r="M126">
-        <v>7.8914159098398794E-3</v>
+        <v>9755000.0778485592</v>
       </c>
       <c r="N126">
-        <v>8.5238524897990903E-3</v>
+        <v>9582000.0778485592</v>
       </c>
       <c r="O126">
-        <v>4.9206100112222702E-3</v>
+        <v>9582000.0778485592</v>
       </c>
       <c r="P126">
-        <v>4.9206100112222702E-3</v>
+        <v>9582000.0778485592</v>
       </c>
     </row>
     <row r="127" spans="1:16">
       <c r="A127" s="5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B127" t="s">
         <v>106</v>
       </c>
       <c r="C127" t="s">
-        <v>107</v>
-      </c>
-      <c r="D127" t="s">
-        <v>109</v>
-      </c>
-      <c r="E127" t="s">
-        <v>109</v>
-      </c>
-      <c r="F127" t="s">
-        <v>109</v>
-      </c>
-      <c r="G127" t="s">
-        <v>109</v>
-      </c>
-      <c r="H127" t="s">
-        <v>109</v>
-      </c>
-      <c r="I127" t="s">
-        <v>109</v>
-      </c>
-      <c r="J127" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="D127">
+        <v>700993.07784856495</v>
+      </c>
+      <c r="E127">
+        <v>1032496.5778485599</v>
+      </c>
+      <c r="F127">
+        <v>1364000.07784857</v>
+      </c>
+      <c r="G127">
+        <v>1367000.07784857</v>
+      </c>
+      <c r="H127">
+        <v>1447000.07784857</v>
+      </c>
+      <c r="I127">
+        <v>1220000.07784857</v>
+      </c>
+      <c r="J127">
+        <v>1133000.07784857</v>
       </c>
       <c r="K127">
-        <v>23200001.922484901</v>
+        <v>1166000.07784857</v>
       </c>
       <c r="L127">
-        <v>22200001.922484901</v>
+        <v>1216000.07784857</v>
       </c>
       <c r="M127">
-        <v>22100001.922484901</v>
+        <v>1189000.07784857</v>
       </c>
       <c r="N127">
-        <v>23400001.922484901</v>
+        <v>1173000.07784857</v>
       </c>
       <c r="O127">
-        <v>23400001.922484901</v>
+        <v>1173000.07784857</v>
       </c>
       <c r="P127">
-        <v>23400001.922484901</v>
+        <v>1173000.07784857</v>
       </c>
     </row>
     <row r="128" spans="1:16">
       <c r="A128" s="5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B128" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C128" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D128" t="s">
         <v>109</v>
@@ -8519,31 +8521,31 @@
       <c r="K128" t="s">
         <v>109</v>
       </c>
-      <c r="L128" t="s">
-        <v>109</v>
-      </c>
-      <c r="M128" t="s">
-        <v>109</v>
-      </c>
-      <c r="N128" t="s">
-        <v>109</v>
-      </c>
-      <c r="O128" t="s">
-        <v>109</v>
-      </c>
-      <c r="P128" t="s">
-        <v>109</v>
+      <c r="L128">
+        <v>15393000.0778486</v>
+      </c>
+      <c r="M128">
+        <v>15419000.0778486</v>
+      </c>
+      <c r="N128">
+        <v>14618000.0778486</v>
+      </c>
+      <c r="O128">
+        <v>14473000.0778486</v>
+      </c>
+      <c r="P128">
+        <v>14473000.0778486</v>
       </c>
     </row>
     <row r="129" spans="1:16">
       <c r="A129" s="5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B129" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C129" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D129" t="s">
         <v>109</v>
@@ -8557,43 +8559,43 @@
       <c r="G129" t="s">
         <v>109</v>
       </c>
-      <c r="H129">
-        <v>15691492.922484901</v>
-      </c>
-      <c r="I129">
-        <v>11301980.922484901</v>
-      </c>
-      <c r="J129">
-        <v>11500001.922484901</v>
-      </c>
-      <c r="K129">
-        <v>11600001.922484901</v>
+      <c r="H129" t="s">
+        <v>109</v>
+      </c>
+      <c r="I129" t="s">
+        <v>109</v>
+      </c>
+      <c r="J129" t="s">
+        <v>109</v>
+      </c>
+      <c r="K129" t="s">
+        <v>109</v>
       </c>
       <c r="L129">
-        <v>3012108.9224849502</v>
+        <v>0.64100565373528196</v>
       </c>
       <c r="M129">
-        <v>12039001.922484901</v>
+        <v>0.63266100451370499</v>
       </c>
       <c r="N129">
-        <v>11847001.922484901</v>
+        <v>0.65549322936238597</v>
       </c>
       <c r="O129">
-        <v>11314001.922484901</v>
+        <v>0.66206039012700302</v>
       </c>
       <c r="P129">
-        <v>11314001.922484901</v>
+        <v>0.66206039012700302</v>
       </c>
     </row>
     <row r="130" spans="1:16">
       <c r="A130" s="5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B130" t="s">
         <v>112</v>
       </c>
       <c r="C130" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D130" t="s">
         <v>109</v>
@@ -8616,184 +8618,184 @@
       <c r="J130" t="s">
         <v>109</v>
       </c>
-      <c r="K130">
-        <v>1.9999998342685701</v>
+      <c r="K130" t="s">
+        <v>109</v>
       </c>
       <c r="L130">
-        <v>7.37025203729028</v>
+        <v>7.8996951321949296E-2</v>
       </c>
       <c r="M130">
-        <v>1.8357005061365901</v>
+        <v>7.7112657879593705E-2</v>
       </c>
       <c r="N130">
-        <v>1.97518343253351</v>
+        <v>8.0243540265543895E-2</v>
       </c>
       <c r="O130">
-        <v>2.0682338647990499</v>
+        <v>8.1047472641410601E-2</v>
       </c>
       <c r="P130">
-        <v>2.0682338647990499</v>
+        <v>8.1047472641410601E-2</v>
       </c>
     </row>
     <row r="131" spans="1:16">
       <c r="A131" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B131" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C131" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D131" t="s">
         <v>109</v>
       </c>
-      <c r="E131" t="s">
-        <v>109</v>
-      </c>
-      <c r="F131" t="s">
-        <v>109</v>
-      </c>
-      <c r="G131" t="s">
-        <v>109</v>
-      </c>
-      <c r="H131" t="s">
-        <v>109</v>
-      </c>
-      <c r="I131" t="s">
-        <v>109</v>
-      </c>
-      <c r="J131" t="s">
-        <v>109</v>
-      </c>
-      <c r="K131" t="s">
-        <v>109</v>
-      </c>
-      <c r="L131" t="s">
-        <v>109</v>
-      </c>
-      <c r="M131" t="s">
-        <v>109</v>
-      </c>
-      <c r="N131" t="s">
-        <v>109</v>
-      </c>
-      <c r="O131" t="s">
-        <v>109</v>
-      </c>
-      <c r="P131" t="s">
-        <v>109</v>
+      <c r="E131">
+        <v>14900657</v>
+      </c>
+      <c r="F131">
+        <v>17389874.390000001</v>
+      </c>
+      <c r="G131">
+        <v>16283032</v>
+      </c>
+      <c r="H131">
+        <v>18802944</v>
+      </c>
+      <c r="I131">
+        <v>20428595</v>
+      </c>
+      <c r="J131">
+        <v>23337931</v>
+      </c>
+      <c r="K131">
+        <v>23298343</v>
+      </c>
+      <c r="L131">
+        <v>38757404</v>
+      </c>
+      <c r="M131">
+        <v>47025134</v>
+      </c>
+      <c r="N131">
+        <v>56093007</v>
+      </c>
+      <c r="O131">
+        <v>60116322</v>
+      </c>
+      <c r="P131">
+        <v>60116322</v>
       </c>
     </row>
     <row r="132" spans="1:16">
       <c r="A132" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B132" t="s">
         <v>106</v>
       </c>
       <c r="C132" t="s">
-        <v>107</v>
-      </c>
-      <c r="D132">
-        <v>4000000.0778485602</v>
+        <v>108</v>
+      </c>
+      <c r="D132" t="s">
+        <v>109</v>
       </c>
       <c r="E132">
-        <v>6481635.0778485602</v>
+        <v>731525</v>
       </c>
       <c r="F132">
-        <v>10525000.0778486</v>
+        <v>853729.32629999996</v>
       </c>
       <c r="G132">
-        <v>9308000.0778485592</v>
+        <v>789126</v>
       </c>
       <c r="H132">
-        <v>9311000.0778485592</v>
+        <v>1174594</v>
       </c>
       <c r="I132">
-        <v>9578000.0778485592</v>
+        <v>1266295</v>
       </c>
       <c r="J132">
-        <v>9448000.0778485592</v>
+        <v>723978</v>
       </c>
       <c r="K132">
-        <v>9989000.0778485592</v>
+        <v>1409816</v>
       </c>
       <c r="L132">
-        <v>9867000.0778485592</v>
+        <v>3979125</v>
       </c>
       <c r="M132">
-        <v>9755000.0778485592</v>
+        <v>3344945</v>
       </c>
       <c r="N132">
-        <v>9582000.0778485592</v>
+        <v>4137575</v>
       </c>
       <c r="O132">
-        <v>9582000.0778485592</v>
+        <v>2779523</v>
       </c>
       <c r="P132">
-        <v>9582000.0778485592</v>
+        <v>2779523</v>
       </c>
     </row>
     <row r="133" spans="1:16">
       <c r="A133" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B133" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C133" t="s">
-        <v>108</v>
-      </c>
-      <c r="D133">
-        <v>700993.07784856495</v>
-      </c>
-      <c r="E133">
-        <v>1032496.5778485599</v>
-      </c>
-      <c r="F133">
-        <v>1364000.07784857</v>
-      </c>
-      <c r="G133">
-        <v>1367000.07784857</v>
-      </c>
-      <c r="H133">
-        <v>1447000.07784857</v>
+        <v>111</v>
+      </c>
+      <c r="D133" t="s">
+        <v>109</v>
+      </c>
+      <c r="E133" t="s">
+        <v>109</v>
+      </c>
+      <c r="F133" t="s">
+        <v>109</v>
+      </c>
+      <c r="G133" t="s">
+        <v>109</v>
+      </c>
+      <c r="H133" t="s">
+        <v>109</v>
       </c>
       <c r="I133">
-        <v>1220000.07784857</v>
+        <v>9155004.3464471791</v>
       </c>
       <c r="J133">
-        <v>1133000.07784857</v>
+        <v>9331004.3464471791</v>
       </c>
       <c r="K133">
-        <v>1166000.07784857</v>
+        <v>20808004.3464472</v>
       </c>
       <c r="L133">
-        <v>1216000.07784857</v>
+        <v>21911004.3464472</v>
       </c>
       <c r="M133">
-        <v>1189000.07784857</v>
+        <v>25390004.3464472</v>
       </c>
       <c r="N133">
-        <v>1173000.07784857</v>
+        <v>27110004.3464472</v>
       </c>
       <c r="O133">
-        <v>1173000.07784857</v>
+        <v>30630004.3464472</v>
       </c>
       <c r="P133">
-        <v>1173000.07784857</v>
+        <v>28540004.3464472</v>
       </c>
     </row>
     <row r="134" spans="1:16">
       <c r="A134" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B134" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C134" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D134" t="s">
         <v>109</v>
@@ -8810,40 +8812,48 @@
       <c r="H134" t="s">
         <v>109</v>
       </c>
-      <c r="I134" t="s">
-        <v>109</v>
-      </c>
-      <c r="J134" t="s">
-        <v>109</v>
-      </c>
-      <c r="K134" t="s">
-        <v>109</v>
+      <c r="I134">
+        <f t="shared" ref="I134:P134" si="0">I131/I133</f>
+        <v>2.2314129220405898</v>
+      </c>
+      <c r="J134">
+        <f t="shared" si="0"/>
+        <v>2.5011167215762815</v>
+      </c>
+      <c r="K134">
+        <f t="shared" si="0"/>
+        <v>1.1196817634257177</v>
       </c>
       <c r="L134">
-        <v>15393000.0778486</v>
+        <f t="shared" si="0"/>
+        <v>1.768855657512769</v>
       </c>
       <c r="M134">
-        <v>15419000.0778486</v>
+        <f t="shared" si="0"/>
+        <v>1.8521120894010474</v>
       </c>
       <c r="N134">
-        <v>14618000.0778486</v>
+        <f t="shared" si="0"/>
+        <v>2.0690888235638023</v>
       </c>
       <c r="O134">
-        <v>14473000.0778486</v>
+        <f t="shared" si="0"/>
+        <v>1.9626612298203263</v>
       </c>
       <c r="P134">
-        <v>14473000.0778486</v>
+        <f t="shared" si="0"/>
+        <v>2.1063879763383277</v>
       </c>
     </row>
     <row r="135" spans="1:16">
       <c r="A135" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B135" t="s">
         <v>112</v>
       </c>
       <c r="C135" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D135" t="s">
         <v>109</v>
@@ -8860,190 +8870,198 @@
       <c r="H135" t="s">
         <v>109</v>
       </c>
-      <c r="I135" t="s">
-        <v>109</v>
-      </c>
-      <c r="J135" t="s">
-        <v>109</v>
-      </c>
-      <c r="K135" t="s">
-        <v>109</v>
+      <c r="I135">
+        <f t="shared" ref="I135:P135" si="1">I132/I133</f>
+        <v>0.13831724727595748</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="1"/>
+        <v>7.7588432404455773E-2</v>
+      </c>
+      <c r="K135">
+        <f t="shared" si="1"/>
+        <v>6.7753542171895734E-2</v>
       </c>
       <c r="L135">
-        <v>0.64100565373528196</v>
+        <f t="shared" si="1"/>
+        <v>0.18160395283957864</v>
       </c>
       <c r="M135">
-        <v>0.63266100451370499</v>
+        <f t="shared" si="1"/>
+        <v>0.13174259265016847</v>
       </c>
       <c r="N135">
-        <v>0.65549322936238597</v>
+        <f t="shared" si="1"/>
+        <v>0.15262170183097867</v>
       </c>
       <c r="O135">
-        <v>0.66206039012700302</v>
+        <f t="shared" si="1"/>
+        <v>9.0745106287338784E-2</v>
       </c>
       <c r="P135">
-        <v>0.66206039012700302</v>
+        <f t="shared" si="1"/>
+        <v>9.7390419646029541E-2</v>
       </c>
     </row>
     <row r="136" spans="1:16">
       <c r="A136" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B136" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C136" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D136" t="s">
         <v>109</v>
       </c>
-      <c r="E136" t="s">
-        <v>109</v>
-      </c>
-      <c r="F136" t="s">
-        <v>109</v>
-      </c>
-      <c r="G136" t="s">
-        <v>109</v>
-      </c>
-      <c r="H136" t="s">
-        <v>109</v>
-      </c>
-      <c r="I136" t="s">
-        <v>109</v>
-      </c>
-      <c r="J136" t="s">
-        <v>109</v>
-      </c>
-      <c r="K136" t="s">
-        <v>109</v>
+      <c r="E136">
+        <v>24085969.3736674</v>
+      </c>
+      <c r="F136">
+        <v>30090002.3736674</v>
+      </c>
+      <c r="G136">
+        <v>16848002.3736674</v>
+      </c>
+      <c r="H136">
+        <v>26700002.3736674</v>
+      </c>
+      <c r="I136">
+        <v>32200002.3736674</v>
+      </c>
+      <c r="J136">
+        <v>32600002.3736674</v>
+      </c>
+      <c r="K136">
+        <v>32600002.3736674</v>
       </c>
       <c r="L136">
-        <v>7.8996951321949296E-2</v>
+        <v>22100002.3736674</v>
       </c>
       <c r="M136">
-        <v>7.7112657879593705E-2</v>
+        <v>22600002.3736674</v>
       </c>
       <c r="N136">
-        <v>8.0243540265543895E-2</v>
+        <v>22800002.3736674</v>
       </c>
       <c r="O136">
-        <v>8.1047472641410601E-2</v>
+        <v>21300002.3736674</v>
       </c>
       <c r="P136">
-        <v>8.1047472641410601E-2</v>
+        <v>21300002.3736674</v>
       </c>
     </row>
     <row r="137" spans="1:16">
       <c r="A137" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B137" t="s">
         <v>106</v>
       </c>
       <c r="C137" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D137" t="s">
         <v>109</v>
       </c>
       <c r="E137">
-        <v>14900657</v>
+        <v>4781476.3736674301</v>
       </c>
       <c r="F137">
-        <v>17389874.390000001</v>
+        <v>4287002.3736674301</v>
       </c>
       <c r="G137">
-        <v>16283032</v>
+        <v>2116002.3736674301</v>
       </c>
       <c r="H137">
-        <v>18802944</v>
+        <v>1800002.3736674299</v>
       </c>
       <c r="I137">
-        <v>20428595</v>
+        <v>1700002.3736674299</v>
       </c>
       <c r="J137">
-        <v>23337931</v>
+        <v>1200002.3736674299</v>
       </c>
       <c r="K137">
-        <v>23298343</v>
+        <v>1200002.3736674299</v>
       </c>
       <c r="L137">
-        <v>38757404</v>
+        <v>1300002.3736674299</v>
       </c>
       <c r="M137">
-        <v>47025134</v>
+        <v>1400002.3736674299</v>
       </c>
       <c r="N137">
-        <v>56093007</v>
+        <v>1300002.3736674299</v>
       </c>
       <c r="O137">
-        <v>60116322</v>
+        <v>1400002.3736674299</v>
       </c>
       <c r="P137">
-        <v>60116322</v>
+        <v>1400002.3736674299</v>
       </c>
     </row>
     <row r="138" spans="1:16">
       <c r="A138" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B138" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C138" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D138" t="s">
         <v>109</v>
       </c>
-      <c r="E138">
-        <v>731525</v>
-      </c>
-      <c r="F138">
-        <v>853729.32629999996</v>
-      </c>
-      <c r="G138">
-        <v>789126</v>
-      </c>
-      <c r="H138">
-        <v>1174594</v>
-      </c>
-      <c r="I138">
-        <v>1266295</v>
-      </c>
-      <c r="J138">
-        <v>723978</v>
-      </c>
-      <c r="K138">
-        <v>1409816</v>
-      </c>
-      <c r="L138">
-        <v>3979125</v>
-      </c>
-      <c r="M138">
-        <v>3344945</v>
-      </c>
-      <c r="N138">
-        <v>4137575</v>
-      </c>
-      <c r="O138">
-        <v>2779523</v>
-      </c>
-      <c r="P138">
-        <v>2779523</v>
+      <c r="E138" t="s">
+        <v>109</v>
+      </c>
+      <c r="F138" t="s">
+        <v>109</v>
+      </c>
+      <c r="G138" t="s">
+        <v>109</v>
+      </c>
+      <c r="H138" t="s">
+        <v>109</v>
+      </c>
+      <c r="I138" t="s">
+        <v>109</v>
+      </c>
+      <c r="J138" t="s">
+        <v>109</v>
+      </c>
+      <c r="K138" t="s">
+        <v>109</v>
+      </c>
+      <c r="L138" t="s">
+        <v>109</v>
+      </c>
+      <c r="M138" t="s">
+        <v>109</v>
+      </c>
+      <c r="N138" t="s">
+        <v>109</v>
+      </c>
+      <c r="O138" t="s">
+        <v>109</v>
+      </c>
+      <c r="P138" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="139" spans="1:16">
       <c r="A139" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B139" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C139" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D139" t="s">
         <v>109</v>
@@ -9060,40 +9078,40 @@
       <c r="H139" t="s">
         <v>109</v>
       </c>
-      <c r="I139">
-        <v>9155004.3464471791</v>
-      </c>
-      <c r="J139">
-        <v>9331004.3464471791</v>
-      </c>
-      <c r="K139">
-        <v>20808004.3464472</v>
-      </c>
-      <c r="L139">
-        <v>21911004.3464472</v>
-      </c>
-      <c r="M139">
-        <v>25390004.3464472</v>
-      </c>
-      <c r="N139">
-        <v>27110004.3464472</v>
-      </c>
-      <c r="O139">
-        <v>30630004.3464472</v>
-      </c>
-      <c r="P139">
-        <v>28540004.3464472</v>
+      <c r="I139" t="s">
+        <v>109</v>
+      </c>
+      <c r="J139" t="s">
+        <v>109</v>
+      </c>
+      <c r="K139" t="s">
+        <v>109</v>
+      </c>
+      <c r="L139" t="s">
+        <v>109</v>
+      </c>
+      <c r="M139" t="s">
+        <v>109</v>
+      </c>
+      <c r="N139" t="s">
+        <v>109</v>
+      </c>
+      <c r="O139" t="s">
+        <v>109</v>
+      </c>
+      <c r="P139" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="140" spans="1:16">
       <c r="A140" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B140" t="s">
         <v>112</v>
       </c>
       <c r="C140" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D140" t="s">
         <v>109</v>
@@ -9110,594 +9128,278 @@
       <c r="H140" t="s">
         <v>109</v>
       </c>
-      <c r="I140">
-        <f>I137/I139</f>
-        <v>2.2314129220405898</v>
-      </c>
-      <c r="J140">
-        <f>J137/J139</f>
-        <v>2.5011167215762815</v>
-      </c>
-      <c r="K140">
-        <f>K137/K139</f>
-        <v>1.1196817634257177</v>
-      </c>
-      <c r="L140">
-        <f>L137/L139</f>
-        <v>1.768855657512769</v>
-      </c>
-      <c r="M140">
-        <f>M137/M139</f>
-        <v>1.8521120894010474</v>
-      </c>
-      <c r="N140">
-        <f>N137/N139</f>
-        <v>2.0690888235638023</v>
-      </c>
-      <c r="O140">
-        <f>O137/O139</f>
-        <v>1.9626612298203263</v>
-      </c>
-      <c r="P140">
-        <f>P137/P139</f>
-        <v>2.1063879763383277</v>
+      <c r="I140" t="s">
+        <v>109</v>
+      </c>
+      <c r="J140" t="s">
+        <v>109</v>
+      </c>
+      <c r="K140" t="s">
+        <v>109</v>
+      </c>
+      <c r="L140" t="s">
+        <v>109</v>
+      </c>
+      <c r="M140" t="s">
+        <v>109</v>
+      </c>
+      <c r="N140" t="s">
+        <v>109</v>
+      </c>
+      <c r="O140" t="s">
+        <v>109</v>
+      </c>
+      <c r="P140" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="141" spans="1:16">
       <c r="A141" s="5" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="B141" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C141" t="s">
-        <v>108</v>
-      </c>
-      <c r="D141" t="s">
-        <v>109</v>
-      </c>
-      <c r="E141" t="s">
-        <v>109</v>
-      </c>
-      <c r="F141" t="s">
-        <v>109</v>
-      </c>
-      <c r="G141" t="s">
-        <v>109</v>
-      </c>
-      <c r="H141" t="s">
-        <v>109</v>
+        <v>107</v>
+      </c>
+      <c r="D141">
+        <v>55192252.558717303</v>
+      </c>
+      <c r="E141">
+        <v>56075311.558717303</v>
+      </c>
+      <c r="F141">
+        <v>54746972.558717303</v>
+      </c>
+      <c r="G141">
+        <v>54472481.558717303</v>
+      </c>
+      <c r="H141">
+        <v>56535331.558717303</v>
       </c>
       <c r="I141">
-        <f>I138/I139</f>
-        <v>0.13831724727595748</v>
+        <v>57593228.558717303</v>
       </c>
       <c r="J141">
-        <f>J138/J139</f>
-        <v>7.7588432404455773E-2</v>
+        <v>56978409.558717303</v>
       </c>
       <c r="K141">
-        <f>K138/K139</f>
-        <v>6.7753542171895734E-2</v>
+        <v>52832514.458717301</v>
       </c>
       <c r="L141">
-        <f>L138/L139</f>
-        <v>0.18160395283957864</v>
+        <v>50919739.3587173</v>
       </c>
       <c r="M141">
-        <f>M138/M139</f>
-        <v>0.13174259265016847</v>
+        <v>50723846.558717303</v>
       </c>
       <c r="N141">
-        <f>N138/N139</f>
-        <v>0.15262170183097867</v>
+        <v>48061950.558717303</v>
       </c>
       <c r="O141">
-        <f>O138/O139</f>
-        <v>9.0745106287338784E-2</v>
+        <v>48061950.558717303</v>
       </c>
       <c r="P141">
-        <f>P138/P139</f>
-        <v>9.7390419646029541E-2</v>
+        <v>48061950.558717303</v>
       </c>
     </row>
     <row r="142" spans="1:16">
       <c r="A142" s="5" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="B142" t="s">
         <v>106</v>
       </c>
       <c r="C142" t="s">
-        <v>107</v>
-      </c>
-      <c r="D142" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="D142">
+        <v>1007225.5587172901</v>
       </c>
       <c r="E142">
-        <v>24085969.3736674</v>
+        <v>1933034.5587172899</v>
       </c>
       <c r="F142">
-        <v>30090002.3736674</v>
+        <v>1052282.5587172899</v>
       </c>
       <c r="G142">
-        <v>16848002.3736674</v>
+        <v>1189960.5587172899</v>
       </c>
       <c r="H142">
-        <v>26700002.3736674</v>
+        <v>774476.55871729006</v>
       </c>
       <c r="I142">
-        <v>32200002.3736674</v>
+        <v>601657.55871729006</v>
       </c>
       <c r="J142">
-        <v>32600002.3736674</v>
+        <v>1061617.5587172899</v>
       </c>
       <c r="K142">
-        <v>32600002.3736674</v>
+        <v>891280.15871729003</v>
       </c>
       <c r="L142">
-        <v>22100002.3736674</v>
+        <v>1153067.7587172899</v>
       </c>
       <c r="M142">
-        <v>22600002.3736674</v>
+        <v>841797.55871729006</v>
       </c>
       <c r="N142">
-        <v>22800002.3736674</v>
+        <v>607645.55871729006</v>
       </c>
       <c r="O142">
-        <v>21300002.3736674</v>
+        <v>607645.55871729006</v>
       </c>
       <c r="P142">
-        <v>21300002.3736674</v>
+        <v>607645.55871729006</v>
       </c>
     </row>
     <row r="143" spans="1:16">
       <c r="A143" s="5" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="B143" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C143" t="s">
-        <v>108</v>
-      </c>
-      <c r="D143" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="D143">
+        <v>257468657.55871701</v>
       </c>
       <c r="E143">
-        <v>4781476.3736674301</v>
+        <v>268120405.55871701</v>
       </c>
       <c r="F143">
-        <v>4287002.3736674301</v>
+        <v>268997847.55871701</v>
       </c>
       <c r="G143">
-        <v>2116002.3736674301</v>
+        <v>270255601.55871701</v>
       </c>
       <c r="H143">
-        <v>1800002.3736674299</v>
+        <v>255369601.55871701</v>
       </c>
       <c r="I143">
-        <v>1700002.3736674299</v>
+        <v>265032001.55871701</v>
       </c>
       <c r="J143">
-        <v>1200002.3736674299</v>
+        <v>263804401.55871701</v>
       </c>
       <c r="K143">
-        <v>1200002.3736674299</v>
+        <v>266875867.55871701</v>
       </c>
       <c r="L143">
-        <v>1300002.3736674299</v>
+        <v>261049397.15871701</v>
       </c>
       <c r="M143">
-        <v>1400002.3736674299</v>
+        <v>247737601.55871701</v>
       </c>
       <c r="N143">
-        <v>1300002.3736674299</v>
+        <v>242884801.55871701</v>
       </c>
       <c r="O143">
-        <v>1400002.3736674299</v>
+        <v>242884801.55871701</v>
       </c>
       <c r="P143">
-        <v>1400002.3736674299</v>
+        <v>242884801.55871701</v>
       </c>
     </row>
     <row r="144" spans="1:16">
       <c r="A144" s="5" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="B144" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C144" t="s">
-        <v>111</v>
-      </c>
-      <c r="D144" t="s">
-        <v>109</v>
-      </c>
-      <c r="E144" t="s">
-        <v>109</v>
-      </c>
-      <c r="F144" t="s">
-        <v>109</v>
-      </c>
-      <c r="G144" t="s">
-        <v>109</v>
-      </c>
-      <c r="H144" t="s">
-        <v>109</v>
-      </c>
-      <c r="I144" t="s">
-        <v>109</v>
-      </c>
-      <c r="J144" t="s">
-        <v>109</v>
-      </c>
-      <c r="K144" t="s">
-        <v>109</v>
-      </c>
-      <c r="L144" t="s">
-        <v>109</v>
-      </c>
-      <c r="M144" t="s">
-        <v>109</v>
-      </c>
-      <c r="N144" t="s">
-        <v>109</v>
-      </c>
-      <c r="O144" t="s">
-        <v>109</v>
-      </c>
-      <c r="P144" t="s">
-        <v>109</v>
+        <v>107</v>
+      </c>
+      <c r="D144">
+        <v>0.21436493700647999</v>
+      </c>
+      <c r="E144">
+        <v>0.209142274874103</v>
+      </c>
+      <c r="F144">
+        <v>0.20352197259409999</v>
+      </c>
+      <c r="G144">
+        <v>0.20155912123391201</v>
+      </c>
+      <c r="H144">
+        <v>0.22138630132027701</v>
+      </c>
+      <c r="I144">
+        <v>0.217306695870678</v>
+      </c>
+      <c r="J144">
+        <v>0.21598733463905101</v>
+      </c>
+      <c r="K144">
+        <v>0.19796662374162899</v>
+      </c>
+      <c r="L144">
+        <v>0.195057869939298</v>
+      </c>
+      <c r="M144">
+        <v>0.20474827494725301</v>
+      </c>
+      <c r="N144">
+        <v>0.19787961309344601</v>
+      </c>
+      <c r="O144">
+        <v>0.19787961309344601</v>
+      </c>
+      <c r="P144">
+        <v>0.19787961309344601</v>
       </c>
     </row>
     <row r="145" spans="1:16">
       <c r="A145" s="5" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="B145" t="s">
         <v>112</v>
       </c>
       <c r="C145" t="s">
-        <v>107</v>
-      </c>
-      <c r="D145" t="s">
-        <v>109</v>
-      </c>
-      <c r="E145" t="s">
-        <v>109</v>
-      </c>
-      <c r="F145" t="s">
-        <v>109</v>
-      </c>
-      <c r="G145" t="s">
-        <v>109</v>
-      </c>
-      <c r="H145" t="s">
-        <v>109</v>
-      </c>
-      <c r="I145" t="s">
-        <v>109</v>
-      </c>
-      <c r="J145" t="s">
-        <v>109</v>
-      </c>
-      <c r="K145" t="s">
-        <v>109</v>
-      </c>
-      <c r="L145" t="s">
-        <v>109</v>
-      </c>
-      <c r="M145" t="s">
-        <v>109</v>
-      </c>
-      <c r="N145" t="s">
-        <v>109</v>
-      </c>
-      <c r="O145" t="s">
-        <v>109</v>
-      </c>
-      <c r="P145" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="146" spans="1:16">
-      <c r="A146" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B146" t="s">
-        <v>112</v>
-      </c>
-      <c r="C146" t="s">
         <v>108</v>
       </c>
-      <c r="D146" t="s">
-        <v>109</v>
-      </c>
-      <c r="E146" t="s">
-        <v>109</v>
-      </c>
-      <c r="F146" t="s">
-        <v>109</v>
-      </c>
-      <c r="G146" t="s">
-        <v>109</v>
-      </c>
-      <c r="H146" t="s">
-        <v>109</v>
-      </c>
-      <c r="I146" t="s">
-        <v>109</v>
-      </c>
-      <c r="J146" t="s">
-        <v>109</v>
-      </c>
-      <c r="K146" t="s">
-        <v>109</v>
-      </c>
-      <c r="L146" t="s">
-        <v>109</v>
-      </c>
-      <c r="M146" t="s">
-        <v>109</v>
-      </c>
-      <c r="N146" t="s">
-        <v>109</v>
-      </c>
-      <c r="O146" t="s">
-        <v>109</v>
-      </c>
-      <c r="P146" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16">
-      <c r="A147" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B147" t="s">
-        <v>106</v>
-      </c>
-      <c r="C147" t="s">
-        <v>107</v>
-      </c>
-      <c r="D147">
-        <v>55192252.558717303</v>
-      </c>
-      <c r="E147">
-        <v>56075311.558717303</v>
-      </c>
-      <c r="F147">
-        <v>54746972.558717303</v>
-      </c>
-      <c r="G147">
-        <v>54472481.558717303</v>
-      </c>
-      <c r="H147">
-        <v>56535331.558717303</v>
-      </c>
-      <c r="I147">
-        <v>57593228.558717303</v>
-      </c>
-      <c r="J147">
-        <v>56978409.558717303</v>
-      </c>
-      <c r="K147">
-        <v>52832514.458717301</v>
-      </c>
-      <c r="L147">
-        <v>50919739.3587173</v>
-      </c>
-      <c r="M147">
-        <v>50723846.558717303</v>
-      </c>
-      <c r="N147">
-        <v>48061950.558717303</v>
-      </c>
-      <c r="O147">
-        <v>48061950.558717303</v>
-      </c>
-      <c r="P147">
-        <v>48061950.558717303</v>
-      </c>
-    </row>
-    <row r="148" spans="1:16">
-      <c r="A148" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B148" t="s">
-        <v>106</v>
-      </c>
-      <c r="C148" t="s">
-        <v>108</v>
-      </c>
-      <c r="D148">
-        <v>1007225.5587172901</v>
-      </c>
-      <c r="E148">
-        <v>1933034.5587172899</v>
-      </c>
-      <c r="F148">
-        <v>1052282.5587172899</v>
-      </c>
-      <c r="G148">
-        <v>1189960.5587172899</v>
-      </c>
-      <c r="H148">
-        <v>774476.55871729006</v>
-      </c>
-      <c r="I148">
-        <v>601657.55871729006</v>
-      </c>
-      <c r="J148">
-        <v>1061617.5587172899</v>
-      </c>
-      <c r="K148">
-        <v>891280.15871729003</v>
-      </c>
-      <c r="L148">
-        <v>1153067.7587172899</v>
-      </c>
-      <c r="M148">
-        <v>841797.55871729006</v>
-      </c>
-      <c r="N148">
-        <v>607645.55871729006</v>
-      </c>
-      <c r="O148">
-        <v>607645.55871729006</v>
-      </c>
-      <c r="P148">
-        <v>607645.55871729006</v>
-      </c>
-    </row>
-    <row r="149" spans="1:16">
-      <c r="A149" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B149" t="s">
-        <v>110</v>
-      </c>
-      <c r="C149" t="s">
-        <v>111</v>
-      </c>
-      <c r="D149">
-        <v>257468657.55871701</v>
-      </c>
-      <c r="E149">
-        <v>268120405.55871701</v>
-      </c>
-      <c r="F149">
-        <v>268997847.55871701</v>
-      </c>
-      <c r="G149">
-        <v>270255601.55871701</v>
-      </c>
-      <c r="H149">
-        <v>255369601.55871701</v>
-      </c>
-      <c r="I149">
-        <v>265032001.55871701</v>
-      </c>
-      <c r="J149">
-        <v>263804401.55871701</v>
-      </c>
-      <c r="K149">
-        <v>266875867.55871701</v>
-      </c>
-      <c r="L149">
-        <v>261049397.15871701</v>
-      </c>
-      <c r="M149">
-        <v>247737601.55871701</v>
-      </c>
-      <c r="N149">
-        <v>242884801.55871701</v>
-      </c>
-      <c r="O149">
-        <v>242884801.55871701</v>
-      </c>
-      <c r="P149">
-        <v>242884801.55871701</v>
-      </c>
-    </row>
-    <row r="150" spans="1:16">
-      <c r="A150" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B150" t="s">
-        <v>112</v>
-      </c>
-      <c r="C150" t="s">
-        <v>107</v>
-      </c>
-      <c r="D150">
-        <v>0.21436493700647999</v>
-      </c>
-      <c r="E150">
-        <v>0.209142274874103</v>
-      </c>
-      <c r="F150">
-        <v>0.20352197259409999</v>
-      </c>
-      <c r="G150">
-        <v>0.20155912123391201</v>
-      </c>
-      <c r="H150">
-        <v>0.22138630132027701</v>
-      </c>
-      <c r="I150">
-        <v>0.217306695870678</v>
-      </c>
-      <c r="J150">
-        <v>0.21598733463905101</v>
-      </c>
-      <c r="K150">
-        <v>0.19796662374162899</v>
-      </c>
-      <c r="L150">
-        <v>0.195057869939298</v>
-      </c>
-      <c r="M150">
-        <v>0.20474827494725301</v>
-      </c>
-      <c r="N150">
-        <v>0.19787961309344601</v>
-      </c>
-      <c r="O150">
-        <v>0.19787961309344601</v>
-      </c>
-      <c r="P150">
-        <v>0.19787961309344601</v>
-      </c>
-    </row>
-    <row r="151" spans="1:16">
-      <c r="A151" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B151" t="s">
-        <v>112</v>
-      </c>
-      <c r="C151" t="s">
-        <v>108</v>
-      </c>
-      <c r="D151">
+      <c r="D145">
         <v>3.9120317333677197E-3</v>
       </c>
-      <c r="E151">
+      <c r="E145">
         <v>7.2095764389479202E-3</v>
       </c>
-      <c r="F151">
+      <c r="F145">
         <v>3.9118623746147102E-3</v>
       </c>
-      <c r="G151">
+      <c r="G145">
         <v>4.40309304175052E-3</v>
       </c>
-      <c r="H151">
+      <c r="H145">
         <v>3.0327672283234301E-3</v>
       </c>
-      <c r="I151">
+      <c r="I145">
         <v>2.2701317394835199E-3</v>
       </c>
-      <c r="J151">
+      <c r="J145">
         <v>4.0242602187249496E-3</v>
       </c>
-      <c r="K151">
+      <c r="K145">
         <v>3.3396806045836698E-3</v>
       </c>
-      <c r="L151">
+      <c r="L145">
         <v>4.4170481574267997E-3</v>
       </c>
-      <c r="M151">
+      <c r="M145">
         <v>3.3979402134389799E-3</v>
       </c>
-      <c r="N151">
+      <c r="N145">
         <v>2.5017850224374398E-3</v>
       </c>
-      <c r="O151">
+      <c r="O145">
         <v>2.5017850224374398E-3</v>
       </c>
-      <c r="P151">
+      <c r="P145">
         <v>2.5017850224374398E-3</v>
       </c>
     </row>

--- a/test/inputs/test_data_company.xlsx
+++ b/test/inputs/test_data_company.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\ITR\test\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\casj\PycharmProjects\ITR\test\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAC0AB0-68AB-4808-AF5B-BD21E051D5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fundamental_data" sheetId="1" r:id="rId1"/>
@@ -17,10 +18,20 @@
     <sheet name="projected_target" sheetId="6" r:id="rId3"/>
     <sheet name="projected_ei_in_Wh" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -371,7 +382,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -464,29 +475,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:R56" totalsRowShown="0" tableBorderDxfId="1">
-  <autoFilter ref="A1:R56"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:R56" totalsRowShown="0" tableBorderDxfId="1">
+  <autoFilter ref="A1:R56" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="18">
-    <tableColumn id="1" name="company_name"/>
-    <tableColumn id="2" name="company_id"/>
-    <tableColumn id="3" name="isic"/>
-    <tableColumn id="4" name="country"/>
-    <tableColumn id="20" name="region"/>
-    <tableColumn id="5" name="industry_level_1"/>
-    <tableColumn id="22" name="industry_level_2"/>
-    <tableColumn id="21" name="industry_level_3"/>
-    <tableColumn id="7" name="industry_level_4"/>
-    <tableColumn id="6" name="sector"/>
-    <tableColumn id="18" name="ghg_s1s2"/>
-    <tableColumn id="8" name="ghg_s3"/>
-    <tableColumn id="9" name="company_revenue"/>
-    <tableColumn id="10" name="company_market_cap"/>
-    <tableColumn id="11" name="company_enterprise_value"/>
-    <tableColumn id="12" name="company_total_assets" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="company_name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="company_id"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="isic"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="country"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="region"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="industry_level_1"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="industry_level_2"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="industry_level_3"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="industry_level_4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="sector"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="ghg_s1s2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="ghg_s3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="company_revenue"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="company_market_cap"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="company_enterprise_value"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="company_total_assets" dataDxfId="0">
       <calculatedColumnFormula>Table1[[#This Row],[company_market_cap]]*Q2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="company_cash_equivalents"/>
-    <tableColumn id="17" name="target_probability"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="company_cash_equivalents"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="target_probability"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -754,7 +765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2121,10 +2132,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -9409,11 +9420,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AR61"/>
   <sheetViews>
-    <sheetView topLeftCell="F19" workbookViewId="0">
-      <selection activeCell="U46" sqref="U46"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="Q55" sqref="Q55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15045,108 +15056,6 @@
       <c r="B56" t="s">
         <v>93</v>
       </c>
-      <c r="K56">
-        <v>0.64100565373528196</v>
-      </c>
-      <c r="L56">
-        <v>0.63266100451370499</v>
-      </c>
-      <c r="M56">
-        <v>0.65549322936238597</v>
-      </c>
-      <c r="N56">
-        <v>0.66206039012700302</v>
-      </c>
-      <c r="O56">
-        <v>0.64550888037382792</v>
-      </c>
-      <c r="P56">
-        <v>0.62895737062065282</v>
-      </c>
-      <c r="Q56">
-        <v>0.61240586086747772</v>
-      </c>
-      <c r="R56">
-        <v>0.59585435111430263</v>
-      </c>
-      <c r="S56">
-        <v>0.57930284136112753</v>
-      </c>
-      <c r="T56">
-        <v>0.56275133160795243</v>
-      </c>
-      <c r="U56">
-        <v>0.54619982185477733</v>
-      </c>
-      <c r="V56">
-        <v>0.52964831210160235</v>
-      </c>
-      <c r="W56">
-        <v>0.51309680234842725</v>
-      </c>
-      <c r="X56">
-        <v>0.4965452925952521</v>
-      </c>
-      <c r="Y56">
-        <v>0.479993782842077</v>
-      </c>
-      <c r="Z56">
-        <v>0.46344227308890196</v>
-      </c>
-      <c r="AA56">
-        <v>0.46344227308890196</v>
-      </c>
-      <c r="AB56">
-        <v>0.46344227308890196</v>
-      </c>
-      <c r="AC56">
-        <v>0.46344227308890196</v>
-      </c>
-      <c r="AD56">
-        <v>0.46344227308890196</v>
-      </c>
-      <c r="AE56">
-        <v>0.46344227308890196</v>
-      </c>
-      <c r="AF56">
-        <v>0.46344227308890196</v>
-      </c>
-      <c r="AG56">
-        <v>0.46344227308890196</v>
-      </c>
-      <c r="AH56">
-        <v>0.46344227308890196</v>
-      </c>
-      <c r="AI56">
-        <v>0.46344227308890196</v>
-      </c>
-      <c r="AJ56">
-        <v>0.46344227308890196</v>
-      </c>
-      <c r="AK56">
-        <v>0.46344227308890196</v>
-      </c>
-      <c r="AL56">
-        <v>0.46344227308890196</v>
-      </c>
-      <c r="AM56">
-        <v>0.46344227308890196</v>
-      </c>
-      <c r="AN56">
-        <v>0.46344227308890196</v>
-      </c>
-      <c r="AO56">
-        <v>0.46344227308890196</v>
-      </c>
-      <c r="AP56">
-        <v>0.46344227308890196</v>
-      </c>
-      <c r="AQ56">
-        <v>0.46344227308890196</v>
-      </c>
-      <c r="AR56">
-        <v>0.46344227308890196</v>
-      </c>
     </row>
     <row r="57" spans="1:44">
       <c r="A57" t="s">
@@ -15154,108 +15063,6 @@
       </c>
       <c r="B57" t="s">
         <v>94</v>
-      </c>
-      <c r="K57">
-        <v>7.8996951321949296E-2</v>
-      </c>
-      <c r="L57">
-        <v>7.7112657879593705E-2</v>
-      </c>
-      <c r="M57">
-        <v>8.0243540265543895E-2</v>
-      </c>
-      <c r="N57">
-        <v>8.1047472641410601E-2</v>
-      </c>
-      <c r="O57">
-        <v>7.9021285825375334E-2</v>
-      </c>
-      <c r="P57">
-        <v>7.6995099009340068E-2</v>
-      </c>
-      <c r="Q57">
-        <v>7.4968912193304801E-2</v>
-      </c>
-      <c r="R57">
-        <v>7.2942725377269535E-2</v>
-      </c>
-      <c r="S57">
-        <v>7.0916538561234269E-2</v>
-      </c>
-      <c r="T57">
-        <v>6.8890351745199002E-2</v>
-      </c>
-      <c r="U57">
-        <v>6.6864164929163736E-2</v>
-      </c>
-      <c r="V57">
-        <v>6.4837978113128469E-2</v>
-      </c>
-      <c r="W57">
-        <v>6.2811791297093203E-2</v>
-      </c>
-      <c r="X57">
-        <v>6.078560448105793E-2</v>
-      </c>
-      <c r="Y57">
-        <v>5.8759417665022663E-2</v>
-      </c>
-      <c r="Z57">
-        <v>5.6733230848987397E-2</v>
-      </c>
-      <c r="AA57">
-        <v>5.6733230848987397E-2</v>
-      </c>
-      <c r="AB57">
-        <v>5.6733230848987397E-2</v>
-      </c>
-      <c r="AC57">
-        <v>5.6733230848987397E-2</v>
-      </c>
-      <c r="AD57">
-        <v>5.6733230848987397E-2</v>
-      </c>
-      <c r="AE57">
-        <v>5.6733230848987397E-2</v>
-      </c>
-      <c r="AF57">
-        <v>5.6733230848987397E-2</v>
-      </c>
-      <c r="AG57">
-        <v>5.6733230848987397E-2</v>
-      </c>
-      <c r="AH57">
-        <v>5.6733230848987397E-2</v>
-      </c>
-      <c r="AI57">
-        <v>5.6733230848987397E-2</v>
-      </c>
-      <c r="AJ57">
-        <v>5.6733230848987397E-2</v>
-      </c>
-      <c r="AK57">
-        <v>5.6733230848987397E-2</v>
-      </c>
-      <c r="AL57">
-        <v>5.6733230848987397E-2</v>
-      </c>
-      <c r="AM57">
-        <v>5.6733230848987397E-2</v>
-      </c>
-      <c r="AN57">
-        <v>5.6733230848987397E-2</v>
-      </c>
-      <c r="AO57">
-        <v>5.6733230848987397E-2</v>
-      </c>
-      <c r="AP57">
-        <v>5.6733230848987397E-2</v>
-      </c>
-      <c r="AQ57">
-        <v>5.6733230848987397E-2</v>
-      </c>
-      <c r="AR57">
-        <v>5.6733230848987397E-2</v>
       </c>
     </row>
     <row r="58" spans="1:44">
@@ -15693,7 +15500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AR61"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">

--- a/test/inputs/test_data_company.xlsx
+++ b/test/inputs/test_data_company.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\casj\PycharmProjects\ITR\test\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Documents/GitHub/ITR-MichaelTiemannOSC/test/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAC0AB0-68AB-4808-AF5B-BD21E051D5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DBC667-5F09-E340-8F31-AA4E441FE3B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="69060" windowHeight="16900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fundamental_data" sheetId="1" r:id="rId1"/>
@@ -383,7 +383,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -768,24 +768,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="21.5703125" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="21.5" customWidth="1"/>
+    <col min="12" max="12" width="14.5" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="28" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.42578125" customWidth="1"/>
+    <col min="16" max="16" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -841,7 +841,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>57</v>
       </c>
@@ -858,10 +858,10 @@
         <v>91</v>
       </c>
       <c r="K2">
-        <v>104827858.636039</v>
+        <v>640885111.27013505</v>
       </c>
       <c r="L2">
-        <v>104827858.636039</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>20248547996.814301</v>
@@ -882,7 +882,7 @@
         <v>0.42857142857142799</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>73</v>
       </c>
@@ -899,10 +899,10 @@
         <v>91</v>
       </c>
       <c r="K3">
-        <v>598937001.89205897</v>
+        <v>1027603972.59417</v>
       </c>
       <c r="L3">
-        <v>598937001.89205897</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>276185899.61435097</v>
@@ -923,7 +923,7 @@
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>74</v>
       </c>
@@ -940,10 +940,10 @@
         <v>91</v>
       </c>
       <c r="K4">
-        <v>122472002.66109601</v>
+        <v>1807821.3453092501</v>
       </c>
       <c r="L4">
-        <v>122472002.66109601</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>10283015131.798985</v>
@@ -964,7 +964,7 @@
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>75</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>76</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>77</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>78</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>79</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>80</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>81</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>82</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>83</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>84</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>85</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>86</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>87</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>88</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>31</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>34</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>37</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>39</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>41</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>43</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>45</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>47</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>51</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>53</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>55</v>
       </c>
@@ -2047,79 +2047,79 @@
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="16:16">
+    <row r="33" spans="16:16" x14ac:dyDescent="0.2">
       <c r="P33" s="2"/>
     </row>
-    <row r="34" spans="16:16">
+    <row r="34" spans="16:16" x14ac:dyDescent="0.2">
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="16:16">
+    <row r="35" spans="16:16" x14ac:dyDescent="0.2">
       <c r="P35" s="2"/>
     </row>
-    <row r="36" spans="16:16">
+    <row r="36" spans="16:16" x14ac:dyDescent="0.2">
       <c r="P36" s="2"/>
     </row>
-    <row r="37" spans="16:16">
+    <row r="37" spans="16:16" x14ac:dyDescent="0.2">
       <c r="P37" s="2"/>
     </row>
-    <row r="38" spans="16:16">
+    <row r="38" spans="16:16" x14ac:dyDescent="0.2">
       <c r="P38" s="2"/>
     </row>
-    <row r="39" spans="16:16">
+    <row r="39" spans="16:16" x14ac:dyDescent="0.2">
       <c r="P39" s="2"/>
     </row>
-    <row r="40" spans="16:16">
+    <row r="40" spans="16:16" x14ac:dyDescent="0.2">
       <c r="P40" s="2"/>
     </row>
-    <row r="41" spans="16:16">
+    <row r="41" spans="16:16" x14ac:dyDescent="0.2">
       <c r="P41" s="2"/>
     </row>
-    <row r="42" spans="16:16">
+    <row r="42" spans="16:16" x14ac:dyDescent="0.2">
       <c r="P42" s="2"/>
     </row>
-    <row r="43" spans="16:16">
+    <row r="43" spans="16:16" x14ac:dyDescent="0.2">
       <c r="P43" s="2"/>
     </row>
-    <row r="44" spans="16:16">
+    <row r="44" spans="16:16" x14ac:dyDescent="0.2">
       <c r="P44" s="2"/>
     </row>
-    <row r="45" spans="16:16">
+    <row r="45" spans="16:16" x14ac:dyDescent="0.2">
       <c r="P45" s="2"/>
     </row>
-    <row r="46" spans="16:16">
+    <row r="46" spans="16:16" x14ac:dyDescent="0.2">
       <c r="P46" s="2"/>
     </row>
-    <row r="47" spans="16:16">
+    <row r="47" spans="16:16" x14ac:dyDescent="0.2">
       <c r="P47" s="2"/>
     </row>
-    <row r="48" spans="16:16">
+    <row r="48" spans="16:16" x14ac:dyDescent="0.2">
       <c r="P48" s="2"/>
     </row>
-    <row r="49" spans="16:16">
+    <row r="49" spans="16:16" x14ac:dyDescent="0.2">
       <c r="P49" s="2"/>
     </row>
-    <row r="50" spans="16:16">
+    <row r="50" spans="16:16" x14ac:dyDescent="0.2">
       <c r="P50" s="2"/>
     </row>
-    <row r="51" spans="16:16">
+    <row r="51" spans="16:16" x14ac:dyDescent="0.2">
       <c r="P51" s="2"/>
     </row>
-    <row r="52" spans="16:16">
+    <row r="52" spans="16:16" x14ac:dyDescent="0.2">
       <c r="P52" s="2"/>
     </row>
-    <row r="53" spans="16:16">
+    <row r="53" spans="16:16" x14ac:dyDescent="0.2">
       <c r="P53" s="2"/>
     </row>
-    <row r="54" spans="16:16">
+    <row r="54" spans="16:16" x14ac:dyDescent="0.2">
       <c r="P54" s="2"/>
     </row>
-    <row r="55" spans="16:16">
+    <row r="55" spans="16:16" x14ac:dyDescent="0.2">
       <c r="P55" s="2"/>
     </row>
-    <row r="56" spans="16:16">
+    <row r="56" spans="16:16" x14ac:dyDescent="0.2">
       <c r="P56" s="2"/>
     </row>
   </sheetData>
@@ -2136,19 +2136,19 @@
   <dimension ref="A1:P145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>58</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>49092005.8360392</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>359005.836039191</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>104827858.636039</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>0.46831068071786103</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>3.4247178251122501E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>64776309.492059298</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>14514120.492059199</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>598937001.89205897</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>2.4233133779026399E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>141300001.396088</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>9500001.3960884009</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>71500001.396088406</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>25</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>8530004.4552317206</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>25</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>1750004.4552317201</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>25</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>25</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>25</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>27</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>20351815.8145184</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>27</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>1181783.8145184</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>27</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>27</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>5</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>3.1695179636323602E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>3.9975093970069597E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>8</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>33100009.401725199</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>8</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>290009.40172515198</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>8</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>100080009.40172499</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>8</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>0.33073547454277702</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>8</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>2.89777552439111E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>9</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>45260006.4724712</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>9</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>5000006.4724712502</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>9</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>745588806.472471</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>9</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>6.0703709711798497E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>9</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>6.7061179420427096E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>10</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>38589016.376334101</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>10</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>2330625.3763341298</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>10</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>199591200.37633401</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>10</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>0.193340269027761</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>10</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>1.16769946367359E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>29</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>9056.9950820715403</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>29</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>2890986.4760820698</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>29</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>12194000.4760821</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>29</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>7.4274189998896497E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>29</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>0.23708269339111501</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>32</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>16442009.677026</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>32</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>5803009.6770260101</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>32</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>23303009.677026</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>32</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>0.70557451182951103</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>32</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>0.249024042707543</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>12</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>13136322.585938299</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>12</v>
       </c>
@@ -4748,7 +4748,7 @@
         <v>2001731.58593829</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>12</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>444466802.58593798</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>12</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>2.95552390178755E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>12</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>4.5036695075809496E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>35</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>52900000.2335485</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>35</v>
       </c>
@@ -4998,7 +4998,7 @@
         <v>7600000.2335484596</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>35</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>28090000.2335485</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>35</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>1.8832324597266801</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>35</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>0.27055892382911501</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>38</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>40045311.046821602</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>38</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>476901.04682159098</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>38</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>12630001.0468216</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>38</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>3.1706498596767099</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>38</v>
       </c>
@@ -5398,7 +5398,7 @@
         <v>3.7759383000336801E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>13</v>
       </c>
@@ -5448,7 +5448,7 @@
         <v>910000.85954060894</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>13</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>190000.859540609</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>13</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>1472652000.85954</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
         <v>13</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>6.1793340110866005E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>13</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>1.29019523573601E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>40</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>27206000.829291299</v>
       </c>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
         <v>40</v>
       </c>
@@ -5748,7 +5748,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>40</v>
       </c>
@@ -5798,7 +5798,7 @@
         <v>22329000.829291299</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>40</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>1.21841550534596</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
         <v>40</v>
       </c>
@@ -5898,7 +5898,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
         <v>14</v>
       </c>
@@ -5948,7 +5948,7 @@
         <v>4500001.5077198902</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
         <v>14</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>2500001.5077198902</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
         <v>14</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>21142801.5077199</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
         <v>14</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>0.21283846921027899</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
         <v>14</v>
       </c>
@@ -6148,7 +6148,7 @@
         <v>0.118243625699606</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
         <v>42</v>
       </c>
@@ -6198,7 +6198,7 @@
         <v>84000001.367614105</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
         <v>42</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>9000001.3676141202</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
         <v>42</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>47050001.367614098</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
         <v>42</v>
       </c>
@@ -6348,7 +6348,7 @@
         <v>1.7853347274381499</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
         <v>42</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>0.191285889606989</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
         <v>44</v>
       </c>
@@ -6448,7 +6448,7 @@
         <v>28400004.631029598</v>
       </c>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
         <v>44</v>
       </c>
@@ -6498,7 +6498,7 @@
         <v>3600004.6310295798</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
         <v>44</v>
       </c>
@@ -6548,7 +6548,7 @@
         <v>15520004.6310296</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
         <v>44</v>
       </c>
@@ -6598,7 +6598,7 @@
         <v>1.82989665958273</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
         <v>44</v>
       </c>
@@ -6648,7 +6648,7 @@
         <v>0.23195899206318399</v>
       </c>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
         <v>16</v>
       </c>
@@ -6698,7 +6698,7 @@
         <v>226132940.90193</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
         <v>16</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>15845.901929563001</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
         <v>16</v>
       </c>
@@ -6798,7 +6798,7 @@
         <v>934632000.90192997</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
         <v>16</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>0.241948639340092</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
         <v>16</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>1.6954161546225199E-5</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
         <v>17</v>
       </c>
@@ -6948,7 +6948,7 @@
         <v>16065001.154934401</v>
       </c>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
         <v>17</v>
       </c>
@@ -6998,7 +6998,7 @@
         <v>2403001.15493443</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
         <v>17</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>65804401.154934399</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
         <v>17</v>
       </c>
@@ -7098,7 +7098,7 @@
         <v>0.244132624459417</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
         <v>17</v>
       </c>
@@ -7148,7 +7148,7 @@
         <v>3.65173318616887E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
         <v>18</v>
       </c>
@@ -7198,7 +7198,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
         <v>18</v>
       </c>
@@ -7248,7 +7248,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
         <v>18</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>288420004.28137201</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
         <v>18</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
         <v>18</v>
       </c>
@@ -7398,7 +7398,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
         <v>46</v>
       </c>
@@ -7448,7 +7448,7 @@
         <v>79447000.425667897</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
         <v>46</v>
       </c>
@@ -7498,7 +7498,7 @@
         <v>795000.42566793202</v>
       </c>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
         <v>46</v>
       </c>
@@ -7548,7 +7548,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
         <v>46</v>
       </c>
@@ -7598,7 +7598,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
         <v>46</v>
       </c>
@@ -7648,7 +7648,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
         <v>20</v>
       </c>
@@ -7698,7 +7698,7 @@
         <v>9681777.1404963192</v>
       </c>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
         <v>20</v>
       </c>
@@ -7748,7 +7748,7 @@
         <v>1203273.1404963101</v>
       </c>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
         <v>20</v>
       </c>
@@ -7798,7 +7798,7 @@
         <v>47691749.886496298</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
         <v>20</v>
       </c>
@@ -7848,7 +7848,7 @@
         <v>0.20300737891854301</v>
       </c>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
         <v>20</v>
       </c>
@@ -7898,7 +7898,7 @@
         <v>2.52302157786208E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
         <v>21</v>
       </c>
@@ -7948,7 +7948,7 @@
         <v>70400001.129387006</v>
       </c>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
         <v>21</v>
       </c>
@@ -7998,7 +7998,7 @@
         <v>2600001.1293870099</v>
       </c>
     </row>
-    <row r="118" spans="1:16">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
         <v>21</v>
       </c>
@@ -8048,7 +8048,7 @@
         <v>528390001.12938702</v>
       </c>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
         <v>21</v>
       </c>
@@ -8098,7 +8098,7 @@
         <v>0.13323492302828099</v>
       </c>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
         <v>21</v>
       </c>
@@ -8148,7 +8148,7 @@
         <v>4.9206100112222702E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:16">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
         <v>48</v>
       </c>
@@ -8198,7 +8198,7 @@
         <v>23400001.922484901</v>
       </c>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
         <v>48</v>
       </c>
@@ -8248,7 +8248,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
         <v>48</v>
       </c>
@@ -8298,7 +8298,7 @@
         <v>11314001.922484901</v>
       </c>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
         <v>48</v>
       </c>
@@ -8348,7 +8348,7 @@
         <v>2.0682338647990499</v>
       </c>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
         <v>48</v>
       </c>
@@ -8398,7 +8398,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="126" spans="1:16">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
         <v>52</v>
       </c>
@@ -8448,7 +8448,7 @@
         <v>9582000.0778485592</v>
       </c>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
         <v>52</v>
       </c>
@@ -8498,7 +8498,7 @@
         <v>1173000.07784857</v>
       </c>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
         <v>52</v>
       </c>
@@ -8548,7 +8548,7 @@
         <v>14473000.0778486</v>
       </c>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
         <v>52</v>
       </c>
@@ -8598,7 +8598,7 @@
         <v>0.66206039012700302</v>
       </c>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
         <v>52</v>
       </c>
@@ -8648,7 +8648,7 @@
         <v>8.1047472641410601E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:16">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" s="5" t="s">
         <v>54</v>
       </c>
@@ -8698,7 +8698,7 @@
         <v>60116322</v>
       </c>
     </row>
-    <row r="132" spans="1:16">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
         <v>54</v>
       </c>
@@ -8748,7 +8748,7 @@
         <v>2779523</v>
       </c>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" s="5" t="s">
         <v>54</v>
       </c>
@@ -8798,7 +8798,7 @@
         <v>28540004.3464472</v>
       </c>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" s="5" t="s">
         <v>54</v>
       </c>
@@ -8856,7 +8856,7 @@
         <v>2.1063879763383277</v>
       </c>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
         <v>54</v>
       </c>
@@ -8914,7 +8914,7 @@
         <v>9.7390419646029541E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" s="5" t="s">
         <v>56</v>
       </c>
@@ -8964,7 +8964,7 @@
         <v>21300002.3736674</v>
       </c>
     </row>
-    <row r="137" spans="1:16">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" s="5" t="s">
         <v>56</v>
       </c>
@@ -9014,7 +9014,7 @@
         <v>1400002.3736674299</v>
       </c>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
         <v>56</v>
       </c>
@@ -9064,7 +9064,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" s="5" t="s">
         <v>56</v>
       </c>
@@ -9114,7 +9114,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
         <v>56</v>
       </c>
@@ -9164,7 +9164,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" s="5" t="s">
         <v>22</v>
       </c>
@@ -9214,7 +9214,7 @@
         <v>48061950.558717303</v>
       </c>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
         <v>22</v>
       </c>
@@ -9264,7 +9264,7 @@
         <v>607645.55871729006</v>
       </c>
     </row>
-    <row r="143" spans="1:16">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
         <v>22</v>
       </c>
@@ -9314,7 +9314,7 @@
         <v>242884801.55871701</v>
       </c>
     </row>
-    <row r="144" spans="1:16">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" s="5" t="s">
         <v>22</v>
       </c>
@@ -9364,7 +9364,7 @@
         <v>0.19787961309344601</v>
       </c>
     </row>
-    <row r="145" spans="1:16">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
         <v>22</v>
       </c>
@@ -9423,18 +9423,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AR61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q55" sqref="Q55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="44" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="44" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -9568,7 +9568,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:44">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -9687,7 +9687,7 @@
         <v>8.911036813081348E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:44">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -9806,7 +9806,7 @@
         <v>2.9611350252800795E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:44">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -9937,7 +9937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:44">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -10068,7 +10068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:44">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -10199,7 +10199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:44">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -10330,7 +10330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:44">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -10464,7 +10464,7 @@
         <v>5.3547663235850194E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:44">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -10598,7 +10598,7 @@
         <v>4.6916378754863521E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:44">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -10729,7 +10729,7 @@
         <v>1.7066206031018747E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:44">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -10860,7 +10860,7 @@
         <v>1.1222324393279194E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:44">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -10991,7 +10991,7 @@
         <v>5.0006792876853574E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:44">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -11122,7 +11122,7 @@
         <v>3.0202143358947035E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:44">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -11253,7 +11253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:44">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -11384,7 +11384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:44">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -11509,7 +11509,7 @@
         <v>1.8395932677230543E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:44">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -11634,7 +11634,7 @@
         <v>1.5253008327079058E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:44">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -11759,7 +11759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:44">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -11884,7 +11884,7 @@
         <v>8.5331905004060842E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:44">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -12015,7 +12015,7 @@
         <v>7.8258982440232314E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:44">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -12140,7 +12140,7 @@
         <v>7.6393565059035713E-7</v>
       </c>
     </row>
-    <row r="22" spans="1:44">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -12271,7 +12271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:44">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -12402,7 +12402,7 @@
         <v>7.4930186515361902E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:44">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -12500,7 +12500,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:44">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -12508,7 +12508,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:44">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -12642,7 +12642,7 @@
         <v>7.8691147818454946E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:44">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -12773,7 +12773,7 @@
         <v>1.9940079263305985E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:44">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -12904,7 +12904,7 @@
         <v>3.2513089908839096E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:44">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -13035,7 +13035,7 @@
         <v>1.2007680273680536E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:44">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -13169,7 +13169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:44">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -13303,7 +13303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:44">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -13422,7 +13422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:44">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -13541,7 +13541,7 @@
         <v>2.3531717117231055E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:44">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -13549,7 +13549,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:44">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>25</v>
       </c>
@@ -13557,7 +13557,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:44">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -13565,7 +13565,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:44">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -13573,7 +13573,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:44">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>29</v>
       </c>
@@ -13677,7 +13677,7 @@
         <v>5.3112528078259186E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:44">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>29</v>
       </c>
@@ -13781,7 +13781,7 @@
         <v>6.8687840496457889E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:44">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>32</v>
       </c>
@@ -13900,7 +13900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:44">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>32</v>
       </c>
@@ -14019,7 +14019,7 @@
         <v>6.5898648327123444E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:44">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>35</v>
       </c>
@@ -14132,7 +14132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:44">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -14245,7 +14245,7 @@
         <v>6.7336740335270401E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:44">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -14364,7 +14364,7 @@
         <v>2.1165034305152708</v>
       </c>
     </row>
-    <row r="45" spans="1:44">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -14483,7 +14483,7 @@
         <v>1.7283227911659416E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:44">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>40</v>
       </c>
@@ -14521,7 +14521,7 @@
         <v>1.0443561474393943</v>
       </c>
     </row>
-    <row r="47" spans="1:44">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>40</v>
       </c>
@@ -14529,7 +14529,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:44">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>42</v>
       </c>
@@ -14642,7 +14642,7 @@
         <v>1.1291898788025883</v>
       </c>
     </row>
-    <row r="49" spans="1:44">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -14755,7 +14755,7 @@
         <v>2.9126792689964681E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:44">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>44</v>
       </c>
@@ -14871,7 +14871,7 @@
         <v>1.1503609148905434</v>
       </c>
     </row>
-    <row r="51" spans="1:44">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -14987,7 +14987,7 @@
         <v>7.2197212871397132E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:44">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>46</v>
       </c>
@@ -14995,7 +14995,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="1:44">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -15003,7 +15003,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="54" spans="1:44">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>48</v>
       </c>
@@ -15041,7 +15041,7 @@
         <v>1.7773884775616839</v>
       </c>
     </row>
-    <row r="55" spans="1:44">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>48</v>
       </c>
@@ -15049,7 +15049,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="56" spans="1:44">
+    <row r="56" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>52</v>
       </c>
@@ -15057,7 +15057,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="1:44">
+    <row r="57" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>52</v>
       </c>
@@ -15065,7 +15065,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="58" spans="1:44">
+    <row r="58" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>54</v>
       </c>
@@ -15184,7 +15184,7 @@
         <v>1.5067587714222448</v>
       </c>
     </row>
-    <row r="59" spans="1:44">
+    <row r="59" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>54</v>
       </c>
@@ -15303,7 +15303,7 @@
         <v>2.82160520232232E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:44">
+    <row r="60" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>56</v>
       </c>
@@ -15398,7 +15398,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="1:44">
+    <row r="61" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>56</v>
       </c>
@@ -15503,18 +15503,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AR61"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46:M47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="44" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="44" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -15648,7 +15648,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:44">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -15767,7 +15767,7 @@
         <v>8.9465911484951893E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:44">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -15886,7 +15886,7 @@
         <v>2.9611350252800795E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:44">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -16017,7 +16017,7 @@
         <v>2.7093533847900943E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:44">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -16148,7 +16148,7 @@
         <v>4.2782297907073925E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:44">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -16279,7 +16279,7 @@
         <v>1.3123562059001663E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:44">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -16410,7 +16410,7 @@
         <v>2.6896752755997291E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:44">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -16544,7 +16544,7 @@
         <v>5.3969490446003025E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:44">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -16678,7 +16678,7 @@
         <v>4.7336577395813443E-6</v>
       </c>
     </row>
-    <row r="10" spans="1:44">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -16809,7 +16809,7 @@
         <v>1.7829327732493332E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:44">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -16940,7 +16940,7 @@
         <v>1.1222324393279194E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:44">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -17071,7 +17071,7 @@
         <v>5.2654499665761639E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:44">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -17202,7 +17202,7 @@
         <v>3.7250754698664E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:44">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -17333,7 +17333,7 @@
         <v>6.5794162297210567E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:44">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -17464,7 +17464,7 @@
         <v>1.1695895122326271E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:44">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -17589,7 +17589,7 @@
         <v>1.8395932677230543E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:44">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -17714,7 +17714,7 @@
         <v>1.5253008327079058E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:44">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -17839,7 +17839,7 @@
         <v>6.7720483867934181E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:44">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -17964,7 +17964,7 @@
         <v>8.5331905004060842E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:44">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -18095,7 +18095,7 @@
         <v>7.8258982440232314E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:44">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -18220,7 +18220,7 @@
         <v>7.6393565059035713E-7</v>
       </c>
     </row>
-    <row r="22" spans="1:44">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -18351,7 +18351,7 @@
         <v>7.6239353663867096E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:44">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -18482,7 +18482,7 @@
         <v>7.4930186515361902E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:44">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -18580,7 +18580,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:44">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -18675,7 +18675,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:44">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -18809,7 +18809,7 @@
         <v>7.8691147818454946E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:44">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -18940,7 +18940,7 @@
         <v>1.9940079263305985E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:44">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -19071,7 +19071,7 @@
         <v>3.3560366404392354E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:44">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -19202,7 +19202,7 @@
         <v>1.5349153181480155E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:44">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -19336,7 +19336,7 @@
         <v>5.5505013727301572E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:44">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -19470,7 +19470,7 @@
         <v>4.3891690190548177E-5</v>
       </c>
     </row>
-    <row r="32" spans="1:44">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -19589,7 +19589,7 @@
         <v>1.4001181795063664</v>
       </c>
     </row>
-    <row r="33" spans="1:44">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -19708,7 +19708,7 @@
         <v>2.3531717117231055E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:44">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -19806,7 +19806,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:44">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>25</v>
       </c>
@@ -19901,7 +19901,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:44">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -19999,7 +19999,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:44">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -20094,7 +20094,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:44">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>29</v>
       </c>
@@ -20198,7 +20198,7 @@
         <v>5.3112528078259186E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:44">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>29</v>
       </c>
@@ -20302,7 +20302,7 @@
         <v>6.8687840496457889E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:44">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>32</v>
       </c>
@@ -20421,7 +20421,7 @@
         <v>0.57154725873015932</v>
       </c>
     </row>
-    <row r="41" spans="1:44">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>32</v>
       </c>
@@ -20540,7 +20540,7 @@
         <v>6.5898648327123444E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:44">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>35</v>
       </c>
@@ -20653,7 +20653,7 @@
         <v>1.2851667278216812</v>
       </c>
     </row>
-    <row r="43" spans="1:44">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -20766,7 +20766,7 @@
         <v>6.7336740335270401E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:44">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -20885,7 +20885,7 @@
         <v>2.1165034305152708</v>
       </c>
     </row>
-    <row r="45" spans="1:44">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -21004,7 +21004,7 @@
         <v>1.7283227911659416E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:44">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>40</v>
       </c>
@@ -21117,7 +21117,7 @@
         <v>0.56647178234635764</v>
       </c>
     </row>
-    <row r="47" spans="1:44">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>40</v>
       </c>
@@ -21212,7 +21212,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:44">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>42</v>
       </c>
@@ -21325,7 +21325,7 @@
         <v>1.1291898788025883</v>
       </c>
     </row>
-    <row r="49" spans="1:44">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -21438,7 +21438,7 @@
         <v>2.9126792689964681E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:44">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>44</v>
       </c>
@@ -21554,7 +21554,7 @@
         <v>1.2239842634861196</v>
       </c>
     </row>
-    <row r="51" spans="1:44">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -21670,7 +21670,7 @@
         <v>7.2197212871397132E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:44">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>46</v>
       </c>
@@ -21768,7 +21768,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:44">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -21863,7 +21863,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:44">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>48</v>
       </c>
@@ -21976,7 +21976,7 @@
         <v>2.5859784627862941</v>
       </c>
     </row>
-    <row r="55" spans="1:44">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>48</v>
       </c>
@@ -22071,7 +22071,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:44">
+    <row r="56" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>52</v>
       </c>
@@ -22181,7 +22181,7 @@
         <v>0.51622338238895638</v>
       </c>
     </row>
-    <row r="57" spans="1:44">
+    <row r="57" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>52</v>
       </c>
@@ -22291,7 +22291,7 @@
         <v>2.4817386351185876E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:44">
+    <row r="58" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>54</v>
       </c>
@@ -22410,7 +22410,7 @@
         <v>1.5067587714222448</v>
       </c>
     </row>
-    <row r="59" spans="1:44">
+    <row r="59" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>54</v>
       </c>
@@ -22529,12 +22529,12 @@
         <v>2.82160520232232E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:44">
+    <row r="60" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:44">
+    <row r="61" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>56</v>
       </c>

--- a/test/inputs/test_data_company.xlsx
+++ b/test/inputs/test_data_company.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11009"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Documents/GitHub/ITR-MichaelTiemannOSC/test/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DBC667-5F09-E340-8F31-AA4E441FE3B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D830C991-F504-2247-BCB3-4CF8D9AB9DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="69060" windowHeight="16900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="69060" windowHeight="16900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fundamental_data" sheetId="1" r:id="rId1"/>
@@ -376,7 +376,7 @@
     <t>Production</t>
   </si>
   <si>
-    <t>Emission Intensities</t>
+    <t>Emissions Intensities</t>
   </si>
 </sst>
 </file>
@@ -768,7 +768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
@@ -2135,8 +2135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P145"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AH16" sqref="AH16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/test/inputs/test_data_company.xlsx
+++ b/test/inputs/test_data_company.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Documents/GitHub/ITR-MichaelTiemannOSC/test/inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Dropbox/My Mac (MacBook-Pro.local)/Documents/GitHub/MichaelTiemannOSC/ITR/test/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D830C991-F504-2247-BCB3-4CF8D9AB9DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F677CF0-CF0E-B840-ACEF-AA403CA1C426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="69060" windowHeight="16900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="16900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fundamental_data" sheetId="1" r:id="rId1"/>
     <sheet name="historic_data" sheetId="7" r:id="rId2"/>
     <sheet name="projected_target" sheetId="6" r:id="rId3"/>
-    <sheet name="projected_ei_in_Wh" sheetId="5" r:id="rId4"/>
+    <sheet name="projected_ei" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -437,15 +437,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -766,7 +765,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R56"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
@@ -842,7 +841,7 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B2" t="s">
@@ -883,7 +882,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B3" t="s">
@@ -924,7 +923,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B4" t="s">
@@ -965,7 +964,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B5" t="s">
@@ -1006,7 +1005,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B6" t="s">
@@ -1047,7 +1046,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B7" t="s">
@@ -1088,7 +1087,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B8" t="s">
@@ -1129,7 +1128,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B9" t="s">
@@ -1170,7 +1169,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B10" t="s">
@@ -1211,7 +1210,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B11" t="s">
@@ -1252,7 +1251,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B12" t="s">
@@ -1293,7 +1292,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B13" t="s">
@@ -1334,7 +1333,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B14" t="s">
@@ -1375,7 +1374,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B15" t="s">
@@ -1457,7 +1456,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B17" t="s">
@@ -1498,7 +1497,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B18" t="s">
@@ -1533,7 +1532,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" t="s">
@@ -1568,7 +1567,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B20" t="s">
@@ -1609,7 +1608,7 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B21" t="s">
@@ -1650,7 +1649,7 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B22" t="s">
@@ -1691,7 +1690,7 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B23" t="s">
@@ -1732,7 +1731,7 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B24" t="s">
@@ -1773,7 +1772,7 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B25" t="s">
@@ -1814,7 +1813,7 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B26" t="s">
@@ -1855,7 +1854,7 @@
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B27" t="s">
@@ -1890,7 +1889,7 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B28" t="s">
@@ -1931,7 +1930,7 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B29" t="s">
@@ -1972,7 +1971,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B30" t="s">
@@ -2013,7 +2012,7 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B31" t="s">
@@ -2046,81 +2045,6 @@
       <c r="R31">
         <v>0.42857142857142849</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="P32" s="2"/>
-    </row>
-    <row r="33" spans="16:16" x14ac:dyDescent="0.2">
-      <c r="P33" s="2"/>
-    </row>
-    <row r="34" spans="16:16" x14ac:dyDescent="0.2">
-      <c r="P34" s="2"/>
-    </row>
-    <row r="35" spans="16:16" x14ac:dyDescent="0.2">
-      <c r="P35" s="2"/>
-    </row>
-    <row r="36" spans="16:16" x14ac:dyDescent="0.2">
-      <c r="P36" s="2"/>
-    </row>
-    <row r="37" spans="16:16" x14ac:dyDescent="0.2">
-      <c r="P37" s="2"/>
-    </row>
-    <row r="38" spans="16:16" x14ac:dyDescent="0.2">
-      <c r="P38" s="2"/>
-    </row>
-    <row r="39" spans="16:16" x14ac:dyDescent="0.2">
-      <c r="P39" s="2"/>
-    </row>
-    <row r="40" spans="16:16" x14ac:dyDescent="0.2">
-      <c r="P40" s="2"/>
-    </row>
-    <row r="41" spans="16:16" x14ac:dyDescent="0.2">
-      <c r="P41" s="2"/>
-    </row>
-    <row r="42" spans="16:16" x14ac:dyDescent="0.2">
-      <c r="P42" s="2"/>
-    </row>
-    <row r="43" spans="16:16" x14ac:dyDescent="0.2">
-      <c r="P43" s="2"/>
-    </row>
-    <row r="44" spans="16:16" x14ac:dyDescent="0.2">
-      <c r="P44" s="2"/>
-    </row>
-    <row r="45" spans="16:16" x14ac:dyDescent="0.2">
-      <c r="P45" s="2"/>
-    </row>
-    <row r="46" spans="16:16" x14ac:dyDescent="0.2">
-      <c r="P46" s="2"/>
-    </row>
-    <row r="47" spans="16:16" x14ac:dyDescent="0.2">
-      <c r="P47" s="2"/>
-    </row>
-    <row r="48" spans="16:16" x14ac:dyDescent="0.2">
-      <c r="P48" s="2"/>
-    </row>
-    <row r="49" spans="16:16" x14ac:dyDescent="0.2">
-      <c r="P49" s="2"/>
-    </row>
-    <row r="50" spans="16:16" x14ac:dyDescent="0.2">
-      <c r="P50" s="2"/>
-    </row>
-    <row r="51" spans="16:16" x14ac:dyDescent="0.2">
-      <c r="P51" s="2"/>
-    </row>
-    <row r="52" spans="16:16" x14ac:dyDescent="0.2">
-      <c r="P52" s="2"/>
-    </row>
-    <row r="53" spans="16:16" x14ac:dyDescent="0.2">
-      <c r="P53" s="2"/>
-    </row>
-    <row r="54" spans="16:16" x14ac:dyDescent="0.2">
-      <c r="P54" s="2"/>
-    </row>
-    <row r="55" spans="16:16" x14ac:dyDescent="0.2">
-      <c r="P55" s="2"/>
-    </row>
-    <row r="56" spans="16:16" x14ac:dyDescent="0.2">
-      <c r="P56" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2135,7 +2059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AH16" sqref="AH16"/>
     </sheetView>
   </sheetViews>
@@ -2149,57 +2073,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="2">
         <v>2009</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="2">
         <v>2010</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="2">
         <v>2011</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="2">
         <v>2012</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="2">
         <v>2013</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="2">
         <v>2014</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="2">
         <v>2015</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="2">
         <v>2016</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="2">
         <v>2017</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="2">
         <v>2018</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1" s="2">
         <v>2019</v>
       </c>
-      <c r="O1" s="3">
+      <c r="O1" s="2">
         <v>2020</v>
       </c>
-      <c r="P1" s="3">
+      <c r="P1" s="2">
         <v>2021</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -2249,7 +2173,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -2299,7 +2223,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -2349,7 +2273,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
@@ -2399,7 +2323,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
@@ -2449,7 +2373,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
@@ -2499,7 +2423,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
@@ -2549,7 +2473,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B9" t="s">
@@ -2599,7 +2523,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B10" t="s">
@@ -2611,13 +2535,13 @@
       <c r="D10" t="s">
         <v>109</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>2.5057186553478599E-9</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>2.5397615768446099E-9</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>2.5747422593009901E-9</v>
       </c>
       <c r="H10">
@@ -2649,7 +2573,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B11" t="s">
@@ -2699,7 +2623,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B12" t="s">
@@ -2749,7 +2673,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B13" t="s">
@@ -2799,7 +2723,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B14" t="s">
@@ -2849,7 +2773,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B15" t="s">
@@ -2899,7 +2823,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B16" t="s">
@@ -2949,7 +2873,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B17" t="s">
@@ -2999,7 +2923,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B18" t="s">
@@ -3049,7 +2973,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B19" t="s">
@@ -3099,7 +3023,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B20" t="s">
@@ -3149,7 +3073,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B21" t="s">
@@ -3199,7 +3123,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B22" t="s">
@@ -3249,7 +3173,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B23" t="s">
@@ -3299,7 +3223,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B24" t="s">
@@ -3349,7 +3273,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B25" t="s">
@@ -3399,7 +3323,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B26" t="s">
@@ -3449,7 +3373,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B27" t="s">
@@ -3499,7 +3423,7 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B28" t="s">
@@ -3549,7 +3473,7 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B29" t="s">
@@ -3599,7 +3523,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B30" t="s">
@@ -3614,13 +3538,13 @@
       <c r="E30">
         <v>2.9553960401974502E-4</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="3">
         <v>3.5896831063912501E-5</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="3">
         <v>3.19938969396695E-5</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="3">
         <v>6.7633770492123101E-5</v>
       </c>
       <c r="I30">
@@ -3649,7 +3573,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B31" t="s">
@@ -3699,7 +3623,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B32" t="s">
@@ -3749,7 +3673,7 @@
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B33" t="s">
@@ -3799,7 +3723,7 @@
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B34" t="s">
@@ -3849,7 +3773,7 @@
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B35" t="s">
@@ -3899,7 +3823,7 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B36" t="s">
@@ -3949,7 +3873,7 @@
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B37" t="s">
@@ -3999,7 +3923,7 @@
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B38" t="s">
@@ -4049,7 +3973,7 @@
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B39" t="s">
@@ -4099,7 +4023,7 @@
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B40" t="s">
@@ -4149,7 +4073,7 @@
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B41" t="s">
@@ -4199,7 +4123,7 @@
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B42" t="s">
@@ -4249,7 +4173,7 @@
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B43" t="s">
@@ -4299,7 +4223,7 @@
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B44" t="s">
@@ -4349,7 +4273,7 @@
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B45" t="s">
@@ -4399,7 +4323,7 @@
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B46" t="s">
@@ -4449,7 +4373,7 @@
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B47" t="s">
@@ -4499,7 +4423,7 @@
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B48" t="s">
@@ -4549,7 +4473,7 @@
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B49" t="s">
@@ -4599,7 +4523,7 @@
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B50" t="s">
@@ -4649,7 +4573,7 @@
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B51" t="s">
@@ -4699,7 +4623,7 @@
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B52" t="s">
@@ -4749,7 +4673,7 @@
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B53" t="s">
@@ -4799,7 +4723,7 @@
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B54" t="s">
@@ -4849,7 +4773,7 @@
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B55" t="s">
@@ -4899,7 +4823,7 @@
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B56" t="s">
@@ -4949,7 +4873,7 @@
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B57" t="s">
@@ -4999,7 +4923,7 @@
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B58" t="s">
@@ -5049,7 +4973,7 @@
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B59" t="s">
@@ -5099,7 +5023,7 @@
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B60" t="s">
@@ -5149,7 +5073,7 @@
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B61" t="s">
@@ -5199,7 +5123,7 @@
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B62" t="s">
@@ -5249,7 +5173,7 @@
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B63" t="s">
@@ -5299,7 +5223,7 @@
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B64" t="s">
@@ -5349,7 +5273,7 @@
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B65" t="s">
@@ -5399,7 +5323,7 @@
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B66" t="s">
@@ -5449,7 +5373,7 @@
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B67" t="s">
@@ -5499,7 +5423,7 @@
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B68" t="s">
@@ -5549,7 +5473,7 @@
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B69" t="s">
@@ -5599,7 +5523,7 @@
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B70" t="s">
@@ -5617,13 +5541,13 @@
       <c r="F70" t="s">
         <v>109</v>
       </c>
-      <c r="G70" s="4">
+      <c r="G70" s="3">
         <v>8.2350581881727896E-5</v>
       </c>
-      <c r="H70" s="4">
+      <c r="H70" s="3">
         <v>7.4186213652318599E-5</v>
       </c>
-      <c r="I70" s="4">
+      <c r="I70" s="3">
         <v>8.7802886405047395E-5</v>
       </c>
       <c r="J70">
@@ -5649,7 +5573,7 @@
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B71" t="s">
@@ -5699,7 +5623,7 @@
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B72" t="s">
@@ -5749,7 +5673,7 @@
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B73" t="s">
@@ -5799,7 +5723,7 @@
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B74" t="s">
@@ -5849,7 +5773,7 @@
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B75" t="s">
@@ -5899,7 +5823,7 @@
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B76" t="s">
@@ -5949,7 +5873,7 @@
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B77" t="s">
@@ -5999,7 +5923,7 @@
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B78" t="s">
@@ -6049,7 +5973,7 @@
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B79" t="s">
@@ -6099,7 +6023,7 @@
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B80" t="s">
@@ -6149,7 +6073,7 @@
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B81" t="s">
@@ -6199,7 +6123,7 @@
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B82" t="s">
@@ -6249,7 +6173,7 @@
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B83" t="s">
@@ -6299,7 +6223,7 @@
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B84" t="s">
@@ -6349,7 +6273,7 @@
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B85" t="s">
@@ -6399,7 +6323,7 @@
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B86" t="s">
@@ -6449,7 +6373,7 @@
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B87" t="s">
@@ -6499,7 +6423,7 @@
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B88" t="s">
@@ -6549,7 +6473,7 @@
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B89" t="s">
@@ -6599,7 +6523,7 @@
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B90" t="s">
@@ -6649,7 +6573,7 @@
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A91" s="5" t="s">
+      <c r="A91" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B91" t="s">
@@ -6699,7 +6623,7 @@
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A92" s="5" t="s">
+      <c r="A92" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B92" t="s">
@@ -6749,7 +6673,7 @@
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B93" t="s">
@@ -6799,7 +6723,7 @@
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B94" t="s">
@@ -6849,7 +6773,7 @@
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B95" t="s">
@@ -6867,39 +6791,39 @@
       <c r="F95" t="s">
         <v>109</v>
       </c>
-      <c r="G95" s="4">
+      <c r="G95" s="3">
         <v>1.1281847590104501E-9</v>
       </c>
-      <c r="H95" s="4">
+      <c r="H95" s="3">
         <v>1.07976618962186E-9</v>
       </c>
-      <c r="I95" s="4">
+      <c r="I95" s="3">
         <v>1.07395273335092E-9</v>
       </c>
-      <c r="J95" s="4">
+      <c r="J95" s="3">
         <v>7.1788094253873198E-6</v>
       </c>
-      <c r="K95" s="4">
+      <c r="K95" s="3">
         <v>1.43138630794245E-5</v>
       </c>
-      <c r="L95" s="4">
+      <c r="L95" s="3">
         <v>2.07557732976029E-5</v>
       </c>
-      <c r="M95" s="4">
+      <c r="M95" s="3">
         <v>2.6061274042782299E-5</v>
       </c>
-      <c r="N95" s="4">
+      <c r="N95" s="3">
         <v>2.3550537345723801E-5</v>
       </c>
-      <c r="O95" s="4">
+      <c r="O95" s="3">
         <v>1.6954161546225199E-5</v>
       </c>
-      <c r="P95" s="4">
+      <c r="P95" s="3">
         <v>1.6954161546225199E-5</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A96" s="5" t="s">
+      <c r="A96" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B96" t="s">
@@ -6949,7 +6873,7 @@
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B97" t="s">
@@ -6999,7 +6923,7 @@
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A98" s="5" t="s">
+      <c r="A98" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B98" t="s">
@@ -7049,7 +6973,7 @@
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A99" s="5" t="s">
+      <c r="A99" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B99" t="s">
@@ -7099,7 +7023,7 @@
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A100" s="5" t="s">
+      <c r="A100" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B100" t="s">
@@ -7149,7 +7073,7 @@
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A101" s="5" t="s">
+      <c r="A101" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B101" t="s">
@@ -7199,7 +7123,7 @@
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A102" s="5" t="s">
+      <c r="A102" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B102" t="s">
@@ -7249,7 +7173,7 @@
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A103" s="5" t="s">
+      <c r="A103" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B103" t="s">
@@ -7299,7 +7223,7 @@
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A104" s="5" t="s">
+      <c r="A104" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B104" t="s">
@@ -7349,7 +7273,7 @@
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A105" s="5" t="s">
+      <c r="A105" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B105" t="s">
@@ -7399,7 +7323,7 @@
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A106" s="5" t="s">
+      <c r="A106" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B106" t="s">
@@ -7449,7 +7373,7 @@
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A107" s="5" t="s">
+      <c r="A107" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B107" t="s">
@@ -7499,7 +7423,7 @@
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A108" s="5" t="s">
+      <c r="A108" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B108" t="s">
@@ -7549,7 +7473,7 @@
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A109" s="5" t="s">
+      <c r="A109" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B109" t="s">
@@ -7599,7 +7523,7 @@
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A110" s="5" t="s">
+      <c r="A110" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B110" t="s">
@@ -7649,7 +7573,7 @@
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A111" s="5" t="s">
+      <c r="A111" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B111" t="s">
@@ -7699,7 +7623,7 @@
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A112" s="5" t="s">
+      <c r="A112" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B112" t="s">
@@ -7749,7 +7673,7 @@
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A113" s="5" t="s">
+      <c r="A113" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B113" t="s">
@@ -7799,7 +7723,7 @@
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A114" s="5" t="s">
+      <c r="A114" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B114" t="s">
@@ -7849,7 +7773,7 @@
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A115" s="5" t="s">
+      <c r="A115" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B115" t="s">
@@ -7861,13 +7785,13 @@
       <c r="D115" t="s">
         <v>109</v>
       </c>
-      <c r="E115" s="4">
+      <c r="E115" s="3">
         <v>5.2427676449402701E-8</v>
       </c>
-      <c r="F115" s="4">
+      <c r="F115" s="3">
         <v>5.2622557615435301E-8</v>
       </c>
-      <c r="G115" s="4">
+      <c r="G115" s="3">
         <v>5.3876610887202302E-8</v>
       </c>
       <c r="H115">
@@ -7899,7 +7823,7 @@
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A116" s="5" t="s">
+      <c r="A116" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B116" t="s">
@@ -7949,7 +7873,7 @@
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A117" s="5" t="s">
+      <c r="A117" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B117" t="s">
@@ -7999,7 +7923,7 @@
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A118" s="5" t="s">
+      <c r="A118" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B118" t="s">
@@ -8049,7 +7973,7 @@
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A119" s="5" t="s">
+      <c r="A119" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B119" t="s">
@@ -8099,7 +8023,7 @@
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A120" s="5" t="s">
+      <c r="A120" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B120" t="s">
@@ -8149,7 +8073,7 @@
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A121" s="5" t="s">
+      <c r="A121" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B121" t="s">
@@ -8199,7 +8123,7 @@
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A122" s="5" t="s">
+      <c r="A122" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B122" t="s">
@@ -8249,7 +8173,7 @@
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A123" s="5" t="s">
+      <c r="A123" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B123" t="s">
@@ -8299,7 +8223,7 @@
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A124" s="5" t="s">
+      <c r="A124" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B124" t="s">
@@ -8349,7 +8273,7 @@
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A125" s="5" t="s">
+      <c r="A125" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B125" t="s">
@@ -8399,7 +8323,7 @@
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A126" s="5" t="s">
+      <c r="A126" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B126" t="s">
@@ -8449,7 +8373,7 @@
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A127" s="5" t="s">
+      <c r="A127" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B127" t="s">
@@ -8499,7 +8423,7 @@
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A128" s="5" t="s">
+      <c r="A128" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B128" t="s">
@@ -8549,7 +8473,7 @@
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A129" s="5" t="s">
+      <c r="A129" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B129" t="s">
@@ -8599,7 +8523,7 @@
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A130" s="5" t="s">
+      <c r="A130" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B130" t="s">
@@ -8649,7 +8573,7 @@
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A131" s="5" t="s">
+      <c r="A131" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B131" t="s">
@@ -8699,7 +8623,7 @@
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A132" s="5" t="s">
+      <c r="A132" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B132" t="s">
@@ -8749,7 +8673,7 @@
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A133" s="5" t="s">
+      <c r="A133" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B133" t="s">
@@ -8799,7 +8723,7 @@
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A134" s="5" t="s">
+      <c r="A134" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B134" t="s">
@@ -8857,7 +8781,7 @@
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A135" s="5" t="s">
+      <c r="A135" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B135" t="s">
@@ -8915,7 +8839,7 @@
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A136" s="5" t="s">
+      <c r="A136" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B136" t="s">
@@ -8965,7 +8889,7 @@
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A137" s="5" t="s">
+      <c r="A137" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B137" t="s">
@@ -9015,7 +8939,7 @@
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A138" s="5" t="s">
+      <c r="A138" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B138" t="s">
@@ -9065,7 +8989,7 @@
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A139" s="5" t="s">
+      <c r="A139" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B139" t="s">
@@ -9115,7 +9039,7 @@
       </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A140" s="5" t="s">
+      <c r="A140" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B140" t="s">
@@ -9165,7 +9089,7 @@
       </c>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A141" s="5" t="s">
+      <c r="A141" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B141" t="s">
@@ -9215,7 +9139,7 @@
       </c>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A142" s="5" t="s">
+      <c r="A142" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B142" t="s">
@@ -9265,7 +9189,7 @@
       </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A143" s="5" t="s">
+      <c r="A143" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B143" t="s">
@@ -9315,7 +9239,7 @@
       </c>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A144" s="5" t="s">
+      <c r="A144" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B144" t="s">
@@ -9365,7 +9289,7 @@
       </c>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A145" s="5" t="s">
+      <c r="A145" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B145" t="s">
@@ -15503,7 +15427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AR61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/test/inputs/test_data_company.xlsx
+++ b/test/inputs/test_data_company.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Dropbox/My Mac (MacBook-Pro.local)/Documents/GitHub/MichaelTiemannOSC/ITR/test/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F677CF0-CF0E-B840-ACEF-AA403CA1C426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0918786-5781-574F-A837-E739E66D8128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="16900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="16900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fundamental_data" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1837" uniqueCount="113">
   <si>
     <t>company_name</t>
   </si>
@@ -2057,10 +2057,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P145"/>
+  <dimension ref="A1:P146"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AH16" sqref="AH16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2530,96 +2530,108 @@
         <v>112</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s">
         <v>109</v>
       </c>
-      <c r="E10" s="3">
-        <v>2.5057186553478599E-9</v>
-      </c>
-      <c r="F10" s="3">
-        <v>2.5397615768446099E-9</v>
-      </c>
-      <c r="G10" s="3">
-        <v>2.5747422593009901E-9</v>
+      <c r="E10">
+        <f>E7/E9</f>
+        <v>0.23224805956510242</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F10:P10" si="0">F7/F9</f>
+        <v>0.23093754899988628</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0.21040158732074477</v>
       </c>
       <c r="H10">
-        <v>4.5344621617928902E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.2017438076145156</v>
       </c>
       <c r="I10">
-        <v>9.1973681633831308E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.2177325639613413</v>
       </c>
       <c r="J10">
-        <v>1.48410193569695E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.19566431791549818</v>
       </c>
       <c r="K10">
-        <v>2.2458704327746E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.20148975436923527</v>
       </c>
       <c r="L10">
-        <v>1.8747832053296099E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.11395526614815993</v>
       </c>
       <c r="M10">
-        <v>2.30557786549704E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.11039236169123971</v>
       </c>
       <c r="N10">
-        <v>2.4233133779026399E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.10815212499382923</v>
       </c>
       <c r="O10">
-        <v>2.4233133779026399E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.10815212499382923</v>
       </c>
       <c r="P10">
-        <v>2.4233133779026399E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.10815212499382923</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D11" t="s">
         <v>109</v>
       </c>
-      <c r="E11">
-        <v>165226001.396088</v>
-      </c>
-      <c r="F11">
-        <v>162028001.396088</v>
-      </c>
-      <c r="G11">
-        <v>158192001.396088</v>
+      <c r="E11" s="3">
+        <v>2.5057186553478599E-9</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2.5397615768446099E-9</v>
+      </c>
+      <c r="G11" s="3">
+        <v>2.5747422593009901E-9</v>
       </c>
       <c r="H11">
-        <v>169000001.396088</v>
+        <v>4.5344621617928902E-3</v>
       </c>
       <c r="I11">
-        <v>174000001.396088</v>
+        <v>9.1973681633831308E-3</v>
       </c>
       <c r="J11">
-        <v>176000001.396088</v>
+        <v>1.48410193569695E-2</v>
       </c>
       <c r="K11">
-        <v>176000001.396088</v>
+        <v>2.2458704327746E-2</v>
       </c>
       <c r="L11">
-        <v>179700001.396088</v>
+        <v>1.8747832053296099E-2</v>
       </c>
       <c r="M11">
-        <v>174900001.396088</v>
+        <v>2.30557786549704E-2</v>
       </c>
       <c r="N11">
-        <v>169800001.396088</v>
+        <v>2.4233133779026399E-2</v>
       </c>
       <c r="O11">
-        <v>141300001.396088</v>
+        <v>2.4233133779026399E-2</v>
       </c>
       <c r="P11">
-        <v>141300001.396088</v>
+        <v>2.4233133779026399E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -2630,46 +2642,46 @@
         <v>106</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
       </c>
       <c r="E12">
-        <v>19599001.396088399</v>
+        <v>165226001.396088</v>
       </c>
       <c r="F12">
-        <v>17902001.396088399</v>
+        <v>162028001.396088</v>
       </c>
       <c r="G12">
-        <v>17256001.396088399</v>
+        <v>158192001.396088</v>
       </c>
       <c r="H12">
-        <v>21000001.396088399</v>
+        <v>169000001.396088</v>
       </c>
       <c r="I12">
-        <v>17000001.396088399</v>
+        <v>174000001.396088</v>
       </c>
       <c r="J12">
-        <v>16000001.396088401</v>
+        <v>176000001.396088</v>
       </c>
       <c r="K12">
-        <v>14000001.396088401</v>
+        <v>176000001.396088</v>
       </c>
       <c r="L12">
-        <v>15100001.396088401</v>
+        <v>179700001.396088</v>
       </c>
       <c r="M12">
-        <v>13900001.396088401</v>
+        <v>174900001.396088</v>
       </c>
       <c r="N12">
-        <v>12100001.396088401</v>
+        <v>169800001.396088</v>
       </c>
       <c r="O12">
-        <v>9500001.3960884009</v>
+        <v>141300001.396088</v>
       </c>
       <c r="P12">
-        <v>9500001.3960884009</v>
+        <v>141300001.396088</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -2677,60 +2689,60 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D13" t="s">
         <v>109</v>
       </c>
-      <c r="E13" t="s">
-        <v>109</v>
-      </c>
-      <c r="F13" t="s">
-        <v>109</v>
-      </c>
-      <c r="G13" t="s">
-        <v>109</v>
-      </c>
-      <c r="H13" t="s">
-        <v>109</v>
+      <c r="E13">
+        <v>19599001.396088399</v>
+      </c>
+      <c r="F13">
+        <v>17902001.396088399</v>
+      </c>
+      <c r="G13">
+        <v>17256001.396088399</v>
+      </c>
+      <c r="H13">
+        <v>21000001.396088399</v>
       </c>
       <c r="I13">
-        <v>91200001.396088406</v>
+        <v>17000001.396088399</v>
       </c>
       <c r="J13">
-        <v>92479001.396088406</v>
+        <v>16000001.396088401</v>
       </c>
       <c r="K13">
-        <v>90800001.396088406</v>
+        <v>14000001.396088401</v>
       </c>
       <c r="L13">
-        <v>93100001.396088406</v>
+        <v>15100001.396088401</v>
       </c>
       <c r="M13">
-        <v>92500001.396088406</v>
+        <v>13900001.396088401</v>
       </c>
       <c r="N13">
-        <v>89800001.396088406</v>
+        <v>12100001.396088401</v>
       </c>
       <c r="O13">
-        <v>71500001.396088406</v>
+        <v>9500001.3960884009</v>
       </c>
       <c r="P13">
-        <v>71500001.396088406</v>
+        <v>9500001.3960884009</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D14" t="s">
         <v>109</v>
@@ -2738,38 +2750,38 @@
       <c r="E14" t="s">
         <v>109</v>
       </c>
-      <c r="F14">
-        <v>13390004.4552317</v>
-      </c>
-      <c r="G14">
-        <v>9480004.4552317206</v>
-      </c>
-      <c r="H14">
-        <v>8095004.4552317197</v>
+      <c r="F14" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14" t="s">
+        <v>109</v>
       </c>
       <c r="I14">
-        <v>7840004.4552317197</v>
+        <v>91200001.396088406</v>
       </c>
       <c r="J14">
-        <v>7810004.4552317197</v>
+        <v>92479001.396088406</v>
       </c>
       <c r="K14">
-        <v>8270004.4552317197</v>
+        <v>90800001.396088406</v>
       </c>
       <c r="L14">
-        <v>8670004.4552317206</v>
+        <v>93100001.396088406</v>
       </c>
       <c r="M14">
-        <v>8780004.4552317206</v>
+        <v>92500001.396088406</v>
       </c>
       <c r="N14">
-        <v>8590004.4552317206</v>
+        <v>89800001.396088406</v>
       </c>
       <c r="O14">
-        <v>8530004.4552317206</v>
+        <v>71500001.396088406</v>
       </c>
       <c r="P14">
-        <v>8530004.4552317206</v>
+        <v>71500001.396088406</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -2780,7 +2792,7 @@
         <v>106</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D15" t="s">
         <v>109</v>
@@ -2789,37 +2801,37 @@
         <v>109</v>
       </c>
       <c r="F15">
-        <v>2530004.4552317201</v>
+        <v>13390004.4552317</v>
       </c>
       <c r="G15">
-        <v>1970004.4552317201</v>
+        <v>9480004.4552317206</v>
       </c>
       <c r="H15">
-        <v>1781004.4552317201</v>
+        <v>8095004.4552317197</v>
       </c>
       <c r="I15">
-        <v>1541004.4552317201</v>
+        <v>7840004.4552317197</v>
       </c>
       <c r="J15">
-        <v>1570004.4552317201</v>
+        <v>7810004.4552317197</v>
       </c>
       <c r="K15">
-        <v>1830004.4552317201</v>
+        <v>8270004.4552317197</v>
       </c>
       <c r="L15">
-        <v>2000004.4552317201</v>
+        <v>8670004.4552317206</v>
       </c>
       <c r="M15">
-        <v>1970004.4552317201</v>
+        <v>8780004.4552317206</v>
       </c>
       <c r="N15">
-        <v>1810004.4552317201</v>
+        <v>8590004.4552317206</v>
       </c>
       <c r="O15">
-        <v>1750004.4552317201</v>
+        <v>8530004.4552317206</v>
       </c>
       <c r="P15">
-        <v>1750004.4552317201</v>
+        <v>8530004.4552317206</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -2827,10 +2839,10 @@
         <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D16" t="s">
         <v>109</v>
@@ -2838,38 +2850,38 @@
       <c r="E16" t="s">
         <v>109</v>
       </c>
-      <c r="F16" t="s">
-        <v>109</v>
-      </c>
-      <c r="G16" t="s">
-        <v>109</v>
-      </c>
-      <c r="H16" t="s">
-        <v>109</v>
-      </c>
-      <c r="I16" t="s">
-        <v>109</v>
-      </c>
-      <c r="J16" t="s">
-        <v>109</v>
-      </c>
-      <c r="K16" t="s">
-        <v>109</v>
-      </c>
-      <c r="L16" t="s">
-        <v>109</v>
-      </c>
-      <c r="M16" t="s">
-        <v>109</v>
-      </c>
-      <c r="N16" t="s">
-        <v>109</v>
-      </c>
-      <c r="O16" t="s">
-        <v>109</v>
-      </c>
-      <c r="P16" t="s">
-        <v>109</v>
+      <c r="F16">
+        <v>2530004.4552317201</v>
+      </c>
+      <c r="G16">
+        <v>1970004.4552317201</v>
+      </c>
+      <c r="H16">
+        <v>1781004.4552317201</v>
+      </c>
+      <c r="I16">
+        <v>1541004.4552317201</v>
+      </c>
+      <c r="J16">
+        <v>1570004.4552317201</v>
+      </c>
+      <c r="K16">
+        <v>1830004.4552317201</v>
+      </c>
+      <c r="L16">
+        <v>2000004.4552317201</v>
+      </c>
+      <c r="M16">
+        <v>1970004.4552317201</v>
+      </c>
+      <c r="N16">
+        <v>1810004.4552317201</v>
+      </c>
+      <c r="O16">
+        <v>1750004.4552317201</v>
+      </c>
+      <c r="P16">
+        <v>1750004.4552317201</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -2877,10 +2889,10 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D17" t="s">
         <v>109</v>
@@ -2930,7 +2942,7 @@
         <v>112</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -2974,52 +2986,52 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
-      </c>
-      <c r="D19">
-        <v>21759305.8145184</v>
-      </c>
-      <c r="E19">
-        <v>20966413.8145184</v>
-      </c>
-      <c r="F19">
-        <v>21128989.8145184</v>
-      </c>
-      <c r="G19">
-        <v>20070402.8145184</v>
-      </c>
-      <c r="H19">
-        <v>19691129.8145184</v>
-      </c>
-      <c r="I19">
-        <v>19443564.8145184</v>
-      </c>
-      <c r="J19">
-        <v>20018158.8145184</v>
-      </c>
-      <c r="K19">
-        <v>21042990.8145184</v>
-      </c>
-      <c r="L19">
-        <v>20006804.8145184</v>
-      </c>
-      <c r="M19">
-        <v>20805771.8145184</v>
-      </c>
-      <c r="N19">
-        <v>20351815.8145184</v>
-      </c>
-      <c r="O19">
-        <v>20351815.8145184</v>
-      </c>
-      <c r="P19">
-        <v>20351815.8145184</v>
+        <v>108</v>
+      </c>
+      <c r="D19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19" t="s">
+        <v>109</v>
+      </c>
+      <c r="I19" t="s">
+        <v>109</v>
+      </c>
+      <c r="J19" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" t="s">
+        <v>109</v>
+      </c>
+      <c r="M19" t="s">
+        <v>109</v>
+      </c>
+      <c r="N19" t="s">
+        <v>109</v>
+      </c>
+      <c r="O19" t="s">
+        <v>109</v>
+      </c>
+      <c r="P19" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -3030,46 +3042,46 @@
         <v>106</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D20">
-        <v>1337565.8145184</v>
+        <v>21759305.8145184</v>
       </c>
       <c r="E20">
-        <v>1349200.8145184</v>
+        <v>20966413.8145184</v>
       </c>
       <c r="F20">
-        <v>1371359.8145184</v>
+        <v>21128989.8145184</v>
       </c>
       <c r="G20">
-        <v>1243282.8145184</v>
+        <v>20070402.8145184</v>
       </c>
       <c r="H20">
-        <v>1257964.8145184</v>
+        <v>19691129.8145184</v>
       </c>
       <c r="I20">
-        <v>1185845.8145184</v>
+        <v>19443564.8145184</v>
       </c>
       <c r="J20">
-        <v>1109279.8145184</v>
+        <v>20018158.8145184</v>
       </c>
       <c r="K20">
-        <v>1275990.8145184</v>
+        <v>21042990.8145184</v>
       </c>
       <c r="L20">
-        <v>1298687.8145184</v>
+        <v>20006804.8145184</v>
       </c>
       <c r="M20">
-        <v>1294689.8145184</v>
+        <v>20805771.8145184</v>
       </c>
       <c r="N20">
-        <v>1181783.8145184</v>
+        <v>20351815.8145184</v>
       </c>
       <c r="O20">
-        <v>1181783.8145184</v>
+        <v>20351815.8145184</v>
       </c>
       <c r="P20">
-        <v>1181783.8145184</v>
+        <v>20351815.8145184</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -3077,49 +3089,49 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
-      </c>
-      <c r="D21" t="s">
-        <v>109</v>
-      </c>
-      <c r="E21" t="s">
-        <v>109</v>
-      </c>
-      <c r="F21" t="s">
-        <v>109</v>
-      </c>
-      <c r="G21" t="s">
-        <v>109</v>
-      </c>
-      <c r="H21" t="s">
-        <v>109</v>
-      </c>
-      <c r="I21" t="s">
-        <v>109</v>
-      </c>
-      <c r="J21" t="s">
-        <v>109</v>
-      </c>
-      <c r="K21" t="s">
-        <v>109</v>
-      </c>
-      <c r="L21" t="s">
-        <v>109</v>
-      </c>
-      <c r="M21" t="s">
-        <v>109</v>
-      </c>
-      <c r="N21" t="s">
-        <v>109</v>
-      </c>
-      <c r="O21" t="s">
-        <v>109</v>
-      </c>
-      <c r="P21" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="D21">
+        <v>1337565.8145184</v>
+      </c>
+      <c r="E21">
+        <v>1349200.8145184</v>
+      </c>
+      <c r="F21">
+        <v>1371359.8145184</v>
+      </c>
+      <c r="G21">
+        <v>1243282.8145184</v>
+      </c>
+      <c r="H21">
+        <v>1257964.8145184</v>
+      </c>
+      <c r="I21">
+        <v>1185845.8145184</v>
+      </c>
+      <c r="J21">
+        <v>1109279.8145184</v>
+      </c>
+      <c r="K21">
+        <v>1275990.8145184</v>
+      </c>
+      <c r="L21">
+        <v>1298687.8145184</v>
+      </c>
+      <c r="M21">
+        <v>1294689.8145184</v>
+      </c>
+      <c r="N21">
+        <v>1181783.8145184</v>
+      </c>
+      <c r="O21">
+        <v>1181783.8145184</v>
+      </c>
+      <c r="P21">
+        <v>1181783.8145184</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
@@ -3127,10 +3139,10 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D22" t="s">
         <v>109</v>
@@ -3180,7 +3192,7 @@
         <v>112</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -3224,52 +3236,52 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
         <v>112</v>
       </c>
       <c r="C24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D24" t="s">
         <v>109</v>
       </c>
-      <c r="E24">
-        <v>0.12793367848422299</v>
-      </c>
-      <c r="F24">
-        <v>0.132436088893673</v>
-      </c>
-      <c r="G24">
-        <v>0.137094733933082</v>
-      </c>
-      <c r="H24">
-        <v>0.11864269754755399</v>
-      </c>
-      <c r="I24">
-        <v>0.112513219282039</v>
-      </c>
-      <c r="J24">
-        <v>0.490556790260468</v>
-      </c>
-      <c r="K24">
-        <v>3.5114580506202399E-2</v>
-      </c>
-      <c r="L24">
-        <v>3.1728039563122798E-2</v>
-      </c>
-      <c r="M24">
-        <v>3.4533738759185299E-2</v>
-      </c>
-      <c r="N24">
-        <v>4.0090817120731898E-2</v>
-      </c>
-      <c r="O24">
-        <v>3.1695179636323602E-2</v>
-      </c>
-      <c r="P24">
-        <v>3.1695179636323602E-2</v>
+      <c r="E24" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" t="s">
+        <v>109</v>
+      </c>
+      <c r="I24" t="s">
+        <v>109</v>
+      </c>
+      <c r="J24" t="s">
+        <v>109</v>
+      </c>
+      <c r="K24" t="s">
+        <v>109</v>
+      </c>
+      <c r="L24" t="s">
+        <v>109</v>
+      </c>
+      <c r="M24" t="s">
+        <v>109</v>
+      </c>
+      <c r="N24" t="s">
+        <v>109</v>
+      </c>
+      <c r="O24" t="s">
+        <v>109</v>
+      </c>
+      <c r="P24" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
@@ -3280,96 +3292,96 @@
         <v>112</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D25" t="s">
         <v>109</v>
       </c>
       <c r="E25">
-        <v>5.4863850035248903E-3</v>
+        <v>0.12793367848422299</v>
       </c>
       <c r="F25">
-        <v>5.4285507278862303E-3</v>
+        <v>0.132436088893673</v>
       </c>
       <c r="G25">
-        <v>4.6437042476553904E-3</v>
+        <v>0.137094733933082</v>
       </c>
       <c r="H25">
-        <v>3.5430865845352301E-3</v>
+        <v>0.11864269754755399</v>
       </c>
       <c r="I25">
-        <v>4.4821434390295203E-3</v>
+        <v>0.112513219282039</v>
       </c>
       <c r="J25">
-        <v>2.26882671125835E-2</v>
+        <v>0.490556790260468</v>
       </c>
       <c r="K25">
-        <v>2.19711406846913E-2</v>
+        <v>3.5114580506202399E-2</v>
       </c>
       <c r="L25">
-        <v>2.36034249333558E-2</v>
+        <v>3.1728039563122798E-2</v>
       </c>
       <c r="M25">
-        <v>2.1790947363282499E-2</v>
+        <v>3.4533738759185299E-2</v>
       </c>
       <c r="N25">
-        <v>2.2290830571704098E-2</v>
+        <v>4.0090817120731898E-2</v>
       </c>
       <c r="O25">
-        <v>3.9975093970069597E-2</v>
+        <v>3.1695179636323602E-2</v>
       </c>
       <c r="P25">
-        <v>3.9975093970069597E-2</v>
+        <v>3.1695179636323602E-2</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
-      </c>
-      <c r="D26">
-        <v>78192009.401725203</v>
+        <v>108</v>
+      </c>
+      <c r="D26" t="s">
+        <v>109</v>
       </c>
       <c r="E26">
-        <v>80575879.401725203</v>
+        <v>5.4863850035248903E-3</v>
       </c>
       <c r="F26">
-        <v>70935799.401725203</v>
+        <v>5.4285507278862303E-3</v>
       </c>
       <c r="G26">
-        <v>80283565.401725203</v>
+        <v>4.6437042476553904E-3</v>
       </c>
       <c r="H26">
-        <v>73222380.0683918</v>
+        <v>3.5430865845352301E-3</v>
       </c>
       <c r="I26">
-        <v>66161194.735058501</v>
+        <v>4.4821434390295203E-3</v>
       </c>
       <c r="J26">
-        <v>59100009.401725203</v>
+        <v>2.26882671125835E-2</v>
       </c>
       <c r="K26">
-        <v>47700009.401725203</v>
+        <v>2.19711406846913E-2</v>
       </c>
       <c r="L26">
-        <v>51300009.401725203</v>
+        <v>2.36034249333558E-2</v>
       </c>
       <c r="M26">
-        <v>35700009.401725203</v>
+        <v>2.1790947363282499E-2</v>
       </c>
       <c r="N26">
-        <v>33100009.401725199</v>
+        <v>2.2290830571704098E-2</v>
       </c>
       <c r="O26">
-        <v>33100009.401725199</v>
+        <v>3.9975093970069597E-2</v>
       </c>
       <c r="P26">
-        <v>33100009.401725199</v>
+        <v>3.9975093970069597E-2</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
@@ -3380,46 +3392,46 @@
         <v>106</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D27">
-        <v>480089.40172515198</v>
+        <v>78192009.401725203</v>
       </c>
       <c r="E27">
-        <v>670709.40172515204</v>
+        <v>80575879.401725203</v>
       </c>
       <c r="F27">
-        <v>81181.401725151605</v>
+        <v>70935799.401725203</v>
       </c>
       <c r="G27">
-        <v>74013.401725151605</v>
+        <v>80283565.401725203</v>
       </c>
       <c r="H27">
-        <v>159212.601725152</v>
+        <v>73222380.0683918</v>
       </c>
       <c r="I27">
-        <v>244411.80172515201</v>
+        <v>66161194.735058501</v>
       </c>
       <c r="J27">
-        <v>329611.00172515202</v>
+        <v>59100009.401725203</v>
       </c>
       <c r="K27">
-        <v>414810.20172515197</v>
+        <v>47700009.401725203</v>
       </c>
       <c r="L27">
-        <v>500009.40172515198</v>
+        <v>51300009.401725203</v>
       </c>
       <c r="M27">
-        <v>470009.40172515198</v>
+        <v>35700009.401725203</v>
       </c>
       <c r="N27">
-        <v>290009.40172515198</v>
+        <v>33100009.401725199</v>
       </c>
       <c r="O27">
-        <v>290009.40172515198</v>
+        <v>33100009.401725199</v>
       </c>
       <c r="P27">
-        <v>290009.40172515198</v>
+        <v>33100009.401725199</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
@@ -3427,49 +3439,49 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C28" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D28">
-        <v>2226600009.40172</v>
+        <v>480089.40172515198</v>
       </c>
       <c r="E28">
-        <v>2269440009.40172</v>
+        <v>670709.40172515204</v>
       </c>
       <c r="F28">
-        <v>2261520009.40172</v>
+        <v>81181.401725151605</v>
       </c>
       <c r="G28">
-        <v>2313360009.40172</v>
+        <v>74013.401725151605</v>
       </c>
       <c r="H28">
-        <v>2354040009.40172</v>
+        <v>159212.601725152</v>
       </c>
       <c r="I28">
-        <v>2244600009.40172</v>
+        <v>244411.80172515201</v>
       </c>
       <c r="J28">
-        <v>2229480009.40172</v>
+        <v>329611.00172515202</v>
       </c>
       <c r="K28">
-        <v>101160009.40172499</v>
+        <v>414810.20172515197</v>
       </c>
       <c r="L28">
-        <v>105840009.40172499</v>
+        <v>500009.40172515198</v>
       </c>
       <c r="M28">
-        <v>106560009.40172499</v>
+        <v>470009.40172515198</v>
       </c>
       <c r="N28">
-        <v>100080009.40172499</v>
+        <v>290009.40172515198</v>
       </c>
       <c r="O28">
-        <v>100080009.40172499</v>
+        <v>290009.40172515198</v>
       </c>
       <c r="P28">
-        <v>100080009.40172499</v>
+        <v>290009.40172515198</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
@@ -3477,49 +3489,49 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C29" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D29">
-        <v>3.5117223152592601E-2</v>
+        <v>2226600009.40172</v>
       </c>
       <c r="E29">
-        <v>3.5504740847045697E-2</v>
+        <v>2269440009.40172</v>
       </c>
       <c r="F29">
-        <v>3.1366425725541498E-2</v>
+        <v>2261520009.40172</v>
       </c>
       <c r="G29">
-        <v>3.4704311078018503E-2</v>
+        <v>2313360009.40172</v>
       </c>
       <c r="H29">
-        <v>3.1104985376608399E-2</v>
+        <v>2354040009.40172</v>
       </c>
       <c r="I29">
-        <v>2.9475717035523399E-2</v>
+        <v>2244600009.40172</v>
       </c>
       <c r="J29">
-        <v>2.6508427594102799E-2</v>
+        <v>2229480009.40172</v>
       </c>
       <c r="K29">
-        <v>0.47153029822584902</v>
+        <v>101160009.40172499</v>
       </c>
       <c r="L29">
-        <v>0.48469392332545402</v>
+        <v>105840009.40172499</v>
       </c>
       <c r="M29">
-        <v>0.33502258119308298</v>
+        <v>106560009.40172499</v>
       </c>
       <c r="N29">
-        <v>0.33073547454277702</v>
+        <v>100080009.40172499</v>
       </c>
       <c r="O29">
-        <v>0.33073547454277702</v>
+        <v>100080009.40172499</v>
       </c>
       <c r="P29">
-        <v>0.33073547454277702</v>
+        <v>100080009.40172499</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
@@ -3530,96 +3542,96 @@
         <v>112</v>
       </c>
       <c r="C30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D30">
-        <v>2.15615467393333E-4</v>
+        <v>3.5117223152592601E-2</v>
       </c>
       <c r="E30">
-        <v>2.9553960401974502E-4</v>
-      </c>
-      <c r="F30" s="3">
-        <v>3.5896831063912501E-5</v>
-      </c>
-      <c r="G30" s="3">
-        <v>3.19938969396695E-5</v>
-      </c>
-      <c r="H30" s="3">
-        <v>6.7633770492123101E-5</v>
+        <v>3.5504740847045697E-2</v>
+      </c>
+      <c r="F30">
+        <v>3.1366425725541498E-2</v>
+      </c>
+      <c r="G30">
+        <v>3.4704311078018503E-2</v>
+      </c>
+      <c r="H30">
+        <v>3.1104985376608399E-2</v>
       </c>
       <c r="I30">
-        <v>1.0888880009864101E-4</v>
+        <v>2.9475717035523399E-2</v>
       </c>
       <c r="J30">
-        <v>1.47842097859223E-4</v>
+        <v>2.6508427594102799E-2</v>
       </c>
       <c r="K30">
-        <v>4.1005354208485997E-3</v>
+        <v>0.47153029822584902</v>
       </c>
       <c r="L30">
-        <v>4.7242002769228896E-3</v>
+        <v>0.48469392332545402</v>
       </c>
       <c r="M30">
-        <v>4.4107485009056502E-3</v>
+        <v>0.33502258119308298</v>
       </c>
       <c r="N30">
-        <v>2.89777552439111E-3</v>
+        <v>0.33073547454277702</v>
       </c>
       <c r="O30">
-        <v>2.89777552439111E-3</v>
+        <v>0.33073547454277702</v>
       </c>
       <c r="P30">
-        <v>2.89777552439111E-3</v>
+        <v>0.33073547454277702</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
-      </c>
-      <c r="D31" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="D31">
+        <v>2.15615467393333E-4</v>
       </c>
       <c r="E31">
-        <v>116400006.472471</v>
-      </c>
-      <c r="F31">
-        <v>123540195.472471</v>
-      </c>
-      <c r="G31">
-        <v>127800006.472471</v>
-      </c>
-      <c r="H31">
-        <v>115550006.472471</v>
+        <v>2.9553960401974502E-4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>3.5896831063912501E-5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>3.19938969396695E-5</v>
+      </c>
+      <c r="H31" s="3">
+        <v>6.7633770492123101E-5</v>
       </c>
       <c r="I31">
-        <v>115480006.472471</v>
+        <v>1.0888880009864101E-4</v>
       </c>
       <c r="J31">
-        <v>119510006.472471</v>
+        <v>1.47842097859223E-4</v>
       </c>
       <c r="K31">
-        <v>106730006.472471</v>
+        <v>4.1005354208485997E-3</v>
       </c>
       <c r="L31">
-        <v>105960006.472471</v>
+        <v>4.7242002769228896E-3</v>
       </c>
       <c r="M31">
-        <v>95230006.472471297</v>
+        <v>4.4107485009056502E-3</v>
       </c>
       <c r="N31">
-        <v>69980006.472471297</v>
+        <v>2.89777552439111E-3</v>
       </c>
       <c r="O31">
-        <v>45260006.4724712</v>
+        <v>2.89777552439111E-3</v>
       </c>
       <c r="P31">
-        <v>45260006.4724712</v>
+        <v>2.89777552439111E-3</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
@@ -3630,46 +3642,46 @@
         <v>106</v>
       </c>
       <c r="C32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D32" t="s">
         <v>109</v>
       </c>
       <c r="E32">
-        <v>245006.472471246</v>
+        <v>116400006.472471</v>
       </c>
       <c r="F32">
-        <v>331647.47247124597</v>
+        <v>123540195.472471</v>
       </c>
       <c r="G32">
-        <v>370006.47247124597</v>
+        <v>127800006.472471</v>
       </c>
       <c r="H32">
-        <v>786006.47247124603</v>
+        <v>115550006.472471</v>
       </c>
       <c r="I32">
-        <v>636006.47247124603</v>
+        <v>115480006.472471</v>
       </c>
       <c r="J32">
-        <v>654006.47247124603</v>
+        <v>119510006.472471</v>
       </c>
       <c r="K32">
-        <v>1400006.47247125</v>
+        <v>106730006.472471</v>
       </c>
       <c r="L32">
-        <v>5000006.4724712502</v>
+        <v>105960006.472471</v>
       </c>
       <c r="M32">
-        <v>5080006.4724712502</v>
+        <v>95230006.472471297</v>
       </c>
       <c r="N32">
-        <v>5370006.4724712502</v>
+        <v>69980006.472471297</v>
       </c>
       <c r="O32">
-        <v>5000006.4724712502</v>
+        <v>45260006.4724712</v>
       </c>
       <c r="P32">
-        <v>5000006.4724712502</v>
+        <v>45260006.4724712</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
@@ -3677,49 +3689,49 @@
         <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C33" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D33" t="s">
         <v>109</v>
       </c>
       <c r="E33">
-        <v>1044720006.47247</v>
+        <v>245006.472471246</v>
       </c>
       <c r="F33">
-        <v>1058040006.47247</v>
+        <v>331647.47247124597</v>
       </c>
       <c r="G33">
-        <v>1064880006.47247</v>
+        <v>370006.47247124597</v>
       </c>
       <c r="H33">
-        <v>1030125606.47247</v>
+        <v>786006.47247124603</v>
       </c>
       <c r="I33">
-        <v>1019163606.47247</v>
+        <v>636006.47247124603</v>
       </c>
       <c r="J33">
-        <v>1022443206.47247</v>
+        <v>654006.47247124603</v>
       </c>
       <c r="K33">
-        <v>942523206.472471</v>
+        <v>1400006.47247125</v>
       </c>
       <c r="L33">
-        <v>899553606.472471</v>
+        <v>5000006.4724712502</v>
       </c>
       <c r="M33">
-        <v>901220406.472471</v>
+        <v>5080006.4724712502</v>
       </c>
       <c r="N33">
-        <v>824864406.472471</v>
+        <v>5370006.4724712502</v>
       </c>
       <c r="O33">
-        <v>745588806.472471</v>
+        <v>5000006.4724712502</v>
       </c>
       <c r="P33">
-        <v>745588806.472471</v>
+        <v>5000006.4724712502</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
@@ -3727,49 +3739,49 @@
         <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C34" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D34" t="s">
         <v>109</v>
       </c>
       <c r="E34">
-        <v>0.111417418783335</v>
+        <v>1044720006.47247</v>
       </c>
       <c r="F34">
-        <v>0.116763255374773</v>
+        <v>1058040006.47247</v>
       </c>
       <c r="G34">
-        <v>0.120013527999105</v>
+        <v>1064880006.47247</v>
       </c>
       <c r="H34">
-        <v>0.11217079329593301</v>
+        <v>1030125606.47247</v>
       </c>
       <c r="I34">
-        <v>0.113308604957128</v>
+        <v>1019163606.47247</v>
       </c>
       <c r="J34">
-        <v>0.11688669425932501</v>
+        <v>1022443206.47247</v>
       </c>
       <c r="K34">
-        <v>0.113238597988397</v>
+        <v>942523206.472471</v>
       </c>
       <c r="L34">
-        <v>0.11779176439299199</v>
+        <v>899553606.472471</v>
       </c>
       <c r="M34">
-        <v>0.10566783196268</v>
+        <v>901220406.472471</v>
       </c>
       <c r="N34">
-        <v>8.4838193918125804E-2</v>
+        <v>824864406.472471</v>
       </c>
       <c r="O34">
-        <v>6.0703709711798497E-2</v>
+        <v>745588806.472471</v>
       </c>
       <c r="P34">
-        <v>6.0703709711798497E-2</v>
+        <v>745588806.472471</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
@@ -3780,96 +3792,96 @@
         <v>112</v>
       </c>
       <c r="C35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" t="s">
         <v>109</v>
       </c>
       <c r="E35">
-        <v>2.3451879063608399E-4</v>
+        <v>0.111417418783335</v>
       </c>
       <c r="F35">
-        <v>3.1345456735323802E-4</v>
+        <v>0.116763255374773</v>
       </c>
       <c r="G35">
-        <v>3.4746306646974399E-4</v>
+        <v>0.120013527999105</v>
       </c>
       <c r="H35">
-        <v>7.63020031278342E-4</v>
+        <v>0.11217079329593301</v>
       </c>
       <c r="I35">
-        <v>6.2404747229210004E-4</v>
+        <v>0.113308604957128</v>
       </c>
       <c r="J35">
-        <v>6.3965066062459601E-4</v>
+        <v>0.11688669425932501</v>
       </c>
       <c r="K35">
-        <v>1.48538143449112E-3</v>
+        <v>0.113238597988397</v>
       </c>
       <c r="L35">
-        <v>5.5583196337552097E-3</v>
+        <v>0.11779176439299199</v>
       </c>
       <c r="M35">
-        <v>5.6368080837796899E-3</v>
+        <v>0.10566783196268</v>
       </c>
       <c r="N35">
-        <v>6.5101687384427898E-3</v>
+        <v>8.4838193918125804E-2</v>
       </c>
       <c r="O35">
-        <v>6.7061179420427096E-3</v>
+        <v>6.0703709711798497E-2</v>
       </c>
       <c r="P35">
-        <v>6.7061179420427096E-3</v>
+        <v>6.0703709711798497E-2</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" t="s">
         <v>109</v>
       </c>
       <c r="E36">
-        <v>109324454.376334</v>
+        <v>2.3451879063608399E-4</v>
       </c>
       <c r="F36">
-        <v>156899254.37633401</v>
+        <v>3.1345456735323802E-4</v>
       </c>
       <c r="G36">
-        <v>154230874.37633401</v>
+        <v>3.4746306646974399E-4</v>
       </c>
       <c r="H36">
-        <v>141984778.37633401</v>
+        <v>7.63020031278342E-4</v>
       </c>
       <c r="I36">
-        <v>131154736.376334</v>
+        <v>6.2404747229210004E-4</v>
       </c>
       <c r="J36">
-        <v>133757296.376334</v>
+        <v>6.3965066062459601E-4</v>
       </c>
       <c r="K36">
-        <v>120150105.376334</v>
+        <v>1.48538143449112E-3</v>
       </c>
       <c r="L36">
-        <v>89756230.376334101</v>
+        <v>5.5583196337552097E-3</v>
       </c>
       <c r="M36">
-        <v>57205670.376334101</v>
+        <v>5.6368080837796899E-3</v>
       </c>
       <c r="N36">
-        <v>46188978.376334101</v>
+        <v>6.5101687384427898E-3</v>
       </c>
       <c r="O36">
-        <v>38589016.376334101</v>
+        <v>6.7061179420427096E-3</v>
       </c>
       <c r="P36">
-        <v>38589016.376334101</v>
+        <v>6.7061179420427096E-3</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
@@ -3880,46 +3892,46 @@
         <v>106</v>
       </c>
       <c r="C37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D37" t="s">
         <v>109</v>
       </c>
       <c r="E37">
-        <v>3250751.3763341298</v>
+        <v>109324454.376334</v>
       </c>
       <c r="F37">
-        <v>3357343.3763341298</v>
+        <v>156899254.37633401</v>
       </c>
       <c r="G37">
-        <v>3712790.3763341298</v>
+        <v>154230874.37633401</v>
       </c>
       <c r="H37">
-        <v>3748376.1263341298</v>
+        <v>141984778.37633401</v>
       </c>
       <c r="I37">
-        <v>3783961.8763341298</v>
+        <v>131154736.376334</v>
       </c>
       <c r="J37">
-        <v>3819547.6263341298</v>
+        <v>133757296.376334</v>
       </c>
       <c r="K37">
-        <v>3855133.3763341298</v>
+        <v>120150105.376334</v>
       </c>
       <c r="L37">
-        <v>3576861.3763341298</v>
+        <v>89756230.376334101</v>
       </c>
       <c r="M37">
-        <v>2912586.3763341298</v>
+        <v>57205670.376334101</v>
       </c>
       <c r="N37">
-        <v>2534464.3763341298</v>
+        <v>46188978.376334101</v>
       </c>
       <c r="O37">
-        <v>2330625.3763341298</v>
+        <v>38589016.376334101</v>
       </c>
       <c r="P37">
-        <v>2330625.3763341298</v>
+        <v>38589016.376334101</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
@@ -3927,49 +3939,49 @@
         <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C38" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D38" t="s">
         <v>109</v>
       </c>
       <c r="E38">
-        <v>1206000000.3763299</v>
+        <v>3250751.3763341298</v>
       </c>
       <c r="F38">
-        <v>1674000000.3763299</v>
+        <v>3357343.3763341298</v>
       </c>
       <c r="G38">
-        <v>1677600000.3763299</v>
+        <v>3712790.3763341298</v>
       </c>
       <c r="H38">
-        <v>1724400000.3763299</v>
+        <v>3748376.1263341298</v>
       </c>
       <c r="I38">
-        <v>1692000000.3763299</v>
+        <v>3783961.8763341298</v>
       </c>
       <c r="J38">
-        <v>1767600000.3763299</v>
+        <v>3819547.6263341298</v>
       </c>
       <c r="K38">
-        <v>989973000.37633395</v>
+        <v>3855133.3763341298</v>
       </c>
       <c r="L38">
-        <v>212346000.37633401</v>
+        <v>3576861.3763341298</v>
       </c>
       <c r="M38">
-        <v>205448400.37633401</v>
+        <v>2912586.3763341298</v>
       </c>
       <c r="N38">
-        <v>221601600.37633401</v>
+        <v>2534464.3763341298</v>
       </c>
       <c r="O38">
-        <v>199591200.37633401</v>
+        <v>2330625.3763341298</v>
       </c>
       <c r="P38">
-        <v>199591200.37633401</v>
+        <v>2330625.3763341298</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
@@ -3977,49 +3989,49 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C39" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D39" t="s">
         <v>109</v>
       </c>
       <c r="E39">
-        <v>9.0650459653581497E-2</v>
+        <v>1206000000.3763299</v>
       </c>
       <c r="F39">
-        <v>9.3727153130861093E-2</v>
+        <v>1674000000.3763299</v>
       </c>
       <c r="G39">
-        <v>9.1935428196075197E-2</v>
+        <v>1677600000.3763299</v>
       </c>
       <c r="H39">
-        <v>8.2338655964594804E-2</v>
+        <v>1724400000.3763299</v>
       </c>
       <c r="I39">
-        <v>7.7514619590521694E-2</v>
+        <v>1692000000.3763299</v>
       </c>
       <c r="J39">
-        <v>7.5671699676316095E-2</v>
+        <v>1767600000.3763299</v>
       </c>
       <c r="K39">
-        <v>0.12136705276877199</v>
+        <v>989973000.37633395</v>
       </c>
       <c r="L39">
-        <v>0.42268858474970999</v>
+        <v>212346000.37633401</v>
       </c>
       <c r="M39">
-        <v>0.27844300696207203</v>
+        <v>205448400.37633401</v>
       </c>
       <c r="N39">
-        <v>0.20843251266188501</v>
+        <v>221601600.37633401</v>
       </c>
       <c r="O39">
-        <v>0.193340269027761</v>
+        <v>199591200.37633401</v>
       </c>
       <c r="P39">
-        <v>0.193340269027761</v>
+        <v>199591200.37633401</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
@@ -4030,96 +4042,96 @@
         <v>112</v>
       </c>
       <c r="C40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D40" t="s">
         <v>109</v>
       </c>
       <c r="E40">
-        <v>2.69548206908767E-3</v>
+        <v>9.0650459653581497E-2</v>
       </c>
       <c r="F40">
-        <v>2.0055814668932899E-3</v>
+        <v>9.3727153130861093E-2</v>
       </c>
       <c r="G40">
-        <v>2.2131559224494802E-3</v>
+        <v>9.1935428196075197E-2</v>
       </c>
       <c r="H40">
-        <v>2.17372774618191E-3</v>
+        <v>8.2338655964594804E-2</v>
       </c>
       <c r="I40">
-        <v>2.2363840871705101E-3</v>
+        <v>7.7514619590521694E-2</v>
       </c>
       <c r="J40">
-        <v>2.1608665000684099E-3</v>
+        <v>7.5671699676316095E-2</v>
       </c>
       <c r="K40">
-        <v>3.8941803209467502E-3</v>
+        <v>0.12136705276877199</v>
       </c>
       <c r="L40">
-        <v>1.6844496105389201E-2</v>
+        <v>0.42268858474970999</v>
       </c>
       <c r="M40">
-        <v>1.41767293928741E-2</v>
+        <v>0.27844300696207203</v>
       </c>
       <c r="N40">
-        <v>1.14370310143518E-2</v>
+        <v>0.20843251266188501</v>
       </c>
       <c r="O40">
-        <v>1.16769946367359E-2</v>
+        <v>0.193340269027761</v>
       </c>
       <c r="P40">
-        <v>1.16769946367359E-2</v>
+        <v>0.193340269027761</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C41" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D41" t="s">
         <v>109</v>
       </c>
-      <c r="E41" t="s">
-        <v>109</v>
-      </c>
-      <c r="F41" t="s">
-        <v>109</v>
-      </c>
-      <c r="G41" t="s">
-        <v>109</v>
-      </c>
-      <c r="H41" t="s">
-        <v>109</v>
-      </c>
-      <c r="I41" t="s">
-        <v>109</v>
-      </c>
-      <c r="J41" t="s">
-        <v>109</v>
-      </c>
-      <c r="K41" t="s">
-        <v>109</v>
-      </c>
-      <c r="L41" t="s">
-        <v>109</v>
-      </c>
-      <c r="M41" t="s">
-        <v>109</v>
+      <c r="E41">
+        <v>2.69548206908767E-3</v>
+      </c>
+      <c r="F41">
+        <v>2.0055814668932899E-3</v>
+      </c>
+      <c r="G41">
+        <v>2.2131559224494802E-3</v>
+      </c>
+      <c r="H41">
+        <v>2.17372774618191E-3</v>
+      </c>
+      <c r="I41">
+        <v>2.2363840871705101E-3</v>
+      </c>
+      <c r="J41">
+        <v>2.1608665000684099E-3</v>
+      </c>
+      <c r="K41">
+        <v>3.8941803209467502E-3</v>
+      </c>
+      <c r="L41">
+        <v>1.6844496105389201E-2</v>
+      </c>
+      <c r="M41">
+        <v>1.41767293928741E-2</v>
       </c>
       <c r="N41">
-        <v>9056.9950820715403</v>
+        <v>1.14370310143518E-2</v>
       </c>
       <c r="O41">
-        <v>9056.9950820715403</v>
+        <v>1.16769946367359E-2</v>
       </c>
       <c r="P41">
-        <v>9056.9950820715403</v>
+        <v>1.16769946367359E-2</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
@@ -4130,7 +4142,7 @@
         <v>106</v>
       </c>
       <c r="C42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D42" t="s">
         <v>109</v>
@@ -4163,13 +4175,13 @@
         <v>109</v>
       </c>
       <c r="N42">
-        <v>2890986.4760820698</v>
+        <v>9056.9950820715403</v>
       </c>
       <c r="O42">
-        <v>2890986.4760820698</v>
+        <v>9056.9950820715403</v>
       </c>
       <c r="P42">
-        <v>2890986.4760820698</v>
+        <v>9056.9950820715403</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
@@ -4177,10 +4189,10 @@
         <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C43" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D43" t="s">
         <v>109</v>
@@ -4206,20 +4218,20 @@
       <c r="K43" t="s">
         <v>109</v>
       </c>
-      <c r="L43">
-        <v>16120000.4760821</v>
-      </c>
-      <c r="M43">
-        <v>15342000.4760821</v>
+      <c r="L43" t="s">
+        <v>109</v>
+      </c>
+      <c r="M43" t="s">
+        <v>109</v>
       </c>
       <c r="N43">
-        <v>12453000.4760821</v>
+        <v>2890986.4760820698</v>
       </c>
       <c r="O43">
-        <v>12194000.4760821</v>
+        <v>2890986.4760820698</v>
       </c>
       <c r="P43">
-        <v>12194000.4760821</v>
+        <v>2890986.4760820698</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
@@ -4227,10 +4239,10 @@
         <v>29</v>
       </c>
       <c r="B44" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C44" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D44" t="s">
         <v>109</v>
@@ -4256,20 +4268,20 @@
       <c r="K44" t="s">
         <v>109</v>
       </c>
-      <c r="L44" t="s">
-        <v>109</v>
-      </c>
-      <c r="M44" t="s">
-        <v>109</v>
+      <c r="L44">
+        <v>16120000.4760821</v>
+      </c>
+      <c r="M44">
+        <v>15342000.4760821</v>
       </c>
       <c r="N44">
-        <v>7.2729420507667295E-4</v>
+        <v>12453000.4760821</v>
       </c>
       <c r="O44">
-        <v>7.4274189998896497E-4</v>
+        <v>12194000.4760821</v>
       </c>
       <c r="P44">
-        <v>7.4274189998896497E-4</v>
+        <v>12194000.4760821</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
@@ -4280,7 +4292,7 @@
         <v>112</v>
       </c>
       <c r="C45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D45" t="s">
         <v>109</v>
@@ -4313,63 +4325,63 @@
         <v>109</v>
       </c>
       <c r="N45">
-        <v>0.23215180001274899</v>
+        <v>7.2729420507667295E-4</v>
       </c>
       <c r="O45">
-        <v>0.23708269339111501</v>
+        <v>7.4274189998896497E-4</v>
       </c>
       <c r="P45">
-        <v>0.23708269339111501</v>
+        <v>7.4274189998896497E-4</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B46" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C46" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D46" t="s">
         <v>109</v>
       </c>
-      <c r="E46">
-        <v>766009.67702601303</v>
-      </c>
-      <c r="F46">
-        <v>10247400.677026</v>
-      </c>
-      <c r="G46">
-        <v>10197994.677026</v>
-      </c>
-      <c r="H46">
-        <v>11080009.677026</v>
-      </c>
-      <c r="I46">
-        <v>13317009.677026</v>
-      </c>
-      <c r="J46">
-        <v>14157009.677026</v>
-      </c>
-      <c r="K46">
-        <v>15622009.677026</v>
-      </c>
-      <c r="L46">
-        <v>15710009.677026</v>
-      </c>
-      <c r="M46">
-        <v>16492009.677026</v>
+      <c r="E46" t="s">
+        <v>109</v>
+      </c>
+      <c r="F46" t="s">
+        <v>109</v>
+      </c>
+      <c r="G46" t="s">
+        <v>109</v>
+      </c>
+      <c r="H46" t="s">
+        <v>109</v>
+      </c>
+      <c r="I46" t="s">
+        <v>109</v>
+      </c>
+      <c r="J46" t="s">
+        <v>109</v>
+      </c>
+      <c r="K46" t="s">
+        <v>109</v>
+      </c>
+      <c r="L46" t="s">
+        <v>109</v>
+      </c>
+      <c r="M46" t="s">
+        <v>109</v>
       </c>
       <c r="N46">
-        <v>16442009.677026</v>
+        <v>0.23215180001274899</v>
       </c>
       <c r="O46">
-        <v>16442009.677026</v>
+        <v>0.23708269339111501</v>
       </c>
       <c r="P46">
-        <v>16442009.677026</v>
+        <v>0.23708269339111501</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
@@ -4380,46 +4392,46 @@
         <v>106</v>
       </c>
       <c r="C47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D47" t="s">
         <v>109</v>
       </c>
       <c r="E47">
-        <v>3518009.6770260101</v>
+        <v>766009.67702601303</v>
       </c>
       <c r="F47">
-        <v>4342232.6770260101</v>
+        <v>10247400.677026</v>
       </c>
       <c r="G47">
-        <v>4164848.6770260101</v>
+        <v>10197994.677026</v>
       </c>
       <c r="H47">
-        <v>4818009.6770260101</v>
+        <v>11080009.677026</v>
       </c>
       <c r="I47">
-        <v>5480009.6770260101</v>
+        <v>13317009.677026</v>
       </c>
       <c r="J47">
-        <v>5416009.6770260101</v>
+        <v>14157009.677026</v>
       </c>
       <c r="K47">
-        <v>5653009.6770260101</v>
+        <v>15622009.677026</v>
       </c>
       <c r="L47">
-        <v>5769009.6770260101</v>
+        <v>15710009.677026</v>
       </c>
       <c r="M47">
-        <v>5806009.6770260101</v>
+        <v>16492009.677026</v>
       </c>
       <c r="N47">
-        <v>5803009.6770260101</v>
+        <v>16442009.677026</v>
       </c>
       <c r="O47">
-        <v>5803009.6770260101</v>
+        <v>16442009.677026</v>
       </c>
       <c r="P47">
-        <v>5803009.6770260101</v>
+        <v>16442009.677026</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
@@ -4427,49 +4439,49 @@
         <v>32</v>
       </c>
       <c r="B48" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C48" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D48" t="s">
         <v>109</v>
       </c>
-      <c r="E48" t="s">
-        <v>109</v>
-      </c>
-      <c r="F48" t="s">
-        <v>109</v>
-      </c>
-      <c r="G48" t="s">
-        <v>109</v>
-      </c>
-      <c r="H48" t="s">
-        <v>109</v>
+      <c r="E48">
+        <v>3518009.6770260101</v>
+      </c>
+      <c r="F48">
+        <v>4342232.6770260101</v>
+      </c>
+      <c r="G48">
+        <v>4164848.6770260101</v>
+      </c>
+      <c r="H48">
+        <v>4818009.6770260101</v>
       </c>
       <c r="I48">
-        <v>19374009.677026</v>
+        <v>5480009.6770260101</v>
       </c>
       <c r="J48">
-        <v>21182009.677026</v>
+        <v>5416009.6770260101</v>
       </c>
       <c r="K48">
-        <v>22380009.677026</v>
+        <v>5653009.6770260101</v>
       </c>
       <c r="L48">
-        <v>23290009.677026</v>
+        <v>5769009.6770260101</v>
       </c>
       <c r="M48">
-        <v>23763009.677026</v>
+        <v>5806009.6770260101</v>
       </c>
       <c r="N48">
-        <v>23303009.677026</v>
+        <v>5803009.6770260101</v>
       </c>
       <c r="O48">
-        <v>23303009.677026</v>
+        <v>5803009.6770260101</v>
       </c>
       <c r="P48">
-        <v>23303009.677026</v>
+        <v>5803009.6770260101</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
@@ -4477,10 +4489,10 @@
         <v>32</v>
       </c>
       <c r="B49" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C49" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D49" t="s">
         <v>109</v>
@@ -4498,28 +4510,28 @@
         <v>109</v>
       </c>
       <c r="I49">
-        <v>0.68736466529267404</v>
+        <v>19374009.677026</v>
       </c>
       <c r="J49">
-        <v>0.66835063777639003</v>
+        <v>21182009.677026</v>
       </c>
       <c r="K49">
-        <v>0.69803408946076695</v>
+        <v>22380009.677026</v>
       </c>
       <c r="L49">
-        <v>0.67453856373974996</v>
+        <v>23290009.677026</v>
       </c>
       <c r="M49">
-        <v>0.69402023990969597</v>
+        <v>23763009.677026</v>
       </c>
       <c r="N49">
-        <v>0.70557451182951103</v>
+        <v>23303009.677026</v>
       </c>
       <c r="O49">
-        <v>0.70557451182951103</v>
+        <v>23303009.677026</v>
       </c>
       <c r="P49">
-        <v>0.70557451182951103</v>
+        <v>23303009.677026</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
@@ -4530,7 +4542,7 @@
         <v>112</v>
       </c>
       <c r="C50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D50" t="s">
         <v>109</v>
@@ -4548,78 +4560,78 @@
         <v>109</v>
       </c>
       <c r="I50">
-        <v>0.28285366676183099</v>
+        <v>0.68736466529267404</v>
       </c>
       <c r="J50">
-        <v>0.25568913241033098</v>
+        <v>0.66835063777639003</v>
       </c>
       <c r="K50">
-        <v>0.25259192281891901</v>
+        <v>0.69803408946076695</v>
       </c>
       <c r="L50">
-        <v>0.24770318935147301</v>
+        <v>0.67453856373974996</v>
       </c>
       <c r="M50">
-        <v>0.24432972741829301</v>
+        <v>0.69402023990969597</v>
       </c>
       <c r="N50">
-        <v>0.249024042707543</v>
+        <v>0.70557451182951103</v>
       </c>
       <c r="O50">
-        <v>0.249024042707543</v>
+        <v>0.70557451182951103</v>
       </c>
       <c r="P50">
-        <v>0.249024042707543</v>
+        <v>0.70557451182951103</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B51" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C51" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D51" t="s">
         <v>109</v>
       </c>
-      <c r="E51">
-        <v>39499002.585938297</v>
-      </c>
-      <c r="F51">
-        <v>36193002.585938297</v>
-      </c>
-      <c r="G51">
-        <v>35461094.585938297</v>
-      </c>
-      <c r="H51">
-        <v>31838172.585938301</v>
+      <c r="E51" t="s">
+        <v>109</v>
+      </c>
+      <c r="F51" t="s">
+        <v>109</v>
+      </c>
+      <c r="G51" t="s">
+        <v>109</v>
+      </c>
+      <c r="H51" t="s">
+        <v>109</v>
       </c>
       <c r="I51">
-        <v>30202558.585938301</v>
+        <v>0.28285366676183099</v>
       </c>
       <c r="J51">
-        <v>31817606.585938301</v>
+        <v>0.25568913241033098</v>
       </c>
       <c r="K51">
-        <v>26625135.585938301</v>
+        <v>0.25259192281891901</v>
       </c>
       <c r="L51">
-        <v>15129771.585938299</v>
+        <v>0.24770318935147301</v>
       </c>
       <c r="M51">
-        <v>13457443.585938299</v>
+        <v>0.24432972741829301</v>
       </c>
       <c r="N51">
-        <v>12966980.585938299</v>
+        <v>0.249024042707543</v>
       </c>
       <c r="O51">
-        <v>13136322.585938299</v>
+        <v>0.249024042707543</v>
       </c>
       <c r="P51">
-        <v>13136322.585938299</v>
+        <v>0.249024042707543</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
@@ -4630,46 +4642,46 @@
         <v>106</v>
       </c>
       <c r="C52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D52" t="s">
         <v>109</v>
       </c>
       <c r="E52">
-        <v>6236002.5859382898</v>
+        <v>39499002.585938297</v>
       </c>
       <c r="F52">
-        <v>5189002.5859382898</v>
+        <v>36193002.585938297</v>
       </c>
       <c r="G52">
-        <v>7189303.5859382898</v>
+        <v>35461094.585938297</v>
       </c>
       <c r="H52">
-        <v>4181124.5859382902</v>
+        <v>31838172.585938301</v>
       </c>
       <c r="I52">
-        <v>1547095.58593829</v>
+        <v>30202558.585938301</v>
       </c>
       <c r="J52">
-        <v>970947.58593829197</v>
+        <v>31817606.585938301</v>
       </c>
       <c r="K52">
-        <v>4503672.5859382898</v>
+        <v>26625135.585938301</v>
       </c>
       <c r="L52">
-        <v>5010565.5859382898</v>
+        <v>15129771.585938299</v>
       </c>
       <c r="M52">
-        <v>2543866.5859382902</v>
+        <v>13457443.585938299</v>
       </c>
       <c r="N52">
-        <v>2081746.58593829</v>
+        <v>12966980.585938299</v>
       </c>
       <c r="O52">
-        <v>2001731.58593829</v>
+        <v>13136322.585938299</v>
       </c>
       <c r="P52">
-        <v>2001731.58593829</v>
+        <v>13136322.585938299</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
@@ -4677,49 +4689,49 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C53" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D53" t="s">
         <v>109</v>
       </c>
       <c r="E53">
-        <v>552913202.58593798</v>
+        <v>6236002.5859382898</v>
       </c>
       <c r="F53">
-        <v>522525602.58593798</v>
+        <v>5189002.5859382898</v>
       </c>
       <c r="G53">
-        <v>485128802.58593798</v>
+        <v>7189303.5859382898</v>
       </c>
       <c r="H53">
-        <v>491166002.58593798</v>
+        <v>4181124.5859382902</v>
       </c>
       <c r="I53">
-        <v>500011202.58593798</v>
+        <v>1547095.58593829</v>
       </c>
       <c r="J53">
-        <v>483746402.58593798</v>
+        <v>970947.58593829197</v>
       </c>
       <c r="K53">
-        <v>512877602.58593798</v>
+        <v>4503672.5859382898</v>
       </c>
       <c r="L53">
-        <v>495176402.58593798</v>
+        <v>5010565.5859382898</v>
       </c>
       <c r="M53">
-        <v>414482402.58593798</v>
+        <v>2543866.5859382902</v>
       </c>
       <c r="N53">
-        <v>411300002.58593798</v>
+        <v>2081746.58593829</v>
       </c>
       <c r="O53">
-        <v>444466802.58593798</v>
+        <v>2001731.58593829</v>
       </c>
       <c r="P53">
-        <v>444466802.58593798</v>
+        <v>2001731.58593829</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
@@ -4727,49 +4739,49 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C54" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D54" t="s">
         <v>109</v>
       </c>
       <c r="E54">
-        <v>7.1437980502552803E-2</v>
+        <v>552913202.58593798</v>
       </c>
       <c r="F54">
-        <v>6.9265510449290801E-2</v>
+        <v>522525602.58593798</v>
       </c>
       <c r="G54">
-        <v>7.3096246598667994E-2</v>
+        <v>485128802.58593798</v>
       </c>
       <c r="H54">
-        <v>6.4821613096821801E-2</v>
+        <v>491166002.58593798</v>
       </c>
       <c r="I54">
-        <v>6.0403763815166302E-2</v>
+        <v>500011202.58593798</v>
       </c>
       <c r="J54">
-        <v>6.5773319276076395E-2</v>
+        <v>483746402.58593798</v>
       </c>
       <c r="K54">
-        <v>5.1913235149466198E-2</v>
+        <v>512877602.58593798</v>
       </c>
       <c r="L54">
-        <v>3.05543065197104E-2</v>
+        <v>495176402.58593798</v>
       </c>
       <c r="M54">
-        <v>3.2468069819075199E-2</v>
+        <v>414482402.58593798</v>
       </c>
       <c r="N54">
-        <v>3.1526818634602202E-2</v>
+        <v>411300002.58593798</v>
       </c>
       <c r="O54">
-        <v>2.95552390178755E-2</v>
+        <v>444466802.58593798</v>
       </c>
       <c r="P54">
-        <v>2.95552390178755E-2</v>
+        <v>444466802.58593798</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
@@ -4780,96 +4792,96 @@
         <v>112</v>
       </c>
       <c r="C55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D55" t="s">
         <v>109</v>
       </c>
       <c r="E55">
-        <v>1.1278447605832E-2</v>
+        <v>7.1437980502552803E-2</v>
       </c>
       <c r="F55">
-        <v>9.9306188256772995E-3</v>
+        <v>6.9265510449290801E-2</v>
       </c>
       <c r="G55">
-        <v>1.48193707477608E-2</v>
+        <v>7.3096246598667994E-2</v>
       </c>
       <c r="H55">
-        <v>8.5126506393461698E-3</v>
+        <v>6.4821613096821801E-2</v>
       </c>
       <c r="I55">
-        <v>3.09412184754478E-3</v>
+        <v>6.0403763815166302E-2</v>
       </c>
       <c r="J55">
-        <v>2.0071417187765101E-3</v>
+        <v>6.5773319276076395E-2</v>
       </c>
       <c r="K55">
-        <v>8.7811839768995401E-3</v>
+        <v>5.1913235149466198E-2</v>
       </c>
       <c r="L55">
-        <v>1.0118748712119201E-2</v>
+        <v>3.05543065197104E-2</v>
       </c>
       <c r="M55">
-        <v>6.13745377383265E-3</v>
+        <v>3.2468069819075199E-2</v>
       </c>
       <c r="N55">
-        <v>5.0613823798927003E-3</v>
+        <v>3.1526818634602202E-2</v>
       </c>
       <c r="O55">
-        <v>4.5036695075809496E-3</v>
+        <v>2.95552390178755E-2</v>
       </c>
       <c r="P55">
-        <v>4.5036695075809496E-3</v>
+        <v>2.95552390178755E-2</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C56" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D56" t="s">
         <v>109</v>
       </c>
-      <c r="E56" t="s">
-        <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>109</v>
-      </c>
-      <c r="G56" t="s">
-        <v>109</v>
-      </c>
-      <c r="H56" t="s">
-        <v>109</v>
-      </c>
-      <c r="I56" t="s">
-        <v>109</v>
-      </c>
-      <c r="J56" t="s">
-        <v>109</v>
+      <c r="E56">
+        <v>1.1278447605832E-2</v>
+      </c>
+      <c r="F56">
+        <v>9.9306188256772995E-3</v>
+      </c>
+      <c r="G56">
+        <v>1.48193707477608E-2</v>
+      </c>
+      <c r="H56">
+        <v>8.5126506393461698E-3</v>
+      </c>
+      <c r="I56">
+        <v>3.09412184754478E-3</v>
+      </c>
+      <c r="J56">
+        <v>2.0071417187765101E-3</v>
       </c>
       <c r="K56">
-        <v>54700000.2335485</v>
+        <v>8.7811839768995401E-3</v>
       </c>
       <c r="L56">
-        <v>55000000.2335485</v>
+        <v>1.0118748712119201E-2</v>
       </c>
       <c r="M56">
-        <v>54900000.2335485</v>
+        <v>6.13745377383265E-3</v>
       </c>
       <c r="N56">
-        <v>52300000.2335485</v>
+        <v>5.0613823798927003E-3</v>
       </c>
       <c r="O56">
-        <v>52900000.2335485</v>
+        <v>4.5036695075809496E-3</v>
       </c>
       <c r="P56">
-        <v>52900000.2335485</v>
+        <v>4.5036695075809496E-3</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
@@ -4880,7 +4892,7 @@
         <v>106</v>
       </c>
       <c r="C57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D57" t="s">
         <v>109</v>
@@ -4904,22 +4916,22 @@
         <v>109</v>
       </c>
       <c r="K57">
-        <v>6600000.2335484596</v>
+        <v>54700000.2335485</v>
       </c>
       <c r="L57">
-        <v>6400000.2335484596</v>
+        <v>55000000.2335485</v>
       </c>
       <c r="M57">
-        <v>7400000.2335484596</v>
+        <v>54900000.2335485</v>
       </c>
       <c r="N57">
-        <v>7500000.2335484596</v>
+        <v>52300000.2335485</v>
       </c>
       <c r="O57">
-        <v>7600000.2335484596</v>
+        <v>52900000.2335485</v>
       </c>
       <c r="P57">
-        <v>7600000.2335484596</v>
+        <v>52900000.2335485</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
@@ -4927,10 +4939,10 @@
         <v>35</v>
       </c>
       <c r="B58" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C58" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D58" t="s">
         <v>109</v>
@@ -4947,29 +4959,29 @@
       <c r="H58" t="s">
         <v>109</v>
       </c>
-      <c r="I58">
-        <v>31580000.2335485</v>
-      </c>
-      <c r="J58">
-        <v>31040000.2335485</v>
+      <c r="I58" t="s">
+        <v>109</v>
+      </c>
+      <c r="J58" t="s">
+        <v>109</v>
       </c>
       <c r="K58">
-        <v>29751000.2335485</v>
+        <v>6600000.2335484596</v>
       </c>
       <c r="L58">
-        <v>30410000.2335485</v>
+        <v>6400000.2335484596</v>
       </c>
       <c r="M58">
-        <v>29145000.2335485</v>
+        <v>7400000.2335484596</v>
       </c>
       <c r="N58">
-        <v>27880000.2335485</v>
+        <v>7500000.2335484596</v>
       </c>
       <c r="O58">
-        <v>28090000.2335485</v>
+        <v>7600000.2335484596</v>
       </c>
       <c r="P58">
-        <v>28090000.2335485</v>
+        <v>7600000.2335484596</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
@@ -4977,10 +4989,10 @@
         <v>35</v>
       </c>
       <c r="B59" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C59" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D59" t="s">
         <v>109</v>
@@ -4997,29 +5009,29 @@
       <c r="H59" t="s">
         <v>109</v>
       </c>
-      <c r="I59" t="s">
-        <v>109</v>
-      </c>
-      <c r="J59" t="s">
-        <v>109</v>
+      <c r="I59">
+        <v>31580000.2335485</v>
+      </c>
+      <c r="J59">
+        <v>31040000.2335485</v>
       </c>
       <c r="K59">
-        <v>1.83859365413424</v>
+        <v>29751000.2335485</v>
       </c>
       <c r="L59">
-        <v>1.8086155807678099</v>
+        <v>30410000.2335485</v>
       </c>
       <c r="M59">
-        <v>1.8836850160787999</v>
+        <v>29145000.2335485</v>
       </c>
       <c r="N59">
-        <v>1.87589669280616</v>
+        <v>27880000.2335485</v>
       </c>
       <c r="O59">
-        <v>1.8832324597266801</v>
+        <v>28090000.2335485</v>
       </c>
       <c r="P59">
-        <v>1.8832324597266801</v>
+        <v>28090000.2335485</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
@@ -5030,7 +5042,7 @@
         <v>112</v>
       </c>
       <c r="C60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D60" t="s">
         <v>109</v>
@@ -5054,72 +5066,72 @@
         <v>109</v>
       </c>
       <c r="K60">
-        <v>0.221841288754589</v>
+        <v>1.83859365413424</v>
       </c>
       <c r="L60">
-        <v>0.21045709254839001</v>
+        <v>1.8086155807678099</v>
       </c>
       <c r="M60">
-        <v>0.25390290527534198</v>
+        <v>1.8836850160787999</v>
       </c>
       <c r="N60">
-        <v>0.26901004916505</v>
+        <v>1.87589669280616</v>
       </c>
       <c r="O60">
-        <v>0.27055892382911501</v>
+        <v>1.8832324597266801</v>
       </c>
       <c r="P60">
-        <v>0.27055892382911501</v>
+        <v>1.8832324597266801</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B61" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C61" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D61" t="s">
         <v>109</v>
       </c>
-      <c r="E61">
-        <v>14667421.0468216</v>
-      </c>
-      <c r="F61">
-        <v>15541981.0468216</v>
-      </c>
-      <c r="G61">
-        <v>21355001.046821602</v>
-      </c>
-      <c r="H61">
-        <v>28086001.046821602</v>
-      </c>
-      <c r="I61">
-        <v>26077001.046821602</v>
-      </c>
-      <c r="J61">
-        <v>26816001.046821602</v>
+      <c r="E61" t="s">
+        <v>109</v>
+      </c>
+      <c r="F61" t="s">
+        <v>109</v>
+      </c>
+      <c r="G61" t="s">
+        <v>109</v>
+      </c>
+      <c r="H61" t="s">
+        <v>109</v>
+      </c>
+      <c r="I61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J61" t="s">
+        <v>109</v>
       </c>
       <c r="K61">
-        <v>31440001.046821602</v>
+        <v>0.221841288754589</v>
       </c>
       <c r="L61">
-        <v>36610961.046821602</v>
+        <v>0.21045709254839001</v>
       </c>
       <c r="M61">
-        <v>41528001.046821602</v>
+        <v>0.25390290527534198</v>
       </c>
       <c r="N61">
-        <v>41938351.046821602</v>
+        <v>0.26901004916505</v>
       </c>
       <c r="O61">
-        <v>40045311.046821602</v>
+        <v>0.27055892382911501</v>
       </c>
       <c r="P61">
-        <v>40045311.046821602</v>
+        <v>0.27055892382911501</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
@@ -5130,46 +5142,46 @@
         <v>106</v>
       </c>
       <c r="C62" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D62" t="s">
         <v>109</v>
       </c>
       <c r="E62">
-        <v>976021.04682159098</v>
+        <v>14667421.0468216</v>
       </c>
       <c r="F62">
-        <v>1550771.04682159</v>
+        <v>15541981.0468216</v>
       </c>
       <c r="G62">
-        <v>16541.046821591099</v>
+        <v>21355001.046821602</v>
       </c>
       <c r="H62">
-        <v>33601.046821591102</v>
+        <v>28086001.046821602</v>
       </c>
       <c r="I62">
-        <v>3742001.04682159</v>
+        <v>26077001.046821602</v>
       </c>
       <c r="J62">
-        <v>4157001.04682159</v>
+        <v>26816001.046821602</v>
       </c>
       <c r="K62">
-        <v>661001.04682159098</v>
+        <v>31440001.046821602</v>
       </c>
       <c r="L62">
-        <v>1885181.04682159</v>
+        <v>36610961.046821602</v>
       </c>
       <c r="M62">
-        <v>626001.04682159098</v>
+        <v>41528001.046821602</v>
       </c>
       <c r="N62">
-        <v>3909961.04682159</v>
+        <v>41938351.046821602</v>
       </c>
       <c r="O62">
-        <v>476901.04682159098</v>
+        <v>40045311.046821602</v>
       </c>
       <c r="P62">
-        <v>476901.04682159098</v>
+        <v>40045311.046821602</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
@@ -5177,49 +5189,49 @@
         <v>38</v>
       </c>
       <c r="B63" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C63" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D63" t="s">
         <v>109</v>
       </c>
-      <c r="E63" t="s">
-        <v>109</v>
-      </c>
-      <c r="F63" t="s">
-        <v>109</v>
-      </c>
-      <c r="G63" t="s">
-        <v>109</v>
-      </c>
-      <c r="H63" t="s">
-        <v>109</v>
+      <c r="E63">
+        <v>976021.04682159098</v>
+      </c>
+      <c r="F63">
+        <v>1550771.04682159</v>
+      </c>
+      <c r="G63">
+        <v>16541.046821591099</v>
+      </c>
+      <c r="H63">
+        <v>33601.046821591102</v>
       </c>
       <c r="I63">
-        <v>12170001.0468216</v>
+        <v>3742001.04682159</v>
       </c>
       <c r="J63">
-        <v>12630001.0468216</v>
+        <v>4157001.04682159</v>
       </c>
       <c r="K63">
-        <v>12630001.0468216</v>
+        <v>661001.04682159098</v>
       </c>
       <c r="L63">
-        <v>12630001.0468216</v>
+        <v>1885181.04682159</v>
       </c>
       <c r="M63">
-        <v>12630001.0468216</v>
+        <v>626001.04682159098</v>
       </c>
       <c r="N63">
-        <v>12630001.0468216</v>
+        <v>3909961.04682159</v>
       </c>
       <c r="O63">
-        <v>12630001.0468216</v>
+        <v>476901.04682159098</v>
       </c>
       <c r="P63">
-        <v>12630001.0468216</v>
+        <v>476901.04682159098</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
@@ -5227,10 +5239,10 @@
         <v>38</v>
       </c>
       <c r="B64" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C64" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D64" t="s">
         <v>109</v>
@@ -5248,28 +5260,28 @@
         <v>109</v>
       </c>
       <c r="I64">
-        <v>2.14272792142709</v>
+        <v>12170001.0468216</v>
       </c>
       <c r="J64">
-        <v>2.12319864008008</v>
+        <v>12630001.0468216</v>
       </c>
       <c r="K64">
-        <v>2.4893110404558199</v>
+        <v>12630001.0468216</v>
       </c>
       <c r="L64">
-        <v>2.8987298505438299</v>
+        <v>12630001.0468216</v>
       </c>
       <c r="M64">
-        <v>3.28804414923404</v>
+        <v>12630001.0468216</v>
       </c>
       <c r="N64">
-        <v>3.32053424947068</v>
+        <v>12630001.0468216</v>
       </c>
       <c r="O64">
-        <v>3.1706498596767099</v>
+        <v>12630001.0468216</v>
       </c>
       <c r="P64">
-        <v>3.1706498596767099</v>
+        <v>12630001.0468216</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
@@ -5280,7 +5292,7 @@
         <v>112</v>
       </c>
       <c r="C65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D65" t="s">
         <v>109</v>
@@ -5298,39 +5310,39 @@
         <v>109</v>
       </c>
       <c r="I65">
-        <v>0.307477463019519</v>
+        <v>2.14272792142709</v>
       </c>
       <c r="J65">
-        <v>0.32913703105889502</v>
+        <v>2.12319864008008</v>
       </c>
       <c r="K65">
-        <v>5.2335787176196302E-2</v>
+        <v>2.4893110404558199</v>
       </c>
       <c r="L65">
-        <v>0.149262144938302</v>
+        <v>2.8987298505438299</v>
       </c>
       <c r="M65">
-        <v>4.9564607675082299E-2</v>
+        <v>3.28804414923404</v>
       </c>
       <c r="N65">
-        <v>0.30957725437446099</v>
+        <v>3.32053424947068</v>
       </c>
       <c r="O65">
-        <v>3.7759383000336801E-2</v>
+        <v>3.1706498596767099</v>
       </c>
       <c r="P65">
-        <v>3.7759383000336801E-2</v>
+        <v>3.1706498596767099</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B66" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C66" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D66" t="s">
         <v>109</v>
@@ -5341,35 +5353,35 @@
       <c r="F66" t="s">
         <v>109</v>
       </c>
-      <c r="G66">
-        <v>1174220.8595406101</v>
-      </c>
-      <c r="H66">
-        <v>1310000.8595406101</v>
+      <c r="G66" t="s">
+        <v>109</v>
+      </c>
+      <c r="H66" t="s">
+        <v>109</v>
       </c>
       <c r="I66">
-        <v>1280000.8595406101</v>
+        <v>0.307477463019519</v>
       </c>
       <c r="J66">
-        <v>1150000.8595406101</v>
+        <v>0.32913703105889502</v>
       </c>
       <c r="K66">
-        <v>1230000.8595406101</v>
+        <v>5.2335787176196302E-2</v>
       </c>
       <c r="L66">
-        <v>1290000.8595406101</v>
+        <v>0.149262144938302</v>
       </c>
       <c r="M66">
-        <v>1170000.8595406101</v>
+        <v>4.9564607675082299E-2</v>
       </c>
       <c r="N66">
-        <v>910000.85954060894</v>
+        <v>0.30957725437446099</v>
       </c>
       <c r="O66">
-        <v>910000.85954060894</v>
+        <v>3.7759383000336801E-2</v>
       </c>
       <c r="P66">
-        <v>910000.85954060894</v>
+        <v>3.7759383000336801E-2</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
@@ -5380,7 +5392,7 @@
         <v>106</v>
       </c>
       <c r="C67" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D67" t="s">
         <v>109</v>
@@ -5392,34 +5404,34 @@
         <v>109</v>
       </c>
       <c r="G67">
-        <v>132861.859540609</v>
+        <v>1174220.8595406101</v>
       </c>
       <c r="H67">
-        <v>120000.859540609</v>
+        <v>1310000.8595406101</v>
       </c>
       <c r="I67">
-        <v>140000.859540609</v>
+        <v>1280000.8595406101</v>
       </c>
       <c r="J67">
-        <v>160000.859540609</v>
+        <v>1150000.8595406101</v>
       </c>
       <c r="K67">
-        <v>170000.859540609</v>
+        <v>1230000.8595406101</v>
       </c>
       <c r="L67">
-        <v>180000.859540609</v>
+        <v>1290000.8595406101</v>
       </c>
       <c r="M67">
-        <v>190000.859540609</v>
+        <v>1170000.8595406101</v>
       </c>
       <c r="N67">
-        <v>190000.859540609</v>
+        <v>910000.85954060894</v>
       </c>
       <c r="O67">
-        <v>190000.859540609</v>
+        <v>910000.85954060894</v>
       </c>
       <c r="P67">
-        <v>190000.859540609</v>
+        <v>910000.85954060894</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
@@ -5427,49 +5439,49 @@
         <v>13</v>
       </c>
       <c r="B68" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C68" t="s">
-        <v>111</v>
-      </c>
-      <c r="D68">
-        <v>1464408000.85954</v>
-      </c>
-      <c r="E68">
-        <v>1567382400.85954</v>
-      </c>
-      <c r="F68">
-        <v>1596272400.85954</v>
+        <v>108</v>
+      </c>
+      <c r="D68" t="s">
+        <v>109</v>
+      </c>
+      <c r="E68" t="s">
+        <v>109</v>
+      </c>
+      <c r="F68" t="s">
+        <v>109</v>
       </c>
       <c r="G68">
-        <v>1613368800.85954</v>
+        <v>132861.859540609</v>
       </c>
       <c r="H68">
-        <v>1617562800.85954</v>
+        <v>120000.859540609</v>
       </c>
       <c r="I68">
-        <v>1594490400.85954</v>
+        <v>140000.859540609</v>
       </c>
       <c r="J68">
-        <v>1558512000.85954</v>
+        <v>160000.859540609</v>
       </c>
       <c r="K68">
-        <v>1570716000.85954</v>
+        <v>170000.859540609</v>
       </c>
       <c r="L68">
-        <v>1535342400.85954</v>
+        <v>180000.859540609</v>
       </c>
       <c r="M68">
-        <v>1505977200.85954</v>
+        <v>190000.859540609</v>
       </c>
       <c r="N68">
-        <v>1472652000.85954</v>
+        <v>190000.859540609</v>
       </c>
       <c r="O68">
-        <v>1472652000.85954</v>
+        <v>190000.859540609</v>
       </c>
       <c r="P68">
-        <v>1472652000.85954</v>
+        <v>190000.859540609</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
@@ -5477,49 +5489,49 @@
         <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C69" t="s">
-        <v>107</v>
-      </c>
-      <c r="D69" t="s">
-        <v>109</v>
-      </c>
-      <c r="E69" t="s">
-        <v>109</v>
-      </c>
-      <c r="F69" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="D69">
+        <v>1464408000.85954</v>
+      </c>
+      <c r="E69">
+        <v>1567382400.85954</v>
+      </c>
+      <c r="F69">
+        <v>1596272400.85954</v>
       </c>
       <c r="G69">
-        <v>7.2780684671417295E-4</v>
+        <v>1613368800.85954</v>
       </c>
       <c r="H69">
-        <v>8.0986089618560698E-4</v>
+        <v>1617562800.85954</v>
       </c>
       <c r="I69">
-        <v>8.0276485756866297E-4</v>
+        <v>1594490400.85954</v>
       </c>
       <c r="J69">
-        <v>7.37883865447534E-4</v>
+        <v>1558512000.85954</v>
       </c>
       <c r="K69">
-        <v>7.8308291178514602E-4</v>
+        <v>1570716000.85954</v>
       </c>
       <c r="L69">
-        <v>8.4020402147326804E-4</v>
+        <v>1535342400.85954</v>
       </c>
       <c r="M69">
-        <v>7.7690476248433698E-4</v>
+        <v>1505977200.85954</v>
       </c>
       <c r="N69">
-        <v>6.1793340110866005E-4</v>
+        <v>1472652000.85954</v>
       </c>
       <c r="O69">
-        <v>6.1793340110866005E-4</v>
+        <v>1472652000.85954</v>
       </c>
       <c r="P69">
-        <v>6.1793340110866005E-4</v>
+        <v>1472652000.85954</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
@@ -5530,7 +5542,7 @@
         <v>112</v>
       </c>
       <c r="C70" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D70" t="s">
         <v>109</v>
@@ -5541,46 +5553,46 @@
       <c r="F70" t="s">
         <v>109</v>
       </c>
-      <c r="G70" s="3">
-        <v>8.2350581881727896E-5</v>
-      </c>
-      <c r="H70" s="3">
-        <v>7.4186213652318599E-5</v>
-      </c>
-      <c r="I70" s="3">
-        <v>8.7802886405047395E-5</v>
+      <c r="G70">
+        <v>7.2780684671417295E-4</v>
+      </c>
+      <c r="H70">
+        <v>8.0986089618560698E-4</v>
+      </c>
+      <c r="I70">
+        <v>8.0276485756866297E-4</v>
       </c>
       <c r="J70">
-        <v>1.02662577800085E-4</v>
+        <v>7.37883865447534E-4</v>
       </c>
       <c r="K70">
-        <v>1.08231443142859E-4</v>
+        <v>7.8308291178514602E-4</v>
       </c>
       <c r="L70">
-        <v>1.1723825215784899E-4</v>
+        <v>8.4020402147326804E-4</v>
       </c>
       <c r="M70">
-        <v>1.2616449932453499E-4</v>
+        <v>7.7690476248433698E-4</v>
       </c>
       <c r="N70">
-        <v>1.29019523573601E-4</v>
+        <v>6.1793340110866005E-4</v>
       </c>
       <c r="O70">
-        <v>1.29019523573601E-4</v>
+        <v>6.1793340110866005E-4</v>
       </c>
       <c r="P70">
-        <v>1.29019523573601E-4</v>
+        <v>6.1793340110866005E-4</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="B71" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C71" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D71" t="s">
         <v>109</v>
@@ -5591,35 +5603,35 @@
       <c r="F71" t="s">
         <v>109</v>
       </c>
-      <c r="G71" t="s">
-        <v>109</v>
-      </c>
-      <c r="H71" t="s">
-        <v>109</v>
-      </c>
-      <c r="I71" t="s">
-        <v>109</v>
-      </c>
-      <c r="J71" t="s">
-        <v>109</v>
+      <c r="G71" s="3">
+        <v>8.2350581881727896E-5</v>
+      </c>
+      <c r="H71" s="3">
+        <v>7.4186213652318599E-5</v>
+      </c>
+      <c r="I71" s="3">
+        <v>8.7802886405047395E-5</v>
+      </c>
+      <c r="J71">
+        <v>1.02662577800085E-4</v>
       </c>
       <c r="K71">
-        <v>31300000.829291299</v>
+        <v>1.08231443142859E-4</v>
       </c>
       <c r="L71">
-        <v>31072000.829291299</v>
+        <v>1.1723825215784899E-4</v>
       </c>
       <c r="M71">
-        <v>29491000.829291299</v>
+        <v>1.2616449932453499E-4</v>
       </c>
       <c r="N71">
-        <v>27206000.829291299</v>
+        <v>1.29019523573601E-4</v>
       </c>
       <c r="O71">
-        <v>27206000.829291299</v>
+        <v>1.29019523573601E-4</v>
       </c>
       <c r="P71">
-        <v>27206000.829291299</v>
+        <v>1.29019523573601E-4</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
@@ -5630,7 +5642,7 @@
         <v>106</v>
       </c>
       <c r="C72" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D72" t="s">
         <v>109</v>
@@ -5653,23 +5665,23 @@
       <c r="J72" t="s">
         <v>109</v>
       </c>
-      <c r="K72" t="s">
-        <v>109</v>
-      </c>
-      <c r="L72" t="s">
-        <v>109</v>
-      </c>
-      <c r="M72" t="s">
-        <v>109</v>
-      </c>
-      <c r="N72" t="s">
-        <v>109</v>
-      </c>
-      <c r="O72" t="s">
-        <v>109</v>
-      </c>
-      <c r="P72" t="s">
-        <v>109</v>
+      <c r="K72">
+        <v>31300000.829291299</v>
+      </c>
+      <c r="L72">
+        <v>31072000.829291299</v>
+      </c>
+      <c r="M72">
+        <v>29491000.829291299</v>
+      </c>
+      <c r="N72">
+        <v>27206000.829291299</v>
+      </c>
+      <c r="O72">
+        <v>27206000.829291299</v>
+      </c>
+      <c r="P72">
+        <v>27206000.829291299</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
@@ -5677,10 +5689,10 @@
         <v>40</v>
       </c>
       <c r="B73" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C73" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D73" t="s">
         <v>109</v>
@@ -5694,32 +5706,32 @@
       <c r="G73" t="s">
         <v>109</v>
       </c>
-      <c r="H73">
-        <v>23001000.829291299</v>
-      </c>
-      <c r="I73">
-        <v>25222000.829291299</v>
-      </c>
-      <c r="J73">
-        <v>23424000.829291299</v>
-      </c>
-      <c r="K73">
-        <v>24100000.829291299</v>
-      </c>
-      <c r="L73">
-        <v>24193000.829291299</v>
-      </c>
-      <c r="M73">
-        <v>24328000.829291299</v>
-      </c>
-      <c r="N73">
-        <v>23779000.829291299</v>
-      </c>
-      <c r="O73">
-        <v>22329000.829291299</v>
-      </c>
-      <c r="P73">
-        <v>22329000.829291299</v>
+      <c r="H73" t="s">
+        <v>109</v>
+      </c>
+      <c r="I73" t="s">
+        <v>109</v>
+      </c>
+      <c r="J73" t="s">
+        <v>109</v>
+      </c>
+      <c r="K73" t="s">
+        <v>109</v>
+      </c>
+      <c r="L73" t="s">
+        <v>109</v>
+      </c>
+      <c r="M73" t="s">
+        <v>109</v>
+      </c>
+      <c r="N73" t="s">
+        <v>109</v>
+      </c>
+      <c r="O73" t="s">
+        <v>109</v>
+      </c>
+      <c r="P73" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
@@ -5727,10 +5739,10 @@
         <v>40</v>
       </c>
       <c r="B74" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C74" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D74" t="s">
         <v>109</v>
@@ -5744,32 +5756,32 @@
       <c r="G74" t="s">
         <v>109</v>
       </c>
-      <c r="H74" t="s">
-        <v>109</v>
-      </c>
-      <c r="I74" t="s">
-        <v>109</v>
-      </c>
-      <c r="J74" t="s">
-        <v>109</v>
+      <c r="H74">
+        <v>23001000.829291299</v>
+      </c>
+      <c r="I74">
+        <v>25222000.829291299</v>
+      </c>
+      <c r="J74">
+        <v>23424000.829291299</v>
       </c>
       <c r="K74">
-        <v>1.2987551764417</v>
+        <v>24100000.829291299</v>
       </c>
       <c r="L74">
-        <v>1.2843384352581599</v>
+        <v>24193000.829291299</v>
       </c>
       <c r="M74">
-        <v>1.21222458993769</v>
+        <v>24328000.829291299</v>
       </c>
       <c r="N74">
-        <v>1.14411875522451</v>
+        <v>23779000.829291299</v>
       </c>
       <c r="O74">
-        <v>1.21841550534596</v>
+        <v>22329000.829291299</v>
       </c>
       <c r="P74">
-        <v>1.21841550534596</v>
+        <v>22329000.829291299</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
@@ -5780,7 +5792,7 @@
         <v>112</v>
       </c>
       <c r="C75" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D75" t="s">
         <v>109</v>
@@ -5803,73 +5815,73 @@
       <c r="J75" t="s">
         <v>109</v>
       </c>
-      <c r="K75" t="s">
-        <v>109</v>
-      </c>
-      <c r="L75" t="s">
-        <v>109</v>
-      </c>
-      <c r="M75" t="s">
-        <v>109</v>
-      </c>
-      <c r="N75" t="s">
-        <v>109</v>
-      </c>
-      <c r="O75" t="s">
-        <v>109</v>
-      </c>
-      <c r="P75" t="s">
-        <v>109</v>
+      <c r="K75">
+        <v>1.2987551764417</v>
+      </c>
+      <c r="L75">
+        <v>1.2843384352581599</v>
+      </c>
+      <c r="M75">
+        <v>1.21222458993769</v>
+      </c>
+      <c r="N75">
+        <v>1.14411875522451</v>
+      </c>
+      <c r="O75">
+        <v>1.21841550534596</v>
+      </c>
+      <c r="P75">
+        <v>1.21841550534596</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B76" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C76" t="s">
-        <v>107</v>
-      </c>
-      <c r="D76">
-        <v>11074001.5077199</v>
-      </c>
-      <c r="E76">
-        <v>8500001.5077198893</v>
-      </c>
-      <c r="F76">
-        <v>9328837.5077198893</v>
-      </c>
-      <c r="G76">
-        <v>8328346.5077198902</v>
-      </c>
-      <c r="H76">
-        <v>7914001.5077198902</v>
-      </c>
-      <c r="I76">
-        <v>7250001.5077198902</v>
-      </c>
-      <c r="J76">
-        <v>7020001.5077198902</v>
-      </c>
-      <c r="K76">
-        <v>7038001.5077198902</v>
-      </c>
-      <c r="L76">
-        <v>5800001.5077198902</v>
-      </c>
-      <c r="M76">
-        <v>4000001.5077198902</v>
-      </c>
-      <c r="N76">
-        <v>4500001.5077198902</v>
-      </c>
-      <c r="O76">
-        <v>4500001.5077198902</v>
-      </c>
-      <c r="P76">
-        <v>4500001.5077198902</v>
+        <v>108</v>
+      </c>
+      <c r="D76" t="s">
+        <v>109</v>
+      </c>
+      <c r="E76" t="s">
+        <v>109</v>
+      </c>
+      <c r="F76" t="s">
+        <v>109</v>
+      </c>
+      <c r="G76" t="s">
+        <v>109</v>
+      </c>
+      <c r="H76" t="s">
+        <v>109</v>
+      </c>
+      <c r="I76" t="s">
+        <v>109</v>
+      </c>
+      <c r="J76" t="s">
+        <v>109</v>
+      </c>
+      <c r="K76" t="s">
+        <v>109</v>
+      </c>
+      <c r="L76" t="s">
+        <v>109</v>
+      </c>
+      <c r="M76" t="s">
+        <v>109</v>
+      </c>
+      <c r="N76" t="s">
+        <v>109</v>
+      </c>
+      <c r="O76" t="s">
+        <v>109</v>
+      </c>
+      <c r="P76" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
@@ -5880,46 +5892,46 @@
         <v>106</v>
       </c>
       <c r="C77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D77">
-        <v>266001.507719888</v>
+        <v>11074001.5077199</v>
       </c>
       <c r="E77">
-        <v>350001.507719888</v>
+        <v>8500001.5077198893</v>
       </c>
       <c r="F77">
-        <v>329353.507719888</v>
+        <v>9328837.5077198893</v>
       </c>
       <c r="G77">
-        <v>319181.507719888</v>
+        <v>8328346.5077198902</v>
       </c>
       <c r="H77">
-        <v>250001.507719888</v>
+        <v>7914001.5077198902</v>
       </c>
       <c r="I77">
-        <v>220001.507719888</v>
+        <v>7250001.5077198902</v>
       </c>
       <c r="J77">
-        <v>230001.507719888</v>
+        <v>7020001.5077198902</v>
       </c>
       <c r="K77">
-        <v>247001.507719888</v>
+        <v>7038001.5077198902</v>
       </c>
       <c r="L77">
-        <v>3400001.5077198902</v>
+        <v>5800001.5077198902</v>
       </c>
       <c r="M77">
-        <v>2900001.5077198902</v>
+        <v>4000001.5077198902</v>
       </c>
       <c r="N77">
-        <v>2500001.5077198902</v>
+        <v>4500001.5077198902</v>
       </c>
       <c r="O77">
-        <v>2500001.5077198902</v>
+        <v>4500001.5077198902</v>
       </c>
       <c r="P77">
-        <v>2500001.5077198902</v>
+        <v>4500001.5077198902</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
@@ -5927,49 +5939,49 @@
         <v>14</v>
       </c>
       <c r="B78" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C78" t="s">
-        <v>111</v>
-      </c>
-      <c r="D78" t="s">
-        <v>109</v>
-      </c>
-      <c r="E78" t="s">
-        <v>109</v>
-      </c>
-      <c r="F78" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="D78">
+        <v>266001.507719888</v>
+      </c>
+      <c r="E78">
+        <v>350001.507719888</v>
+      </c>
+      <c r="F78">
+        <v>329353.507719888</v>
       </c>
       <c r="G78">
-        <v>21142801.5077199</v>
+        <v>319181.507719888</v>
       </c>
       <c r="H78">
-        <v>21142801.5077199</v>
+        <v>250001.507719888</v>
       </c>
       <c r="I78">
-        <v>21142801.5077199</v>
+        <v>220001.507719888</v>
       </c>
       <c r="J78">
-        <v>21142801.5077199</v>
+        <v>230001.507719888</v>
       </c>
       <c r="K78">
-        <v>21142801.5077199</v>
+        <v>247001.507719888</v>
       </c>
       <c r="L78">
-        <v>21142801.5077199</v>
+        <v>3400001.5077198902</v>
       </c>
       <c r="M78">
-        <v>21142801.5077199</v>
+        <v>2900001.5077198902</v>
       </c>
       <c r="N78">
-        <v>21142801.5077199</v>
+        <v>2500001.5077198902</v>
       </c>
       <c r="O78">
-        <v>21142801.5077199</v>
+        <v>2500001.5077198902</v>
       </c>
       <c r="P78">
-        <v>21142801.5077199</v>
+        <v>2500001.5077198902</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
@@ -5977,10 +5989,10 @@
         <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C79" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D79" t="s">
         <v>109</v>
@@ -5992,34 +6004,34 @@
         <v>109</v>
       </c>
       <c r="G79">
-        <v>0.393909317300215</v>
+        <v>21142801.5077199</v>
       </c>
       <c r="H79">
-        <v>0.37431186708299902</v>
+        <v>21142801.5077199</v>
       </c>
       <c r="I79">
-        <v>0.34290637903745602</v>
+        <v>21142801.5077199</v>
       </c>
       <c r="J79">
-        <v>0.33202797203372802</v>
+        <v>21142801.5077199</v>
       </c>
       <c r="K79">
-        <v>0.33287932562532402</v>
+        <v>21142801.5077199</v>
       </c>
       <c r="L79">
-        <v>0.274325117492217</v>
+        <v>21142801.5077199</v>
       </c>
       <c r="M79">
-        <v>0.18918975833261101</v>
+        <v>21142801.5077199</v>
       </c>
       <c r="N79">
-        <v>0.21283846921027899</v>
+        <v>21142801.5077199</v>
       </c>
       <c r="O79">
-        <v>0.21283846921027899</v>
+        <v>21142801.5077199</v>
       </c>
       <c r="P79">
-        <v>0.21283846921027899</v>
+        <v>21142801.5077199</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
@@ -6030,7 +6042,7 @@
         <v>112</v>
       </c>
       <c r="C80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D80" t="s">
         <v>109</v>
@@ -6042,45 +6054,45 @@
         <v>109</v>
       </c>
       <c r="G80">
-        <v>1.5096462387131899E-2</v>
+        <v>0.393909317300215</v>
       </c>
       <c r="H80">
-        <v>1.18244267500977E-2</v>
+        <v>0.37431186708299902</v>
       </c>
       <c r="I80">
-        <v>1.0405504097437601E-2</v>
+        <v>0.34290637903745602</v>
       </c>
       <c r="J80">
-        <v>1.08784783149909E-2</v>
+        <v>0.33202797203372802</v>
       </c>
       <c r="K80">
-        <v>1.16825344848317E-2</v>
+        <v>0.33287932562532402</v>
       </c>
       <c r="L80">
-        <v>0.16081130527940901</v>
+        <v>0.274325117492217</v>
       </c>
       <c r="M80">
-        <v>0.13716259440174</v>
+        <v>0.18918975833261101</v>
       </c>
       <c r="N80">
-        <v>0.118243625699606</v>
+        <v>0.21283846921027899</v>
       </c>
       <c r="O80">
-        <v>0.118243625699606</v>
+        <v>0.21283846921027899</v>
       </c>
       <c r="P80">
-        <v>0.118243625699606</v>
+        <v>0.21283846921027899</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B81" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C81" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D81" t="s">
         <v>109</v>
@@ -6091,35 +6103,35 @@
       <c r="F81" t="s">
         <v>109</v>
       </c>
-      <c r="G81" t="s">
-        <v>109</v>
-      </c>
-      <c r="H81" t="s">
-        <v>109</v>
-      </c>
-      <c r="I81" t="s">
-        <v>109</v>
-      </c>
-      <c r="J81" t="s">
-        <v>109</v>
+      <c r="G81">
+        <v>1.5096462387131899E-2</v>
+      </c>
+      <c r="H81">
+        <v>1.18244267500977E-2</v>
+      </c>
+      <c r="I81">
+        <v>1.0405504097437601E-2</v>
+      </c>
+      <c r="J81">
+        <v>1.08784783149909E-2</v>
       </c>
       <c r="K81">
-        <v>89000001.367614105</v>
+        <v>1.16825344848317E-2</v>
       </c>
       <c r="L81">
-        <v>89000001.367614105</v>
+        <v>0.16081130527940901</v>
       </c>
       <c r="M81">
-        <v>86000001.367614105</v>
+        <v>0.13716259440174</v>
       </c>
       <c r="N81">
-        <v>87000001.367614105</v>
+        <v>0.118243625699606</v>
       </c>
       <c r="O81">
-        <v>84000001.367614105</v>
+        <v>0.118243625699606</v>
       </c>
       <c r="P81">
-        <v>84000001.367614105</v>
+        <v>0.118243625699606</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
@@ -6130,7 +6142,7 @@
         <v>106</v>
       </c>
       <c r="C82" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D82" t="s">
         <v>109</v>
@@ -6154,22 +6166,22 @@
         <v>109</v>
       </c>
       <c r="K82">
-        <v>11000001.3676141</v>
+        <v>89000001.367614105</v>
       </c>
       <c r="L82">
-        <v>10000001.3676141</v>
+        <v>89000001.367614105</v>
       </c>
       <c r="M82">
-        <v>10000001.3676141</v>
+        <v>86000001.367614105</v>
       </c>
       <c r="N82">
-        <v>10000001.3676141</v>
+        <v>87000001.367614105</v>
       </c>
       <c r="O82">
-        <v>9000001.3676141202</v>
+        <v>84000001.367614105</v>
       </c>
       <c r="P82">
-        <v>9000001.3676141202</v>
+        <v>84000001.367614105</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
@@ -6177,10 +6189,10 @@
         <v>42</v>
       </c>
       <c r="B83" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C83" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D83" t="s">
         <v>109</v>
@@ -6194,32 +6206,32 @@
       <c r="G83" t="s">
         <v>109</v>
       </c>
-      <c r="H83">
-        <v>46030001.367614098</v>
-      </c>
-      <c r="I83">
-        <v>48160001.367614098</v>
-      </c>
-      <c r="J83">
-        <v>47320001.367614098</v>
+      <c r="H83" t="s">
+        <v>109</v>
+      </c>
+      <c r="I83" t="s">
+        <v>109</v>
+      </c>
+      <c r="J83" t="s">
+        <v>109</v>
       </c>
       <c r="K83">
-        <v>44530001.367614098</v>
+        <v>11000001.3676141</v>
       </c>
       <c r="L83">
-        <v>45170001.367614098</v>
+        <v>10000001.3676141</v>
       </c>
       <c r="M83">
-        <v>46505001.367614098</v>
+        <v>10000001.3676141</v>
       </c>
       <c r="N83">
-        <v>47840001.367614098</v>
+        <v>10000001.3676141</v>
       </c>
       <c r="O83">
-        <v>47050001.367614098</v>
+        <v>9000001.3676141202</v>
       </c>
       <c r="P83">
-        <v>47050001.367614098</v>
+        <v>9000001.3676141202</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
@@ -6227,10 +6239,10 @@
         <v>42</v>
       </c>
       <c r="B84" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C84" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D84" t="s">
         <v>109</v>
@@ -6244,32 +6256,32 @@
       <c r="G84" t="s">
         <v>109</v>
       </c>
-      <c r="H84" t="s">
-        <v>109</v>
-      </c>
-      <c r="I84" t="s">
-        <v>109</v>
-      </c>
-      <c r="J84" t="s">
-        <v>109</v>
+      <c r="H84">
+        <v>46030001.367614098</v>
+      </c>
+      <c r="I84">
+        <v>48160001.367614098</v>
+      </c>
+      <c r="J84">
+        <v>47320001.367614098</v>
       </c>
       <c r="K84">
-        <v>1.9986525630862</v>
+        <v>44530001.367614098</v>
       </c>
       <c r="L84">
-        <v>1.9703342632932701</v>
+        <v>45170001.367614098</v>
       </c>
       <c r="M84">
-        <v>1.8492634950765601</v>
+        <v>46505001.367614098</v>
       </c>
       <c r="N84">
-        <v>1.8185618495092699</v>
+        <v>47840001.367614098</v>
       </c>
       <c r="O84">
-        <v>1.7853347274381499</v>
+        <v>47050001.367614098</v>
       </c>
       <c r="P84">
-        <v>1.7853347274381499</v>
+        <v>47050001.367614098</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
@@ -6280,7 +6292,7 @@
         <v>112</v>
       </c>
       <c r="C85" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D85" t="s">
         <v>109</v>
@@ -6304,33 +6316,33 @@
         <v>109</v>
       </c>
       <c r="K85">
-        <v>0.24702450100561199</v>
+        <v>1.9986525630862</v>
       </c>
       <c r="L85">
-        <v>0.22138589915527199</v>
+        <v>1.9703342632932701</v>
       </c>
       <c r="M85">
-        <v>0.21503066495076101</v>
+        <v>1.8492634950765601</v>
       </c>
       <c r="N85">
-        <v>0.20903012294610299</v>
+        <v>1.8185618495092699</v>
       </c>
       <c r="O85">
-        <v>0.191285889606989</v>
+        <v>1.7853347274381499</v>
       </c>
       <c r="P85">
-        <v>0.191285889606989</v>
+        <v>1.7853347274381499</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B86" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C86" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D86" t="s">
         <v>109</v>
@@ -6350,26 +6362,26 @@
       <c r="I86" t="s">
         <v>109</v>
       </c>
-      <c r="J86">
-        <v>29200004.631029598</v>
+      <c r="J86" t="s">
+        <v>109</v>
       </c>
       <c r="K86">
-        <v>29200004.631029598</v>
+        <v>0.24702450100561199</v>
       </c>
       <c r="L86">
-        <v>29600004.631029598</v>
+        <v>0.22138589915527199</v>
       </c>
       <c r="M86">
-        <v>30200004.631029598</v>
+        <v>0.21503066495076101</v>
       </c>
       <c r="N86">
-        <v>28400004.631029598</v>
+        <v>0.20903012294610299</v>
       </c>
       <c r="O86">
-        <v>28400004.631029598</v>
+        <v>0.191285889606989</v>
       </c>
       <c r="P86">
-        <v>28400004.631029598</v>
+        <v>0.191285889606989</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.2">
@@ -6380,7 +6392,7 @@
         <v>106</v>
       </c>
       <c r="C87" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D87" t="s">
         <v>109</v>
@@ -6401,25 +6413,25 @@
         <v>109</v>
       </c>
       <c r="J87">
-        <v>3600004.6310295798</v>
+        <v>29200004.631029598</v>
       </c>
       <c r="K87">
-        <v>3800004.6310295798</v>
+        <v>29200004.631029598</v>
       </c>
       <c r="L87">
-        <v>4000004.6310295798</v>
+        <v>29600004.631029598</v>
       </c>
       <c r="M87">
-        <v>4000004.6310295798</v>
+        <v>30200004.631029598</v>
       </c>
       <c r="N87">
-        <v>3600004.6310295798</v>
+        <v>28400004.631029598</v>
       </c>
       <c r="O87">
-        <v>3600004.6310295798</v>
+        <v>28400004.631029598</v>
       </c>
       <c r="P87">
-        <v>3600004.6310295798</v>
+        <v>28400004.631029598</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.2">
@@ -6427,10 +6439,10 @@
         <v>44</v>
       </c>
       <c r="B88" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C88" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D88" t="s">
         <v>109</v>
@@ -6447,29 +6459,29 @@
       <c r="H88" t="s">
         <v>109</v>
       </c>
-      <c r="I88">
-        <v>15921004.6310296</v>
+      <c r="I88" t="s">
+        <v>109</v>
       </c>
       <c r="J88">
-        <v>15855004.6310296</v>
+        <v>3600004.6310295798</v>
       </c>
       <c r="K88">
-        <v>16419004.6310296</v>
+        <v>3800004.6310295798</v>
       </c>
       <c r="L88">
-        <v>16850004.631029598</v>
+        <v>4000004.6310295798</v>
       </c>
       <c r="M88">
-        <v>17286004.631029598</v>
+        <v>4000004.6310295798</v>
       </c>
       <c r="N88">
-        <v>15520004.6310296</v>
+        <v>3600004.6310295798</v>
       </c>
       <c r="O88">
-        <v>15520004.6310296</v>
+        <v>3600004.6310295798</v>
       </c>
       <c r="P88">
-        <v>15520004.6310296</v>
+        <v>3600004.6310295798</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.2">
@@ -6477,10 +6489,10 @@
         <v>44</v>
       </c>
       <c r="B89" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C89" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D89" t="s">
         <v>109</v>
@@ -6497,29 +6509,29 @@
       <c r="H89" t="s">
         <v>109</v>
       </c>
-      <c r="I89" t="s">
-        <v>109</v>
+      <c r="I89">
+        <v>15921004.6310296</v>
       </c>
       <c r="J89">
-        <v>1.8416900726653</v>
+        <v>15855004.6310296</v>
       </c>
       <c r="K89">
-        <v>1.7784272120762901</v>
+        <v>16419004.6310296</v>
       </c>
       <c r="L89">
-        <v>1.75667634989967</v>
+        <v>16850004.631029598</v>
       </c>
       <c r="M89">
-        <v>1.7470783605378899</v>
+        <v>17286004.631029598</v>
       </c>
       <c r="N89">
-        <v>1.82989665958273</v>
+        <v>15520004.6310296</v>
       </c>
       <c r="O89">
-        <v>1.82989665958273</v>
+        <v>15520004.6310296</v>
       </c>
       <c r="P89">
-        <v>1.82989665958273</v>
+        <v>15520004.6310296</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
@@ -6530,7 +6542,7 @@
         <v>112</v>
       </c>
       <c r="C90" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D90" t="s">
         <v>109</v>
@@ -6551,75 +6563,75 @@
         <v>109</v>
       </c>
       <c r="J90">
-        <v>0.22705793626727</v>
+        <v>1.8416900726653</v>
       </c>
       <c r="K90">
-        <v>0.231439403083431</v>
+        <v>1.7784272120762901</v>
       </c>
       <c r="L90">
-        <v>0.23738893363052799</v>
+        <v>1.75667634989967</v>
       </c>
       <c r="M90">
-        <v>0.23140133977803601</v>
+        <v>1.7470783605378899</v>
       </c>
       <c r="N90">
-        <v>0.23195899206318399</v>
+        <v>1.82989665958273</v>
       </c>
       <c r="O90">
-        <v>0.23195899206318399</v>
+        <v>1.82989665958273</v>
       </c>
       <c r="P90">
-        <v>0.23195899206318399</v>
+        <v>1.82989665958273</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B91" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C91" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D91" t="s">
         <v>109</v>
       </c>
-      <c r="E91">
-        <v>185584163.90193</v>
-      </c>
-      <c r="F91">
-        <v>188513981.90193</v>
-      </c>
-      <c r="G91">
-        <v>189986958.90193</v>
-      </c>
-      <c r="H91">
-        <v>200994691.90193</v>
-      </c>
-      <c r="I91">
-        <v>201036494.90193</v>
+      <c r="E91" t="s">
+        <v>109</v>
+      </c>
+      <c r="F91" t="s">
+        <v>109</v>
+      </c>
+      <c r="G91" t="s">
+        <v>109</v>
+      </c>
+      <c r="H91" t="s">
+        <v>109</v>
+      </c>
+      <c r="I91" t="s">
+        <v>109</v>
       </c>
       <c r="J91">
-        <v>213050961.90193</v>
+        <v>0.22705793626727</v>
       </c>
       <c r="K91">
-        <v>231671486.10192901</v>
+        <v>0.231439403083431</v>
       </c>
       <c r="L91">
-        <v>221222495.90193</v>
+        <v>0.23738893363052799</v>
       </c>
       <c r="M91">
-        <v>231986764.90193</v>
+        <v>0.23140133977803601</v>
       </c>
       <c r="N91">
-        <v>240369173.90193</v>
+        <v>0.23195899206318399</v>
       </c>
       <c r="O91">
-        <v>226132940.90193</v>
+        <v>0.23195899206318399</v>
       </c>
       <c r="P91">
-        <v>226132940.90193</v>
+        <v>0.23195899206318399</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
@@ -6630,46 +6642,46 @@
         <v>106</v>
       </c>
       <c r="C92" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D92" t="s">
         <v>109</v>
       </c>
-      <c r="E92" t="s">
-        <v>109</v>
-      </c>
-      <c r="F92" t="s">
-        <v>109</v>
+      <c r="E92">
+        <v>185584163.90193</v>
+      </c>
+      <c r="F92">
+        <v>188513981.90193</v>
       </c>
       <c r="G92">
-        <v>0.90192956297796201</v>
+        <v>189986958.90193</v>
       </c>
       <c r="H92">
-        <v>0.90192956297796201</v>
+        <v>200994691.90193</v>
       </c>
       <c r="I92">
-        <v>0.90192956297796201</v>
+        <v>201036494.90193</v>
       </c>
       <c r="J92">
-        <v>6235.0544295629797</v>
+        <v>213050961.90193</v>
       </c>
       <c r="K92">
-        <v>12469.206929563001</v>
+        <v>231671486.10192901</v>
       </c>
       <c r="L92">
-        <v>18703.359429562999</v>
+        <v>221222495.90193</v>
       </c>
       <c r="M92">
-        <v>24937.511929562999</v>
+        <v>231986764.90193</v>
       </c>
       <c r="N92">
-        <v>23268.401929562999</v>
+        <v>240369173.90193</v>
       </c>
       <c r="O92">
-        <v>15845.901929563001</v>
+        <v>226132940.90193</v>
       </c>
       <c r="P92">
-        <v>15845.901929563001</v>
+        <v>226132940.90193</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
@@ -6677,49 +6689,49 @@
         <v>16</v>
       </c>
       <c r="B93" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C93" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D93" t="s">
         <v>109</v>
       </c>
-      <c r="E93">
-        <v>787824000.90192997</v>
-      </c>
-      <c r="F93">
-        <v>793944000.90192997</v>
+      <c r="E93" t="s">
+        <v>109</v>
+      </c>
+      <c r="F93" t="s">
+        <v>109</v>
       </c>
       <c r="G93">
-        <v>799452000.90192997</v>
+        <v>0.90192956297796201</v>
       </c>
       <c r="H93">
-        <v>835300800.90192997</v>
+        <v>0.90192956297796201</v>
       </c>
       <c r="I93">
-        <v>839822400.90192997</v>
+        <v>0.90192956297796201</v>
       </c>
       <c r="J93">
-        <v>868536000.90192997</v>
+        <v>6235.0544295629797</v>
       </c>
       <c r="K93">
-        <v>871128000.90192997</v>
+        <v>12469.206929563001</v>
       </c>
       <c r="L93">
-        <v>901116000.90192997</v>
+        <v>18703.359429562999</v>
       </c>
       <c r="M93">
-        <v>956880000.90192997</v>
+        <v>24937.511929562999</v>
       </c>
       <c r="N93">
-        <v>988020000.90192997</v>
+        <v>23268.401929562999</v>
       </c>
       <c r="O93">
-        <v>934632000.90192997</v>
+        <v>15845.901929563001</v>
       </c>
       <c r="P93">
-        <v>934632000.90192997</v>
+        <v>15845.901929563001</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
@@ -6727,49 +6739,49 @@
         <v>16</v>
       </c>
       <c r="B94" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C94" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D94" t="s">
         <v>109</v>
       </c>
       <c r="E94">
-        <v>0.235565511699905</v>
+        <v>787824000.90192997</v>
       </c>
       <c r="F94">
-        <v>0.237439897131001</v>
+        <v>793944000.90192997</v>
       </c>
       <c r="G94">
-        <v>0.23764648620253501</v>
+        <v>799452000.90192997</v>
       </c>
       <c r="H94">
-        <v>0.24062552278760199</v>
+        <v>835300800.90192997</v>
       </c>
       <c r="I94">
-        <v>0.239379772063743</v>
+        <v>839822400.90192997</v>
       </c>
       <c r="J94">
-        <v>0.24529894176025799</v>
+        <v>868536000.90192997</v>
       </c>
       <c r="K94">
-        <v>0.265944253728575</v>
+        <v>871128000.90192997</v>
       </c>
       <c r="L94">
-        <v>0.24549835501811901</v>
+        <v>901116000.90192997</v>
       </c>
       <c r="M94">
-        <v>0.242440812519088</v>
+        <v>956880000.90192997</v>
       </c>
       <c r="N94">
-        <v>0.243283712558961</v>
+        <v>988020000.90192997</v>
       </c>
       <c r="O94">
-        <v>0.241948639340092</v>
+        <v>934632000.90192997</v>
       </c>
       <c r="P94">
-        <v>0.241948639340092</v>
+        <v>934632000.90192997</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
@@ -6780,96 +6792,96 @@
         <v>112</v>
       </c>
       <c r="C95" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D95" t="s">
         <v>109</v>
       </c>
-      <c r="E95" t="s">
-        <v>109</v>
-      </c>
-      <c r="F95" t="s">
-        <v>109</v>
-      </c>
-      <c r="G95" s="3">
-        <v>1.1281847590104501E-9</v>
-      </c>
-      <c r="H95" s="3">
-        <v>1.07976618962186E-9</v>
-      </c>
-      <c r="I95" s="3">
-        <v>1.07395273335092E-9</v>
-      </c>
-      <c r="J95" s="3">
-        <v>7.1788094253873198E-6</v>
-      </c>
-      <c r="K95" s="3">
-        <v>1.43138630794245E-5</v>
-      </c>
-      <c r="L95" s="3">
-        <v>2.07557732976029E-5</v>
-      </c>
-      <c r="M95" s="3">
-        <v>2.6061274042782299E-5</v>
-      </c>
-      <c r="N95" s="3">
-        <v>2.3550537345723801E-5</v>
-      </c>
-      <c r="O95" s="3">
-        <v>1.6954161546225199E-5</v>
-      </c>
-      <c r="P95" s="3">
-        <v>1.6954161546225199E-5</v>
+      <c r="E95">
+        <v>0.235565511699905</v>
+      </c>
+      <c r="F95">
+        <v>0.237439897131001</v>
+      </c>
+      <c r="G95">
+        <v>0.23764648620253501</v>
+      </c>
+      <c r="H95">
+        <v>0.24062552278760199</v>
+      </c>
+      <c r="I95">
+        <v>0.239379772063743</v>
+      </c>
+      <c r="J95">
+        <v>0.24529894176025799</v>
+      </c>
+      <c r="K95">
+        <v>0.265944253728575</v>
+      </c>
+      <c r="L95">
+        <v>0.24549835501811901</v>
+      </c>
+      <c r="M95">
+        <v>0.242440812519088</v>
+      </c>
+      <c r="N95">
+        <v>0.243283712558961</v>
+      </c>
+      <c r="O95">
+        <v>0.241948639340092</v>
+      </c>
+      <c r="P95">
+        <v>0.241948639340092</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B96" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C96" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D96" t="s">
         <v>109</v>
       </c>
-      <c r="E96">
-        <v>1968704.15493443</v>
-      </c>
-      <c r="F96">
-        <v>2832949.15493443</v>
-      </c>
-      <c r="G96">
-        <v>12866001.154934401</v>
-      </c>
-      <c r="H96">
-        <v>13663001.154934401</v>
-      </c>
-      <c r="I96">
-        <v>14934001.154934401</v>
-      </c>
-      <c r="J96">
-        <v>16918001.154934399</v>
-      </c>
-      <c r="K96">
-        <v>16977001.154934399</v>
-      </c>
-      <c r="L96">
-        <v>17293001.154934399</v>
-      </c>
-      <c r="M96">
-        <v>18162001.154934399</v>
-      </c>
-      <c r="N96">
-        <v>17976001.154934399</v>
-      </c>
-      <c r="O96">
-        <v>16065001.154934401</v>
-      </c>
-      <c r="P96">
-        <v>16065001.154934401</v>
+      <c r="E96" t="s">
+        <v>109</v>
+      </c>
+      <c r="F96" t="s">
+        <v>109</v>
+      </c>
+      <c r="G96" s="3">
+        <v>1.1281847590104501E-9</v>
+      </c>
+      <c r="H96" s="3">
+        <v>1.07976618962186E-9</v>
+      </c>
+      <c r="I96" s="3">
+        <v>1.07395273335092E-9</v>
+      </c>
+      <c r="J96" s="3">
+        <v>7.1788094253873198E-6</v>
+      </c>
+      <c r="K96" s="3">
+        <v>1.43138630794245E-5</v>
+      </c>
+      <c r="L96" s="3">
+        <v>2.07557732976029E-5</v>
+      </c>
+      <c r="M96" s="3">
+        <v>2.6061274042782299E-5</v>
+      </c>
+      <c r="N96" s="3">
+        <v>2.3550537345723801E-5</v>
+      </c>
+      <c r="O96" s="3">
+        <v>1.6954161546225199E-5</v>
+      </c>
+      <c r="P96" s="3">
+        <v>1.6954161546225199E-5</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
@@ -6880,46 +6892,46 @@
         <v>106</v>
       </c>
       <c r="C97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D97" t="s">
         <v>109</v>
       </c>
       <c r="E97">
-        <v>52966.154934429302</v>
+        <v>1968704.15493443</v>
       </c>
       <c r="F97">
-        <v>58302.154934429302</v>
+        <v>2832949.15493443</v>
       </c>
       <c r="G97">
-        <v>61001.154934429302</v>
+        <v>12866001.154934401</v>
       </c>
       <c r="H97">
-        <v>202001.15493442901</v>
+        <v>13663001.154934401</v>
       </c>
       <c r="I97">
-        <v>130001.154934429</v>
+        <v>14934001.154934401</v>
       </c>
       <c r="J97">
-        <v>409001.15493442898</v>
+        <v>16918001.154934399</v>
       </c>
       <c r="K97">
-        <v>1265001.15493443</v>
+        <v>16977001.154934399</v>
       </c>
       <c r="L97">
-        <v>1818001.15493443</v>
+        <v>17293001.154934399</v>
       </c>
       <c r="M97">
-        <v>2090001.15493443</v>
+        <v>18162001.154934399</v>
       </c>
       <c r="N97">
-        <v>2289001.15493443</v>
+        <v>17976001.154934399</v>
       </c>
       <c r="O97">
-        <v>2403001.15493443</v>
+        <v>16065001.154934401</v>
       </c>
       <c r="P97">
-        <v>2403001.15493443</v>
+        <v>16065001.154934401</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
@@ -6927,49 +6939,49 @@
         <v>17</v>
       </c>
       <c r="B98" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C98" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D98" t="s">
         <v>109</v>
       </c>
       <c r="E98">
-        <v>34887601.154934399</v>
+        <v>52966.154934429302</v>
       </c>
       <c r="F98">
-        <v>35434801.154934399</v>
+        <v>58302.154934429302</v>
       </c>
       <c r="G98">
-        <v>38350801.154934399</v>
+        <v>61001.154934429302</v>
       </c>
       <c r="H98">
-        <v>56516401.154934399</v>
+        <v>202001.15493442901</v>
       </c>
       <c r="I98">
-        <v>61902001.154934399</v>
+        <v>130001.154934429</v>
       </c>
       <c r="J98">
-        <v>71791201.154934406</v>
+        <v>409001.15493442898</v>
       </c>
       <c r="K98">
-        <v>72248401.154934406</v>
+        <v>1265001.15493443</v>
       </c>
       <c r="L98">
-        <v>73062001.154934406</v>
+        <v>1818001.15493443</v>
       </c>
       <c r="M98">
-        <v>77691601.154934406</v>
+        <v>2090001.15493443</v>
       </c>
       <c r="N98">
-        <v>73011601.154934406</v>
+        <v>2289001.15493443</v>
       </c>
       <c r="O98">
-        <v>65804401.154934399</v>
+        <v>2403001.15493443</v>
       </c>
       <c r="P98">
-        <v>65804401.154934399</v>
+        <v>2403001.15493443</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
@@ -6977,49 +6989,49 @@
         <v>17</v>
       </c>
       <c r="B99" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C99" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D99" t="s">
         <v>109</v>
       </c>
       <c r="E99">
-        <v>5.6429908900629003E-2</v>
+        <v>34887601.154934399</v>
       </c>
       <c r="F99">
-        <v>7.99482165159527E-2</v>
+        <v>35434801.154934399</v>
       </c>
       <c r="G99">
-        <v>0.33548193955471001</v>
+        <v>38350801.154934399</v>
       </c>
       <c r="H99">
-        <v>0.24175285183992101</v>
+        <v>56516401.154934399</v>
       </c>
       <c r="I99">
-        <v>0.241252316182091</v>
+        <v>61902001.154934399</v>
       </c>
       <c r="J99">
-        <v>0.23565563582678101</v>
+        <v>71791201.154934406</v>
       </c>
       <c r="K99">
-        <v>0.2349809945071</v>
+        <v>72248401.154934406</v>
       </c>
       <c r="L99">
-        <v>0.236689399161995</v>
+        <v>73062001.154934406</v>
       </c>
       <c r="M99">
-        <v>0.23377045761633</v>
+        <v>77691601.154934406</v>
       </c>
       <c r="N99">
-        <v>0.24620746389040901</v>
+        <v>73011601.154934406</v>
       </c>
       <c r="O99">
-        <v>0.244132624459417</v>
+        <v>65804401.154934399</v>
       </c>
       <c r="P99">
-        <v>0.244132624459417</v>
+        <v>65804401.154934399</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
@@ -7030,96 +7042,96 @@
         <v>112</v>
       </c>
       <c r="C100" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D100" t="s">
         <v>109</v>
       </c>
       <c r="E100">
-        <v>1.51819423465685E-3</v>
+        <v>5.6429908900629003E-2</v>
       </c>
       <c r="F100">
-        <v>1.64533602656637E-3</v>
+        <v>7.99482165159527E-2</v>
       </c>
       <c r="G100">
-        <v>1.5906096638760999E-3</v>
+        <v>0.33548193955471001</v>
       </c>
       <c r="H100">
-        <v>3.57420413908986E-3</v>
+        <v>0.24175285183992101</v>
       </c>
       <c r="I100">
-        <v>2.1001123147707198E-3</v>
+        <v>0.241252316182091</v>
       </c>
       <c r="J100">
-        <v>5.6970930748428796E-3</v>
+        <v>0.23565563582678101</v>
       </c>
       <c r="K100">
-        <v>1.7509053968151798E-2</v>
+        <v>0.2349809945071</v>
       </c>
       <c r="L100">
-        <v>2.4882991516742E-2</v>
+        <v>0.236689399161995</v>
       </c>
       <c r="M100">
-        <v>2.69012496056877E-2</v>
+        <v>0.23377045761633</v>
       </c>
       <c r="N100">
-        <v>3.1351197874390502E-2</v>
+        <v>0.24620746389040901</v>
       </c>
       <c r="O100">
-        <v>3.65173318616887E-2</v>
+        <v>0.244132624459417</v>
       </c>
       <c r="P100">
-        <v>3.65173318616887E-2</v>
+        <v>0.244132624459417</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B101" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C101" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D101" t="s">
         <v>109</v>
       </c>
-      <c r="E101" t="s">
-        <v>109</v>
-      </c>
-      <c r="F101" t="s">
-        <v>109</v>
-      </c>
-      <c r="G101" t="s">
-        <v>109</v>
-      </c>
-      <c r="H101" t="s">
-        <v>109</v>
-      </c>
-      <c r="I101" t="s">
-        <v>109</v>
-      </c>
-      <c r="J101" t="s">
-        <v>109</v>
-      </c>
-      <c r="K101" t="s">
-        <v>109</v>
-      </c>
-      <c r="L101" t="s">
-        <v>109</v>
-      </c>
-      <c r="M101" t="s">
-        <v>109</v>
-      </c>
-      <c r="N101" t="s">
-        <v>109</v>
-      </c>
-      <c r="O101" t="s">
-        <v>109</v>
-      </c>
-      <c r="P101" t="s">
-        <v>109</v>
+      <c r="E101">
+        <v>1.51819423465685E-3</v>
+      </c>
+      <c r="F101">
+        <v>1.64533602656637E-3</v>
+      </c>
+      <c r="G101">
+        <v>1.5906096638760999E-3</v>
+      </c>
+      <c r="H101">
+        <v>3.57420413908986E-3</v>
+      </c>
+      <c r="I101">
+        <v>2.1001123147707198E-3</v>
+      </c>
+      <c r="J101">
+        <v>5.6970930748428796E-3</v>
+      </c>
+      <c r="K101">
+        <v>1.7509053968151798E-2</v>
+      </c>
+      <c r="L101">
+        <v>2.4882991516742E-2</v>
+      </c>
+      <c r="M101">
+        <v>2.69012496056877E-2</v>
+      </c>
+      <c r="N101">
+        <v>3.1351197874390502E-2</v>
+      </c>
+      <c r="O101">
+        <v>3.65173318616887E-2</v>
+      </c>
+      <c r="P101">
+        <v>3.65173318616887E-2</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.2">
@@ -7130,7 +7142,7 @@
         <v>106</v>
       </c>
       <c r="C102" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D102" t="s">
         <v>109</v>
@@ -7177,49 +7189,49 @@
         <v>18</v>
       </c>
       <c r="B103" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C103" t="s">
-        <v>111</v>
-      </c>
-      <c r="D103">
-        <v>193680004.28137201</v>
-      </c>
-      <c r="E103">
-        <v>189828004.28137201</v>
-      </c>
-      <c r="F103">
-        <v>203472004.28137201</v>
-      </c>
-      <c r="G103">
-        <v>205380004.28137201</v>
-      </c>
-      <c r="H103">
-        <v>205344004.28137201</v>
-      </c>
-      <c r="I103">
-        <v>197424004.28137201</v>
-      </c>
-      <c r="J103">
-        <v>200088004.28137201</v>
-      </c>
-      <c r="K103">
-        <v>193212004.28137201</v>
-      </c>
-      <c r="L103">
-        <v>233684004.28137201</v>
-      </c>
-      <c r="M103">
-        <v>288420004.28137201</v>
-      </c>
-      <c r="N103">
-        <v>288420004.28137201</v>
-      </c>
-      <c r="O103">
-        <v>288420004.28137201</v>
-      </c>
-      <c r="P103">
-        <v>288420004.28137201</v>
+        <v>108</v>
+      </c>
+      <c r="D103" t="s">
+        <v>109</v>
+      </c>
+      <c r="E103" t="s">
+        <v>109</v>
+      </c>
+      <c r="F103" t="s">
+        <v>109</v>
+      </c>
+      <c r="G103" t="s">
+        <v>109</v>
+      </c>
+      <c r="H103" t="s">
+        <v>109</v>
+      </c>
+      <c r="I103" t="s">
+        <v>109</v>
+      </c>
+      <c r="J103" t="s">
+        <v>109</v>
+      </c>
+      <c r="K103" t="s">
+        <v>109</v>
+      </c>
+      <c r="L103" t="s">
+        <v>109</v>
+      </c>
+      <c r="M103" t="s">
+        <v>109</v>
+      </c>
+      <c r="N103" t="s">
+        <v>109</v>
+      </c>
+      <c r="O103" t="s">
+        <v>109</v>
+      </c>
+      <c r="P103" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.2">
@@ -7227,49 +7239,49 @@
         <v>18</v>
       </c>
       <c r="B104" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C104" t="s">
-        <v>107</v>
-      </c>
-      <c r="D104" t="s">
-        <v>109</v>
-      </c>
-      <c r="E104" t="s">
-        <v>109</v>
-      </c>
-      <c r="F104" t="s">
-        <v>109</v>
-      </c>
-      <c r="G104" t="s">
-        <v>109</v>
-      </c>
-      <c r="H104" t="s">
-        <v>109</v>
-      </c>
-      <c r="I104" t="s">
-        <v>109</v>
-      </c>
-      <c r="J104" t="s">
-        <v>109</v>
-      </c>
-      <c r="K104" t="s">
-        <v>109</v>
-      </c>
-      <c r="L104" t="s">
-        <v>109</v>
-      </c>
-      <c r="M104" t="s">
-        <v>109</v>
-      </c>
-      <c r="N104" t="s">
-        <v>109</v>
-      </c>
-      <c r="O104" t="s">
-        <v>109</v>
-      </c>
-      <c r="P104" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="D104">
+        <v>193680004.28137201</v>
+      </c>
+      <c r="E104">
+        <v>189828004.28137201</v>
+      </c>
+      <c r="F104">
+        <v>203472004.28137201</v>
+      </c>
+      <c r="G104">
+        <v>205380004.28137201</v>
+      </c>
+      <c r="H104">
+        <v>205344004.28137201</v>
+      </c>
+      <c r="I104">
+        <v>197424004.28137201</v>
+      </c>
+      <c r="J104">
+        <v>200088004.28137201</v>
+      </c>
+      <c r="K104">
+        <v>193212004.28137201</v>
+      </c>
+      <c r="L104">
+        <v>233684004.28137201</v>
+      </c>
+      <c r="M104">
+        <v>288420004.28137201</v>
+      </c>
+      <c r="N104">
+        <v>288420004.28137201</v>
+      </c>
+      <c r="O104">
+        <v>288420004.28137201</v>
+      </c>
+      <c r="P104">
+        <v>288420004.28137201</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.2">
@@ -7280,7 +7292,7 @@
         <v>112</v>
       </c>
       <c r="C105" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D105" t="s">
         <v>109</v>
@@ -7324,52 +7336,52 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B106" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C106" t="s">
-        <v>107</v>
-      </c>
-      <c r="D106">
-        <v>60457000.425667897</v>
-      </c>
-      <c r="E106">
-        <v>68748000.425667897</v>
-      </c>
-      <c r="F106">
-        <v>74602000.425667897</v>
-      </c>
-      <c r="G106">
-        <v>85678000.425667897</v>
-      </c>
-      <c r="H106">
-        <v>79928000.425667897</v>
-      </c>
-      <c r="I106">
-        <v>84451000.425667897</v>
-      </c>
-      <c r="J106">
-        <v>82741000.425667897</v>
-      </c>
-      <c r="K106">
-        <v>81346000.425667897</v>
-      </c>
-      <c r="L106">
-        <v>67743000.425667897</v>
-      </c>
-      <c r="M106">
-        <v>69687000.425667897</v>
-      </c>
-      <c r="N106">
-        <v>79447000.425667897</v>
-      </c>
-      <c r="O106">
-        <v>79447000.425667897</v>
-      </c>
-      <c r="P106">
-        <v>79447000.425667897</v>
+        <v>108</v>
+      </c>
+      <c r="D106" t="s">
+        <v>109</v>
+      </c>
+      <c r="E106" t="s">
+        <v>109</v>
+      </c>
+      <c r="F106" t="s">
+        <v>109</v>
+      </c>
+      <c r="G106" t="s">
+        <v>109</v>
+      </c>
+      <c r="H106" t="s">
+        <v>109</v>
+      </c>
+      <c r="I106" t="s">
+        <v>109</v>
+      </c>
+      <c r="J106" t="s">
+        <v>109</v>
+      </c>
+      <c r="K106" t="s">
+        <v>109</v>
+      </c>
+      <c r="L106" t="s">
+        <v>109</v>
+      </c>
+      <c r="M106" t="s">
+        <v>109</v>
+      </c>
+      <c r="N106" t="s">
+        <v>109</v>
+      </c>
+      <c r="O106" t="s">
+        <v>109</v>
+      </c>
+      <c r="P106" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
@@ -7380,46 +7392,46 @@
         <v>106</v>
       </c>
       <c r="C107" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D107">
-        <v>2698000.4256679299</v>
+        <v>60457000.425667897</v>
       </c>
       <c r="E107">
-        <v>3033000.4256679299</v>
+        <v>68748000.425667897</v>
       </c>
       <c r="F107">
-        <v>3625000.4256679299</v>
+        <v>74602000.425667897</v>
       </c>
       <c r="G107">
-        <v>3682000.4256679299</v>
+        <v>85678000.425667897</v>
       </c>
       <c r="H107">
-        <v>4539000.4256679304</v>
+        <v>79928000.425667897</v>
       </c>
       <c r="I107">
-        <v>5032000.4256679304</v>
+        <v>84451000.425667897</v>
       </c>
       <c r="J107">
-        <v>4431000.4256679304</v>
+        <v>82741000.425667897</v>
       </c>
       <c r="K107">
-        <v>3719000.4256679299</v>
+        <v>81346000.425667897</v>
       </c>
       <c r="L107">
-        <v>2956000.4256679299</v>
+        <v>67743000.425667897</v>
       </c>
       <c r="M107">
-        <v>2802000.4256679299</v>
+        <v>69687000.425667897</v>
       </c>
       <c r="N107">
-        <v>795000.42566793202</v>
+        <v>79447000.425667897</v>
       </c>
       <c r="O107">
-        <v>795000.42566793202</v>
+        <v>79447000.425667897</v>
       </c>
       <c r="P107">
-        <v>795000.42566793202</v>
+        <v>79447000.425667897</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
@@ -7427,49 +7439,49 @@
         <v>46</v>
       </c>
       <c r="B108" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C108" t="s">
-        <v>111</v>
-      </c>
-      <c r="D108" t="s">
-        <v>109</v>
-      </c>
-      <c r="E108" t="s">
-        <v>109</v>
-      </c>
-      <c r="F108" t="s">
-        <v>109</v>
-      </c>
-      <c r="G108" t="s">
-        <v>109</v>
-      </c>
-      <c r="H108" t="s">
-        <v>109</v>
-      </c>
-      <c r="I108" t="s">
-        <v>109</v>
-      </c>
-      <c r="J108" t="s">
-        <v>109</v>
-      </c>
-      <c r="K108" t="s">
-        <v>109</v>
-      </c>
-      <c r="L108" t="s">
-        <v>109</v>
-      </c>
-      <c r="M108" t="s">
-        <v>109</v>
-      </c>
-      <c r="N108" t="s">
-        <v>109</v>
-      </c>
-      <c r="O108" t="s">
-        <v>109</v>
-      </c>
-      <c r="P108" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="D108">
+        <v>2698000.4256679299</v>
+      </c>
+      <c r="E108">
+        <v>3033000.4256679299</v>
+      </c>
+      <c r="F108">
+        <v>3625000.4256679299</v>
+      </c>
+      <c r="G108">
+        <v>3682000.4256679299</v>
+      </c>
+      <c r="H108">
+        <v>4539000.4256679304</v>
+      </c>
+      <c r="I108">
+        <v>5032000.4256679304</v>
+      </c>
+      <c r="J108">
+        <v>4431000.4256679304</v>
+      </c>
+      <c r="K108">
+        <v>3719000.4256679299</v>
+      </c>
+      <c r="L108">
+        <v>2956000.4256679299</v>
+      </c>
+      <c r="M108">
+        <v>2802000.4256679299</v>
+      </c>
+      <c r="N108">
+        <v>795000.42566793202</v>
+      </c>
+      <c r="O108">
+        <v>795000.42566793202</v>
+      </c>
+      <c r="P108">
+        <v>795000.42566793202</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.2">
@@ -7477,10 +7489,10 @@
         <v>46</v>
       </c>
       <c r="B109" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C109" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D109" t="s">
         <v>109</v>
@@ -7530,7 +7542,7 @@
         <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D110" t="s">
         <v>109</v>
@@ -7574,52 +7586,52 @@
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B111" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C111" t="s">
-        <v>107</v>
-      </c>
-      <c r="D111">
-        <v>9150002.1404963192</v>
-      </c>
-      <c r="E111">
-        <v>8650002.1404963192</v>
-      </c>
-      <c r="F111">
-        <v>8631002.1404963192</v>
-      </c>
-      <c r="G111">
-        <v>8960002.1404963192</v>
-      </c>
-      <c r="H111">
-        <v>9296403.9404963199</v>
-      </c>
-      <c r="I111">
-        <v>9632805.7404963206</v>
-      </c>
-      <c r="J111">
-        <v>9969207.5404963195</v>
-      </c>
-      <c r="K111">
-        <v>10305609.3404963</v>
-      </c>
-      <c r="L111">
-        <v>10642011.140496301</v>
-      </c>
-      <c r="M111">
-        <v>11403118.140496301</v>
-      </c>
-      <c r="N111">
-        <v>9681777.1404963192</v>
-      </c>
-      <c r="O111">
-        <v>9681777.1404963192</v>
-      </c>
-      <c r="P111">
-        <v>9681777.1404963192</v>
+        <v>108</v>
+      </c>
+      <c r="D111" t="s">
+        <v>109</v>
+      </c>
+      <c r="E111" t="s">
+        <v>109</v>
+      </c>
+      <c r="F111" t="s">
+        <v>109</v>
+      </c>
+      <c r="G111" t="s">
+        <v>109</v>
+      </c>
+      <c r="H111" t="s">
+        <v>109</v>
+      </c>
+      <c r="I111" t="s">
+        <v>109</v>
+      </c>
+      <c r="J111" t="s">
+        <v>109</v>
+      </c>
+      <c r="K111" t="s">
+        <v>109</v>
+      </c>
+      <c r="L111" t="s">
+        <v>109</v>
+      </c>
+      <c r="M111" t="s">
+        <v>109</v>
+      </c>
+      <c r="N111" t="s">
+        <v>109</v>
+      </c>
+      <c r="O111" t="s">
+        <v>109</v>
+      </c>
+      <c r="P111" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.2">
@@ -7630,46 +7642,46 @@
         <v>106</v>
       </c>
       <c r="C112" t="s">
-        <v>108</v>
-      </c>
-      <c r="D112" t="s">
-        <v>109</v>
+        <v>107</v>
+      </c>
+      <c r="D112">
+        <v>9150002.1404963192</v>
       </c>
       <c r="E112">
-        <v>2.1404963152268799</v>
+        <v>8650002.1404963192</v>
       </c>
       <c r="F112">
-        <v>2.1404963152268799</v>
+        <v>8631002.1404963192</v>
       </c>
       <c r="G112">
-        <v>2.1404963152268799</v>
+        <v>8960002.1404963192</v>
       </c>
       <c r="H112">
-        <v>310616.54049631499</v>
+        <v>9296403.9404963199</v>
       </c>
       <c r="I112">
-        <v>621230.94049631502</v>
+        <v>9632805.7404963206</v>
       </c>
       <c r="J112">
-        <v>931845.34049631504</v>
+        <v>9969207.5404963195</v>
       </c>
       <c r="K112">
-        <v>1242459.74049632</v>
+        <v>10305609.3404963</v>
       </c>
       <c r="L112">
-        <v>1553074.1404963101</v>
+        <v>10642011.140496301</v>
       </c>
       <c r="M112">
-        <v>1239860.1404963101</v>
+        <v>11403118.140496301</v>
       </c>
       <c r="N112">
-        <v>1203273.1404963101</v>
+        <v>9681777.1404963192</v>
       </c>
       <c r="O112">
-        <v>1203273.1404963101</v>
+        <v>9681777.1404963192</v>
       </c>
       <c r="P112">
-        <v>1203273.1404963101</v>
+        <v>9681777.1404963192</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.2">
@@ -7677,49 +7689,49 @@
         <v>20</v>
       </c>
       <c r="B113" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C113" t="s">
-        <v>111</v>
-      </c>
-      <c r="D113">
-        <v>44323202.140496299</v>
+        <v>108</v>
+      </c>
+      <c r="D113" t="s">
+        <v>109</v>
       </c>
       <c r="E113">
-        <v>40827602.140496299</v>
+        <v>2.1404963152268799</v>
       </c>
       <c r="F113">
-        <v>40676402.140496299</v>
+        <v>2.1404963152268799</v>
       </c>
       <c r="G113">
-        <v>39729602.140496299</v>
+        <v>2.1404963152268799</v>
       </c>
       <c r="H113">
-        <v>38782802.140496299</v>
+        <v>310616.54049631499</v>
       </c>
       <c r="I113">
-        <v>52791723.222496301</v>
+        <v>621230.94049631502</v>
       </c>
       <c r="J113">
-        <v>59593083.650496297</v>
+        <v>931845.34049631504</v>
       </c>
       <c r="K113">
-        <v>64762513.956496298</v>
+        <v>1242459.74049632</v>
       </c>
       <c r="L113">
-        <v>60584801.540496297</v>
+        <v>1553074.1404963101</v>
       </c>
       <c r="M113">
-        <v>46522116.892496303</v>
+        <v>1239860.1404963101</v>
       </c>
       <c r="N113">
-        <v>47691749.886496298</v>
+        <v>1203273.1404963101</v>
       </c>
       <c r="O113">
-        <v>47691749.886496298</v>
+        <v>1203273.1404963101</v>
       </c>
       <c r="P113">
-        <v>47691749.886496298</v>
+        <v>1203273.1404963101</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.2">
@@ -7727,49 +7739,49 @@
         <v>20</v>
       </c>
       <c r="B114" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C114" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D114">
-        <v>0.20643820163291701</v>
+        <v>44323202.140496299</v>
       </c>
       <c r="E114">
-        <v>0.211866523797549</v>
+        <v>40827602.140496299</v>
       </c>
       <c r="F114">
-        <v>0.212186960653128</v>
+        <v>40676402.140496299</v>
       </c>
       <c r="G114">
-        <v>0.22552458765660299</v>
+        <v>39729602.140496299</v>
       </c>
       <c r="H114">
-        <v>0.239704287143016</v>
+        <v>38782802.140496299</v>
       </c>
       <c r="I114">
-        <v>0.18246810584109599</v>
+        <v>52791723.222496301</v>
       </c>
       <c r="J114">
-        <v>0.16728799601920399</v>
+        <v>59593083.650496297</v>
       </c>
       <c r="K114">
-        <v>0.159129235585558</v>
+        <v>64762513.956496298</v>
       </c>
       <c r="L114">
-        <v>0.17565479905687201</v>
+        <v>60584801.540496297</v>
       </c>
       <c r="M114">
-        <v>0.24511176408517099</v>
+        <v>46522116.892496303</v>
       </c>
       <c r="N114">
-        <v>0.20300737891854301</v>
+        <v>47691749.886496298</v>
       </c>
       <c r="O114">
-        <v>0.20300737891854301</v>
+        <v>47691749.886496298</v>
       </c>
       <c r="P114">
-        <v>0.20300737891854301</v>
+        <v>47691749.886496298</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.2">
@@ -7780,96 +7792,96 @@
         <v>112</v>
       </c>
       <c r="C115" t="s">
-        <v>108</v>
-      </c>
-      <c r="D115" t="s">
-        <v>109</v>
-      </c>
-      <c r="E115" s="3">
-        <v>5.2427676449402701E-8</v>
-      </c>
-      <c r="F115" s="3">
-        <v>5.2622557615435301E-8</v>
-      </c>
-      <c r="G115" s="3">
-        <v>5.3876610887202302E-8</v>
+        <v>107</v>
+      </c>
+      <c r="D115">
+        <v>0.20643820163291701</v>
+      </c>
+      <c r="E115">
+        <v>0.211866523797549</v>
+      </c>
+      <c r="F115">
+        <v>0.212186960653128</v>
+      </c>
+      <c r="G115">
+        <v>0.22552458765660299</v>
       </c>
       <c r="H115">
-        <v>8.0091309382716008E-3</v>
+        <v>0.239704287143016</v>
       </c>
       <c r="I115">
-        <v>1.17675821620384E-2</v>
+        <v>0.18246810584109599</v>
       </c>
       <c r="J115">
-        <v>1.5636803525077399E-2</v>
+        <v>0.16728799601920399</v>
       </c>
       <c r="K115">
-        <v>1.9184859644746501E-2</v>
+        <v>0.159129235585558</v>
       </c>
       <c r="L115">
-        <v>2.5634715324737101E-2</v>
+        <v>0.17565479905687201</v>
       </c>
       <c r="M115">
-        <v>2.6650982872542001E-2</v>
+        <v>0.24511176408517099</v>
       </c>
       <c r="N115">
-        <v>2.52302157786208E-2</v>
+        <v>0.20300737891854301</v>
       </c>
       <c r="O115">
-        <v>2.52302157786208E-2</v>
+        <v>0.20300737891854301</v>
       </c>
       <c r="P115">
-        <v>2.52302157786208E-2</v>
+        <v>0.20300737891854301</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B116" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C116" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D116" t="s">
         <v>109</v>
       </c>
-      <c r="E116">
-        <v>167100001.12938699</v>
-      </c>
-      <c r="F116">
-        <v>163800001.12938699</v>
-      </c>
-      <c r="G116">
-        <v>181700001.12938699</v>
+      <c r="E116" s="3">
+        <v>5.2427676449402701E-8</v>
+      </c>
+      <c r="F116" s="3">
+        <v>5.2622557615435301E-8</v>
+      </c>
+      <c r="G116" s="3">
+        <v>5.3876610887202302E-8</v>
       </c>
       <c r="H116">
-        <v>165800001.12938699</v>
+        <v>8.0091309382716008E-3</v>
       </c>
       <c r="I116">
-        <v>156600001.12938699</v>
+        <v>1.17675821620384E-2</v>
       </c>
       <c r="J116">
-        <v>152300001.12938699</v>
+        <v>1.5636803525077399E-2</v>
       </c>
       <c r="K116">
-        <v>154000001.12938699</v>
+        <v>1.9184859644746501E-2</v>
       </c>
       <c r="L116">
-        <v>135600001.12938699</v>
+        <v>2.5634715324737101E-2</v>
       </c>
       <c r="M116">
-        <v>120400001.12938701</v>
+        <v>2.6650982872542001E-2</v>
       </c>
       <c r="N116">
-        <v>91700001.129387006</v>
+        <v>2.52302157786208E-2</v>
       </c>
       <c r="O116">
-        <v>70400001.129387006</v>
+        <v>2.52302157786208E-2</v>
       </c>
       <c r="P116">
-        <v>70400001.129387006</v>
+        <v>2.52302157786208E-2</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.2">
@@ -7880,46 +7892,46 @@
         <v>106</v>
       </c>
       <c r="C117" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D117" t="s">
         <v>109</v>
       </c>
       <c r="E117">
-        <v>3100001.1293870099</v>
+        <v>167100001.12938699</v>
       </c>
       <c r="F117">
-        <v>2400001.1293870099</v>
+        <v>163800001.12938699</v>
       </c>
       <c r="G117">
-        <v>1900001.1293870099</v>
+        <v>181700001.12938699</v>
       </c>
       <c r="H117">
-        <v>1500001.1293870099</v>
+        <v>165800001.12938699</v>
       </c>
       <c r="I117">
-        <v>1400001.1293870099</v>
+        <v>156600001.12938699</v>
       </c>
       <c r="J117">
-        <v>1300001.1293870099</v>
+        <v>152300001.12938699</v>
       </c>
       <c r="K117">
-        <v>1300001.1293870099</v>
+        <v>154000001.12938699</v>
       </c>
       <c r="L117">
-        <v>1000001.12938701</v>
+        <v>135600001.12938699</v>
       </c>
       <c r="M117">
-        <v>5000001.1293870099</v>
+        <v>120400001.12938701</v>
       </c>
       <c r="N117">
-        <v>4700001.1293870099</v>
+        <v>91700001.129387006</v>
       </c>
       <c r="O117">
-        <v>2600001.1293870099</v>
+        <v>70400001.129387006</v>
       </c>
       <c r="P117">
-        <v>2600001.1293870099</v>
+        <v>70400001.129387006</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.2">
@@ -7927,49 +7939,49 @@
         <v>21</v>
       </c>
       <c r="B118" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C118" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D118" t="s">
         <v>109</v>
       </c>
       <c r="E118">
-        <v>811080001.12938702</v>
+        <v>3100001.1293870099</v>
       </c>
       <c r="F118">
-        <v>740520001.12938702</v>
+        <v>2400001.1293870099</v>
       </c>
       <c r="G118">
-        <v>817560001.12938702</v>
+        <v>1900001.1293870099</v>
       </c>
       <c r="H118">
-        <v>780120001.12938702</v>
+        <v>1500001.1293870099</v>
       </c>
       <c r="I118">
-        <v>749880001.12938702</v>
+        <v>1400001.1293870099</v>
       </c>
       <c r="J118">
-        <v>766800001.12938702</v>
+        <v>1300001.1293870099</v>
       </c>
       <c r="K118">
-        <v>777960001.12938702</v>
+        <v>1300001.1293870099</v>
       </c>
       <c r="L118">
-        <v>720720001.12938702</v>
+        <v>1000001.12938701</v>
       </c>
       <c r="M118">
-        <v>633600001.12938702</v>
+        <v>5000001.1293870099</v>
       </c>
       <c r="N118">
-        <v>551394001.12938702</v>
+        <v>4700001.1293870099</v>
       </c>
       <c r="O118">
-        <v>528390001.12938702</v>
+        <v>2600001.1293870099</v>
       </c>
       <c r="P118">
-        <v>528390001.12938702</v>
+        <v>2600001.1293870099</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.2">
@@ -7977,49 +7989,49 @@
         <v>21</v>
       </c>
       <c r="B119" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C119" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D119" t="s">
         <v>109</v>
       </c>
       <c r="E119">
-        <v>0.20602160193409899</v>
+        <v>811080001.12938702</v>
       </c>
       <c r="F119">
-        <v>0.22119591757085699</v>
+        <v>740520001.12938702</v>
       </c>
       <c r="G119">
-        <v>0.22224668633297201</v>
+        <v>817560001.12938702</v>
       </c>
       <c r="H119">
-        <v>0.21253140656483199</v>
+        <v>780120001.12938702</v>
       </c>
       <c r="I119">
-        <v>0.20883341453770399</v>
+        <v>749880001.12938702</v>
       </c>
       <c r="J119">
-        <v>0.19861763289654499</v>
+        <v>766800001.12938702</v>
       </c>
       <c r="K119">
-        <v>0.19795362345855899</v>
+        <v>777960001.12938702</v>
       </c>
       <c r="L119">
-        <v>0.18814518941738601</v>
+        <v>720720001.12938702</v>
       </c>
       <c r="M119">
-        <v>0.190025253969026</v>
+        <v>633600001.12938702</v>
       </c>
       <c r="N119">
-        <v>0.166305764918667</v>
+        <v>551394001.12938702</v>
       </c>
       <c r="O119">
-        <v>0.13323492302828099</v>
+        <v>528390001.12938702</v>
       </c>
       <c r="P119">
-        <v>0.13323492302828099</v>
+        <v>528390001.12938702</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.2">
@@ -8030,96 +8042,96 @@
         <v>112</v>
       </c>
       <c r="C120" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D120" t="s">
         <v>109</v>
       </c>
       <c r="E120">
-        <v>3.8220657950762201E-3</v>
+        <v>0.20602160193409899</v>
       </c>
       <c r="F120">
-        <v>3.2409673279947902E-3</v>
+        <v>0.22119591757085699</v>
       </c>
       <c r="G120">
-        <v>2.3239898316482301E-3</v>
+        <v>0.22224668633297201</v>
       </c>
       <c r="H120">
-        <v>1.9227825555240799E-3</v>
+        <v>0.21253140656483199</v>
       </c>
       <c r="I120">
-        <v>1.8669668844061499E-3</v>
+        <v>0.20883341453770399</v>
       </c>
       <c r="J120">
-        <v>1.6953587995204699E-3</v>
+        <v>0.19861763289654499</v>
       </c>
       <c r="K120">
-        <v>1.6710385206177201E-3</v>
+        <v>0.19795362345855899</v>
       </c>
       <c r="L120">
-        <v>1.3875029523531799E-3</v>
+        <v>0.18814518941738601</v>
       </c>
       <c r="M120">
-        <v>7.8914159098398794E-3</v>
+        <v>0.190025253969026</v>
       </c>
       <c r="N120">
-        <v>8.5238524897990903E-3</v>
+        <v>0.166305764918667</v>
       </c>
       <c r="O120">
-        <v>4.9206100112222702E-3</v>
+        <v>0.13323492302828099</v>
       </c>
       <c r="P120">
-        <v>4.9206100112222702E-3</v>
+        <v>0.13323492302828099</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="B121" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C121" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D121" t="s">
         <v>109</v>
       </c>
-      <c r="E121" t="s">
-        <v>109</v>
-      </c>
-      <c r="F121" t="s">
-        <v>109</v>
-      </c>
-      <c r="G121" t="s">
-        <v>109</v>
-      </c>
-      <c r="H121" t="s">
-        <v>109</v>
-      </c>
-      <c r="I121" t="s">
-        <v>109</v>
-      </c>
-      <c r="J121" t="s">
-        <v>109</v>
+      <c r="E121">
+        <v>3.8220657950762201E-3</v>
+      </c>
+      <c r="F121">
+        <v>3.2409673279947902E-3</v>
+      </c>
+      <c r="G121">
+        <v>2.3239898316482301E-3</v>
+      </c>
+      <c r="H121">
+        <v>1.9227825555240799E-3</v>
+      </c>
+      <c r="I121">
+        <v>1.8669668844061499E-3</v>
+      </c>
+      <c r="J121">
+        <v>1.6953587995204699E-3</v>
       </c>
       <c r="K121">
-        <v>23200001.922484901</v>
+        <v>1.6710385206177201E-3</v>
       </c>
       <c r="L121">
-        <v>22200001.922484901</v>
+        <v>1.3875029523531799E-3</v>
       </c>
       <c r="M121">
-        <v>22100001.922484901</v>
+        <v>7.8914159098398794E-3</v>
       </c>
       <c r="N121">
-        <v>23400001.922484901</v>
+        <v>8.5238524897990903E-3</v>
       </c>
       <c r="O121">
-        <v>23400001.922484901</v>
+        <v>4.9206100112222702E-3</v>
       </c>
       <c r="P121">
-        <v>23400001.922484901</v>
+        <v>4.9206100112222702E-3</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.2">
@@ -8130,7 +8142,7 @@
         <v>106</v>
       </c>
       <c r="C122" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D122" t="s">
         <v>109</v>
@@ -8153,23 +8165,23 @@
       <c r="J122" t="s">
         <v>109</v>
       </c>
-      <c r="K122" t="s">
-        <v>109</v>
-      </c>
-      <c r="L122" t="s">
-        <v>109</v>
-      </c>
-      <c r="M122" t="s">
-        <v>109</v>
-      </c>
-      <c r="N122" t="s">
-        <v>109</v>
-      </c>
-      <c r="O122" t="s">
-        <v>109</v>
-      </c>
-      <c r="P122" t="s">
-        <v>109</v>
+      <c r="K122">
+        <v>23200001.922484901</v>
+      </c>
+      <c r="L122">
+        <v>22200001.922484901</v>
+      </c>
+      <c r="M122">
+        <v>22100001.922484901</v>
+      </c>
+      <c r="N122">
+        <v>23400001.922484901</v>
+      </c>
+      <c r="O122">
+        <v>23400001.922484901</v>
+      </c>
+      <c r="P122">
+        <v>23400001.922484901</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.2">
@@ -8177,10 +8189,10 @@
         <v>48</v>
       </c>
       <c r="B123" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C123" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D123" t="s">
         <v>109</v>
@@ -8194,32 +8206,32 @@
       <c r="G123" t="s">
         <v>109</v>
       </c>
-      <c r="H123">
-        <v>15691492.922484901</v>
-      </c>
-      <c r="I123">
-        <v>11301980.922484901</v>
-      </c>
-      <c r="J123">
-        <v>11500001.922484901</v>
-      </c>
-      <c r="K123">
-        <v>11600001.922484901</v>
-      </c>
-      <c r="L123">
-        <v>3012108.9224849502</v>
-      </c>
-      <c r="M123">
-        <v>12039001.922484901</v>
-      </c>
-      <c r="N123">
-        <v>11847001.922484901</v>
-      </c>
-      <c r="O123">
-        <v>11314001.922484901</v>
-      </c>
-      <c r="P123">
-        <v>11314001.922484901</v>
+      <c r="H123" t="s">
+        <v>109</v>
+      </c>
+      <c r="I123" t="s">
+        <v>109</v>
+      </c>
+      <c r="J123" t="s">
+        <v>109</v>
+      </c>
+      <c r="K123" t="s">
+        <v>109</v>
+      </c>
+      <c r="L123" t="s">
+        <v>109</v>
+      </c>
+      <c r="M123" t="s">
+        <v>109</v>
+      </c>
+      <c r="N123" t="s">
+        <v>109</v>
+      </c>
+      <c r="O123" t="s">
+        <v>109</v>
+      </c>
+      <c r="P123" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.2">
@@ -8227,10 +8239,10 @@
         <v>48</v>
       </c>
       <c r="B124" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C124" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D124" t="s">
         <v>109</v>
@@ -8244,32 +8256,32 @@
       <c r="G124" t="s">
         <v>109</v>
       </c>
-      <c r="H124" t="s">
-        <v>109</v>
-      </c>
-      <c r="I124" t="s">
-        <v>109</v>
-      </c>
-      <c r="J124" t="s">
-        <v>109</v>
+      <c r="H124">
+        <v>15691492.922484901</v>
+      </c>
+      <c r="I124">
+        <v>11301980.922484901</v>
+      </c>
+      <c r="J124">
+        <v>11500001.922484901</v>
       </c>
       <c r="K124">
-        <v>1.9999998342685701</v>
+        <v>11600001.922484901</v>
       </c>
       <c r="L124">
-        <v>7.37025203729028</v>
+        <v>3012108.9224849502</v>
       </c>
       <c r="M124">
-        <v>1.8357005061365901</v>
+        <v>12039001.922484901</v>
       </c>
       <c r="N124">
-        <v>1.97518343253351</v>
+        <v>11847001.922484901</v>
       </c>
       <c r="O124">
-        <v>2.0682338647990499</v>
+        <v>11314001.922484901</v>
       </c>
       <c r="P124">
-        <v>2.0682338647990499</v>
+        <v>11314001.922484901</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.2">
@@ -8280,7 +8292,7 @@
         <v>112</v>
       </c>
       <c r="C125" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D125" t="s">
         <v>109</v>
@@ -8303,73 +8315,73 @@
       <c r="J125" t="s">
         <v>109</v>
       </c>
-      <c r="K125" t="s">
-        <v>109</v>
-      </c>
-      <c r="L125" t="s">
-        <v>109</v>
-      </c>
-      <c r="M125" t="s">
-        <v>109</v>
-      </c>
-      <c r="N125" t="s">
-        <v>109</v>
-      </c>
-      <c r="O125" t="s">
-        <v>109</v>
-      </c>
-      <c r="P125" t="s">
-        <v>109</v>
+      <c r="K125">
+        <v>1.9999998342685701</v>
+      </c>
+      <c r="L125">
+        <v>7.37025203729028</v>
+      </c>
+      <c r="M125">
+        <v>1.8357005061365901</v>
+      </c>
+      <c r="N125">
+        <v>1.97518343253351</v>
+      </c>
+      <c r="O125">
+        <v>2.0682338647990499</v>
+      </c>
+      <c r="P125">
+        <v>2.0682338647990499</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B126" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C126" t="s">
-        <v>107</v>
-      </c>
-      <c r="D126">
-        <v>4000000.0778485602</v>
-      </c>
-      <c r="E126">
-        <v>6481635.0778485602</v>
-      </c>
-      <c r="F126">
-        <v>10525000.0778486</v>
-      </c>
-      <c r="G126">
-        <v>9308000.0778485592</v>
-      </c>
-      <c r="H126">
-        <v>9311000.0778485592</v>
-      </c>
-      <c r="I126">
-        <v>9578000.0778485592</v>
-      </c>
-      <c r="J126">
-        <v>9448000.0778485592</v>
-      </c>
-      <c r="K126">
-        <v>9989000.0778485592</v>
-      </c>
-      <c r="L126">
-        <v>9867000.0778485592</v>
-      </c>
-      <c r="M126">
-        <v>9755000.0778485592</v>
-      </c>
-      <c r="N126">
-        <v>9582000.0778485592</v>
-      </c>
-      <c r="O126">
-        <v>9582000.0778485592</v>
-      </c>
-      <c r="P126">
-        <v>9582000.0778485592</v>
+        <v>108</v>
+      </c>
+      <c r="D126" t="s">
+        <v>109</v>
+      </c>
+      <c r="E126" t="s">
+        <v>109</v>
+      </c>
+      <c r="F126" t="s">
+        <v>109</v>
+      </c>
+      <c r="G126" t="s">
+        <v>109</v>
+      </c>
+      <c r="H126" t="s">
+        <v>109</v>
+      </c>
+      <c r="I126" t="s">
+        <v>109</v>
+      </c>
+      <c r="J126" t="s">
+        <v>109</v>
+      </c>
+      <c r="K126" t="s">
+        <v>109</v>
+      </c>
+      <c r="L126" t="s">
+        <v>109</v>
+      </c>
+      <c r="M126" t="s">
+        <v>109</v>
+      </c>
+      <c r="N126" t="s">
+        <v>109</v>
+      </c>
+      <c r="O126" t="s">
+        <v>109</v>
+      </c>
+      <c r="P126" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.2">
@@ -8380,46 +8392,46 @@
         <v>106</v>
       </c>
       <c r="C127" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D127">
-        <v>700993.07784856495</v>
+        <v>4000000.0778485602</v>
       </c>
       <c r="E127">
-        <v>1032496.5778485599</v>
+        <v>6481635.0778485602</v>
       </c>
       <c r="F127">
-        <v>1364000.07784857</v>
+        <v>10525000.0778486</v>
       </c>
       <c r="G127">
-        <v>1367000.07784857</v>
+        <v>9308000.0778485592</v>
       </c>
       <c r="H127">
-        <v>1447000.07784857</v>
+        <v>9311000.0778485592</v>
       </c>
       <c r="I127">
-        <v>1220000.07784857</v>
+        <v>9578000.0778485592</v>
       </c>
       <c r="J127">
-        <v>1133000.07784857</v>
+        <v>9448000.0778485592</v>
       </c>
       <c r="K127">
-        <v>1166000.07784857</v>
+        <v>9989000.0778485592</v>
       </c>
       <c r="L127">
-        <v>1216000.07784857</v>
+        <v>9867000.0778485592</v>
       </c>
       <c r="M127">
-        <v>1189000.07784857</v>
+        <v>9755000.0778485592</v>
       </c>
       <c r="N127">
-        <v>1173000.07784857</v>
+        <v>9582000.0778485592</v>
       </c>
       <c r="O127">
-        <v>1173000.07784857</v>
+        <v>9582000.0778485592</v>
       </c>
       <c r="P127">
-        <v>1173000.07784857</v>
+        <v>9582000.0778485592</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.2">
@@ -8427,49 +8439,49 @@
         <v>52</v>
       </c>
       <c r="B128" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C128" t="s">
-        <v>111</v>
-      </c>
-      <c r="D128" t="s">
-        <v>109</v>
-      </c>
-      <c r="E128" t="s">
-        <v>109</v>
-      </c>
-      <c r="F128" t="s">
-        <v>109</v>
-      </c>
-      <c r="G128" t="s">
-        <v>109</v>
-      </c>
-      <c r="H128" t="s">
-        <v>109</v>
-      </c>
-      <c r="I128" t="s">
-        <v>109</v>
-      </c>
-      <c r="J128" t="s">
-        <v>109</v>
-      </c>
-      <c r="K128" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="D128">
+        <v>700993.07784856495</v>
+      </c>
+      <c r="E128">
+        <v>1032496.5778485599</v>
+      </c>
+      <c r="F128">
+        <v>1364000.07784857</v>
+      </c>
+      <c r="G128">
+        <v>1367000.07784857</v>
+      </c>
+      <c r="H128">
+        <v>1447000.07784857</v>
+      </c>
+      <c r="I128">
+        <v>1220000.07784857</v>
+      </c>
+      <c r="J128">
+        <v>1133000.07784857</v>
+      </c>
+      <c r="K128">
+        <v>1166000.07784857</v>
       </c>
       <c r="L128">
-        <v>15393000.0778486</v>
+        <v>1216000.07784857</v>
       </c>
       <c r="M128">
-        <v>15419000.0778486</v>
+        <v>1189000.07784857</v>
       </c>
       <c r="N128">
-        <v>14618000.0778486</v>
+        <v>1173000.07784857</v>
       </c>
       <c r="O128">
-        <v>14473000.0778486</v>
+        <v>1173000.07784857</v>
       </c>
       <c r="P128">
-        <v>14473000.0778486</v>
+        <v>1173000.07784857</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.2">
@@ -8477,10 +8489,10 @@
         <v>52</v>
       </c>
       <c r="B129" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C129" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D129" t="s">
         <v>109</v>
@@ -8507,19 +8519,19 @@
         <v>109</v>
       </c>
       <c r="L129">
-        <v>0.64100565373528196</v>
+        <v>15393000.0778486</v>
       </c>
       <c r="M129">
-        <v>0.63266100451370499</v>
+        <v>15419000.0778486</v>
       </c>
       <c r="N129">
-        <v>0.65549322936238597</v>
+        <v>14618000.0778486</v>
       </c>
       <c r="O129">
-        <v>0.66206039012700302</v>
+        <v>14473000.0778486</v>
       </c>
       <c r="P129">
-        <v>0.66206039012700302</v>
+        <v>14473000.0778486</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.2">
@@ -8530,7 +8542,7 @@
         <v>112</v>
       </c>
       <c r="C130" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D130" t="s">
         <v>109</v>
@@ -8557,69 +8569,69 @@
         <v>109</v>
       </c>
       <c r="L130">
-        <v>7.8996951321949296E-2</v>
+        <v>0.64100565373528196</v>
       </c>
       <c r="M130">
-        <v>7.7112657879593705E-2</v>
+        <v>0.63266100451370499</v>
       </c>
       <c r="N130">
-        <v>8.0243540265543895E-2</v>
+        <v>0.65549322936238597</v>
       </c>
       <c r="O130">
-        <v>8.1047472641410601E-2</v>
+        <v>0.66206039012700302</v>
       </c>
       <c r="P130">
-        <v>8.1047472641410601E-2</v>
+        <v>0.66206039012700302</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B131" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C131" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D131" t="s">
         <v>109</v>
       </c>
-      <c r="E131">
-        <v>14900657</v>
-      </c>
-      <c r="F131">
-        <v>17389874.390000001</v>
-      </c>
-      <c r="G131">
-        <v>16283032</v>
-      </c>
-      <c r="H131">
-        <v>18802944</v>
-      </c>
-      <c r="I131">
-        <v>20428595</v>
-      </c>
-      <c r="J131">
-        <v>23337931</v>
-      </c>
-      <c r="K131">
-        <v>23298343</v>
+      <c r="E131" t="s">
+        <v>109</v>
+      </c>
+      <c r="F131" t="s">
+        <v>109</v>
+      </c>
+      <c r="G131" t="s">
+        <v>109</v>
+      </c>
+      <c r="H131" t="s">
+        <v>109</v>
+      </c>
+      <c r="I131" t="s">
+        <v>109</v>
+      </c>
+      <c r="J131" t="s">
+        <v>109</v>
+      </c>
+      <c r="K131" t="s">
+        <v>109</v>
       </c>
       <c r="L131">
-        <v>38757404</v>
+        <v>7.8996951321949296E-2</v>
       </c>
       <c r="M131">
-        <v>47025134</v>
+        <v>7.7112657879593705E-2</v>
       </c>
       <c r="N131">
-        <v>56093007</v>
+        <v>8.0243540265543895E-2</v>
       </c>
       <c r="O131">
-        <v>60116322</v>
+        <v>8.1047472641410601E-2</v>
       </c>
       <c r="P131">
-        <v>60116322</v>
+        <v>8.1047472641410601E-2</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.2">
@@ -8630,46 +8642,46 @@
         <v>106</v>
       </c>
       <c r="C132" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D132" t="s">
         <v>109</v>
       </c>
       <c r="E132">
-        <v>731525</v>
+        <v>14900657</v>
       </c>
       <c r="F132">
-        <v>853729.32629999996</v>
+        <v>17389874.390000001</v>
       </c>
       <c r="G132">
-        <v>789126</v>
+        <v>16283032</v>
       </c>
       <c r="H132">
-        <v>1174594</v>
+        <v>18802944</v>
       </c>
       <c r="I132">
-        <v>1266295</v>
+        <v>20428595</v>
       </c>
       <c r="J132">
-        <v>723978</v>
+        <v>23337931</v>
       </c>
       <c r="K132">
-        <v>1409816</v>
+        <v>23298343</v>
       </c>
       <c r="L132">
-        <v>3979125</v>
+        <v>38757404</v>
       </c>
       <c r="M132">
-        <v>3344945</v>
+        <v>47025134</v>
       </c>
       <c r="N132">
-        <v>4137575</v>
+        <v>56093007</v>
       </c>
       <c r="O132">
-        <v>2779523</v>
+        <v>60116322</v>
       </c>
       <c r="P132">
-        <v>2779523</v>
+        <v>60116322</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.2">
@@ -8677,49 +8689,49 @@
         <v>54</v>
       </c>
       <c r="B133" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C133" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D133" t="s">
         <v>109</v>
       </c>
-      <c r="E133" t="s">
-        <v>109</v>
-      </c>
-      <c r="F133" t="s">
-        <v>109</v>
-      </c>
-      <c r="G133" t="s">
-        <v>109</v>
-      </c>
-      <c r="H133" t="s">
-        <v>109</v>
+      <c r="E133">
+        <v>731525</v>
+      </c>
+      <c r="F133">
+        <v>853729.32629999996</v>
+      </c>
+      <c r="G133">
+        <v>789126</v>
+      </c>
+      <c r="H133">
+        <v>1174594</v>
       </c>
       <c r="I133">
-        <v>9155004.3464471791</v>
+        <v>1266295</v>
       </c>
       <c r="J133">
-        <v>9331004.3464471791</v>
+        <v>723978</v>
       </c>
       <c r="K133">
-        <v>20808004.3464472</v>
+        <v>1409816</v>
       </c>
       <c r="L133">
-        <v>21911004.3464472</v>
+        <v>3979125</v>
       </c>
       <c r="M133">
-        <v>25390004.3464472</v>
+        <v>3344945</v>
       </c>
       <c r="N133">
-        <v>27110004.3464472</v>
+        <v>4137575</v>
       </c>
       <c r="O133">
-        <v>30630004.3464472</v>
+        <v>2779523</v>
       </c>
       <c r="P133">
-        <v>28540004.3464472</v>
+        <v>2779523</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.2">
@@ -8727,10 +8739,10 @@
         <v>54</v>
       </c>
       <c r="B134" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C134" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D134" t="s">
         <v>109</v>
@@ -8748,36 +8760,28 @@
         <v>109</v>
       </c>
       <c r="I134">
-        <f t="shared" ref="I134:P134" si="0">I131/I133</f>
-        <v>2.2314129220405898</v>
+        <v>9155004.3464471791</v>
       </c>
       <c r="J134">
-        <f t="shared" si="0"/>
-        <v>2.5011167215762815</v>
+        <v>9331004.3464471791</v>
       </c>
       <c r="K134">
-        <f t="shared" si="0"/>
-        <v>1.1196817634257177</v>
+        <v>20808004.3464472</v>
       </c>
       <c r="L134">
-        <f t="shared" si="0"/>
-        <v>1.768855657512769</v>
+        <v>21911004.3464472</v>
       </c>
       <c r="M134">
-        <f t="shared" si="0"/>
-        <v>1.8521120894010474</v>
+        <v>25390004.3464472</v>
       </c>
       <c r="N134">
-        <f t="shared" si="0"/>
-        <v>2.0690888235638023</v>
+        <v>27110004.3464472</v>
       </c>
       <c r="O134">
-        <f t="shared" si="0"/>
-        <v>1.9626612298203263</v>
+        <v>30630004.3464472</v>
       </c>
       <c r="P134">
-        <f t="shared" si="0"/>
-        <v>2.1063879763383277</v>
+        <v>28540004.3464472</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.2">
@@ -8788,7 +8792,7 @@
         <v>112</v>
       </c>
       <c r="C135" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D135" t="s">
         <v>109</v>
@@ -8806,86 +8810,94 @@
         <v>109</v>
       </c>
       <c r="I135">
-        <f t="shared" ref="I135:P135" si="1">I132/I133</f>
-        <v>0.13831724727595748</v>
+        <f t="shared" ref="I135:P135" si="1">I132/I134</f>
+        <v>2.2314129220405898</v>
       </c>
       <c r="J135">
         <f t="shared" si="1"/>
-        <v>7.7588432404455773E-2</v>
+        <v>2.5011167215762815</v>
       </c>
       <c r="K135">
         <f t="shared" si="1"/>
-        <v>6.7753542171895734E-2</v>
+        <v>1.1196817634257177</v>
       </c>
       <c r="L135">
         <f t="shared" si="1"/>
-        <v>0.18160395283957864</v>
+        <v>1.768855657512769</v>
       </c>
       <c r="M135">
         <f t="shared" si="1"/>
-        <v>0.13174259265016847</v>
+        <v>1.8521120894010474</v>
       </c>
       <c r="N135">
         <f t="shared" si="1"/>
-        <v>0.15262170183097867</v>
+        <v>2.0690888235638023</v>
       </c>
       <c r="O135">
         <f t="shared" si="1"/>
-        <v>9.0745106287338784E-2</v>
+        <v>1.9626612298203263</v>
       </c>
       <c r="P135">
         <f t="shared" si="1"/>
-        <v>9.7390419646029541E-2</v>
+        <v>2.1063879763383277</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B136" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C136" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D136" t="s">
         <v>109</v>
       </c>
-      <c r="E136">
-        <v>24085969.3736674</v>
-      </c>
-      <c r="F136">
-        <v>30090002.3736674</v>
-      </c>
-      <c r="G136">
-        <v>16848002.3736674</v>
-      </c>
-      <c r="H136">
-        <v>26700002.3736674</v>
+      <c r="E136" t="s">
+        <v>109</v>
+      </c>
+      <c r="F136" t="s">
+        <v>109</v>
+      </c>
+      <c r="G136" t="s">
+        <v>109</v>
+      </c>
+      <c r="H136" t="s">
+        <v>109</v>
       </c>
       <c r="I136">
-        <v>32200002.3736674</v>
+        <f t="shared" ref="I136:P136" si="2">I133/I134</f>
+        <v>0.13831724727595748</v>
       </c>
       <c r="J136">
-        <v>32600002.3736674</v>
+        <f t="shared" si="2"/>
+        <v>7.7588432404455773E-2</v>
       </c>
       <c r="K136">
-        <v>32600002.3736674</v>
+        <f t="shared" si="2"/>
+        <v>6.7753542171895734E-2</v>
       </c>
       <c r="L136">
-        <v>22100002.3736674</v>
+        <f t="shared" si="2"/>
+        <v>0.18160395283957864</v>
       </c>
       <c r="M136">
-        <v>22600002.3736674</v>
+        <f t="shared" si="2"/>
+        <v>0.13174259265016847</v>
       </c>
       <c r="N136">
-        <v>22800002.3736674</v>
+        <f t="shared" si="2"/>
+        <v>0.15262170183097867</v>
       </c>
       <c r="O136">
-        <v>21300002.3736674</v>
+        <f t="shared" si="2"/>
+        <v>9.0745106287338784E-2</v>
       </c>
       <c r="P136">
-        <v>21300002.3736674</v>
+        <f t="shared" si="2"/>
+        <v>9.7390419646029541E-2</v>
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.2">
@@ -8896,46 +8908,46 @@
         <v>106</v>
       </c>
       <c r="C137" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D137" t="s">
         <v>109</v>
       </c>
       <c r="E137">
-        <v>4781476.3736674301</v>
+        <v>24085969.3736674</v>
       </c>
       <c r="F137">
-        <v>4287002.3736674301</v>
+        <v>30090002.3736674</v>
       </c>
       <c r="G137">
-        <v>2116002.3736674301</v>
+        <v>16848002.3736674</v>
       </c>
       <c r="H137">
-        <v>1800002.3736674299</v>
+        <v>26700002.3736674</v>
       </c>
       <c r="I137">
-        <v>1700002.3736674299</v>
+        <v>32200002.3736674</v>
       </c>
       <c r="J137">
-        <v>1200002.3736674299</v>
+        <v>32600002.3736674</v>
       </c>
       <c r="K137">
-        <v>1200002.3736674299</v>
+        <v>32600002.3736674</v>
       </c>
       <c r="L137">
-        <v>1300002.3736674299</v>
+        <v>22100002.3736674</v>
       </c>
       <c r="M137">
-        <v>1400002.3736674299</v>
+        <v>22600002.3736674</v>
       </c>
       <c r="N137">
-        <v>1300002.3736674299</v>
+        <v>22800002.3736674</v>
       </c>
       <c r="O137">
-        <v>1400002.3736674299</v>
+        <v>21300002.3736674</v>
       </c>
       <c r="P137">
-        <v>1400002.3736674299</v>
+        <v>21300002.3736674</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.2">
@@ -8943,49 +8955,49 @@
         <v>56</v>
       </c>
       <c r="B138" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C138" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D138" t="s">
         <v>109</v>
       </c>
-      <c r="E138" t="s">
-        <v>109</v>
-      </c>
-      <c r="F138" t="s">
-        <v>109</v>
-      </c>
-      <c r="G138" t="s">
-        <v>109</v>
-      </c>
-      <c r="H138" t="s">
-        <v>109</v>
-      </c>
-      <c r="I138" t="s">
-        <v>109</v>
-      </c>
-      <c r="J138" t="s">
-        <v>109</v>
-      </c>
-      <c r="K138" t="s">
-        <v>109</v>
-      </c>
-      <c r="L138" t="s">
-        <v>109</v>
-      </c>
-      <c r="M138" t="s">
-        <v>109</v>
-      </c>
-      <c r="N138" t="s">
-        <v>109</v>
-      </c>
-      <c r="O138" t="s">
-        <v>109</v>
-      </c>
-      <c r="P138" t="s">
-        <v>109</v>
+      <c r="E138">
+        <v>4781476.3736674301</v>
+      </c>
+      <c r="F138">
+        <v>4287002.3736674301</v>
+      </c>
+      <c r="G138">
+        <v>2116002.3736674301</v>
+      </c>
+      <c r="H138">
+        <v>1800002.3736674299</v>
+      </c>
+      <c r="I138">
+        <v>1700002.3736674299</v>
+      </c>
+      <c r="J138">
+        <v>1200002.3736674299</v>
+      </c>
+      <c r="K138">
+        <v>1200002.3736674299</v>
+      </c>
+      <c r="L138">
+        <v>1300002.3736674299</v>
+      </c>
+      <c r="M138">
+        <v>1400002.3736674299</v>
+      </c>
+      <c r="N138">
+        <v>1300002.3736674299</v>
+      </c>
+      <c r="O138">
+        <v>1400002.3736674299</v>
+      </c>
+      <c r="P138">
+        <v>1400002.3736674299</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.2">
@@ -8993,10 +9005,10 @@
         <v>56</v>
       </c>
       <c r="B139" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C139" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D139" t="s">
         <v>109</v>
@@ -9046,7 +9058,7 @@
         <v>112</v>
       </c>
       <c r="C140" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D140" t="s">
         <v>109</v>
@@ -9090,52 +9102,52 @@
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="B141" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C141" t="s">
-        <v>107</v>
-      </c>
-      <c r="D141">
-        <v>55192252.558717303</v>
-      </c>
-      <c r="E141">
-        <v>56075311.558717303</v>
-      </c>
-      <c r="F141">
-        <v>54746972.558717303</v>
-      </c>
-      <c r="G141">
-        <v>54472481.558717303</v>
-      </c>
-      <c r="H141">
-        <v>56535331.558717303</v>
-      </c>
-      <c r="I141">
-        <v>57593228.558717303</v>
-      </c>
-      <c r="J141">
-        <v>56978409.558717303</v>
-      </c>
-      <c r="K141">
-        <v>52832514.458717301</v>
-      </c>
-      <c r="L141">
-        <v>50919739.3587173</v>
-      </c>
-      <c r="M141">
-        <v>50723846.558717303</v>
-      </c>
-      <c r="N141">
-        <v>48061950.558717303</v>
-      </c>
-      <c r="O141">
-        <v>48061950.558717303</v>
-      </c>
-      <c r="P141">
-        <v>48061950.558717303</v>
+        <v>108</v>
+      </c>
+      <c r="D141" t="s">
+        <v>109</v>
+      </c>
+      <c r="E141" t="s">
+        <v>109</v>
+      </c>
+      <c r="F141" t="s">
+        <v>109</v>
+      </c>
+      <c r="G141" t="s">
+        <v>109</v>
+      </c>
+      <c r="H141" t="s">
+        <v>109</v>
+      </c>
+      <c r="I141" t="s">
+        <v>109</v>
+      </c>
+      <c r="J141" t="s">
+        <v>109</v>
+      </c>
+      <c r="K141" t="s">
+        <v>109</v>
+      </c>
+      <c r="L141" t="s">
+        <v>109</v>
+      </c>
+      <c r="M141" t="s">
+        <v>109</v>
+      </c>
+      <c r="N141" t="s">
+        <v>109</v>
+      </c>
+      <c r="O141" t="s">
+        <v>109</v>
+      </c>
+      <c r="P141" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.2">
@@ -9146,46 +9158,46 @@
         <v>106</v>
       </c>
       <c r="C142" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D142">
-        <v>1007225.5587172901</v>
+        <v>55192252.558717303</v>
       </c>
       <c r="E142">
-        <v>1933034.5587172899</v>
+        <v>56075311.558717303</v>
       </c>
       <c r="F142">
-        <v>1052282.5587172899</v>
+        <v>54746972.558717303</v>
       </c>
       <c r="G142">
-        <v>1189960.5587172899</v>
+        <v>54472481.558717303</v>
       </c>
       <c r="H142">
-        <v>774476.55871729006</v>
+        <v>56535331.558717303</v>
       </c>
       <c r="I142">
-        <v>601657.55871729006</v>
+        <v>57593228.558717303</v>
       </c>
       <c r="J142">
-        <v>1061617.5587172899</v>
+        <v>56978409.558717303</v>
       </c>
       <c r="K142">
-        <v>891280.15871729003</v>
+        <v>52832514.458717301</v>
       </c>
       <c r="L142">
-        <v>1153067.7587172899</v>
+        <v>50919739.3587173</v>
       </c>
       <c r="M142">
-        <v>841797.55871729006</v>
+        <v>50723846.558717303</v>
       </c>
       <c r="N142">
-        <v>607645.55871729006</v>
+        <v>48061950.558717303</v>
       </c>
       <c r="O142">
-        <v>607645.55871729006</v>
+        <v>48061950.558717303</v>
       </c>
       <c r="P142">
-        <v>607645.55871729006</v>
+        <v>48061950.558717303</v>
       </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.2">
@@ -9193,49 +9205,49 @@
         <v>22</v>
       </c>
       <c r="B143" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C143" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D143">
-        <v>257468657.55871701</v>
+        <v>1007225.5587172901</v>
       </c>
       <c r="E143">
-        <v>268120405.55871701</v>
+        <v>1933034.5587172899</v>
       </c>
       <c r="F143">
-        <v>268997847.55871701</v>
+        <v>1052282.5587172899</v>
       </c>
       <c r="G143">
-        <v>270255601.55871701</v>
+        <v>1189960.5587172899</v>
       </c>
       <c r="H143">
-        <v>255369601.55871701</v>
+        <v>774476.55871729006</v>
       </c>
       <c r="I143">
-        <v>265032001.55871701</v>
+        <v>601657.55871729006</v>
       </c>
       <c r="J143">
-        <v>263804401.55871701</v>
+        <v>1061617.5587172899</v>
       </c>
       <c r="K143">
-        <v>266875867.55871701</v>
+        <v>891280.15871729003</v>
       </c>
       <c r="L143">
-        <v>261049397.15871701</v>
+        <v>1153067.7587172899</v>
       </c>
       <c r="M143">
-        <v>247737601.55871701</v>
+        <v>841797.55871729006</v>
       </c>
       <c r="N143">
-        <v>242884801.55871701</v>
+        <v>607645.55871729006</v>
       </c>
       <c r="O143">
-        <v>242884801.55871701</v>
+        <v>607645.55871729006</v>
       </c>
       <c r="P143">
-        <v>242884801.55871701</v>
+        <v>607645.55871729006</v>
       </c>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.2">
@@ -9243,49 +9255,49 @@
         <v>22</v>
       </c>
       <c r="B144" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C144" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D144">
-        <v>0.21436493700647999</v>
+        <v>257468657.55871701</v>
       </c>
       <c r="E144">
-        <v>0.209142274874103</v>
+        <v>268120405.55871701</v>
       </c>
       <c r="F144">
-        <v>0.20352197259409999</v>
+        <v>268997847.55871701</v>
       </c>
       <c r="G144">
-        <v>0.20155912123391201</v>
+        <v>270255601.55871701</v>
       </c>
       <c r="H144">
-        <v>0.22138630132027701</v>
+        <v>255369601.55871701</v>
       </c>
       <c r="I144">
-        <v>0.217306695870678</v>
+        <v>265032001.55871701</v>
       </c>
       <c r="J144">
-        <v>0.21598733463905101</v>
+        <v>263804401.55871701</v>
       </c>
       <c r="K144">
-        <v>0.19796662374162899</v>
+        <v>266875867.55871701</v>
       </c>
       <c r="L144">
-        <v>0.195057869939298</v>
+        <v>261049397.15871701</v>
       </c>
       <c r="M144">
-        <v>0.20474827494725301</v>
+        <v>247737601.55871701</v>
       </c>
       <c r="N144">
-        <v>0.19787961309344601</v>
+        <v>242884801.55871701</v>
       </c>
       <c r="O144">
-        <v>0.19787961309344601</v>
+        <v>242884801.55871701</v>
       </c>
       <c r="P144">
-        <v>0.19787961309344601</v>
+        <v>242884801.55871701</v>
       </c>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.2">
@@ -9296,45 +9308,95 @@
         <v>112</v>
       </c>
       <c r="C145" t="s">
+        <v>107</v>
+      </c>
+      <c r="D145">
+        <v>0.21436493700647999</v>
+      </c>
+      <c r="E145">
+        <v>0.209142274874103</v>
+      </c>
+      <c r="F145">
+        <v>0.20352197259409999</v>
+      </c>
+      <c r="G145">
+        <v>0.20155912123391201</v>
+      </c>
+      <c r="H145">
+        <v>0.22138630132027701</v>
+      </c>
+      <c r="I145">
+        <v>0.217306695870678</v>
+      </c>
+      <c r="J145">
+        <v>0.21598733463905101</v>
+      </c>
+      <c r="K145">
+        <v>0.19796662374162899</v>
+      </c>
+      <c r="L145">
+        <v>0.195057869939298</v>
+      </c>
+      <c r="M145">
+        <v>0.20474827494725301</v>
+      </c>
+      <c r="N145">
+        <v>0.19787961309344601</v>
+      </c>
+      <c r="O145">
+        <v>0.19787961309344601</v>
+      </c>
+      <c r="P145">
+        <v>0.19787961309344601</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A146" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B146" t="s">
+        <v>112</v>
+      </c>
+      <c r="C146" t="s">
         <v>108</v>
       </c>
-      <c r="D145">
+      <c r="D146">
         <v>3.9120317333677197E-3</v>
       </c>
-      <c r="E145">
+      <c r="E146">
         <v>7.2095764389479202E-3</v>
       </c>
-      <c r="F145">
+      <c r="F146">
         <v>3.9118623746147102E-3</v>
       </c>
-      <c r="G145">
+      <c r="G146">
         <v>4.40309304175052E-3</v>
       </c>
-      <c r="H145">
+      <c r="H146">
         <v>3.0327672283234301E-3</v>
       </c>
-      <c r="I145">
+      <c r="I146">
         <v>2.2701317394835199E-3</v>
       </c>
-      <c r="J145">
+      <c r="J146">
         <v>4.0242602187249496E-3</v>
       </c>
-      <c r="K145">
+      <c r="K146">
         <v>3.3396806045836698E-3</v>
       </c>
-      <c r="L145">
+      <c r="L146">
         <v>4.4170481574267997E-3</v>
       </c>
-      <c r="M145">
+      <c r="M146">
         <v>3.3979402134389799E-3</v>
       </c>
-      <c r="N145">
+      <c r="N146">
         <v>2.5017850224374398E-3</v>
       </c>
-      <c r="O145">
+      <c r="O146">
         <v>2.5017850224374398E-3</v>
       </c>
-      <c r="P145">
+      <c r="P146">
         <v>2.5017850224374398E-3</v>
       </c>
     </row>
@@ -15427,7 +15489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AR61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/test/inputs/test_data_company.xlsx
+++ b/test/inputs/test_data_company.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Dropbox/My Mac (MacBook-Pro.local)/Documents/GitHub/MichaelTiemannOSC/ITR/test/inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Documents/GitHub/MichaelTiemannOSC/ITR/test/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0918786-5781-574F-A837-E739E66D8128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72DC98C-D7E9-134E-B066-1FFA1D4CD163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="16900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40940" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fundamental_data" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1837" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="115">
   <si>
     <t>company_name</t>
   </si>
@@ -378,12 +378,18 @@
   <si>
     <t>Emissions Intensities</t>
   </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,6 +407,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -474,9 +486,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:R56" totalsRowShown="0" tableBorderDxfId="1">
-  <autoFilter ref="A1:R56" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:S56" totalsRowShown="0" tableBorderDxfId="1">
+  <autoFilter ref="A1:S56" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="company_name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="company_id"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="isic"/>
@@ -489,11 +501,12 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="sector"/>
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="ghg_s1s2"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="ghg_s3"/>
+    <tableColumn id="14" xr3:uid="{611F36AC-9172-0543-8F8F-A74729B03E84}" name="currency"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="company_revenue"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="company_market_cap"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="company_enterprise_value"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="company_total_assets" dataDxfId="0">
-      <calculatedColumnFormula>Table1[[#This Row],[company_market_cap]]*Q2</calculatedColumnFormula>
+      <calculatedColumnFormula>Table1[[#This Row],[company_market_cap]]*R2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="company_cash_equivalents"/>
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="target_probability"/>
@@ -765,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -776,15 +789,15 @@
     <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="11" width="21.5" customWidth="1"/>
-    <col min="12" max="12" width="14.5" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.5" customWidth="1"/>
+    <col min="12" max="13" width="14.5" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -822,25 +835,28 @@
         <v>69</v>
       </c>
       <c r="M1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N1" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>59</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>60</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>72</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>57</v>
       </c>
@@ -862,26 +878,29 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N2">
         <v>20248547996.814301</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>10464805624.288601</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>20370723452.973598</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>814618.20572459605</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>4528467714.7267599</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>0.42857142857142799</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>73</v>
       </c>
@@ -903,26 +922,29 @@
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="s">
+        <v>114</v>
+      </c>
+      <c r="N3">
         <v>276185899.61435097</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>170431377.0111033</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>348843699.94010025</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>27314.648029499283</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>69006940.998092517</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>74</v>
       </c>
@@ -944,26 +966,29 @@
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="s">
+        <v>114</v>
+      </c>
+      <c r="N4">
         <v>10283015131.798985</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>3087133686.0634212</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>4800604056.5816851</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>343642.47370860493</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>1163119848.4230556</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>75</v>
       </c>
@@ -985,26 +1010,29 @@
       <c r="L5">
         <v>100080009.40172499</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="s">
+        <v>114</v>
+      </c>
+      <c r="N5">
         <v>1860376238.2982879</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>1395966780.8786128</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>1849921444.2644947</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>159262.60935025438</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>117630751.45422383</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>76</v>
       </c>
@@ -1026,26 +1054,29 @@
       <c r="L6">
         <v>824864406.472471</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="s">
+        <v>114</v>
+      </c>
+      <c r="N6">
         <v>31781332590.123966</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>20377644507.874138</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>34890123636.208443</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>43112605.779609621</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>28933197273.168182</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>77</v>
       </c>
@@ -1067,26 +1098,29 @@
       <c r="L7">
         <v>221601600.37633401</v>
       </c>
-      <c r="M7">
+      <c r="M7" t="s">
+        <v>114</v>
+      </c>
+      <c r="N7">
         <v>22080444055.733891</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>89487875452.409622</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>142815816841.33038</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>12916972.788158268</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>51876930016.314178</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>78</v>
       </c>
@@ -1108,26 +1142,29 @@
       <c r="L8">
         <v>411300002.58593798</v>
       </c>
-      <c r="M8">
+      <c r="M8" t="s">
+        <v>114</v>
+      </c>
+      <c r="N8">
         <v>940141306.02078247</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>81646651.50551033</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>1803870072.9332182</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>24970.460312431045</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>2214490.9702577037</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>79</v>
       </c>
@@ -1149,26 +1186,29 @@
       <c r="L9">
         <v>1472652000.85954</v>
       </c>
-      <c r="M9">
+      <c r="M9" t="s">
+        <v>114</v>
+      </c>
+      <c r="N9">
         <v>7175786054.9926157</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>3440335994.5862403</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>65904184518.992409</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>981839.21865557774</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>203940251.11854151</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>80</v>
       </c>
@@ -1190,26 +1230,29 @@
       <c r="L10">
         <v>21142801.5077199</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="s">
+        <v>114</v>
+      </c>
+      <c r="N10">
         <v>23960680689.116013</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>70745916655.317459</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>73065684225.787689</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>62472439.555649042</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>42950453116.50563</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>81</v>
       </c>
@@ -1231,26 +1274,29 @@
       <c r="L11">
         <v>988020000.90192997</v>
       </c>
-      <c r="M11">
+      <c r="M11" t="s">
+        <v>114</v>
+      </c>
+      <c r="N11">
         <v>3219109002.8957133</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>2496486713.6419001</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>5824358695.1941013</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>1524416.4350418877</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>5520000408.4878492</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>82</v>
       </c>
@@ -1272,26 +1318,29 @@
       <c r="L12">
         <v>73011601.154934406</v>
       </c>
-      <c r="M12">
+      <c r="M12" t="s">
+        <v>114</v>
+      </c>
+      <c r="N12">
         <v>2270961652.5606284</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>2706457656.0257611</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>6515964879.9462776</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>1952107.2215887399</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>505519258.45795137</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>83</v>
       </c>
@@ -1313,26 +1362,29 @@
       <c r="L13">
         <v>288420004.28137201</v>
       </c>
-      <c r="M13">
+      <c r="M13" t="s">
+        <v>114</v>
+      </c>
+      <c r="N13">
         <v>2923800677.4723639</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>664730339.05847764</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>835883594.76778483</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>2411999.9946857756</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>462245314.11453331</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>84</v>
       </c>
@@ -1354,26 +1406,29 @@
       <c r="L14">
         <v>47691749.886496298</v>
       </c>
-      <c r="M14">
+      <c r="M14" t="s">
+        <v>114</v>
+      </c>
+      <c r="N14">
         <v>13732514101.607698</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>3691311949.1466961</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>5115075673.0843115</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>11668515.241009872</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>1853875026.0311818</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>85</v>
       </c>
@@ -1395,26 +1450,29 @@
       <c r="L15">
         <v>551394001.12938702</v>
       </c>
-      <c r="M15">
+      <c r="M15" t="s">
+        <v>114</v>
+      </c>
+      <c r="N15">
         <v>209346393.16997689</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>4230199159.3241043</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>4360171694.8190174</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>17677610.033387754</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>3272481697.8285317</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>86</v>
       </c>
@@ -1436,26 +1494,29 @@
       <c r="L16">
         <v>242884801.55871701</v>
       </c>
-      <c r="M16">
+      <c r="M16" t="s">
+        <v>114</v>
+      </c>
+      <c r="N16">
         <v>1273070098.4773746</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>4968986648.6279879</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>7465409801.5517616</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>2598718.9099521809</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>518880676.89759755</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>87</v>
       </c>
@@ -1477,26 +1538,29 @@
       <c r="L17">
         <v>89800001.396088406</v>
       </c>
-      <c r="M17">
+      <c r="M17" t="s">
+        <v>114</v>
+      </c>
+      <c r="N17">
         <v>7370536918.3818331</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>7318942238.1089144</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>24392175674.038094</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>21337139.680116065</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>990719858.47337103</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>88</v>
       </c>
@@ -1512,26 +1576,29 @@
       <c r="J18" t="s">
         <v>92</v>
       </c>
-      <c r="M18">
+      <c r="M18" t="s">
+        <v>114</v>
+      </c>
+      <c r="N18">
         <v>7275042285.2361631</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>9570757347.8462524</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>12112090004.878937</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>9846733.1359346434</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>470283632.88013947</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
@@ -1547,26 +1614,29 @@
       <c r="J19" t="s">
         <v>92</v>
       </c>
-      <c r="M19">
+      <c r="M19" t="s">
+        <v>114</v>
+      </c>
+      <c r="N19">
         <v>1236962789.3246891</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>938015347.69711804</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>1252496335.1625824</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>4084768.6436157217</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>963039844.50366735</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>28</v>
       </c>
@@ -1588,26 +1658,29 @@
       <c r="L20">
         <v>12453000.4760821</v>
       </c>
-      <c r="M20">
+      <c r="M20" t="s">
+        <v>114</v>
+      </c>
+      <c r="N20">
         <v>261404023.84240809</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>662870771.96900964</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>1167174030.7255652</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>472694.85008635663</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>23467516.32994597</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>31</v>
       </c>
@@ -1629,26 +1702,29 @@
       <c r="L21">
         <v>23303009.677026</v>
       </c>
-      <c r="M21">
+      <c r="M21" t="s">
+        <v>114</v>
+      </c>
+      <c r="N21">
         <v>3077369259.9629478</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>2939810093.7110219</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>13093340767.11665</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>13536767.267073056</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>457926390.7271148</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>34</v>
       </c>
@@ -1670,26 +1746,29 @@
       <c r="L22">
         <v>27880000.2335485</v>
       </c>
-      <c r="M22">
+      <c r="M22" t="s">
+        <v>114</v>
+      </c>
+      <c r="N22">
         <v>23244037103.494522</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>2098673804.5958335</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>14963947966.837791</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>8645431.9293012284</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>469617764.24836379</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>37</v>
       </c>
@@ -1711,26 +1790,29 @@
       <c r="L23">
         <v>12630001.0468216</v>
       </c>
-      <c r="M23">
+      <c r="M23" t="s">
+        <v>114</v>
+      </c>
+      <c r="N23">
         <v>1728429611.5289557</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>295280720.01181757</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>1576360518.0586846</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>2020519.8719741097</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>209706066.63280141</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>39</v>
       </c>
@@ -1752,26 +1834,29 @@
       <c r="L24">
         <v>23779000.829291299</v>
       </c>
-      <c r="M24">
+      <c r="M24" t="s">
+        <v>114</v>
+      </c>
+      <c r="N24">
         <v>11389577659.555063</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>9120141519.5952988</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>12030116674.248018</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>11516548.098293064</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>80140338.552216381</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>41</v>
       </c>
@@ -1793,26 +1878,29 @@
       <c r="L25">
         <v>47840001.367614098</v>
       </c>
-      <c r="M25">
+      <c r="M25" t="s">
+        <v>114</v>
+      </c>
+      <c r="N25">
         <v>1367677977.4270518</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>19415557155.05172</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>19753012111.679474</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>44134141.772179961</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>1863069356.1369269</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>43</v>
       </c>
@@ -1834,26 +1922,29 @@
       <c r="L26">
         <v>15520004.6310296</v>
       </c>
-      <c r="M26">
+      <c r="M26" t="s">
+        <v>114</v>
+      </c>
+      <c r="N26">
         <v>26686529634.595795</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>5602526037.038002</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>13449017632.306343</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>28682928.807853833</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>802015633.4125073</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>45</v>
       </c>
@@ -1869,26 +1960,29 @@
       <c r="J27" t="s">
         <v>92</v>
       </c>
-      <c r="M27">
+      <c r="M27" t="s">
+        <v>114</v>
+      </c>
+      <c r="N27">
         <v>2631856604.6076617</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>3041544901.9972501</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>3932507690.064404</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>18254077.867497787</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>1090445581.1975896</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>47</v>
       </c>
@@ -1910,26 +2004,29 @@
       <c r="L28">
         <v>11847001.922484901</v>
       </c>
-      <c r="M28">
+      <c r="M28" t="s">
+        <v>114</v>
+      </c>
+      <c r="N28">
         <v>1955329090.5211396</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>1202043687.03022</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>4172635345.0184641</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>22152151.290723033</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>408632883.32140654</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>51</v>
       </c>
@@ -1951,26 +2048,29 @@
       <c r="L29">
         <v>14618000.0778486</v>
       </c>
-      <c r="M29">
+      <c r="M29" t="s">
+        <v>114</v>
+      </c>
+      <c r="N29">
         <v>679399572.34809971</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>989091472.7085501</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>1824699389.5965521</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>12700301.946414873</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>223357269.54921383</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>53</v>
       </c>
@@ -1992,26 +2092,29 @@
       <c r="L30">
         <v>27110004.3464472</v>
       </c>
-      <c r="M30">
+      <c r="M30" t="s">
+        <v>114</v>
+      </c>
+      <c r="N30">
         <v>4733667268.9461222</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>6559712908.8226519</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>7869272284.6593103</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>60818049.223066434</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>1279584288.1275206</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>55</v>
       </c>
@@ -2027,26 +2130,30 @@
       <c r="J31" t="s">
         <v>92</v>
       </c>
-      <c r="M31">
+      <c r="M31" t="s">
+        <v>114</v>
+      </c>
+      <c r="N31">
         <v>9338027130.3279953</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>933460072.78718007</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>2521235187.1692467</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>18868083.741257884</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>259739897.26190066</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>0.42857142857142849</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -2059,7 +2166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10:P10"/>
     </sheetView>
   </sheetViews>
